--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2960,6 +2960,16 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="G61" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/LKfBAjIfXuz63NHy3q3N4RW7RKRF4PGW</t>
+        </is>
+      </c>
+      <c r="H61" s="23" t="inlineStr">
+        <is>
+          <t>LKfBAjIfXuz63NHy3q3N4RW7RKRF4PGW</t>
+        </is>
+      </c>
       <c r="I61" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmciTn95mJGcyqvzyv3Y8J1CSgAMQtDuMfdEHeVgBYad9o</t>
@@ -2997,6 +3007,16 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="G62" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/EoRAHz5vai0q9SH2q76Sto5wuPalFR0T</t>
+        </is>
+      </c>
+      <c r="H62" s="23" t="inlineStr">
+        <is>
+          <t>EoRAHz5vai0q9SH2q76Sto5wuPalFR0T</t>
+        </is>
+      </c>
       <c r="I62" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmQUYdraNPj5i31fjjeV5gxgkKEt2JqiUHyWB6o79jnAvj</t>
@@ -3034,6 +3054,16 @@
           <t>Y</t>
         </is>
       </c>
+      <c r="G63" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/dPy-YUUWrVOZ7wC2Rv5wdu5onDIZqFbv</t>
+        </is>
+      </c>
+      <c r="H63" s="23" t="inlineStr">
+        <is>
+          <t>dPy-YUUWrVOZ7wC2Rv5wdu5onDIZqFbv</t>
+        </is>
+      </c>
       <c r="I63" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmXn9fUMDsia48iRDCof8YfWdaS9VdiMG9of6C3nPpmcGF</t>
@@ -3066,9 +3096,19 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="F64" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G64" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Ya-M0AG6UVKXBlWdgI7gOW0zW_f220zC</t>
+        </is>
+      </c>
+      <c r="H64" s="23" t="inlineStr">
+        <is>
+          <t>Ya-M0AG6UVKXBlWdgI7gOW0zW_f220zC</t>
         </is>
       </c>
       <c r="I64" s="23" t="inlineStr">
@@ -3098,6 +3138,26 @@
           <t>(A^b7Z(scz</t>
         </is>
       </c>
+      <c r="E65" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F65" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G65" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Pe4AVZU6k_aJsuJcoHduw5gIMwOgdawd</t>
+        </is>
+      </c>
+      <c r="H65" s="23" t="inlineStr">
+        <is>
+          <t>Pe4AVZU6k_aJsuJcoHduw5gIMwOgdawd</t>
+        </is>
+      </c>
       <c r="I65" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmQ7Dd6aKXoCU9FwrAbnqWwxxyUKxZyqVz39ppL4dh1z2L</t>
@@ -3125,6 +3185,26 @@
           <t>u#zYkpg*+9</t>
         </is>
       </c>
+      <c r="E66" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F66" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G66" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/u7giplob7bro1RWuLdha34VH-QtBd3g7</t>
+        </is>
+      </c>
+      <c r="H66" s="23" t="inlineStr">
+        <is>
+          <t>u7giplob7bro1RWuLdha34VH-QtBd3g7</t>
+        </is>
+      </c>
       <c r="I66" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmPqbhvRti4DaTkKCkSvFUTwfQ4MERR6Pd3PJwFTiMfcYi</t>
@@ -3152,6 +3232,26 @@
           <t>QR2YSVlL_o</t>
         </is>
       </c>
+      <c r="E67" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F67" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G67" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/d4e6zn3t69rIjgfnjQZkANJ_jxtSBFkp</t>
+        </is>
+      </c>
+      <c r="H67" s="23" t="inlineStr">
+        <is>
+          <t>d4e6zn3t69rIjgfnjQZkANJ_jxtSBFkp</t>
+        </is>
+      </c>
       <c r="I67" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmZNsVHTVSCBx4vA4tu1kFa8nStdHUQZq9GMKAKyfiG3Le</t>
@@ -3179,6 +3279,26 @@
           <t>(30pFAfgL7</t>
         </is>
       </c>
+      <c r="E68" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F68" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G68" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/tXGG94I5pV7k31UOjrYRRbSXSZX7ulTn</t>
+        </is>
+      </c>
+      <c r="H68" s="23" t="inlineStr">
+        <is>
+          <t>tXGG94I5pV7k31UOjrYRRbSXSZX7ulTn</t>
+        </is>
+      </c>
       <c r="I68" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmX4qbCyjhmBkwUFWma7jyyJZ1cBTzbxJ7v6VLmEJjJfgi</t>
@@ -3206,6 +3326,11 @@
           <t>@9WBaWQx25</t>
         </is>
       </c>
+      <c r="E69" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I69" s="23" t="inlineStr">
         <is>
           <t>ipfs://Qmd6QwNUtURufmeJTfnJfQWXhYKTbkujsWEj24yhQ9TUQu</t>
@@ -3233,6 +3358,26 @@
           <t>_sgAIN&amp;Nh0</t>
         </is>
       </c>
+      <c r="E70" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F70" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G70" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/VcVegq0ltxqccPvPEGt22ThioMkyz9-U</t>
+        </is>
+      </c>
+      <c r="H70" s="23" t="inlineStr">
+        <is>
+          <t>VcVegq0ltxqccPvPEGt22ThioMkyz9-U</t>
+        </is>
+      </c>
       <c r="I70" s="23" t="inlineStr">
         <is>
           <t>ipfs://Qmcngq4aQwa3gZX5mnfHQx6YQjYVJ5huC2k6eQHgVoz2A9</t>
@@ -3260,6 +3405,26 @@
           <t>#&amp;6X$JZL2l</t>
         </is>
       </c>
+      <c r="E71" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F71" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G71" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/sul3SqjX2-4oYvx3kRj51n16HQOvWr7v</t>
+        </is>
+      </c>
+      <c r="H71" s="23" t="inlineStr">
+        <is>
+          <t>sul3SqjX2-4oYvx3kRj51n16HQOvWr7v</t>
+        </is>
+      </c>
       <c r="I71" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmRNb59VwfGaV5PKr5r9bnK9XTJXq67NNzTcfYZkJZ7fAo</t>
@@ -3287,6 +3452,26 @@
           <t>H6IXZHJd#T</t>
         </is>
       </c>
+      <c r="E72" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F72" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G72" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/pTj1XpoY3RdLFzfQMY_T9vTtqNt6UnQN</t>
+        </is>
+      </c>
+      <c r="H72" s="23" t="inlineStr">
+        <is>
+          <t>pTj1XpoY3RdLFzfQMY_T9vTtqNt6UnQN</t>
+        </is>
+      </c>
       <c r="I72" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmbEbWyfZnBwg7VNEmaAeG2Zjj8kzkKNQi25GsLhtdYE62</t>
@@ -3312,6 +3497,26 @@
       <c r="D73" s="22" t="inlineStr">
         <is>
           <t>!2AB5nVtue</t>
+        </is>
+      </c>
+      <c r="E73" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F73" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G73" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/pfgXK8NfuQvWjg1ZQfrUhVrQz1xQlzYN</t>
+        </is>
+      </c>
+      <c r="H73" s="23" t="inlineStr">
+        <is>
+          <t>pfgXK8NfuQvWjg1ZQfrUhVrQz1xQlzYN</t>
         </is>
       </c>
       <c r="I73" s="23" t="inlineStr">
@@ -3333,6 +3538,26 @@
           <t>+(EdhJ^uj3</t>
         </is>
       </c>
+      <c r="E74" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F74" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G74" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Dh5M7Ge8drM1B9PlOEpavIMNddPC5352</t>
+        </is>
+      </c>
+      <c r="H74" s="23" t="inlineStr">
+        <is>
+          <t>Dh5M7Ge8drM1B9PlOEpavIMNddPC5352</t>
+        </is>
+      </c>
       <c r="I74" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmPGfQz8zPagtdBJwiCM6bVQX5hSSbSAhzrqr7YsCaCL9S</t>
@@ -3352,6 +3577,26 @@
           <t>#qMJVuO4n0</t>
         </is>
       </c>
+      <c r="E75" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F75" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G75" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/zbxMY0vVJgxS-Pv44m2kBVRc2SwWD3jj</t>
+        </is>
+      </c>
+      <c r="H75" s="23" t="inlineStr">
+        <is>
+          <t>zbxMY0vVJgxS-Pv44m2kBVRc2SwWD3jj</t>
+        </is>
+      </c>
       <c r="I75" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmcnxwiRphLN4uLosSxgdLFNEysRAiMsQfuCc6Qr5fXLqm</t>
@@ -3371,6 +3616,26 @@
           <t>h7wM4@Hf+Y</t>
         </is>
       </c>
+      <c r="E76" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F76" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G76" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Hmpbvj1tF5W80OBP-_Bpkj0urNpEcRcB</t>
+        </is>
+      </c>
+      <c r="H76" s="23" t="inlineStr">
+        <is>
+          <t>Hmpbvj1tF5W80OBP-_Bpkj0urNpEcRcB</t>
+        </is>
+      </c>
       <c r="I76" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmVJgrwAHPvwSWX1BknCsYQ713twcvGQPg8Gr6Nf9LvSbo</t>
@@ -3390,6 +3655,26 @@
           <t>sn4TolWZ_8</t>
         </is>
       </c>
+      <c r="E77" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F77" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G77" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/TvOYZwWXawyfwHKFz_2wl73pTHfPW4FK</t>
+        </is>
+      </c>
+      <c r="H77" s="23" t="inlineStr">
+        <is>
+          <t>TvOYZwWXawyfwHKFz_2wl73pTHfPW4FK</t>
+        </is>
+      </c>
       <c r="I77" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmcVkVvk5yXE5gym1r7dGcn5C8Cu2edSMzhDZxsBtXMbkV</t>
@@ -3409,6 +3694,26 @@
           <t>t*y6TPJgJ6</t>
         </is>
       </c>
+      <c r="E78" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F78" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G78" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/q9Pk8U60PKSIWrXOheB8L7vcC6OJ6rne</t>
+        </is>
+      </c>
+      <c r="H78" s="23" t="inlineStr">
+        <is>
+          <t>q9Pk8U60PKSIWrXOheB8L7vcC6OJ6rne</t>
+        </is>
+      </c>
       <c r="I78" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmNsofHCW6Skwcya38RRTA6H85gVZrKSunUGMaBpvgMDwT</t>
@@ -3428,6 +3733,26 @@
           <t>*aI8UvPtEP</t>
         </is>
       </c>
+      <c r="E79" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F79" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G79" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/lGvZ7FODIJsAaTTw8WOjc1d0Eo7o8JKH</t>
+        </is>
+      </c>
+      <c r="H79" s="23" t="inlineStr">
+        <is>
+          <t>lGvZ7FODIJsAaTTw8WOjc1d0Eo7o8JKH</t>
+        </is>
+      </c>
       <c r="I79" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmTzt1W81QQUhiEqFpUBeCSyLR2LKccpJ2tgi8ybYpdhuu</t>
@@ -3447,6 +3772,11 @@
           <t>_+$q1lMm60</t>
         </is>
       </c>
+      <c r="E80" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="I80" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmagMivUpgER8cJAFF9K5YofQwb9KqR6UvHk6n5EAL1zbc</t>
@@ -3466,6 +3796,11 @@
           <t>@@wu6_GFRt</t>
         </is>
       </c>
+      <c r="E81" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I81" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmfJD6ZddWfrSLjnoASV2peqqf62n3tK2qbnxmgvPFy9J8</t>
@@ -3485,6 +3820,11 @@
           <t>((8J@5Yb_4</t>
         </is>
       </c>
+      <c r="E82" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I82" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmPsAebx37Dj9LFtjbGhrf1eGzKxVYehtzZAGXssP6284M</t>
@@ -3504,6 +3844,11 @@
           <t>#9(8CWmsq^</t>
         </is>
       </c>
+      <c r="E83" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I83" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmVjquCupenqmVVLqsKJFcE6cozFGvyETVNgXEEPUTUYMx</t>
@@ -3523,6 +3868,26 @@
           <t>@P)7LncvXA</t>
         </is>
       </c>
+      <c r="E84" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F84" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G84" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/g9A09OqO2S579v_lLSGJOlzu8aXZuuib</t>
+        </is>
+      </c>
+      <c r="H84" s="23" t="inlineStr">
+        <is>
+          <t>g9A09OqO2S579v_lLSGJOlzu8aXZuuib</t>
+        </is>
+      </c>
       <c r="I84" s="23" t="inlineStr">
         <is>
           <t>ipfs://Qmc6ZkpsBrX3f9LRBbS7HWVWuizHiZFjb3XkfDS9zgzEoB</t>
@@ -3542,6 +3907,11 @@
           <t>*Q3FdCBn3V</t>
         </is>
       </c>
+      <c r="E85" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I85" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmaDE4jjwcNT3bhDXPxuT3Mzia5M3mKEHpftki5cSmYKhG</t>
@@ -3561,6 +3931,26 @@
           <t>i$9Xd@2MYd</t>
         </is>
       </c>
+      <c r="E86" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F86" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G86" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/4C34gJdsT8TGU3SiLYLVyZbv3echAXSe</t>
+        </is>
+      </c>
+      <c r="H86" s="23" t="inlineStr">
+        <is>
+          <t>4C34gJdsT8TGU3SiLYLVyZbv3echAXSe</t>
+        </is>
+      </c>
       <c r="I86" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmQUdLhVa11evU1ebJJ14WkYDd4gyzd8PP9kXZq5ChQqhb</t>
@@ -3580,6 +3970,26 @@
           <t>7N27YIlT(7</t>
         </is>
       </c>
+      <c r="E87" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F87" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G87" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/qiLiEG2NU3MqeewxLDua7r5KCbjJYDeu</t>
+        </is>
+      </c>
+      <c r="H87" s="23" t="inlineStr">
+        <is>
+          <t>qiLiEG2NU3MqeewxLDua7r5KCbjJYDeu</t>
+        </is>
+      </c>
       <c r="I87" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmPqx66draXotgYYNjxo8ZNu4zEk3P7Qk4ifoyaB5dL8Zw</t>
@@ -3599,6 +4009,26 @@
           <t>%j7C6gmE2B</t>
         </is>
       </c>
+      <c r="E88" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F88" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G88" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/MjD6UNGC_0UZeBYOoOkAtdEUnwcXNGmO</t>
+        </is>
+      </c>
+      <c r="H88" s="23" t="inlineStr">
+        <is>
+          <t>MjD6UNGC_0UZeBYOoOkAtdEUnwcXNGmO</t>
+        </is>
+      </c>
       <c r="I88" s="23" t="inlineStr">
         <is>
           <t>ipfs://Qmf9DP8FyXUtpVZ3Y7WxfNfPdQ4waCwbxJdXuTrB6dTTvm</t>
@@ -3618,6 +4048,26 @@
           <t>Q&amp;6H+fVb%R</t>
         </is>
       </c>
+      <c r="E89" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F89" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G89" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/dDhR9Nz5jou-1Sj99IHviwJdCR6j6f2i</t>
+        </is>
+      </c>
+      <c r="H89" s="23" t="inlineStr">
+        <is>
+          <t>dDhR9Nz5jou-1Sj99IHviwJdCR6j6f2i</t>
+        </is>
+      </c>
       <c r="I89" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmXwFLdHG8Td1Y7nnEDqamt2hycNGSARNT8q3gCHpnWQ7i</t>
@@ -3637,6 +4087,26 @@
           <t>*EUQBa$Mr9</t>
         </is>
       </c>
+      <c r="E90" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F90" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G90" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/kClo18JJEZy6zKmwK_gLYOZWmuPTiZS_</t>
+        </is>
+      </c>
+      <c r="H90" s="23" t="inlineStr">
+        <is>
+          <t>kClo18JJEZy6zKmwK_gLYOZWmuPTiZS_</t>
+        </is>
+      </c>
       <c r="I90" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmVj6ExFaQbEc5xdmQDmrpLSxPAV5YoUehAofLna5fV7VV</t>
@@ -3656,6 +4126,11 @@
           <t>rI$JpGGo(2</t>
         </is>
       </c>
+      <c r="E91" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I91" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmciEXMch3THJ42WrWKvvV3xHftbM1LZBSc7xV4qcpkv6G</t>
@@ -3675,6 +4150,26 @@
           <t>@0Fhrc#BG)</t>
         </is>
       </c>
+      <c r="E92" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F92" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G92" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Z1giIWHVwFg9yS0jXDDVOTYvwGHwLqdm</t>
+        </is>
+      </c>
+      <c r="H92" s="23" t="inlineStr">
+        <is>
+          <t>Z1giIWHVwFg9yS0jXDDVOTYvwGHwLqdm</t>
+        </is>
+      </c>
       <c r="I92" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmNbCPEoU2ytVa7qw5XoYPKRK5Sc1di2JapL5Ht9T7N8PC</t>
@@ -3694,6 +4189,11 @@
           <t>!y#L_UN7G3</t>
         </is>
       </c>
+      <c r="E93" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I93" s="23" t="inlineStr">
         <is>
           <t>ipfs://Qmc5tkMkLNG9PCNAzbXzeGfv98hdDxYsB9jom5hxmzyb3q</t>
@@ -3713,6 +4213,26 @@
           <t>sG1lKIbFJ^</t>
         </is>
       </c>
+      <c r="E94" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F94" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G94" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/7tzRKwSUtUqMkPuwk7O46qaAZeikSmp2</t>
+        </is>
+      </c>
+      <c r="H94" s="23" t="inlineStr">
+        <is>
+          <t>7tzRKwSUtUqMkPuwk7O46qaAZeikSmp2</t>
+        </is>
+      </c>
       <c r="I94" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmaAckik5NHio5Fo9j82wJzVMtf86kBiTAPftahVzy5swx</t>
@@ -3732,6 +4252,26 @@
           <t>3R8MUSgZ$(</t>
         </is>
       </c>
+      <c r="E95" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F95" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G95" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/hFZlhEaWWHXdvdspqtXIsLc41ErOqKOM</t>
+        </is>
+      </c>
+      <c r="H95" s="23" t="inlineStr">
+        <is>
+          <t>hFZlhEaWWHXdvdspqtXIsLc41ErOqKOM</t>
+        </is>
+      </c>
       <c r="I95" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmX4bfhdanHFbPWnxSsM4HPJBVG318mrHLtnvuuKtNpdDG</t>
@@ -3751,6 +4291,26 @@
           <t>YN1h7uUnB!</t>
         </is>
       </c>
+      <c r="E96" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F96" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G96" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/zy_RowlaqDVjl8V_WkilsNdpGnFJy523</t>
+        </is>
+      </c>
+      <c r="H96" s="23" t="inlineStr">
+        <is>
+          <t>zy_RowlaqDVjl8V_WkilsNdpGnFJy523</t>
+        </is>
+      </c>
       <c r="I96" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmPJJtSujCjD1rbbNNcruy6b7TxeegT8EFRx2ZuDsZqE2J</t>
@@ -3770,6 +4330,16 @@
           <t>m(09RK+z_i</t>
         </is>
       </c>
+      <c r="E97" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F97" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I97" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmcW58cuHhLKnvD9cgsMas33QazrBKePeQCSWwKY5dU2KF</t>
@@ -3789,6 +4359,11 @@
           <t>7DxEq0)v#X</t>
         </is>
       </c>
+      <c r="E98" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I98" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmXaWCYcP2G9XwRMrtBbYPPyxbuUYvUndZvia6tjvMx9cM</t>
@@ -3808,6 +4383,21 @@
           <t>_3bWXeStLi</t>
         </is>
       </c>
+      <c r="E99" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G99" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
+        </is>
+      </c>
+      <c r="H99" s="23" t="inlineStr">
+        <is>
+          <t>4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
+        </is>
+      </c>
       <c r="I99" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmQcf9NdmoUtstjxV7FsMexEHaUVczLu1jUcqSCW5yhD1J</t>
@@ -3827,6 +4417,11 @@
           <t>+6u&amp;Ns@6km</t>
         </is>
       </c>
+      <c r="E100" s="23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I100" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmXzk7gSDPvyQz3rQd257WdMnLVvg32rdT3ffvEx7SAEWd</t>
@@ -3844,6 +4439,21 @@
       <c r="D101" s="22" t="inlineStr">
         <is>
           <t>J6K*0J%gk_</t>
+        </is>
+      </c>
+      <c r="E101" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G101" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
         </is>
       </c>
       <c r="I101" s="23" t="inlineStr">

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -4451,7 +4451,7 @@
           <t>https://eth-rinkeby.alchemyapi.io/v2/LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" s="23" t="inlineStr">
         <is>
           <t>LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
         </is>
@@ -4475,6 +4475,21 @@
           <t>008BHXWgy%</t>
         </is>
       </c>
+      <c r="E102" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G102" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
+        </is>
+      </c>
+      <c r="H102" s="23" t="inlineStr">
+        <is>
+          <t>0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
+        </is>
+      </c>
       <c r="I102" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmNWJCsjMLsj2fR1bXDJb7Km2mqJ3oMVqy74oym6ew6KaZ</t>
@@ -4494,6 +4509,21 @@
           <t>)%I99qtOt6</t>
         </is>
       </c>
+      <c r="E103" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G103" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
+        </is>
+      </c>
+      <c r="H103" s="23" t="inlineStr">
+        <is>
+          <t>eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
+        </is>
+      </c>
       <c r="I103" s="23" t="inlineStr">
         <is>
           <t>ipfs://QmP1owxvA5BhVoyY2iBBPditGGWw7cWRrJCujRF8ZeTaFz</t>
@@ -4511,6 +4541,11 @@
       <c r="D104" s="22" t="inlineStr">
         <is>
           <t>14Qc^xJe$Q</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="I104" s="23" t="inlineStr">

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -4543,9 +4543,19 @@
           <t>14Qc^xJe$Q</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E104" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G104" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
         </is>
       </c>
       <c r="I104" s="23" t="inlineStr">

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -4553,7 +4553,7 @@
           <t>https://eth-rinkeby.alchemyapi.io/v2/Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" s="23" t="inlineStr">
         <is>
           <t>Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
         </is>
@@ -4575,6 +4575,11 @@
       <c r="D105" s="22" t="inlineStr">
         <is>
           <t>^KJyFNWs)6</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="I105" s="23" t="inlineStr">

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -4577,9 +4577,19 @@
           <t>^KJyFNWs)6</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Y</t>
+      <c r="E105" s="23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G105" s="23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
         </is>
       </c>
       <c r="I105" s="23" t="inlineStr">

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -55,13 +55,6 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="0"/>
@@ -77,7 +70,6 @@
     </font>
     <font>
       <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="FFC9211E"/>
       <sz val="11"/>
@@ -164,7 +156,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -196,9 +188,6 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -207,28 +196,28 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -260,9 +249,6 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -271,28 +257,28 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -656,5358 +642,7180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMJ200"/>
+  <dimension ref="A1:AMJ308"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A298" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D315" activeCellId="0" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.55" customWidth="1" style="22" min="1" max="1"/>
-    <col width="13.67" customWidth="1" style="22" min="2" max="2"/>
-    <col width="22.43" customWidth="1" style="23" min="3" max="3"/>
-    <col width="17.15" customWidth="1" style="22" min="4" max="4"/>
-    <col width="15.29" customWidth="1" style="22" min="5" max="6"/>
-    <col width="37.64" customWidth="1" style="23" min="7" max="7"/>
-    <col width="26.43" customWidth="1" style="23" min="8" max="8"/>
-    <col width="63.29" customWidth="1" style="23" min="9" max="9"/>
-    <col width="66.43000000000001" customWidth="1" style="23" min="10" max="10"/>
-    <col width="9.140000000000001" customWidth="1" style="23" min="1024" max="1024"/>
+    <col width="12.55" customWidth="1" style="21" min="1" max="1"/>
+    <col width="13.67" customWidth="1" style="21" min="2" max="2"/>
+    <col width="30.28" customWidth="1" style="22" min="3" max="3"/>
+    <col width="17.15" customWidth="1" style="21" min="4" max="4"/>
+    <col width="15.29" customWidth="1" style="21" min="5" max="5"/>
+    <col width="39.25" customWidth="1" style="22" min="6" max="6"/>
+    <col width="26.43" customWidth="1" style="22" min="7" max="7"/>
+    <col width="63.29" customWidth="1" style="22" min="8" max="8"/>
+    <col width="66.43000000000001" customWidth="1" style="22" min="9" max="9"/>
+    <col width="9.140000000000001" customWidth="1" style="22" min="1022" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.25" customHeight="1" s="24">
-      <c r="A1" s="25" t="inlineStr">
+    <row r="1" ht="42.25" customHeight="1" s="23">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>钱包地址</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>私钥</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>随机密码</t>
         </is>
       </c>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="E1" s="26" t="inlineStr">
         <is>
           <t>找到resent激活链接?</t>
         </is>
       </c>
       <c r="F1" s="27" t="inlineStr">
-        <is>
-          <t>点击了激活active?</t>
-        </is>
-      </c>
-      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>获取alchemy的项目https,
 将来填入小狐狸</t>
         </is>
       </c>
+      <c r="G1" s="28" t="inlineStr">
+        <is>
+          <t>获取alchemy的项目API</t>
+        </is>
+      </c>
       <c r="H1" s="29" t="inlineStr">
         <is>
-          <t>获取alchemy的项目API</t>
+          <t>完整 IPFS Json_CID</t>
         </is>
       </c>
       <c r="I1" s="30" t="inlineStr">
         <is>
-          <t>完整 IPFS Json_CID</t>
-        </is>
-      </c>
-      <c r="J1" s="31" t="inlineStr">
-        <is>
           <t>合约地址</t>
         </is>
       </c>
-      <c r="K1" s="32" t="inlineStr">
-        <is>
-          <t>私钥</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="16.5" customHeight="1" s="24">
-      <c r="A2" s="33" t="n"/>
-      <c r="B2" s="33" t="n"/>
-      <c r="C2" s="34" t="inlineStr">
+    </row>
+    <row r="2" ht="16.5" customHeight="1" s="23">
+      <c r="A2" s="31" t="n"/>
+      <c r="B2" s="31" t="n"/>
+      <c r="C2" s="32" t="inlineStr">
         <is>
           <t>linkguopeng@gmail.com</t>
         </is>
       </c>
-      <c r="D2" s="35" t="n"/>
-      <c r="E2" s="36" t="inlineStr">
-        <is>
-          <t>Y红色是测试用</t>
-        </is>
-      </c>
-      <c r="G2" s="22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H2" s="22" t="n"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" s="24">
-      <c r="A3" s="33" t="n"/>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="34" t="inlineStr">
+      <c r="D2" s="33" t="n"/>
+      <c r="E2" s="34" t="inlineStr">
+        <is>
+          <t>Y红色是测试用的</t>
+        </is>
+      </c>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="23">
+      <c r="A3" s="31" t="n"/>
+      <c r="B3" s="31" t="n"/>
+      <c r="C3" s="32" t="inlineStr">
         <is>
           <t>mcharlson29@gmail.com</t>
         </is>
       </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>23498ji234</t>
         </is>
       </c>
-      <c r="E3" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" s="24">
-      <c r="A4" s="33" t="n"/>
-      <c r="B4" s="33" t="n"/>
-      <c r="C4" s="34" t="inlineStr">
+      <c r="E3" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="23">
+      <c r="A4" s="31" t="n"/>
+      <c r="B4" s="31" t="n"/>
+      <c r="C4" s="32" t="inlineStr">
         <is>
           <t>mpass7289@gmail.com</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>kjgkuy8769</t>
         </is>
       </c>
-      <c r="E4" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" s="24">
-      <c r="A5" s="33" t="n"/>
-      <c r="B5" s="33" t="n"/>
-      <c r="C5" s="34" t="inlineStr">
+      <c r="E4" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="23">
+      <c r="A5" s="31" t="n"/>
+      <c r="B5" s="31" t="n"/>
+      <c r="C5" s="32" t="inlineStr">
         <is>
           <t>angelfreeman495@gmail.com</t>
         </is>
       </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>cht32489</t>
         </is>
       </c>
-      <c r="E5" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" s="24">
-      <c r="A6" s="33" t="n"/>
-      <c r="B6" s="33" t="n"/>
-      <c r="C6" s="34" t="inlineStr">
+      <c r="E5" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" s="23">
+      <c r="A6" s="31" t="n"/>
+      <c r="B6" s="31" t="n"/>
+      <c r="C6" s="32" t="inlineStr">
         <is>
           <t>croftoonsheila73@gmail.com</t>
         </is>
       </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="D6" s="21" t="inlineStr">
         <is>
           <t>hHy5DTHxy&amp;</t>
         </is>
       </c>
-      <c r="E6" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" s="24">
-      <c r="A7" s="33" t="n"/>
-      <c r="B7" s="33" t="n"/>
-      <c r="C7" s="34" t="inlineStr">
+      <c r="E6" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="23">
+      <c r="A7" s="31" t="n"/>
+      <c r="B7" s="31" t="n"/>
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>ritagrrsn@gmail.com</t>
         </is>
       </c>
-      <c r="D7" s="22" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>2e)Z5QCaU%</t>
         </is>
       </c>
-      <c r="E7" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G7" s="34" t="inlineStr">
+      <c r="E7" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F7" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
         </is>
       </c>
-      <c r="I7" s="34" t="inlineStr">
+      <c r="H7" s="32" t="inlineStr">
         <is>
           <t>QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" s="24">
-      <c r="A8" s="33" t="n"/>
-      <c r="B8" s="33" t="n"/>
-      <c r="C8" s="34" t="inlineStr">
+    <row r="8" ht="16.5" customHeight="1" s="23">
+      <c r="A8" s="31" t="n"/>
+      <c r="B8" s="31" t="n"/>
+      <c r="C8" s="32" t="inlineStr">
         <is>
           <t>AlexandraMathews6713@gmail.com</t>
         </is>
       </c>
-      <c r="D8" s="22" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>sHtMKn1d_2</t>
         </is>
       </c>
-      <c r="E8" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G8" s="34" t="inlineStr">
+      <c r="E8" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F8" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
-      <c r="I8" s="34" t="inlineStr">
+      <c r="H8" s="32" t="inlineStr">
         <is>
           <t>QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="24">
-      <c r="A9" s="33" t="n"/>
-      <c r="B9" s="33" t="n"/>
-      <c r="C9" s="34" t="inlineStr">
+    <row r="9" ht="16.5" customHeight="1" s="23">
+      <c r="A9" s="31" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="32" t="inlineStr">
         <is>
           <t>EdwardMiller6883@gmail.com</t>
         </is>
       </c>
-      <c r="D9" s="22" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>l6iJL5Ye^Q</t>
         </is>
       </c>
-      <c r="E9" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I9" s="34" t="inlineStr">
+      <c r="E9" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H9" s="32" t="inlineStr">
         <is>
           <t>QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" s="24">
-      <c r="A10" s="33" t="n"/>
-      <c r="B10" s="33" t="n"/>
-      <c r="C10" s="34" t="inlineStr">
+    <row r="10" ht="16.5" customHeight="1" s="23">
+      <c r="A10" s="31" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="32" t="inlineStr">
         <is>
           <t>AnitaSmith6459@gmail.com</t>
         </is>
       </c>
-      <c r="D10" s="22" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>(jHDLmhSl1</t>
         </is>
       </c>
-      <c r="E10" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G10" s="34" t="inlineStr">
+      <c r="E10" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F10" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
-      <c r="I10" s="34" t="inlineStr">
+      <c r="H10" s="32" t="inlineStr">
         <is>
           <t>QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" s="24">
-      <c r="A11" s="33" t="n"/>
-      <c r="B11" s="33" t="n"/>
-      <c r="C11" s="34" t="inlineStr">
+    <row r="11" ht="16.5" customHeight="1" s="23">
+      <c r="A11" s="31" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="32" t="inlineStr">
         <is>
           <t>nshorter236@gmail.com</t>
         </is>
       </c>
-      <c r="D11" s="22" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>+8cgQPlw*A</t>
         </is>
       </c>
-      <c r="E11" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G11" s="34" t="inlineStr">
+      <c r="E11" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F11" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" s="24">
-      <c r="A12" s="33" t="n"/>
-      <c r="B12" s="33" t="n"/>
-      <c r="C12" s="34" t="inlineStr">
+    <row r="12" ht="16.5" customHeight="1" s="23">
+      <c r="A12" s="31" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="32" t="inlineStr">
         <is>
           <t>leonarsdonovan@gmail.com</t>
         </is>
       </c>
-      <c r="D12" s="22" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>&amp;1bCgi4s+2</t>
         </is>
       </c>
-      <c r="E12" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" s="24">
-      <c r="A13" s="33" t="n"/>
-      <c r="B13" s="33" t="n"/>
-      <c r="C13" s="34" t="inlineStr">
+      <c r="E12" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" s="23">
+      <c r="A13" s="31" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="32" t="inlineStr">
         <is>
           <t>holidayj775@gmail.com</t>
         </is>
       </c>
-      <c r="D13" s="22" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>%w3w4Y#f4I</t>
         </is>
       </c>
-      <c r="E13" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G13" s="34" t="inlineStr">
+      <c r="E13" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" s="24">
-      <c r="A14" s="33" t="n"/>
-      <c r="B14" s="33" t="n"/>
-      <c r="C14" s="34" t="inlineStr">
+    <row r="14" ht="16.5" customHeight="1" s="23">
+      <c r="A14" s="31" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="32" t="inlineStr">
         <is>
           <t>macduffm99@gmail.com</t>
         </is>
       </c>
-      <c r="D14" s="22" t="inlineStr">
+      <c r="D14" s="21" t="inlineStr">
         <is>
           <t>!K!&amp;fBqQ0l</t>
         </is>
       </c>
-      <c r="E14" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G14" s="34" t="inlineStr">
+      <c r="E14" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F14" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" s="24">
-      <c r="A15" s="33" t="n"/>
-      <c r="B15" s="33" t="n"/>
-      <c r="C15" s="34" t="inlineStr">
+    <row r="15" ht="16.5" customHeight="1" s="23">
+      <c r="A15" s="31" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="32" t="inlineStr">
         <is>
           <t>owenlwn@gmail.com</t>
         </is>
       </c>
-      <c r="D15" s="22" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>2rCg0JC$^o</t>
         </is>
       </c>
-      <c r="E15" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" s="24">
-      <c r="A16" s="33" t="n"/>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="34" t="inlineStr">
+      <c r="E15" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" s="23">
+      <c r="A16" s="31" t="n"/>
+      <c r="B16" s="31" t="n"/>
+      <c r="C16" s="32" t="inlineStr">
         <is>
           <t>dwifkinson6@gmail.com</t>
         </is>
       </c>
-      <c r="D16" s="22" t="inlineStr">
+      <c r="D16" s="21" t="inlineStr">
         <is>
           <t>^nt#1We68F</t>
         </is>
       </c>
-      <c r="E16" s="36" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="16.5" customHeight="1" s="24">
-      <c r="A17" s="33" t="n"/>
-      <c r="B17" s="33" t="n"/>
-      <c r="C17" s="34" t="inlineStr">
+      <c r="E16" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" s="23">
+      <c r="A17" s="31" t="n"/>
+      <c r="B17" s="31" t="n"/>
+      <c r="C17" s="32" t="inlineStr">
         <is>
           <t>macduffdavid61@gmail.com</t>
         </is>
       </c>
-      <c r="D17" s="22" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>H)GPF9Cpy*</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" s="24">
-      <c r="A18" s="33" t="n"/>
-      <c r="B18" s="33" t="n"/>
-      <c r="C18" s="34" t="inlineStr">
+    <row r="18" ht="16.5" customHeight="1" s="23">
+      <c r="A18" s="31" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="32" t="inlineStr">
         <is>
           <t>MichaelFreeman6075@gmail.com</t>
         </is>
       </c>
-      <c r="D18" s="22" t="inlineStr">
+      <c r="D18" s="21" t="inlineStr">
         <is>
           <t>sxm2QVj@$%</t>
         </is>
       </c>
-      <c r="E18" s="22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G18" s="34" t="inlineStr">
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" s="24">
-      <c r="A19" s="33" t="n"/>
-      <c r="B19" s="33" t="n"/>
-      <c r="C19" s="34" t="inlineStr">
+    <row r="19" ht="16.5" customHeight="1" s="23">
+      <c r="A19" s="31" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="32" t="inlineStr">
         <is>
           <t>juliawinter964@gmail.com</t>
         </is>
       </c>
-      <c r="D19" s="22" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>TCkSeOuw*1</t>
         </is>
       </c>
-      <c r="E19" s="22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" s="24">
-      <c r="A20" s="33" t="n"/>
-      <c r="B20" s="33" t="n"/>
-      <c r="C20" s="34" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" s="23">
+      <c r="A20" s="31" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="32" t="inlineStr">
         <is>
           <t>adrianwalter085@gmail.com</t>
         </is>
       </c>
-      <c r="D20" s="22" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>_28R&amp;pqzPr</t>
         </is>
       </c>
-      <c r="I20" s="34" t="inlineStr">
+      <c r="H20" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmYxhRXCp7SBiBLWfp6msrwG5fwyukV5q7jFnnoLD1b5XU</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" s="24">
-      <c r="A21" s="33" t="n"/>
-      <c r="B21" s="33" t="n"/>
-      <c r="C21" s="34" t="inlineStr">
+    <row r="21" ht="16.5" customHeight="1" s="23">
+      <c r="A21" s="31" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="32" t="inlineStr">
         <is>
           <t>destinybawerman270@gmail.com</t>
         </is>
       </c>
-      <c r="D21" s="22" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>#sHL*HuB&amp;2</t>
         </is>
       </c>
-      <c r="E21" s="22" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F21" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G21" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
         </is>
       </c>
-      <c r="H21" s="23" t="inlineStr">
+      <c r="G21" s="22" t="inlineStr">
         <is>
           <t>9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
         </is>
       </c>
-      <c r="I21" s="34" t="inlineStr">
+      <c r="H21" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" s="24">
-      <c r="A22" s="33" t="n"/>
-      <c r="B22" s="33" t="n"/>
-      <c r="C22" s="34" t="inlineStr">
+    <row r="22" ht="16.5" customHeight="1" s="23">
+      <c r="A22" s="31" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="32" t="inlineStr">
         <is>
           <t>dysonjames662@gmail.com</t>
         </is>
       </c>
-      <c r="D22" s="22" t="inlineStr">
+      <c r="D22" s="21" t="inlineStr">
         <is>
           <t>(zz%Y^hjO2</t>
         </is>
       </c>
-      <c r="E22" s="22" t="inlineStr">
+      <c r="E22" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I22" s="34" t="inlineStr">
+      <c r="H22" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmcbihzC3yb3aeHqHsQicf44rL4zn3GcPLuz7RjQppmYJT</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1" s="24">
-      <c r="A23" s="33" t="n"/>
-      <c r="B23" s="33" t="n"/>
-      <c r="C23" s="34" t="inlineStr">
+    <row r="23" ht="16.5" customHeight="1" s="23">
+      <c r="A23" s="31" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="32" t="inlineStr">
         <is>
           <t>antoniogustman7@gmail.com</t>
         </is>
       </c>
-      <c r="D23" s="22" t="inlineStr">
+      <c r="D23" s="21" t="inlineStr">
         <is>
           <t>vgWvDb!L&amp;8</t>
         </is>
       </c>
-      <c r="E23" s="22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F23" s="22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G23" s="34" t="inlineStr">
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F23" s="32" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/dB0WkyqLYSejLIzuSFyy3BHkvQFIWzJ6</t>
         </is>
       </c>
-      <c r="I23" s="34" t="inlineStr">
+      <c r="H23" s="32" t="inlineStr">
         <is>
           <t>ipfs://Qmd6vipZgxtJCdKQ4kUVRGcJGQj4fRNZ9nGmpXNpkcZMEZ</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="37">
-      <c r="A24" s="38" t="inlineStr">
+    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="35">
+      <c r="A24" s="36" t="inlineStr">
         <is>
           <t>0xC79deDdDD1F6a891f2D13f13BDaDa3A446Bc9ef5</t>
         </is>
       </c>
-      <c r="B24" s="39" t="inlineStr">
+      <c r="B24" s="37" t="inlineStr">
         <is>
           <t>746efaa058965c0e4b322c1512bc64b326ff7b92f6f6dfa0a44e6ddc4ddb824c</t>
         </is>
       </c>
-      <c r="C24" s="40" t="inlineStr">
+      <c r="C24" s="38" t="inlineStr">
         <is>
           <t>marshmanj148@gmail.com</t>
         </is>
       </c>
-      <c r="D24" s="41" t="inlineStr">
+      <c r="D24" s="39" t="inlineStr">
         <is>
           <t>%#+8E*V!xi</t>
         </is>
       </c>
-      <c r="E24" s="41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F24" s="41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G24" s="37" t="inlineStr">
+      <c r="E24" s="39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F24" s="35" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
         </is>
       </c>
-      <c r="H24" s="37" t="inlineStr">
+      <c r="G24" s="35" t="inlineStr">
         <is>
           <t>0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
         </is>
       </c>
+      <c r="H24" s="38" t="inlineStr">
+        <is>
+          <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
+        </is>
+      </c>
       <c r="I24" s="40" t="inlineStr">
         <is>
-          <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
-        </is>
-      </c>
-      <c r="J24" s="42" t="inlineStr">
-        <is>
           <t>0xdd0cB7c171113fA7577e8765D02Ae329BAACb09d</t>
         </is>
       </c>
-      <c r="AMJ24" s="23" t="n"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1" s="24">
-      <c r="A25" s="39" t="inlineStr">
+      <c r="AMH24" s="22" t="n"/>
+      <c r="AMI24" s="22" t="n"/>
+      <c r="AMJ24" s="22" t="n"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1" s="23">
+      <c r="A25" s="37" t="inlineStr">
         <is>
           <t>0xc2927F418946a634AB712b37b8959C9Ce94f257a</t>
         </is>
       </c>
-      <c r="B25" s="39" t="inlineStr">
+      <c r="B25" s="37" t="inlineStr">
         <is>
           <t>cd0234ceaca07ba972b92f2d306c7f3ed8e7885a6534348b9699aaa600808284</t>
         </is>
       </c>
-      <c r="C25" s="34" t="inlineStr">
+      <c r="C25" s="32" t="inlineStr">
         <is>
           <t>tclapton3@gmail.com</t>
         </is>
       </c>
-      <c r="D25" s="22" t="inlineStr">
+      <c r="D25" s="21" t="inlineStr">
         <is>
           <t>Jw1GJl!U$$</t>
         </is>
       </c>
-      <c r="E25" s="22" t="inlineStr">
+      <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F25" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G25" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
         </is>
       </c>
-      <c r="H25" s="23" t="inlineStr">
+      <c r="G25" s="22" t="inlineStr">
         <is>
           <t>ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
         </is>
       </c>
-      <c r="I25" s="34" t="inlineStr">
+      <c r="H25" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1" s="24">
-      <c r="A26" s="39" t="inlineStr">
+    <row r="26" ht="16.5" customHeight="1" s="23">
+      <c r="A26" s="37" t="inlineStr">
         <is>
           <t>0x2bc1971582EbBFF3Ad69da41BDa4821720177211</t>
         </is>
       </c>
-      <c r="B26" s="39" t="inlineStr">
+      <c r="B26" s="37" t="inlineStr">
         <is>
           <t>7106b6ae7ce69daf7a3282871f731e1ffcf35c561417968939cb2bcd8a26dbae</t>
         </is>
       </c>
-      <c r="C26" s="34" t="inlineStr">
+      <c r="C26" s="32" t="inlineStr">
         <is>
           <t>pass51428@gmail.com</t>
         </is>
       </c>
-      <c r="D26" s="22" t="inlineStr">
+      <c r="D26" s="21" t="inlineStr">
         <is>
           <t>A6ZMYDMq!s</t>
         </is>
       </c>
-      <c r="E26" s="22" t="inlineStr">
+      <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F26" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G26" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/FbfRUaWHlXtPq8pkk8hdmcVi59i_bGwn</t>
         </is>
       </c>
-      <c r="H26" s="23" t="inlineStr">
+      <c r="G26" s="22" t="inlineStr">
         <is>
           <t>FbfRUaWHlXtPq8pkk8hdmcVi59i_bGwn</t>
         </is>
       </c>
-      <c r="I26" s="34" t="inlineStr">
+      <c r="H26" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" s="24">
-      <c r="A27" s="39" t="inlineStr">
+    <row r="27" ht="16.5" customHeight="1" s="23">
+      <c r="A27" s="37" t="inlineStr">
         <is>
           <t>0xEcdE52f080a25c2369070be84e4E8654fA45c606</t>
         </is>
       </c>
-      <c r="B27" s="39" t="inlineStr">
+      <c r="B27" s="37" t="inlineStr">
         <is>
           <t>7b5b9ee66e3f8e091934a21fb939cddc433cf07061066616383be7ceec35acbb</t>
         </is>
       </c>
-      <c r="C27" s="34" t="inlineStr">
+      <c r="C27" s="32" t="inlineStr">
         <is>
           <t>mathewsbernard57@gmail.com</t>
         </is>
       </c>
-      <c r="D27" s="22" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>(Hh55ZTmw5</t>
         </is>
       </c>
-      <c r="E27" s="22" t="inlineStr">
+      <c r="E27" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F27" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G27" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/uNxD9TI9QVFX7EoW05PlvT8CNIpqB1ja</t>
         </is>
       </c>
-      <c r="H27" s="23" t="inlineStr">
+      <c r="G27" s="22" t="inlineStr">
         <is>
           <t>uNxD9TI9QVFX7EoW05PlvT8CNIpqB1ja</t>
         </is>
       </c>
-      <c r="I27" s="34" t="inlineStr">
+      <c r="H27" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmVZ9wTfL2wmVjcfz5SYKaGgFpqTLGddrMZPAXszmeShry</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1" s="24">
-      <c r="A28" s="39" t="inlineStr">
+    <row r="28" ht="16.5" customHeight="1" s="23">
+      <c r="A28" s="37" t="inlineStr">
         <is>
           <t>0xB767210427C3f4c90bAe34E38ee44CCb03566096</t>
         </is>
       </c>
-      <c r="B28" s="39" t="inlineStr">
+      <c r="B28" s="37" t="inlineStr">
         <is>
           <t>6e92e93d2a34d68c81a389c21e41ce75241f176df2126654ba6907015f1340d7</t>
         </is>
       </c>
-      <c r="C28" s="34" t="inlineStr">
+      <c r="C28" s="32" t="inlineStr">
         <is>
           <t>joshuabawerman@gmail.com</t>
         </is>
       </c>
-      <c r="D28" s="22" t="inlineStr">
+      <c r="D28" s="21" t="inlineStr">
         <is>
           <t>H!8o2LtCzL</t>
         </is>
       </c>
-      <c r="E28" s="22" t="inlineStr">
+      <c r="E28" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F28" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G28" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zDvo3r-nCbHkw5GIVQaPKOdQ7h7Mdowv</t>
         </is>
       </c>
-      <c r="H28" s="23" t="inlineStr">
+      <c r="G28" s="22" t="inlineStr">
         <is>
           <t>zDvo3r-nCbHkw5GIVQaPKOdQ7h7Mdowv</t>
         </is>
       </c>
-      <c r="I28" s="34" t="inlineStr">
+      <c r="H28" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmSLrBwxSWv8B5yUu8WAp6qArenwgaQsUAGFpc8RTTFAnv</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1" s="24">
-      <c r="A29" s="39" t="inlineStr">
+    <row r="29" ht="16.5" customHeight="1" s="23">
+      <c r="A29" s="37" t="inlineStr">
         <is>
           <t>0xae489149DefE6bD0165fd968E3d38c446Fefe55e</t>
         </is>
       </c>
-      <c r="B29" s="39" t="inlineStr">
+      <c r="B29" s="37" t="inlineStr">
         <is>
           <t>7e99042905fd785467c41a4a68eea1cfe254a102bd8753cbeb37925166cfdb2b</t>
         </is>
       </c>
-      <c r="C29" s="34" t="inlineStr">
+      <c r="C29" s="32" t="inlineStr">
         <is>
           <t>cdunce0@gmail.com</t>
         </is>
       </c>
-      <c r="D29" s="22" t="inlineStr">
+      <c r="D29" s="21" t="inlineStr">
         <is>
           <t>R*8Cr6ttvH</t>
         </is>
       </c>
-      <c r="E29" s="22" t="inlineStr">
+      <c r="E29" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F29" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/0OAIdKICGXqh65oNfK70xUt-aR7TARKE</t>
         </is>
       </c>
-      <c r="H29" s="23" t="inlineStr">
+      <c r="G29" s="22" t="inlineStr">
         <is>
           <t>0OAIdKICGXqh65oNfK70xUt-aR7TARKE</t>
         </is>
       </c>
-      <c r="I29" s="34" t="inlineStr">
+      <c r="H29" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmWnRxBrE3Fv3hErcnedGeFLJsoqv7MHaGZQmS4JokSAuB</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1" s="24">
-      <c r="A30" s="39" t="inlineStr">
+    <row r="30" ht="16.5" customHeight="1" s="23">
+      <c r="A30" s="37" t="inlineStr">
         <is>
           <t>0xe06537a76a5e449B40435230d316252853fC8e60</t>
         </is>
       </c>
-      <c r="B30" s="39" t="inlineStr">
+      <c r="B30" s="37" t="inlineStr">
         <is>
           <t>18d65b2cc761647ea398dab5fc3f822eb5ac0d9bf9bfa51b70beba0872521cb3</t>
         </is>
       </c>
-      <c r="C30" s="34" t="inlineStr">
+      <c r="C30" s="32" t="inlineStr">
         <is>
           <t>annbarrington216@gmail.com</t>
         </is>
       </c>
-      <c r="D30" s="22" t="inlineStr">
+      <c r="D30" s="21" t="inlineStr">
         <is>
           <t>24TdrHBh%R</t>
         </is>
       </c>
-      <c r="E30" s="22" t="inlineStr">
+      <c r="E30" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F30" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G30" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/e5Vo_N-lE00tPDqYFUa6Ck8zFRYiWqmq</t>
         </is>
       </c>
-      <c r="H30" s="23" t="inlineStr">
+      <c r="G30" s="22" t="inlineStr">
         <is>
           <t>e5Vo_N-lE00tPDqYFUa6Ck8zFRYiWqmq</t>
         </is>
       </c>
-      <c r="I30" s="34" t="inlineStr">
+      <c r="H30" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmRTA9VNnfghjb1viWER3U5cghK9RZwmjvwcpzKTkMQZyh</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1" s="24">
-      <c r="A31" s="39" t="inlineStr">
+    <row r="31" ht="16.5" customHeight="1" s="23">
+      <c r="A31" s="37" t="inlineStr">
         <is>
           <t>0x132aD8e01eD6337bb5C196E93f67adD013818D7d</t>
         </is>
       </c>
-      <c r="B31" s="39" t="inlineStr">
+      <c r="B31" s="37" t="inlineStr">
         <is>
           <t>0fca612cdcadd620e947b2f799b2538cc28b9e9e975ba5f91d5654223a5bba66</t>
         </is>
       </c>
-      <c r="C31" s="34" t="inlineStr">
+      <c r="C31" s="32" t="inlineStr">
         <is>
           <t>sierrabootman@gmail.com</t>
         </is>
       </c>
-      <c r="D31" s="22" t="inlineStr">
+      <c r="D31" s="21" t="inlineStr">
         <is>
           <t>W5*+1RqXMV</t>
         </is>
       </c>
-      <c r="E31" s="22" t="inlineStr">
+      <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F31" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G31" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/cW_OyB5I90XSxwq6eeQFTS4kiKBioC1B</t>
         </is>
       </c>
-      <c r="H31" s="23" t="inlineStr">
+      <c r="G31" s="22" t="inlineStr">
         <is>
           <t>cW_OyB5I90XSxwq6eeQFTS4kiKBioC1B</t>
         </is>
       </c>
-      <c r="I31" s="34" t="inlineStr">
+      <c r="H31" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmYXTpye4wWjHx2QG9EuE3tx3yj6fKzeEay9yhZfPPoYxL</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="16.5" customHeight="1" s="24">
-      <c r="A32" s="39" t="inlineStr">
+    <row r="32" ht="16.5" customHeight="1" s="23">
+      <c r="A32" s="37" t="inlineStr">
         <is>
           <t>0x9b30A17351efD2b45ED42D3d3CE2C65002A716a5</t>
         </is>
       </c>
-      <c r="B32" s="39" t="inlineStr">
+      <c r="B32" s="37" t="inlineStr">
         <is>
           <t>3045155f665f825ba4ebbc33071a6ce54e5cdc5bae896a635b87220cbd9507e2</t>
         </is>
       </c>
-      <c r="C32" s="34" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>jbarrington799@gmail.com</t>
         </is>
       </c>
-      <c r="D32" s="22" t="inlineStr">
+      <c r="D32" s="21" t="inlineStr">
         <is>
           <t>98XUFqAq!L</t>
         </is>
       </c>
-      <c r="E32" s="22" t="inlineStr">
+      <c r="E32" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F32" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G32" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/1zWVMyCoaTbeCpaVwxRl-bLmU4GTcucL</t>
         </is>
       </c>
-      <c r="H32" s="23" t="inlineStr">
+      <c r="G32" s="22" t="inlineStr">
         <is>
           <t>1zWVMyCoaTbeCpaVwxRl-bLmU4GTcucL</t>
         </is>
       </c>
-      <c r="I32" s="34" t="inlineStr">
+      <c r="H32" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmW1USgv8KHiGvnaJN7KDs4XqwWYjDeQQjb4Ksi2tZ7UX2</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1" s="24">
-      <c r="A33" s="39" t="inlineStr">
+    <row r="33" ht="16.5" customHeight="1" s="23">
+      <c r="A33" s="37" t="inlineStr">
         <is>
           <t>0xC19741d20A775d49270bA9C29638D758CBf4C684</t>
         </is>
       </c>
-      <c r="B33" s="39" t="inlineStr">
+      <c r="B33" s="37" t="inlineStr">
         <is>
           <t>e7c1c392b3d759493ec72d270cd89ef38d02cf721d953ff14e02465c8eaa7875</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr">
+      <c r="C33" s="32" t="inlineStr">
         <is>
           <t>GeorgeStanley6726@gmail.com</t>
         </is>
       </c>
-      <c r="D33" s="22" t="inlineStr">
+      <c r="D33" s="21" t="inlineStr">
         <is>
           <t>W_3IAnh5A*</t>
         </is>
       </c>
-      <c r="E33" s="22" t="inlineStr">
+      <c r="E33" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F33" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G33" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/2l-VY8MJEZX5xkxRL0eLVL0OP1f5mGTX</t>
         </is>
       </c>
-      <c r="H33" s="23" t="inlineStr">
+      <c r="G33" s="22" t="inlineStr">
         <is>
           <t>2l-VY8MJEZX5xkxRL0eLVL0OP1f5mGTX</t>
         </is>
       </c>
-      <c r="I33" s="34" t="inlineStr">
+      <c r="H33" s="32" t="inlineStr">
         <is>
           <t>ipfs://QmYyQzUZ5X3YErCoUppLnSkL6d8HkjFuymfrcXfh4DtWNv</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1" s="24">
-      <c r="A34" s="39" t="inlineStr">
+    <row r="34" ht="16.5" customHeight="1" s="23">
+      <c r="A34" s="37" t="inlineStr">
         <is>
           <t>0xD4A3d53A9FB4bE7fAC97E644d6011985A2108c42</t>
         </is>
       </c>
-      <c r="B34" s="39" t="inlineStr">
+      <c r="B34" s="37" t="inlineStr">
         <is>
           <t>5b63281ae3acd1a53a7a0686f37aa6f53187fb7edb6fcb23d79e477a621a3685</t>
         </is>
       </c>
-      <c r="C34" s="34" t="inlineStr">
+      <c r="C34" s="32" t="inlineStr">
         <is>
           <t>hamphreyjohn77@gmail.com</t>
         </is>
       </c>
-      <c r="D34" s="22" t="inlineStr">
+      <c r="D34" s="21" t="inlineStr">
         <is>
           <t>niv(J8TueC</t>
         </is>
       </c>
-      <c r="E34" s="22" t="inlineStr">
+      <c r="E34" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F34" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G34" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/mSr00x-cOaZhBqkM-WxIPPo-hoZfPrtw</t>
         </is>
       </c>
-      <c r="H34" s="23" t="inlineStr">
+      <c r="G34" s="22" t="inlineStr">
         <is>
           <t>mSr00x-cOaZhBqkM-WxIPPo-hoZfPrtw</t>
         </is>
       </c>
-      <c r="I34" s="23" t="inlineStr">
+      <c r="H34" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmf8VC46wEyGt4bmhKR7dwuy3JADPFhH4GRceJ4DEAmCNs</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="16.5" customHeight="1" s="24">
-      <c r="A35" s="39" t="inlineStr">
+    <row r="35" ht="16.5" customHeight="1" s="23">
+      <c r="A35" s="37" t="inlineStr">
         <is>
           <t>0x88086ba4436F40f61F7c965AEbAfb4d314D2D1b3</t>
         </is>
       </c>
-      <c r="B35" s="39" t="inlineStr">
+      <c r="B35" s="37" t="inlineStr">
         <is>
           <t>597ca8734904354ad1e1a8782fdcffe691b0cd82333f2d4b2b58fe6a6dba34bb</t>
         </is>
       </c>
-      <c r="C35" s="34" t="inlineStr">
+      <c r="C35" s="32" t="inlineStr">
         <is>
           <t>cameronbosworth165@gmail.com</t>
         </is>
       </c>
-      <c r="D35" s="22" t="inlineStr">
+      <c r="D35" s="21" t="inlineStr">
         <is>
           <t>#j2o%ZIyo+</t>
         </is>
       </c>
-      <c r="E35" s="22" t="inlineStr">
+      <c r="E35" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F35" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G35" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/TEhARAr2Ww8I2Ynn-KSzQRyfR8LLz5p1</t>
         </is>
       </c>
-      <c r="H35" s="23" t="inlineStr">
+      <c r="G35" s="22" t="inlineStr">
         <is>
           <t>TEhARAr2Ww8I2Ynn-KSzQRyfR8LLz5p1</t>
         </is>
       </c>
-      <c r="I35" s="23" t="inlineStr">
+      <c r="H35" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfVWqwneMy34qirQw69f1CcK8FrsEfs6hdExtkncikS34</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1" s="24">
-      <c r="A36" s="39" t="inlineStr">
+    <row r="36" ht="16.5" customHeight="1" s="23">
+      <c r="A36" s="37" t="inlineStr">
         <is>
           <t>0xf229010bA41Dcf20e30a36183dbfDF2F21090A47</t>
         </is>
       </c>
-      <c r="B36" s="39" t="inlineStr">
+      <c r="B36" s="37" t="inlineStr">
         <is>
           <t>745d6990f47563b91b7622de0ad136eed2e237128b5b2eeed982ff6da9422c36</t>
         </is>
       </c>
-      <c r="C36" s="34" t="inlineStr">
+      <c r="C36" s="32" t="inlineStr">
         <is>
           <t>carringtonsean2@gmail.com</t>
         </is>
       </c>
-      <c r="D36" s="22" t="inlineStr">
+      <c r="D36" s="21" t="inlineStr">
         <is>
           <t>^JP*eWJr77</t>
         </is>
       </c>
-      <c r="E36" s="22" t="inlineStr">
+      <c r="E36" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F36" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G36" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/T1yYOpGdt_T0e57YYLv3UNnaC2v-n-qP</t>
         </is>
       </c>
-      <c r="H36" s="23" t="inlineStr">
+      <c r="G36" s="22" t="inlineStr">
         <is>
           <t>T1yYOpGdt_T0e57YYLv3UNnaC2v-n-qP</t>
         </is>
       </c>
-      <c r="I36" s="23" t="inlineStr">
+      <c r="H36" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPjbkCqSj6MPX17XKcJP7FtQ676wXPduqtErpFeXzamBS</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1" s="24">
-      <c r="A37" s="39" t="inlineStr">
+    <row r="37" ht="16.5" customHeight="1" s="23">
+      <c r="A37" s="37" t="inlineStr">
         <is>
           <t>0xec6cD5d37F835529BA0e015dE4649EDfDE21ACfD</t>
         </is>
       </c>
-      <c r="B37" s="39" t="inlineStr">
+      <c r="B37" s="37" t="inlineStr">
         <is>
           <t>29299047ba2b8c66f441379f3757f5698226901d67edc8b164f618ebf56db4a6</t>
         </is>
       </c>
-      <c r="C37" s="34" t="inlineStr">
+      <c r="C37" s="32" t="inlineStr">
         <is>
           <t>vltarchibald@gmail.com</t>
         </is>
       </c>
-      <c r="D37" s="22" t="inlineStr">
+      <c r="D37" s="21" t="inlineStr">
         <is>
           <t>&amp;#7XRHdb$E</t>
         </is>
       </c>
-      <c r="E37" s="22" t="inlineStr">
+      <c r="E37" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F37" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G37" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/wLtw_u7bSFSkwjWrqFbiQ96onkMo6JxB</t>
         </is>
       </c>
-      <c r="H37" s="23" t="inlineStr">
+      <c r="G37" s="22" t="inlineStr">
         <is>
           <t>wLtw_u7bSFSkwjWrqFbiQ96onkMo6JxB</t>
         </is>
       </c>
-      <c r="I37" s="23" t="inlineStr">
+      <c r="H37" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaPFwadKb2KgsEpzCSXS9iZ6CvxkmM8uZg9FKCqpkThcJ</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="16.5" customHeight="1" s="24">
-      <c r="A38" s="39" t="inlineStr">
+    <row r="38" ht="16.5" customHeight="1" s="23">
+      <c r="A38" s="37" t="inlineStr">
         <is>
           <t>0x4d596d636b99798c2B7329633454E11F1e828774</t>
         </is>
       </c>
-      <c r="B38" s="39" t="inlineStr">
+      <c r="B38" s="37" t="inlineStr">
         <is>
           <t>df6bde0a846614171d9373a51ba9d0945012d3f3c23f9724efe3ec849fc863e5</t>
         </is>
       </c>
-      <c r="C38" s="34" t="inlineStr">
+      <c r="C38" s="32" t="inlineStr">
         <is>
           <t>LindaGoodman9356@gmail.com</t>
         </is>
       </c>
-      <c r="D38" s="22" t="inlineStr">
+      <c r="D38" s="21" t="inlineStr">
         <is>
           <t>$S8CdfSO78</t>
         </is>
       </c>
-      <c r="E38" s="22" t="inlineStr">
+      <c r="E38" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I38" s="23" t="inlineStr">
+      <c r="H38" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPb81TbHjRZuiMGi1B1pmYu6gnb3kBJc7bDAa1qfnPh8m</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1" s="24">
-      <c r="A39" s="39" t="inlineStr">
+    <row r="39" ht="16.5" customHeight="1" s="23">
+      <c r="A39" s="37" t="inlineStr">
         <is>
           <t>0xD6Ee7Df8c9c1A3Cd31E76406564dDDcc8928bCD5</t>
         </is>
       </c>
-      <c r="B39" s="39" t="inlineStr">
+      <c r="B39" s="37" t="inlineStr">
         <is>
           <t>b5f4e1c9c7612e03e5ed716a725ee107a5dddc8df19939d05d146f154a87f4e4</t>
         </is>
       </c>
-      <c r="C39" s="34" t="inlineStr">
+      <c r="C39" s="32" t="inlineStr">
         <is>
           <t>fane6314@gmail.com</t>
         </is>
       </c>
-      <c r="D39" s="22" t="inlineStr">
+      <c r="D39" s="21" t="inlineStr">
         <is>
           <t>0)21TVEx(A</t>
         </is>
       </c>
-      <c r="E39" s="22" t="inlineStr">
+      <c r="E39" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F39" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G39" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vWPALVgTtaRl-k5SDNNSxn3ymBHxzQfc</t>
         </is>
       </c>
-      <c r="H39" s="23" t="inlineStr">
+      <c r="G39" s="22" t="inlineStr">
         <is>
           <t>vWPALVgTtaRl-k5SDNNSxn3ymBHxzQfc</t>
         </is>
       </c>
-      <c r="I39" s="23" t="inlineStr">
+      <c r="H39" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmeJ2aQ8iwgMTPKX2gDTUQVvJexbDSZ5fcddRsp7DpSFKS</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="16.5" customHeight="1" s="24">
-      <c r="A40" s="39" t="inlineStr">
+    <row r="40" ht="16.5" customHeight="1" s="23">
+      <c r="A40" s="37" t="inlineStr">
         <is>
           <t>0xe03C0932C202985F09752BbD682Ca562f48fD531</t>
         </is>
       </c>
-      <c r="B40" s="39" t="inlineStr">
+      <c r="B40" s="37" t="inlineStr">
         <is>
           <t>9702d442350d4c77d6c7bc57be7a88e5af1e2c2376452c91c58595f785069b9d</t>
         </is>
       </c>
-      <c r="C40" s="34" t="inlineStr">
+      <c r="C40" s="32" t="inlineStr">
         <is>
           <t>lambertslandon40@gmail.com</t>
         </is>
       </c>
-      <c r="D40" s="22" t="inlineStr">
+      <c r="D40" s="21" t="inlineStr">
         <is>
           <t>g(Nt7uPr1C</t>
         </is>
       </c>
-      <c r="E40" s="22" t="inlineStr">
+      <c r="E40" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F40" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G40" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/fdegye2jwKtDTwwZo4JEYOxTGuPgJ1zz</t>
         </is>
       </c>
-      <c r="H40" s="23" t="inlineStr">
+      <c r="G40" s="22" t="inlineStr">
         <is>
           <t>fdegye2jwKtDTwwZo4JEYOxTGuPgJ1zz</t>
         </is>
       </c>
-      <c r="I40" s="23" t="inlineStr">
+      <c r="H40" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWmZUvjXGtjvp7f1bjR9yM74yonJLTPTS2UydZvub83Ua</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="16.5" customHeight="1" s="24">
-      <c r="A41" s="39" t="inlineStr">
+    <row r="41" ht="16.5" customHeight="1" s="23">
+      <c r="A41" s="37" t="inlineStr">
         <is>
           <t>0x0B1071a0CFFfb2a01c64BC39B5aE87dEFDEa8446</t>
         </is>
       </c>
-      <c r="B41" s="39" t="inlineStr">
+      <c r="B41" s="37" t="inlineStr">
         <is>
           <t>1cccbbce48419598ba841927c2942b4410bcba840332c3a35bcb7c45c029dc20</t>
         </is>
       </c>
-      <c r="C41" s="34" t="inlineStr">
+      <c r="C41" s="32" t="inlineStr">
         <is>
           <t>brickmanb619@gmail.com</t>
         </is>
       </c>
-      <c r="D41" s="22" t="inlineStr">
+      <c r="D41" s="21" t="inlineStr">
         <is>
           <t>_O_A5U_o$7</t>
         </is>
       </c>
-      <c r="E41" s="22" t="inlineStr">
+      <c r="E41" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F41" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G41" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/VgHHvfkcKgUfwXDP3OcaMXZPAVXe8Lri</t>
         </is>
       </c>
-      <c r="H41" s="23" t="inlineStr">
+      <c r="G41" s="22" t="inlineStr">
         <is>
           <t>VgHHvfkcKgUfwXDP3OcaMXZPAVXe8Lri</t>
         </is>
       </c>
-      <c r="I41" s="23" t="inlineStr">
+      <c r="H41" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbXdgHj7cu63ZHE3gDSWXrzKS37sy1tMScCYm6swTRJ9a</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="16.5" customHeight="1" s="24">
-      <c r="A42" s="39" t="inlineStr">
+    <row r="42" ht="16.5" customHeight="1" s="23">
+      <c r="A42" s="37" t="inlineStr">
         <is>
           <t>0xE62752f8De53B5258aB09A9dc9789d480ff0adEe</t>
         </is>
       </c>
-      <c r="B42" s="39" t="inlineStr">
+      <c r="B42" s="37" t="inlineStr">
         <is>
           <t>ec50b38f862c4cb60fcd6faebd2f1f5bf0ef03358b532475b87ace3ce13125ec</t>
         </is>
       </c>
-      <c r="C42" s="34" t="inlineStr">
+      <c r="C42" s="32" t="inlineStr">
         <is>
           <t>passseth511@gmail.com</t>
         </is>
       </c>
-      <c r="D42" s="22" t="inlineStr">
+      <c r="D42" s="21" t="inlineStr">
         <is>
           <t>p(6sfSwvER</t>
         </is>
       </c>
-      <c r="E42" s="22" t="inlineStr">
+      <c r="E42" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F42" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G42" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/tZ12ufZ9udydyCzRl24cCw-gHkthp6p3</t>
         </is>
       </c>
-      <c r="H42" s="23" t="inlineStr">
+      <c r="G42" s="22" t="inlineStr">
         <is>
           <t>tZ12ufZ9udydyCzRl24cCw-gHkthp6p3</t>
         </is>
       </c>
-      <c r="I42" s="23" t="inlineStr">
+      <c r="H42" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYJEVxzCa886ERC7XxhvYocFyy7i19Keo9R1GJ2VZ5AWq</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1" s="24">
-      <c r="A43" s="39" t="inlineStr">
+    <row r="43" ht="16.5" customHeight="1" s="23">
+      <c r="A43" s="37" t="inlineStr">
         <is>
           <t>0x395d80505ec2E4d0cB9765Da0A4EFdB23c7FF4C3</t>
         </is>
       </c>
-      <c r="B43" s="39" t="inlineStr">
+      <c r="B43" s="37" t="inlineStr">
         <is>
           <t>438c3655883e4771e0dae3f4a8f12967048d41aa67d766880d23e29d315fdbab</t>
         </is>
       </c>
-      <c r="C43" s="34" t="inlineStr">
+      <c r="C43" s="32" t="inlineStr">
         <is>
           <t>dflatcher726@gmail.com</t>
         </is>
       </c>
-      <c r="D43" s="22" t="inlineStr">
+      <c r="D43" s="21" t="inlineStr">
         <is>
           <t>*nn3IVWu9^</t>
         </is>
       </c>
-      <c r="E43" s="22" t="inlineStr">
+      <c r="E43" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F43" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G43" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/-4pTVILIXuhHCFPHjJJqbiVM9u0lAVK8</t>
         </is>
       </c>
-      <c r="H43" s="23" t="inlineStr">
+      <c r="G43" s="22" t="inlineStr">
         <is>
           <t>-4pTVILIXuhHCFPHjJJqbiVM9u0lAVK8</t>
         </is>
       </c>
-      <c r="I43" s="23" t="inlineStr">
+      <c r="H43" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSNGCNWrnZY4paiNVHQJ3ouSWvRrbSXPendNP5gLvSYQm</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="16.5" customHeight="1" s="24">
-      <c r="A44" s="39" t="inlineStr">
+    <row r="44" ht="16.5" customHeight="1" s="23">
+      <c r="A44" s="37" t="inlineStr">
         <is>
           <t>0x4056612FFF2a789d9595DdFb21e1F9581840b80A</t>
         </is>
       </c>
-      <c r="B44" s="39" t="inlineStr">
+      <c r="B44" s="37" t="inlineStr">
         <is>
           <t>17548afe93fd4e971d884e85e6c22af41836fc66c00fb17675894bd8cc9af4e2</t>
         </is>
       </c>
-      <c r="C44" s="34" t="inlineStr">
+      <c r="C44" s="32" t="inlineStr">
         <is>
           <t>NicholasPhilips5725@gmail.com</t>
         </is>
       </c>
-      <c r="D44" s="22" t="inlineStr">
+      <c r="D44" s="21" t="inlineStr">
         <is>
           <t>$zIfnw_M86</t>
         </is>
       </c>
-      <c r="E44" s="22" t="inlineStr">
+      <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F44" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G44" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/XnUXWZL0qrmxCJotI07eRbiuU6UHAd_d</t>
         </is>
       </c>
-      <c r="H44" s="23" t="inlineStr">
+      <c r="G44" s="22" t="inlineStr">
         <is>
           <t>XnUXWZL0qrmxCJotI07eRbiuU6UHAd_d</t>
         </is>
       </c>
-      <c r="I44" s="23" t="inlineStr">
+      <c r="H44" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmezkHsnxzidBF6RQQdddSHRsRcMQtJ5GvLCv1V1QhFgKV</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="16.5" customHeight="1" s="24">
-      <c r="A45" s="39" t="inlineStr">
+    <row r="45" ht="16.5" customHeight="1" s="23">
+      <c r="A45" s="37" t="inlineStr">
         <is>
           <t>0x0fDb48B870F79Efea7e769B7eFA66c3CFf6bD95a</t>
         </is>
       </c>
-      <c r="B45" s="39" t="inlineStr">
+      <c r="B45" s="37" t="inlineStr">
         <is>
           <t>8d1a142ed14ea8fb32221d1a39934a941ef76af6f052b3d195b301677210871d</t>
         </is>
       </c>
-      <c r="C45" s="34" t="inlineStr">
+      <c r="C45" s="32" t="inlineStr">
         <is>
           <t>margaretmarlow644@gmail.com</t>
         </is>
       </c>
-      <c r="D45" s="22" t="inlineStr">
+      <c r="D45" s="21" t="inlineStr">
         <is>
           <t>_8EsyEza#*</t>
         </is>
       </c>
-      <c r="E45" s="22" t="inlineStr">
+      <c r="E45" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I45" s="23" t="inlineStr">
+      <c r="H45" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmevgTJX48LzLkKjquD3EZ3zJ3D3mHP1fvY4NRxkhdnAKE</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1" s="24">
-      <c r="A46" s="39" t="inlineStr">
+    <row r="46" ht="16.5" customHeight="1" s="23">
+      <c r="A46" s="37" t="inlineStr">
         <is>
           <t>0xf6d5183D338926709D4080EE0161AEDaf2AC4986</t>
         </is>
       </c>
-      <c r="B46" s="39" t="inlineStr">
+      <c r="B46" s="37" t="inlineStr">
         <is>
           <t>f1c2d7cb8e8d4a7ca393edefe1b2e07af2f70ee31b7d5a105f4861bef4ee5820</t>
         </is>
       </c>
-      <c r="C46" s="34" t="inlineStr">
+      <c r="C46" s="32" t="inlineStr">
         <is>
           <t>youmansj71@gmail.com</t>
         </is>
       </c>
-      <c r="D46" s="22" t="inlineStr">
+      <c r="D46" s="21" t="inlineStr">
         <is>
           <t>^J5$f*PbD2</t>
         </is>
       </c>
-      <c r="E46" s="22" t="inlineStr">
+      <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F46" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G46" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/iW0sErImsB93rjsmtRzQ8WPYYO30jBH-</t>
         </is>
       </c>
-      <c r="H46" s="23" t="inlineStr">
+      <c r="G46" s="22" t="inlineStr">
         <is>
           <t>iW0sErImsB93rjsmtRzQ8WPYYO30jBH-</t>
         </is>
       </c>
-      <c r="I46" s="23" t="inlineStr">
+      <c r="H46" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYE3LZdLZANVZCfey5nZcGKrP9v2dfTByrG6hfjiDFL5t</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="16.5" customHeight="1" s="24">
-      <c r="A47" s="39" t="inlineStr">
+    <row r="47" ht="16.5" customHeight="1" s="23">
+      <c r="A47" s="37" t="inlineStr">
         <is>
           <t>0x0a7Ae50b22c841363d50C527ff15Ef13a585F93f</t>
         </is>
       </c>
-      <c r="B47" s="39" t="inlineStr">
+      <c r="B47" s="37" t="inlineStr">
         <is>
           <t>dbcdc4173961fbbfbddc46664d794c87e778c7492451f73275dbb6272c89f7c6</t>
         </is>
       </c>
-      <c r="C47" s="34" t="inlineStr">
+      <c r="C47" s="32" t="inlineStr">
         <is>
           <t>alsoppluccile9@gmail.com</t>
         </is>
       </c>
-      <c r="D47" s="22" t="inlineStr">
+      <c r="D47" s="21" t="inlineStr">
         <is>
           <t>p9gaVG!q_c</t>
         </is>
       </c>
-      <c r="E47" s="22" t="inlineStr">
+      <c r="E47" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I47" s="23" t="inlineStr">
+      <c r="H47" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQtX9GZc9tFdKFkF8V4GbZKc8JjgCjVMbQU7FvwPHHDfD</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="16.5" customHeight="1" s="24">
-      <c r="A48" s="39" t="inlineStr">
+    <row r="48" ht="16.5" customHeight="1" s="23">
+      <c r="A48" s="37" t="inlineStr">
         <is>
           <t>0x368aD80904Ce52da8048edE71021Dfa7F1b4207c</t>
         </is>
       </c>
-      <c r="B48" s="39" t="inlineStr">
+      <c r="B48" s="37" t="inlineStr">
         <is>
           <t>fb6215460bae630601e5ce133299bc6d150b2dae671fd70e15ab49f36ca3c30a</t>
         </is>
       </c>
-      <c r="C48" s="34" t="inlineStr">
+      <c r="C48" s="32" t="inlineStr">
         <is>
           <t>jt4992705@gmail.com</t>
         </is>
       </c>
-      <c r="D48" s="22" t="inlineStr">
+      <c r="D48" s="21" t="inlineStr">
         <is>
           <t>F13dQS3u%Y</t>
         </is>
       </c>
-      <c r="E48" s="22" t="inlineStr">
+      <c r="E48" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I48" s="23" t="inlineStr">
+      <c r="H48" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYNqa3ViyLMFGQYyjRa8JccgLKfabDrJY3BgbSu8jiyfV</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1" s="24">
-      <c r="A49" s="39" t="inlineStr">
+    <row r="49" ht="16.5" customHeight="1" s="23">
+      <c r="A49" s="37" t="inlineStr">
         <is>
           <t>0x3486c759e80C34115d8d262156643ead060F0dad</t>
         </is>
       </c>
-      <c r="B49" s="39" t="inlineStr">
+      <c r="B49" s="37" t="inlineStr">
         <is>
           <t>0a61e990eb0cf152d1d3cfc85521530b3aba578002e69e2e2be83224c2278504</t>
         </is>
       </c>
-      <c r="C49" s="34" t="inlineStr">
+      <c r="C49" s="32" t="inlineStr">
         <is>
           <t>oswaldantonio249@gmail.com</t>
         </is>
       </c>
-      <c r="D49" s="22" t="inlineStr">
+      <c r="D49" s="21" t="inlineStr">
         <is>
           <t>tH7WB9vps%</t>
         </is>
       </c>
-      <c r="E49" s="22" t="inlineStr">
+      <c r="E49" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F49" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G49" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/GB1kNlXApeGlw3-8KTS37HEr77_WRurG</t>
         </is>
       </c>
-      <c r="H49" s="23" t="inlineStr">
+      <c r="G49" s="22" t="inlineStr">
         <is>
           <t>GB1kNlXApeGlw3-8KTS37HEr77_WRurG</t>
         </is>
       </c>
-      <c r="I49" s="23" t="inlineStr">
+      <c r="H49" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTFBKn31aL85isVgyF9cjHzjD4Uptvvx9jBkyWqVtLbiX</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1" s="24">
-      <c r="A50" s="39" t="inlineStr">
+    <row r="50" ht="16.5" customHeight="1" s="23">
+      <c r="A50" s="37" t="inlineStr">
         <is>
           <t>0x4c22E363DFe55cb3bA39107c98525bd781F4659a</t>
         </is>
       </c>
-      <c r="B50" s="39" t="inlineStr">
+      <c r="B50" s="37" t="inlineStr">
         <is>
           <t>7a39f61c456449b29bb3b53ff302188aeaca17af4692df2a7318e5760d3dc95a</t>
         </is>
       </c>
-      <c r="C50" s="34" t="inlineStr">
+      <c r="C50" s="32" t="inlineStr">
         <is>
           <t>deborahdyson5@gmail.com</t>
         </is>
       </c>
-      <c r="D50" s="22" t="inlineStr">
+      <c r="D50" s="21" t="inlineStr">
         <is>
           <t>Gh&amp;2EiNrH4</t>
         </is>
       </c>
-      <c r="E50" s="22" t="inlineStr">
+      <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F50" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G50" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/mDVK34WBh_KvO4Dz-oYyY-tMad94IH0k</t>
         </is>
       </c>
-      <c r="H50" s="23" t="inlineStr">
+      <c r="G50" s="22" t="inlineStr">
         <is>
           <t>mDVK34WBh_KvO4Dz-oYyY-tMad94IH0k</t>
         </is>
       </c>
-      <c r="I50" s="23" t="inlineStr">
+      <c r="H50" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTWc3h1qe5whVF7edHEN4h8nefVsJCcUbuPCcEzCpBaPx</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="16.5" customHeight="1" s="24">
-      <c r="A51" s="39" t="inlineStr">
+    <row r="51" ht="16.5" customHeight="1" s="23">
+      <c r="A51" s="37" t="inlineStr">
         <is>
           <t>0xA94Fc6eBE5cf192af3C8F356db0F0670ac8F20dA</t>
         </is>
       </c>
-      <c r="B51" s="39" t="inlineStr">
+      <c r="B51" s="37" t="inlineStr">
         <is>
           <t>6c3362d44d63add0e578a3f95d7a5af6e3535a929d3196fde0aa73d8c0252668</t>
         </is>
       </c>
-      <c r="C51" s="34" t="inlineStr">
+      <c r="C51" s="32" t="inlineStr">
         <is>
           <t>avac3936@gmail.com</t>
         </is>
       </c>
-      <c r="D51" s="22" t="inlineStr">
+      <c r="D51" s="21" t="inlineStr">
         <is>
           <t>EC@J6Epc1h</t>
         </is>
       </c>
-      <c r="E51" s="22" t="inlineStr">
+      <c r="E51" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F51" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G51" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/2VsqybvY-EGqV4WAGU-P4V7C8buXJQ8t</t>
         </is>
       </c>
-      <c r="H51" s="23" t="inlineStr">
+      <c r="G51" s="22" t="inlineStr">
         <is>
           <t>2VsqybvY-EGqV4WAGU-P4V7C8buXJQ8t</t>
         </is>
       </c>
-      <c r="I51" s="23" t="inlineStr">
+      <c r="H51" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmc6FjYWp27xfUFZgXjqZYJitcSZZQK9bYUrAED6pFuTAw</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="16.5" customHeight="1" s="24">
-      <c r="A52" s="39" t="inlineStr">
+    <row r="52" ht="16.5" customHeight="1" s="23">
+      <c r="A52" s="37" t="inlineStr">
         <is>
           <t>0xC68a21cbB7C4eAD8b23A0f7108058FfddD0838B6</t>
         </is>
       </c>
-      <c r="B52" s="39" t="inlineStr">
+      <c r="B52" s="37" t="inlineStr">
         <is>
           <t>860ad4efde75b405c983dd2aa95701823d8e2f6b2fbb0170bd2423ccf13fff0a</t>
         </is>
       </c>
-      <c r="C52" s="34" t="inlineStr">
+      <c r="C52" s="32" t="inlineStr">
         <is>
           <t>fr7534003@gmail.com</t>
         </is>
       </c>
-      <c r="D52" s="22" t="inlineStr">
+      <c r="D52" s="21" t="inlineStr">
         <is>
           <t>hM3ZBOTw(8</t>
         </is>
       </c>
-      <c r="E52" s="22" t="inlineStr">
+      <c r="E52" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F52" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G52" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/8RyXQYC18DEDOmQbUFihB74agwvSCM_x</t>
         </is>
       </c>
-      <c r="H52" s="23" t="inlineStr">
+      <c r="G52" s="22" t="inlineStr">
         <is>
           <t>8RyXQYC18DEDOmQbUFihB74agwvSCM_x</t>
         </is>
       </c>
-      <c r="I52" s="23" t="inlineStr">
+      <c r="H52" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmd9RVu2AASkY146BpuzTwE7QwqnPNGUdfQ8oWY7aPyM8w</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="16.5" customHeight="1" s="24">
-      <c r="A53" s="39" t="inlineStr">
+    <row r="53" ht="16.5" customHeight="1" s="23">
+      <c r="A53" s="37" t="inlineStr">
         <is>
           <t>0x62561E104B29F2E449084A984B114258ab5fb88a</t>
         </is>
       </c>
-      <c r="B53" s="39" t="inlineStr">
+      <c r="B53" s="37" t="inlineStr">
         <is>
           <t>9d4a75d9597ea2852461bc09e176754bdcaadb41d60311d9d03746d006263fc7</t>
         </is>
       </c>
-      <c r="C53" s="34" t="inlineStr">
+      <c r="C53" s="32" t="inlineStr">
         <is>
           <t>hannahralphs012@gmail.com</t>
         </is>
       </c>
-      <c r="D53" s="22" t="inlineStr">
+      <c r="D53" s="21" t="inlineStr">
         <is>
           <t>^dUSj7b43O</t>
         </is>
       </c>
-      <c r="E53" s="22" t="inlineStr">
+      <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F53" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G53" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/VmJu9dhGeh8a1CdeVPtjFbETxC_foCM3</t>
         </is>
       </c>
-      <c r="H53" s="23" t="inlineStr">
+      <c r="G53" s="22" t="inlineStr">
         <is>
           <t>VmJu9dhGeh8a1CdeVPtjFbETxC_foCM3</t>
         </is>
       </c>
-      <c r="I53" s="23" t="inlineStr">
+      <c r="H53" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVSHR2h6MszyQS1uHr15D6dVXzrAs12ZxsCHWjb3PVzLV</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="16.5" customHeight="1" s="24">
-      <c r="A54" s="39" t="inlineStr">
+    <row r="54" ht="16.5" customHeight="1" s="23">
+      <c r="A54" s="37" t="inlineStr">
         <is>
           <t>0xDAafA355C965507D2a77f36fCbE7B197C5E455f8</t>
         </is>
       </c>
-      <c r="B54" s="39" t="inlineStr">
+      <c r="B54" s="37" t="inlineStr">
         <is>
           <t>d2caf5e638510eb3aee6fe425c2f2470819c86d3e41771a0c9fc32b241cb07a8</t>
         </is>
       </c>
-      <c r="C54" s="34" t="inlineStr">
+      <c r="C54" s="32" t="inlineStr">
         <is>
           <t>sheldonmaria02@gmail.com</t>
         </is>
       </c>
-      <c r="D54" s="22" t="inlineStr">
+      <c r="D54" s="21" t="inlineStr">
         <is>
           <t>S_9v6OmbVg</t>
         </is>
       </c>
-      <c r="E54" s="22" t="inlineStr">
+      <c r="E54" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F54" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G54" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/RzPMDEea8IWy9fEEQXdYmclUcIO8TM1n</t>
         </is>
       </c>
-      <c r="H54" s="23" t="inlineStr">
+      <c r="G54" s="22" t="inlineStr">
         <is>
           <t>RzPMDEea8IWy9fEEQXdYmclUcIO8TM1n</t>
         </is>
       </c>
-      <c r="I54" s="23" t="inlineStr">
+      <c r="H54" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTDRkoYKs7SgEn6pFSBuxE5gbAfAqC9kejjbHH477jLgw</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="16.5" customHeight="1" s="24">
-      <c r="A55" s="39" t="inlineStr">
+    <row r="55" ht="16.5" customHeight="1" s="23">
+      <c r="A55" s="37" t="inlineStr">
         <is>
           <t>0x8201D2C6338E04A764F314a5E83600af0905C226</t>
         </is>
       </c>
-      <c r="B55" s="39" t="inlineStr">
+      <c r="B55" s="37" t="inlineStr">
         <is>
           <t>933bf7a0c892299a798d00b9169a2fb9b53be8e29cb7ce17097975b99f546598</t>
         </is>
       </c>
-      <c r="C55" s="34" t="inlineStr">
+      <c r="C55" s="32" t="inlineStr">
         <is>
           <t>nymanclaire084@gmail.com</t>
         </is>
       </c>
-      <c r="D55" s="22" t="inlineStr">
+      <c r="D55" s="21" t="inlineStr">
         <is>
           <t>grfX%lR&amp;(8</t>
         </is>
       </c>
-      <c r="E55" s="22" t="inlineStr">
+      <c r="E55" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F55" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G55" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/2Iwrq_LB8oFBx0ib1RoQxgUiuc3UnlSf</t>
         </is>
       </c>
-      <c r="H55" s="23" t="inlineStr">
+      <c r="G55" s="22" t="inlineStr">
         <is>
           <t>2Iwrq_LB8oFBx0ib1RoQxgUiuc3UnlSf</t>
         </is>
       </c>
-      <c r="I55" s="23" t="inlineStr">
+      <c r="H55" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmdG1YUP56hbG51hpDBECUAZ5mWDiYpYCMb84VAmv836SP</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1" s="24">
-      <c r="A56" s="39" t="inlineStr">
+    <row r="56" ht="16.5" customHeight="1" s="23">
+      <c r="A56" s="37" t="inlineStr">
         <is>
           <t>0x8DE9d9adf859E7a6FC4656d93e9286855bEa2926</t>
         </is>
       </c>
-      <c r="B56" s="39" t="inlineStr">
+      <c r="B56" s="37" t="inlineStr">
         <is>
           <t>7c1f2e7ebef167f097e0675938f7c8a301848c3bd5c1c45df9040988fd47946d</t>
         </is>
       </c>
-      <c r="C56" s="34" t="inlineStr">
+      <c r="C56" s="32" t="inlineStr">
         <is>
           <t>taftbarbara034@gmail.com</t>
         </is>
       </c>
-      <c r="D56" s="22" t="inlineStr">
+      <c r="D56" s="21" t="inlineStr">
         <is>
           <t>m95&amp;1RML(7</t>
         </is>
       </c>
-      <c r="E56" s="22" t="inlineStr">
+      <c r="E56" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F56" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G56" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/hV8rsf6dSJABYnP4JZprnZ7_DcdwjA4R</t>
         </is>
       </c>
-      <c r="H56" s="23" t="inlineStr">
+      <c r="G56" s="22" t="inlineStr">
         <is>
           <t>hV8rsf6dSJABYnP4JZprnZ7_DcdwjA4R</t>
         </is>
       </c>
-      <c r="I56" s="23" t="inlineStr">
+      <c r="H56" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbkdK8oY5WCyox1kybSaGy4aLcfUMWzhGyFdUdNE9NAvK</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.4" customHeight="1" s="24">
-      <c r="A57" s="39" t="inlineStr">
+    <row r="57" ht="12.4" customHeight="1" s="23">
+      <c r="A57" s="37" t="inlineStr">
         <is>
           <t>0x60d4e1331aAFf8107fB46A2983Ec0e583a8F1FD4</t>
         </is>
       </c>
-      <c r="B57" s="39" t="inlineStr">
+      <c r="B57" s="37" t="inlineStr">
         <is>
           <t>d91a3accc54b6a072b8ebeb9911360358e17f349fcbfd987baceb2858c874c47</t>
         </is>
       </c>
-      <c r="C57" s="34" t="inlineStr">
+      <c r="C57" s="32" t="inlineStr">
         <is>
           <t>cartermiln578@gmail.com</t>
         </is>
       </c>
-      <c r="D57" s="22" t="inlineStr">
+      <c r="D57" s="21" t="inlineStr">
         <is>
           <t>Z^O64gY(9w</t>
         </is>
       </c>
-      <c r="E57" s="22" t="inlineStr">
+      <c r="E57" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F57" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G57" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Kd9m7Sx3q2NHgmn9El25IibTOKP5o5Br</t>
         </is>
       </c>
-      <c r="H57" s="23" t="inlineStr">
+      <c r="G57" s="22" t="inlineStr">
         <is>
           <t>Kd9m7Sx3q2NHgmn9El25IibTOKP5o5Br</t>
         </is>
       </c>
-      <c r="I57" s="23" t="inlineStr">
+      <c r="H57" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSk271b9u5Lwc4t4QgybdrGNkZdPSYm3HGgdSnny8HpU1</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.4" customHeight="1" s="24">
-      <c r="A58" s="39" t="inlineStr">
+    <row r="58" ht="12.4" customHeight="1" s="23">
+      <c r="A58" s="37" t="inlineStr">
         <is>
           <t>0x77Eed884a91480c579B96a3A9267B2ddF840D6d4</t>
         </is>
       </c>
-      <c r="B58" s="39" t="inlineStr">
+      <c r="B58" s="37" t="inlineStr">
         <is>
           <t>66c0c131ae1d15597e54689b47d034255e5848aed6a6ffa017c2aa13c3981603</t>
         </is>
       </c>
-      <c r="C58" s="34" t="inlineStr">
+      <c r="C58" s="32" t="inlineStr">
         <is>
           <t>bt2389128@gmail.com</t>
         </is>
       </c>
-      <c r="D58" s="22" t="inlineStr">
+      <c r="D58" s="21" t="inlineStr">
         <is>
           <t>W9S5IQy3+^</t>
         </is>
       </c>
-      <c r="E58" s="22" t="inlineStr">
+      <c r="E58" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F58" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G58" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/73IF-WhUO84Vv4RAXatB8-G_eLJWljRj</t>
         </is>
       </c>
-      <c r="H58" s="23" t="inlineStr">
+      <c r="G58" s="22" t="inlineStr">
         <is>
           <t>73IF-WhUO84Vv4RAXatB8-G_eLJWljRj</t>
         </is>
       </c>
-      <c r="I58" s="23" t="inlineStr">
+      <c r="H58" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQYZkkAaaMdsZ2LHSR17Gac3gb5nckiSvFeKfhgpSGHyE</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.4" customHeight="1" s="24">
-      <c r="A59" s="39" t="inlineStr">
+    <row r="59" ht="12.4" customHeight="1" s="23">
+      <c r="A59" s="37" t="inlineStr">
         <is>
           <t>0x68b22008849b5AeD4a36C7409224423383a1EAFa</t>
         </is>
       </c>
-      <c r="B59" s="39" t="inlineStr">
+      <c r="B59" s="37" t="inlineStr">
         <is>
           <t>5455c0fb5ad379fc9695a00eef0bedccb3da77e42400a685f1e8aa145cf85318</t>
         </is>
       </c>
-      <c r="C59" s="34" t="inlineStr">
+      <c r="C59" s="32" t="inlineStr">
         <is>
           <t>bblomfield440@gmail.com</t>
         </is>
       </c>
-      <c r="D59" s="22" t="inlineStr">
+      <c r="D59" s="21" t="inlineStr">
         <is>
           <t>krV6LWtsg#</t>
         </is>
       </c>
-      <c r="E59" s="22" t="inlineStr">
+      <c r="E59" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F59" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G59" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/-rojs3beyr-7vJVqjpQkMDSdHRRquSn5</t>
         </is>
       </c>
-      <c r="H59" s="23" t="inlineStr">
+      <c r="G59" s="22" t="inlineStr">
         <is>
           <t>-rojs3beyr-7vJVqjpQkMDSdHRRquSn5</t>
         </is>
       </c>
-      <c r="I59" s="23" t="inlineStr">
+      <c r="H59" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmP2kKFFp4nseLoNLU4a1nJQTaRWWkhAwRBjYsqEN1w1rV</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.4" customHeight="1" s="24">
-      <c r="A60" s="39" t="inlineStr">
+    <row r="60" ht="12.4" customHeight="1" s="23">
+      <c r="A60" s="37" t="inlineStr">
         <is>
           <t>0xb6d5fC2Ab3D675149025eB1055C8acAf17b4DCa2</t>
         </is>
       </c>
-      <c r="B60" s="39" t="inlineStr">
+      <c r="B60" s="37" t="inlineStr">
         <is>
           <t>abf63f2c8efb7c24f79e15bf74cee97612fbcfa2723c0a9df537b65db8e34c04</t>
         </is>
       </c>
-      <c r="C60" s="34" t="inlineStr">
+      <c r="C60" s="32" t="inlineStr">
         <is>
           <t>bbridjet4@gmail.com</t>
         </is>
       </c>
-      <c r="D60" s="22" t="inlineStr">
+      <c r="D60" s="21" t="inlineStr">
         <is>
           <t>*91VbDIxt9</t>
         </is>
       </c>
-      <c r="E60" s="22" t="inlineStr">
+      <c r="E60" s="21" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
       <c r="F60" s="22" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G60" s="23" t="inlineStr">
-        <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/kUQbPA3x1ufij-Xq5CJWyg2YlPH5tSJF</t>
         </is>
       </c>
-      <c r="H60" s="23" t="inlineStr">
+      <c r="G60" s="22" t="inlineStr">
         <is>
           <t>kUQbPA3x1ufij-Xq5CJWyg2YlPH5tSJF</t>
         </is>
       </c>
-      <c r="I60" s="23" t="inlineStr">
+      <c r="H60" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPwZeXZoayaWNPdiv2pegDUPGMh8pWvL6Znhr66kkQoP8</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.4" customHeight="1" s="24">
-      <c r="A61" s="39" t="inlineStr">
+    <row r="61" ht="12.4" customHeight="1" s="23">
+      <c r="A61" s="37" t="inlineStr">
         <is>
           <t>0x6b2B5fc53070A0D6a2360E3A28e336AD1D419871</t>
         </is>
       </c>
-      <c r="B61" s="39" t="inlineStr">
+      <c r="B61" s="37" t="inlineStr">
         <is>
           <t>a6cdf22097fc9085daacb9ef0c9752ec040c9c89e087924b6c29c13b54b34ef3</t>
         </is>
       </c>
-      <c r="C61" s="34" t="inlineStr">
+      <c r="C61" s="32" t="inlineStr">
         <is>
           <t>kingsmaneric270@gmail.com</t>
         </is>
       </c>
-      <c r="D61" s="22" t="inlineStr">
+      <c r="D61" s="21" t="inlineStr">
         <is>
           <t>qLf%zFlq!2</t>
         </is>
       </c>
-      <c r="E61" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F61" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G61" s="23" t="inlineStr">
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F61" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/LKfBAjIfXuz63NHy3q3N4RW7RKRF4PGW</t>
         </is>
       </c>
-      <c r="H61" s="23" t="inlineStr">
+      <c r="G61" s="22" t="inlineStr">
         <is>
           <t>LKfBAjIfXuz63NHy3q3N4RW7RKRF4PGW</t>
         </is>
       </c>
-      <c r="I61" s="23" t="inlineStr">
+      <c r="H61" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmciTn95mJGcyqvzyv3Y8J1CSgAMQtDuMfdEHeVgBYad9o</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.4" customHeight="1" s="24">
-      <c r="A62" s="39" t="inlineStr">
+    <row r="62" ht="12.4" customHeight="1" s="23">
+      <c r="A62" s="37" t="inlineStr">
         <is>
           <t>0xFDc20515ecbB7bca9fAe480579A06818dd03324A</t>
         </is>
       </c>
-      <c r="B62" s="39" t="inlineStr">
+      <c r="B62" s="37" t="inlineStr">
         <is>
           <t>1722464b67418f65b988ab6c87bd3dec727028f3e22b985b1777f9f82c0e26c2</t>
         </is>
       </c>
-      <c r="C62" s="34" t="inlineStr">
+      <c r="C62" s="32" t="inlineStr">
         <is>
           <t>chandterlucy87@gmail.com</t>
         </is>
       </c>
-      <c r="D62" s="22" t="inlineStr">
+      <c r="D62" s="21" t="inlineStr">
         <is>
           <t>SDN&amp;07zxL+</t>
         </is>
       </c>
-      <c r="E62" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F62" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G62" s="23" t="inlineStr">
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F62" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/EoRAHz5vai0q9SH2q76Sto5wuPalFR0T</t>
         </is>
       </c>
-      <c r="H62" s="23" t="inlineStr">
+      <c r="G62" s="22" t="inlineStr">
         <is>
           <t>EoRAHz5vai0q9SH2q76Sto5wuPalFR0T</t>
         </is>
       </c>
-      <c r="I62" s="23" t="inlineStr">
+      <c r="H62" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQUYdraNPj5i31fjjeV5gxgkKEt2JqiUHyWB6o79jnAvj</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.4" customHeight="1" s="24">
-      <c r="A63" s="39" t="inlineStr">
+    <row r="63" ht="12.4" customHeight="1" s="23">
+      <c r="A63" s="37" t="inlineStr">
         <is>
           <t>0x14B0A4033CACc2631aC95f2998e2CbeCd5B53AE2</t>
         </is>
       </c>
-      <c r="B63" s="39" t="inlineStr">
+      <c r="B63" s="37" t="inlineStr">
         <is>
           <t>378b872f1cd547be5e1c11a92d1d331130a6d448819295804b43d206aa0ef94e</t>
         </is>
       </c>
-      <c r="C63" s="34" t="inlineStr">
+      <c r="C63" s="32" t="inlineStr">
         <is>
           <t>bo609703@gmail.com</t>
         </is>
       </c>
-      <c r="D63" s="22" t="inlineStr">
+      <c r="D63" s="21" t="inlineStr">
         <is>
           <t>NRa4_9Bx67</t>
         </is>
       </c>
-      <c r="E63" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F63" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G63" s="23" t="inlineStr">
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F63" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/dPy-YUUWrVOZ7wC2Rv5wdu5onDIZqFbv</t>
         </is>
       </c>
-      <c r="H63" s="23" t="inlineStr">
+      <c r="G63" s="22" t="inlineStr">
         <is>
           <t>dPy-YUUWrVOZ7wC2Rv5wdu5onDIZqFbv</t>
         </is>
       </c>
-      <c r="I63" s="23" t="inlineStr">
+      <c r="H63" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXn9fUMDsia48iRDCof8YfWdaS9VdiMG9of6C3nPpmcGF</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.4" customHeight="1" s="24">
-      <c r="A64" s="39" t="inlineStr">
+    <row r="64" ht="12.4" customHeight="1" s="23">
+      <c r="A64" s="37" t="inlineStr">
         <is>
           <t>0xFE4015A0448462D355EE81A422E2582E97404672</t>
         </is>
       </c>
-      <c r="B64" s="39" t="inlineStr">
+      <c r="B64" s="37" t="inlineStr">
         <is>
           <t>5e239f6cfc3914aa49eeb4b0b2a8c1dcb00bbe9fb696fdf36e5801d955f04df2</t>
         </is>
       </c>
-      <c r="C64" s="34" t="inlineStr">
+      <c r="C64" s="32" t="inlineStr">
         <is>
           <t>angelinaconors960@gmail.com</t>
         </is>
       </c>
-      <c r="D64" s="22" t="inlineStr">
+      <c r="D64" s="21" t="inlineStr">
         <is>
           <t>(V3HUmS7Vg</t>
         </is>
       </c>
-      <c r="E64" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F64" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G64" s="23" t="inlineStr">
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F64" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Ya-M0AG6UVKXBlWdgI7gOW0zW_f220zC</t>
         </is>
       </c>
-      <c r="H64" s="23" t="inlineStr">
+      <c r="G64" s="22" t="inlineStr">
         <is>
           <t>Ya-M0AG6UVKXBlWdgI7gOW0zW_f220zC</t>
         </is>
       </c>
-      <c r="I64" s="23" t="inlineStr">
+      <c r="H64" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRbhjSk2eC7T16xyjoUVRnKMDwK8TdY2TWQ3ESK7b9gVz</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.4" customHeight="1" s="24">
-      <c r="A65" s="39" t="inlineStr">
+    <row r="65" ht="12.4" customHeight="1" s="23">
+      <c r="A65" s="37" t="inlineStr">
         <is>
           <t>0x252e1E4810BF1dac85C23C7f52F16A1B9dc89BeD</t>
         </is>
       </c>
-      <c r="B65" s="39" t="inlineStr">
+      <c r="B65" s="37" t="inlineStr">
         <is>
           <t>27f8e77e3eea434a8dbb60b71b6a852c1c63da1cdd2bc738f44e1cbfcd132d2a</t>
         </is>
       </c>
-      <c r="C65" s="34" t="inlineStr">
+      <c r="C65" s="32" t="inlineStr">
         <is>
           <t>haleyelmers004@gmail.com</t>
         </is>
       </c>
-      <c r="D65" s="22" t="inlineStr">
+      <c r="D65" s="21" t="inlineStr">
         <is>
           <t>(A^b7Z(scz</t>
         </is>
       </c>
-      <c r="E65" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F65" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G65" s="23" t="inlineStr">
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F65" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Pe4AVZU6k_aJsuJcoHduw5gIMwOgdawd</t>
         </is>
       </c>
-      <c r="H65" s="23" t="inlineStr">
+      <c r="G65" s="22" t="inlineStr">
         <is>
           <t>Pe4AVZU6k_aJsuJcoHduw5gIMwOgdawd</t>
         </is>
       </c>
-      <c r="I65" s="23" t="inlineStr">
+      <c r="H65" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQ7Dd6aKXoCU9FwrAbnqWwxxyUKxZyqVz39ppL4dh1z2L</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.4" customHeight="1" s="24">
-      <c r="A66" s="39" t="inlineStr">
+    <row r="66" ht="12.4" customHeight="1" s="23">
+      <c r="A66" s="37" t="inlineStr">
         <is>
           <t>0x8ED76B2BEdE67f671E9ba8A06a04834E89cC863f</t>
         </is>
       </c>
-      <c r="B66" s="39" t="inlineStr">
+      <c r="B66" s="37" t="inlineStr">
         <is>
           <t>11081afee3aa542c890cd67760ad0762207a2a629a9b3890e9f7eb3512f2bae2</t>
         </is>
       </c>
-      <c r="C66" s="34" t="inlineStr">
+      <c r="C66" s="32" t="inlineStr">
         <is>
           <t>elmersj2@gmail.com</t>
         </is>
       </c>
-      <c r="D66" s="22" t="inlineStr">
+      <c r="D66" s="21" t="inlineStr">
         <is>
           <t>u#zYkpg*+9</t>
         </is>
       </c>
-      <c r="E66" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F66" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G66" s="23" t="inlineStr">
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F66" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/u7giplob7bro1RWuLdha34VH-QtBd3g7</t>
         </is>
       </c>
-      <c r="H66" s="23" t="inlineStr">
+      <c r="G66" s="22" t="inlineStr">
         <is>
           <t>u7giplob7bro1RWuLdha34VH-QtBd3g7</t>
         </is>
       </c>
-      <c r="I66" s="23" t="inlineStr">
+      <c r="H66" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPqbhvRti4DaTkKCkSvFUTwfQ4MERR6Pd3PJwFTiMfcYi</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.4" customHeight="1" s="24">
-      <c r="A67" s="39" t="inlineStr">
+    <row r="67" ht="12.4" customHeight="1" s="23">
+      <c r="A67" s="37" t="inlineStr">
         <is>
           <t>0x61f459D204a84dEac7730e2A5945b717b4C02410</t>
         </is>
       </c>
-      <c r="B67" s="39" t="inlineStr">
+      <c r="B67" s="37" t="inlineStr">
         <is>
           <t>5872d6863b3b07c67a8c231c7ad6ee2f36f8078e49e0858ff0b66776120829aa</t>
         </is>
       </c>
-      <c r="C67" s="34" t="inlineStr">
+      <c r="C67" s="32" t="inlineStr">
         <is>
           <t>ellaraleigh72@gmail.com</t>
         </is>
       </c>
-      <c r="D67" s="22" t="inlineStr">
+      <c r="D67" s="21" t="inlineStr">
         <is>
           <t>QR2YSVlL_o</t>
         </is>
       </c>
-      <c r="E67" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F67" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G67" s="23" t="inlineStr">
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F67" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/d4e6zn3t69rIjgfnjQZkANJ_jxtSBFkp</t>
         </is>
       </c>
-      <c r="H67" s="23" t="inlineStr">
+      <c r="G67" s="22" t="inlineStr">
         <is>
           <t>d4e6zn3t69rIjgfnjQZkANJ_jxtSBFkp</t>
         </is>
       </c>
-      <c r="I67" s="23" t="inlineStr">
+      <c r="H67" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZNsVHTVSCBx4vA4tu1kFa8nStdHUQZq9GMKAKyfiG3Le</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="12.4" customHeight="1" s="24">
-      <c r="A68" s="39" t="inlineStr">
+    <row r="68" ht="12.4" customHeight="1" s="23">
+      <c r="A68" s="37" t="inlineStr">
         <is>
           <t>0xf14dDA85C2505E1b01bD7ad18e48974CcEf76E9b</t>
         </is>
       </c>
-      <c r="B68" s="39" t="inlineStr">
+      <c r="B68" s="37" t="inlineStr">
         <is>
           <t>ea82a754f383833c3b02bb5ca0553104aadaa6c38cb2266c169d72fa260fb8b9</t>
         </is>
       </c>
-      <c r="C68" s="34" t="inlineStr">
+      <c r="C68" s="32" t="inlineStr">
         <is>
           <t>db986259@gmail.com</t>
         </is>
       </c>
-      <c r="D68" s="22" t="inlineStr">
+      <c r="D68" s="21" t="inlineStr">
         <is>
           <t>(30pFAfgL7</t>
         </is>
       </c>
-      <c r="E68" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F68" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G68" s="23" t="inlineStr">
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F68" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/tXGG94I5pV7k31UOjrYRRbSXSZX7ulTn</t>
         </is>
       </c>
-      <c r="H68" s="23" t="inlineStr">
+      <c r="G68" s="22" t="inlineStr">
         <is>
           <t>tXGG94I5pV7k31UOjrYRRbSXSZX7ulTn</t>
         </is>
       </c>
-      <c r="I68" s="23" t="inlineStr">
+      <c r="H68" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmX4qbCyjhmBkwUFWma7jyyJZ1cBTzbxJ7v6VLmEJjJfgi</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="12.4" customHeight="1" s="24">
-      <c r="A69" s="23" t="inlineStr">
+    <row r="69" ht="12.4" customHeight="1" s="23">
+      <c r="A69" s="22" t="inlineStr">
         <is>
           <t>0x1976377dEB3729c122d0FB609eE795604eF3ad4c</t>
         </is>
       </c>
-      <c r="B69" s="23" t="inlineStr">
+      <c r="B69" s="22" t="inlineStr">
         <is>
           <t>0a86437692dffcd5ae6501b41c9760f00a06de3abcf9c5fe6a91eb069523c584</t>
         </is>
       </c>
-      <c r="C69" s="34" t="inlineStr">
+      <c r="C69" s="32" t="inlineStr">
         <is>
           <t>adriansimon874@gmail.com</t>
         </is>
       </c>
-      <c r="D69" s="22" t="inlineStr">
+      <c r="D69" s="21" t="inlineStr">
         <is>
           <t>@9WBaWQx25</t>
         </is>
       </c>
-      <c r="E69" s="23" t="inlineStr">
+      <c r="E69" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I69" s="23" t="inlineStr">
+      <c r="H69" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmd6QwNUtURufmeJTfnJfQWXhYKTbkujsWEj24yhQ9TUQu</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="12.4" customHeight="1" s="24">
-      <c r="A70" s="23" t="inlineStr">
+    <row r="70" ht="12.4" customHeight="1" s="23">
+      <c r="A70" s="22" t="inlineStr">
         <is>
           <t>0xf8BE3b6fbEAC689bd5cC1FF71CEd11924491caFd</t>
         </is>
       </c>
-      <c r="B70" s="23" t="inlineStr">
+      <c r="B70" s="22" t="inlineStr">
         <is>
           <t>efd6fc961b245e1e4a49ad2b3a71b9d1d24500dfe085572981334e209ce0bd9f</t>
         </is>
       </c>
-      <c r="C70" s="34" t="inlineStr">
+      <c r="C70" s="32" t="inlineStr">
         <is>
           <t>AdrianSmith6187@gmail.com</t>
         </is>
       </c>
-      <c r="D70" s="22" t="inlineStr">
+      <c r="D70" s="21" t="inlineStr">
         <is>
           <t>_sgAIN&amp;Nh0</t>
         </is>
       </c>
-      <c r="E70" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F70" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G70" s="23" t="inlineStr">
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F70" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/VcVegq0ltxqccPvPEGt22ThioMkyz9-U</t>
         </is>
       </c>
-      <c r="H70" s="23" t="inlineStr">
+      <c r="G70" s="22" t="inlineStr">
         <is>
           <t>VcVegq0ltxqccPvPEGt22ThioMkyz9-U</t>
         </is>
       </c>
-      <c r="I70" s="23" t="inlineStr">
+      <c r="H70" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmcngq4aQwa3gZX5mnfHQx6YQjYVJ5huC2k6eQHgVoz2A9</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.4" customHeight="1" s="24">
-      <c r="A71" s="23" t="inlineStr">
+    <row r="71" ht="12.4" customHeight="1" s="23">
+      <c r="A71" s="22" t="inlineStr">
         <is>
           <t>0xa3BA3bDB0c41e872987Bfa486203d1eEF7fd67e3</t>
         </is>
       </c>
-      <c r="B71" s="23" t="inlineStr">
+      <c r="B71" s="22" t="inlineStr">
         <is>
           <t>9e0215a680e31f33a06ce13739733c8fb76b3a2adf9d635e0b8d0cc75047dcb1</t>
         </is>
       </c>
-      <c r="C71" s="34" t="inlineStr">
+      <c r="C71" s="32" t="inlineStr">
         <is>
           <t>crossmansierra865@gmail.com</t>
         </is>
       </c>
-      <c r="D71" s="22" t="inlineStr">
+      <c r="D71" s="21" t="inlineStr">
         <is>
           <t>#&amp;6X$JZL2l</t>
         </is>
       </c>
-      <c r="E71" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F71" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G71" s="23" t="inlineStr">
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F71" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/sul3SqjX2-4oYvx3kRj51n16HQOvWr7v</t>
         </is>
       </c>
-      <c r="H71" s="23" t="inlineStr">
+      <c r="G71" s="22" t="inlineStr">
         <is>
           <t>sul3SqjX2-4oYvx3kRj51n16HQOvWr7v</t>
         </is>
       </c>
-      <c r="I71" s="23" t="inlineStr">
+      <c r="H71" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRNb59VwfGaV5PKr5r9bnK9XTJXq67NNzTcfYZkJZ7fAo</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.4" customHeight="1" s="24">
-      <c r="A72" s="23" t="inlineStr">
+    <row r="72" ht="12.4" customHeight="1" s="23">
+      <c r="A72" s="22" t="inlineStr">
         <is>
           <t>0xA075Ce462fC9d4902219954Ee85E80AA602281a1</t>
         </is>
       </c>
-      <c r="B72" s="23" t="inlineStr">
+      <c r="B72" s="22" t="inlineStr">
         <is>
           <t>69c64fd515276ba40e219f3a9d77b57b7794a74254405c5b6989d916f46d5ddd</t>
         </is>
       </c>
-      <c r="C72" s="34" t="inlineStr">
+      <c r="C72" s="32" t="inlineStr">
         <is>
           <t>ld163277@gmail.com</t>
         </is>
       </c>
-      <c r="D72" s="22" t="inlineStr">
+      <c r="D72" s="21" t="inlineStr">
         <is>
           <t>H6IXZHJd#T</t>
         </is>
       </c>
-      <c r="E72" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F72" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G72" s="23" t="inlineStr">
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F72" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/pTj1XpoY3RdLFzfQMY_T9vTtqNt6UnQN</t>
         </is>
       </c>
-      <c r="H72" s="23" t="inlineStr">
+      <c r="G72" s="22" t="inlineStr">
         <is>
           <t>pTj1XpoY3RdLFzfQMY_T9vTtqNt6UnQN</t>
         </is>
       </c>
-      <c r="I72" s="23" t="inlineStr">
+      <c r="H72" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbEbWyfZnBwg7VNEmaAeG2Zjj8kzkKNQi25GsLhtdYE62</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="12.4" customHeight="1" s="24">
-      <c r="A73" s="23" t="inlineStr">
+    <row r="73" ht="12.4" customHeight="1" s="23">
+      <c r="A73" s="22" t="inlineStr">
         <is>
           <t>0x2338925b5CdD1763f24F323729e2e79c823550eF</t>
         </is>
       </c>
-      <c r="B73" s="39" t="inlineStr">
+      <c r="B73" s="37" t="inlineStr">
         <is>
           <t>2b723f3b63b0a63905556cf1ca5c4e48992ea4cfd6a39229043b5fba5728c9ad</t>
         </is>
       </c>
-      <c r="C73" s="34" t="inlineStr">
+      <c r="C73" s="32" t="inlineStr">
         <is>
           <t>jenkinkatherine4@gmail.com</t>
         </is>
       </c>
-      <c r="D73" s="22" t="inlineStr">
+      <c r="D73" s="21" t="inlineStr">
         <is>
           <t>!2AB5nVtue</t>
         </is>
       </c>
-      <c r="E73" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F73" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G73" s="23" t="inlineStr">
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F73" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/pfgXK8NfuQvWjg1ZQfrUhVrQz1xQlzYN</t>
         </is>
       </c>
-      <c r="H73" s="23" t="inlineStr">
+      <c r="G73" s="22" t="inlineStr">
         <is>
           <t>pfgXK8NfuQvWjg1ZQfrUhVrQz1xQlzYN</t>
         </is>
       </c>
-      <c r="I73" s="23" t="inlineStr">
+      <c r="H73" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfHYHo6c8Mw9MaCHm1NGECBVcMpQxPTC4xfFQY4X5rLDh</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="12.4" customHeight="1" s="24">
-      <c r="A74" s="39" t="n"/>
-      <c r="B74" s="39" t="n"/>
-      <c r="C74" s="34" t="inlineStr">
+    <row r="74" ht="12.4" customHeight="1" s="23">
+      <c r="A74" s="37" t="n"/>
+      <c r="B74" s="37" t="n"/>
+      <c r="C74" s="32" t="inlineStr">
         <is>
           <t>agate930@gmail.com</t>
         </is>
       </c>
-      <c r="D74" s="22" t="inlineStr">
+      <c r="D74" s="21" t="inlineStr">
         <is>
           <t>+(EdhJ^uj3</t>
         </is>
       </c>
-      <c r="E74" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F74" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G74" s="23" t="inlineStr">
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F74" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Dh5M7Ge8drM1B9PlOEpavIMNddPC5352</t>
         </is>
       </c>
-      <c r="H74" s="23" t="inlineStr">
+      <c r="G74" s="22" t="inlineStr">
         <is>
           <t>Dh5M7Ge8drM1B9PlOEpavIMNddPC5352</t>
         </is>
       </c>
-      <c r="I74" s="23" t="inlineStr">
+      <c r="H74" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPGfQz8zPagtdBJwiCM6bVQX5hSSbSAhzrqr7YsCaCL9S</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.4" customHeight="1" s="24">
-      <c r="A75" s="33" t="n"/>
-      <c r="B75" s="33" t="n"/>
-      <c r="C75" s="34" t="inlineStr">
+    <row r="75" ht="12.4" customHeight="1" s="23">
+      <c r="A75" s="31" t="n"/>
+      <c r="B75" s="31" t="n"/>
+      <c r="C75" s="32" t="inlineStr">
         <is>
           <t>laurenbarrington22@gmail.com</t>
         </is>
       </c>
-      <c r="D75" s="22" t="inlineStr">
+      <c r="D75" s="21" t="inlineStr">
         <is>
           <t>#qMJVuO4n0</t>
         </is>
       </c>
-      <c r="E75" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F75" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G75" s="23" t="inlineStr">
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F75" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zbxMY0vVJgxS-Pv44m2kBVRc2SwWD3jj</t>
         </is>
       </c>
-      <c r="H75" s="23" t="inlineStr">
+      <c r="G75" s="22" t="inlineStr">
         <is>
           <t>zbxMY0vVJgxS-Pv44m2kBVRc2SwWD3jj</t>
         </is>
       </c>
-      <c r="I75" s="23" t="inlineStr">
+      <c r="H75" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcnxwiRphLN4uLosSxgdLFNEysRAiMsQfuCc6Qr5fXLqm</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="12.4" customHeight="1" s="24">
-      <c r="A76" s="33" t="n"/>
-      <c r="B76" s="33" t="n"/>
-      <c r="C76" s="34" t="inlineStr">
+    <row r="76" ht="12.4" customHeight="1" s="23">
+      <c r="A76" s="31" t="n"/>
+      <c r="B76" s="31" t="n"/>
+      <c r="C76" s="32" t="inlineStr">
         <is>
           <t>whitealan857@gmail.com</t>
         </is>
       </c>
-      <c r="D76" s="22" t="inlineStr">
+      <c r="D76" s="21" t="inlineStr">
         <is>
           <t>h7wM4@Hf+Y</t>
         </is>
       </c>
-      <c r="E76" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F76" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G76" s="23" t="inlineStr">
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F76" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Hmpbvj1tF5W80OBP-_Bpkj0urNpEcRcB</t>
         </is>
       </c>
-      <c r="H76" s="23" t="inlineStr">
+      <c r="G76" s="22" t="inlineStr">
         <is>
           <t>Hmpbvj1tF5W80OBP-_Bpkj0urNpEcRcB</t>
         </is>
       </c>
-      <c r="I76" s="23" t="inlineStr">
+      <c r="H76" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVJgrwAHPvwSWX1BknCsYQ713twcvGQPg8Gr6Nf9LvSbo</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.4" customHeight="1" s="24">
-      <c r="A77" s="33" t="n"/>
-      <c r="B77" s="33" t="n"/>
-      <c r="C77" s="34" t="inlineStr">
+    <row r="77" ht="12.4" customHeight="1" s="23">
+      <c r="A77" s="31" t="n"/>
+      <c r="B77" s="31" t="n"/>
+      <c r="C77" s="32" t="inlineStr">
         <is>
           <t>hodgesgabriel4@gmail.com</t>
         </is>
       </c>
-      <c r="D77" s="22" t="inlineStr">
+      <c r="D77" s="21" t="inlineStr">
         <is>
           <t>sn4TolWZ_8</t>
         </is>
       </c>
-      <c r="E77" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F77" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G77" s="23" t="inlineStr">
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F77" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/TvOYZwWXawyfwHKFz_2wl73pTHfPW4FK</t>
         </is>
       </c>
-      <c r="H77" s="23" t="inlineStr">
+      <c r="G77" s="22" t="inlineStr">
         <is>
           <t>TvOYZwWXawyfwHKFz_2wl73pTHfPW4FK</t>
         </is>
       </c>
-      <c r="I77" s="23" t="inlineStr">
+      <c r="H77" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcVkVvk5yXE5gym1r7dGcn5C8Cu2edSMzhDZxsBtXMbkV</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.4" customHeight="1" s="24">
-      <c r="A78" s="33" t="n"/>
-      <c r="B78" s="33" t="n"/>
-      <c r="C78" s="34" t="inlineStr">
+    <row r="78" ht="12.4" customHeight="1" s="23">
+      <c r="A78" s="31" t="n"/>
+      <c r="B78" s="31" t="n"/>
+      <c r="C78" s="32" t="inlineStr">
         <is>
           <t>derrickaudrey35@gmail.com</t>
         </is>
       </c>
-      <c r="D78" s="22" t="inlineStr">
+      <c r="D78" s="21" t="inlineStr">
         <is>
           <t>t*y6TPJgJ6</t>
         </is>
       </c>
-      <c r="E78" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F78" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G78" s="23" t="inlineStr">
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F78" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/q9Pk8U60PKSIWrXOheB8L7vcC6OJ6rne</t>
         </is>
       </c>
-      <c r="H78" s="23" t="inlineStr">
+      <c r="G78" s="22" t="inlineStr">
         <is>
           <t>q9Pk8U60PKSIWrXOheB8L7vcC6OJ6rne</t>
         </is>
       </c>
-      <c r="I78" s="23" t="inlineStr">
+      <c r="H78" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNsofHCW6Skwcya38RRTA6H85gVZrKSunUGMaBpvgMDwT</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.4" customHeight="1" s="24">
-      <c r="A79" s="33" t="n"/>
-      <c r="B79" s="33" t="n"/>
-      <c r="C79" s="34" t="inlineStr">
+    <row r="79" ht="12.4" customHeight="1" s="23">
+      <c r="A79" s="31" t="n"/>
+      <c r="B79" s="31" t="n"/>
+      <c r="C79" s="32" t="inlineStr">
         <is>
           <t>vg523946@gmail.com</t>
         </is>
       </c>
-      <c r="D79" s="22" t="inlineStr">
+      <c r="D79" s="21" t="inlineStr">
         <is>
           <t>*aI8UvPtEP</t>
         </is>
       </c>
-      <c r="E79" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F79" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G79" s="23" t="inlineStr">
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F79" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/lGvZ7FODIJsAaTTw8WOjc1d0Eo7o8JKH</t>
         </is>
       </c>
-      <c r="H79" s="23" t="inlineStr">
+      <c r="G79" s="22" t="inlineStr">
         <is>
           <t>lGvZ7FODIJsAaTTw8WOjc1d0Eo7o8JKH</t>
         </is>
       </c>
-      <c r="I79" s="23" t="inlineStr">
+      <c r="H79" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTzt1W81QQUhiEqFpUBeCSyLR2LKccpJ2tgi8ybYpdhuu</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.4" customHeight="1" s="24">
-      <c r="A80" s="33" t="n"/>
-      <c r="B80" s="33" t="n"/>
-      <c r="C80" s="34" t="inlineStr">
+    <row r="80" ht="12.4" customHeight="1" s="23">
+      <c r="A80" s="31" t="n"/>
+      <c r="B80" s="31" t="n"/>
+      <c r="C80" s="32" t="inlineStr">
         <is>
           <t>parsonjulia1@gmail.com</t>
         </is>
       </c>
-      <c r="D80" s="22" t="inlineStr">
+      <c r="D80" s="21" t="inlineStr">
         <is>
           <t>_+$q1lMm60</t>
         </is>
       </c>
-      <c r="E80" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I80" s="23" t="inlineStr">
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H80" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmagMivUpgER8cJAFF9K5YofQwb9KqR6UvHk6n5EAL1zbc</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="12.4" customHeight="1" s="24">
-      <c r="A81" s="33" t="n"/>
-      <c r="B81" s="33" t="n"/>
-      <c r="C81" s="34" t="inlineStr">
+    <row r="81" ht="12.4" customHeight="1" s="23">
+      <c r="A81" s="31" t="n"/>
+      <c r="B81" s="31" t="n"/>
+      <c r="C81" s="32" t="inlineStr">
         <is>
           <t>bf5341822@gmail.com</t>
         </is>
       </c>
-      <c r="D81" s="22" t="inlineStr">
+      <c r="D81" s="21" t="inlineStr">
         <is>
           <t>@@wu6_GFRt</t>
         </is>
       </c>
-      <c r="E81" s="23" t="inlineStr">
+      <c r="E81" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I81" s="23" t="inlineStr">
+      <c r="H81" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfJD6ZddWfrSLjnoASV2peqqf62n3tK2qbnxmgvPFy9J8</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="12.4" customHeight="1" s="24">
-      <c r="A82" s="33" t="n"/>
-      <c r="B82" s="33" t="n"/>
-      <c r="C82" s="34" t="inlineStr">
+    <row r="82" ht="12.4" customHeight="1" s="23">
+      <c r="A82" s="31" t="n"/>
+      <c r="B82" s="31" t="n"/>
+      <c r="C82" s="32" t="inlineStr">
         <is>
           <t>mramacey2@gmail.com</t>
         </is>
       </c>
-      <c r="D82" s="22" t="inlineStr">
+      <c r="D82" s="21" t="inlineStr">
         <is>
           <t>((8J@5Yb_4</t>
         </is>
       </c>
-      <c r="E82" s="23" t="inlineStr">
+      <c r="E82" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I82" s="23" t="inlineStr">
+      <c r="H82" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPsAebx37Dj9LFtjbGhrf1eGzKxVYehtzZAGXssP6284M</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.4" customHeight="1" s="24">
-      <c r="A83" s="33" t="n"/>
-      <c r="B83" s="33" t="n"/>
-      <c r="C83" s="34" t="inlineStr">
+    <row r="83" ht="12.4" customHeight="1" s="23">
+      <c r="A83" s="31" t="n"/>
+      <c r="B83" s="31" t="n"/>
+      <c r="C83" s="32" t="inlineStr">
         <is>
           <t>galbraithp67@gmail.com</t>
         </is>
       </c>
-      <c r="D83" s="22" t="inlineStr">
+      <c r="D83" s="21" t="inlineStr">
         <is>
           <t>#9(8CWmsq^</t>
         </is>
       </c>
-      <c r="E83" s="23" t="inlineStr">
+      <c r="E83" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I83" s="23" t="inlineStr">
+      <c r="H83" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVjquCupenqmVVLqsKJFcE6cozFGvyETVNgXEEPUTUYMx</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="12.4" customHeight="1" s="24">
-      <c r="A84" s="33" t="n"/>
-      <c r="B84" s="33" t="n"/>
-      <c r="C84" s="34" t="inlineStr">
+    <row r="84" ht="12.4" customHeight="1" s="23">
+      <c r="A84" s="31" t="n"/>
+      <c r="B84" s="31" t="n"/>
+      <c r="C84" s="32" t="inlineStr">
         <is>
           <t>hannahjerome374@gmail.com</t>
         </is>
       </c>
-      <c r="D84" s="22" t="inlineStr">
+      <c r="D84" s="21" t="inlineStr">
         <is>
           <t>@P)7LncvXA</t>
         </is>
       </c>
-      <c r="E84" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F84" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G84" s="23" t="inlineStr">
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F84" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/g9A09OqO2S579v_lLSGJOlzu8aXZuuib</t>
         </is>
       </c>
-      <c r="H84" s="23" t="inlineStr">
+      <c r="G84" s="22" t="inlineStr">
         <is>
           <t>g9A09OqO2S579v_lLSGJOlzu8aXZuuib</t>
         </is>
       </c>
-      <c r="I84" s="23" t="inlineStr">
+      <c r="H84" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmc6ZkpsBrX3f9LRBbS7HWVWuizHiZFjb3XkfDS9zgzEoB</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.4" customHeight="1" s="24">
-      <c r="A85" s="33" t="n"/>
-      <c r="B85" s="33" t="n"/>
-      <c r="C85" s="34" t="inlineStr">
+    <row r="85" ht="12.4" customHeight="1" s="23">
+      <c r="A85" s="31" t="n"/>
+      <c r="B85" s="31" t="n"/>
+      <c r="C85" s="32" t="inlineStr">
         <is>
           <t>ca1803284@gmail.com</t>
         </is>
       </c>
-      <c r="D85" s="22" t="inlineStr">
+      <c r="D85" s="21" t="inlineStr">
         <is>
           <t>*Q3FdCBn3V</t>
         </is>
       </c>
-      <c r="E85" s="23" t="inlineStr">
+      <c r="E85" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I85" s="23" t="inlineStr">
+      <c r="H85" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaDE4jjwcNT3bhDXPxuT3Mzia5M3mKEHpftki5cSmYKhG</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="12.4" customHeight="1" s="24">
-      <c r="A86" s="33" t="n"/>
-      <c r="B86" s="33" t="n"/>
-      <c r="C86" s="34" t="inlineStr">
+    <row r="86" ht="12.4" customHeight="1" s="23">
+      <c r="A86" s="31" t="n"/>
+      <c r="B86" s="31" t="n"/>
+      <c r="C86" s="32" t="inlineStr">
         <is>
           <t>agathabarnes23@gmail.com</t>
         </is>
       </c>
-      <c r="D86" s="22" t="inlineStr">
+      <c r="D86" s="21" t="inlineStr">
         <is>
           <t>i$9Xd@2MYd</t>
         </is>
       </c>
-      <c r="E86" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F86" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G86" s="23" t="inlineStr">
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F86" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/4C34gJdsT8TGU3SiLYLVyZbv3echAXSe</t>
         </is>
       </c>
-      <c r="H86" s="23" t="inlineStr">
+      <c r="G86" s="22" t="inlineStr">
         <is>
           <t>4C34gJdsT8TGU3SiLYLVyZbv3echAXSe</t>
         </is>
       </c>
-      <c r="I86" s="23" t="inlineStr">
+      <c r="H86" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQUdLhVa11evU1ebJJ14WkYDd4gyzd8PP9kXZq5ChQqhb</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.4" customHeight="1" s="24">
-      <c r="A87" s="33" t="n"/>
-      <c r="B87" s="33" t="n"/>
-      <c r="C87" s="34" t="inlineStr">
+    <row r="87" ht="12.4" customHeight="1" s="23">
+      <c r="A87" s="31" t="n"/>
+      <c r="B87" s="31" t="n"/>
+      <c r="C87" s="32" t="inlineStr">
         <is>
           <t>me602027@gmail.com</t>
         </is>
       </c>
-      <c r="D87" s="22" t="inlineStr">
+      <c r="D87" s="21" t="inlineStr">
         <is>
           <t>7N27YIlT(7</t>
         </is>
       </c>
-      <c r="E87" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F87" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G87" s="23" t="inlineStr">
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F87" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/qiLiEG2NU3MqeewxLDua7r5KCbjJYDeu</t>
         </is>
       </c>
-      <c r="H87" s="23" t="inlineStr">
+      <c r="G87" s="22" t="inlineStr">
         <is>
           <t>qiLiEG2NU3MqeewxLDua7r5KCbjJYDeu</t>
         </is>
       </c>
-      <c r="I87" s="23" t="inlineStr">
+      <c r="H87" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPqx66draXotgYYNjxo8ZNu4zEk3P7Qk4ifoyaB5dL8Zw</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.4" customHeight="1" s="24">
-      <c r="A88" s="43" t="n"/>
-      <c r="B88" s="43" t="n"/>
-      <c r="C88" s="34" t="inlineStr">
+    <row r="88" ht="12.4" customHeight="1" s="23">
+      <c r="A88" s="41" t="n"/>
+      <c r="B88" s="41" t="n"/>
+      <c r="C88" s="32" t="inlineStr">
         <is>
           <t>wifkinsonarianna@gmail.com</t>
         </is>
       </c>
-      <c r="D88" s="22" t="inlineStr">
+      <c r="D88" s="21" t="inlineStr">
         <is>
           <t>%j7C6gmE2B</t>
         </is>
       </c>
-      <c r="E88" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F88" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G88" s="23" t="inlineStr">
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F88" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/MjD6UNGC_0UZeBYOoOkAtdEUnwcXNGmO</t>
         </is>
       </c>
-      <c r="H88" s="23" t="inlineStr">
+      <c r="G88" s="22" t="inlineStr">
         <is>
           <t>MjD6UNGC_0UZeBYOoOkAtdEUnwcXNGmO</t>
         </is>
       </c>
-      <c r="I88" s="23" t="inlineStr">
+      <c r="H88" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmf9DP8FyXUtpVZ3Y7WxfNfPdQ4waCwbxJdXuTrB6dTTvm</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.4" customHeight="1" s="24">
-      <c r="A89" s="33" t="n"/>
-      <c r="B89" s="33" t="n"/>
-      <c r="C89" s="34" t="inlineStr">
+    <row r="89" ht="12.4" customHeight="1" s="23">
+      <c r="A89" s="31" t="n"/>
+      <c r="B89" s="31" t="n"/>
+      <c r="C89" s="32" t="inlineStr">
         <is>
           <t>gatealise65@gmail.com</t>
         </is>
       </c>
-      <c r="D89" s="22" t="inlineStr">
+      <c r="D89" s="21" t="inlineStr">
         <is>
           <t>Q&amp;6H+fVb%R</t>
         </is>
       </c>
-      <c r="E89" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F89" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G89" s="23" t="inlineStr">
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F89" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/dDhR9Nz5jou-1Sj99IHviwJdCR6j6f2i</t>
         </is>
       </c>
-      <c r="H89" s="23" t="inlineStr">
+      <c r="G89" s="22" t="inlineStr">
         <is>
           <t>dDhR9Nz5jou-1Sj99IHviwJdCR6j6f2i</t>
         </is>
       </c>
-      <c r="I89" s="23" t="inlineStr">
+      <c r="H89" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXwFLdHG8Td1Y7nnEDqamt2hycNGSARNT8q3gCHpnWQ7i</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.4" customHeight="1" s="24">
-      <c r="A90" s="33" t="n"/>
-      <c r="B90" s="33" t="n"/>
-      <c r="C90" s="34" t="inlineStr">
+    <row r="90" ht="12.4" customHeight="1" s="23">
+      <c r="A90" s="31" t="n"/>
+      <c r="B90" s="31" t="n"/>
+      <c r="C90" s="32" t="inlineStr">
         <is>
           <t>lucasaustin949@gmail.com</t>
         </is>
       </c>
-      <c r="D90" s="22" t="inlineStr">
+      <c r="D90" s="21" t="inlineStr">
         <is>
           <t>*EUQBa$Mr9</t>
         </is>
       </c>
-      <c r="E90" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F90" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G90" s="23" t="inlineStr">
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F90" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/kClo18JJEZy6zKmwK_gLYOZWmuPTiZS_</t>
         </is>
       </c>
-      <c r="H90" s="23" t="inlineStr">
+      <c r="G90" s="22" t="inlineStr">
         <is>
           <t>kClo18JJEZy6zKmwK_gLYOZWmuPTiZS_</t>
         </is>
       </c>
-      <c r="I90" s="23" t="inlineStr">
+      <c r="H90" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVj6ExFaQbEc5xdmQDmrpLSxPAV5YoUehAofLna5fV7VV</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.4" customHeight="1" s="24">
-      <c r="A91" s="33" t="n"/>
-      <c r="B91" s="33" t="n"/>
-      <c r="C91" s="34" t="inlineStr">
+    <row r="91" ht="12.4" customHeight="1" s="23">
+      <c r="A91" s="31" t="n"/>
+      <c r="B91" s="31" t="n"/>
+      <c r="C91" s="32" t="inlineStr">
         <is>
           <t>flemingisabel2@gmail.com</t>
         </is>
       </c>
-      <c r="D91" s="22" t="inlineStr">
+      <c r="D91" s="21" t="inlineStr">
         <is>
           <t>rI$JpGGo(2</t>
         </is>
       </c>
-      <c r="E91" s="23" t="inlineStr">
+      <c r="E91" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I91" s="23" t="inlineStr">
+      <c r="H91" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmciEXMch3THJ42WrWKvvV3xHftbM1LZBSc7xV4qcpkv6G</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12.4" customHeight="1" s="24">
-      <c r="A92" s="33" t="n"/>
-      <c r="B92" s="33" t="n"/>
-      <c r="C92" s="34" t="inlineStr">
+    <row r="92" ht="12.4" customHeight="1" s="23">
+      <c r="A92" s="31" t="n"/>
+      <c r="B92" s="31" t="n"/>
+      <c r="C92" s="32" t="inlineStr">
         <is>
           <t>maceysebastian62@gmail.com</t>
         </is>
       </c>
-      <c r="D92" s="22" t="inlineStr">
+      <c r="D92" s="21" t="inlineStr">
         <is>
           <t>@0Fhrc#BG)</t>
         </is>
       </c>
-      <c r="E92" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F92" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G92" s="23" t="inlineStr">
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F92" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/Z1giIWHVwFg9yS0jXDDVOTYvwGHwLqdm</t>
         </is>
       </c>
-      <c r="H92" s="23" t="inlineStr">
+      <c r="G92" s="22" t="inlineStr">
         <is>
           <t>Z1giIWHVwFg9yS0jXDDVOTYvwGHwLqdm</t>
         </is>
       </c>
-      <c r="I92" s="23" t="inlineStr">
+      <c r="H92" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNbCPEoU2ytVa7qw5XoYPKRK5Sc1di2JapL5Ht9T7N8PC</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="12.4" customHeight="1" s="24">
-      <c r="A93" s="33" t="n"/>
-      <c r="B93" s="33" t="n"/>
-      <c r="C93" s="34" t="inlineStr">
+    <row r="93" ht="12.4" customHeight="1" s="23">
+      <c r="A93" s="31" t="n"/>
+      <c r="B93" s="31" t="n"/>
+      <c r="C93" s="32" t="inlineStr">
         <is>
           <t>jenkinmadeline03@gmail.com</t>
         </is>
       </c>
-      <c r="D93" s="22" t="inlineStr">
+      <c r="D93" s="21" t="inlineStr">
         <is>
           <t>!y#L_UN7G3</t>
         </is>
       </c>
-      <c r="E93" s="23" t="inlineStr">
+      <c r="E93" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I93" s="23" t="inlineStr">
+      <c r="H93" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmc5tkMkLNG9PCNAzbXzeGfv98hdDxYsB9jom5hxmzyb3q</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="12.4" customHeight="1" s="24">
-      <c r="A94" s="33" t="n"/>
-      <c r="B94" s="33" t="n"/>
-      <c r="C94" s="34" t="inlineStr">
+    <row r="94" ht="12.4" customHeight="1" s="23">
+      <c r="A94" s="31" t="n"/>
+      <c r="B94" s="31" t="n"/>
+      <c r="C94" s="32" t="inlineStr">
         <is>
           <t>hardmanm79@gmail.com</t>
         </is>
       </c>
-      <c r="D94" s="22" t="inlineStr">
+      <c r="D94" s="21" t="inlineStr">
         <is>
           <t>sG1lKIbFJ^</t>
         </is>
       </c>
-      <c r="E94" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F94" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G94" s="23" t="inlineStr">
+      <c r="E94" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F94" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/7tzRKwSUtUqMkPuwk7O46qaAZeikSmp2</t>
         </is>
       </c>
-      <c r="H94" s="23" t="inlineStr">
+      <c r="G94" s="22" t="inlineStr">
         <is>
           <t>7tzRKwSUtUqMkPuwk7O46qaAZeikSmp2</t>
         </is>
       </c>
-      <c r="I94" s="23" t="inlineStr">
+      <c r="H94" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaAckik5NHio5Fo9j82wJzVMtf86kBiTAPftahVzy5swx</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="12.4" customHeight="1" s="24">
-      <c r="A95" s="33" t="n"/>
-      <c r="B95" s="33" t="n"/>
-      <c r="C95" s="34" t="inlineStr">
+    <row r="95" ht="12.4" customHeight="1" s="23">
+      <c r="A95" s="31" t="n"/>
+      <c r="B95" s="31" t="n"/>
+      <c r="C95" s="32" t="inlineStr">
         <is>
           <t>NoraHaig5443@gmail.com</t>
         </is>
       </c>
-      <c r="D95" s="22" t="inlineStr">
+      <c r="D95" s="21" t="inlineStr">
         <is>
           <t>3R8MUSgZ$(</t>
         </is>
       </c>
-      <c r="E95" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F95" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G95" s="23" t="inlineStr">
+      <c r="E95" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F95" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/hFZlhEaWWHXdvdspqtXIsLc41ErOqKOM</t>
         </is>
       </c>
-      <c r="H95" s="23" t="inlineStr">
+      <c r="G95" s="22" t="inlineStr">
         <is>
           <t>hFZlhEaWWHXdvdspqtXIsLc41ErOqKOM</t>
         </is>
       </c>
-      <c r="I95" s="23" t="inlineStr">
+      <c r="H95" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmX4bfhdanHFbPWnxSsM4HPJBVG318mrHLtnvuuKtNpdDG</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="12.4" customHeight="1" s="24">
-      <c r="A96" s="33" t="n"/>
-      <c r="B96" s="33" t="n"/>
-      <c r="C96" s="34" t="inlineStr">
+    <row r="96" ht="12.4" customHeight="1" s="23">
+      <c r="A96" s="31" t="n"/>
+      <c r="B96" s="31" t="n"/>
+      <c r="C96" s="32" t="inlineStr">
         <is>
           <t>daisyarthurs144@gmail.com</t>
         </is>
       </c>
-      <c r="D96" s="22" t="inlineStr">
+      <c r="D96" s="21" t="inlineStr">
         <is>
           <t>YN1h7uUnB!</t>
         </is>
       </c>
-      <c r="E96" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F96" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G96" s="23" t="inlineStr">
+      <c r="E96" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F96" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zy_RowlaqDVjl8V_WkilsNdpGnFJy523</t>
         </is>
       </c>
-      <c r="H96" s="23" t="inlineStr">
+      <c r="G96" s="22" t="inlineStr">
         <is>
           <t>zy_RowlaqDVjl8V_WkilsNdpGnFJy523</t>
         </is>
       </c>
-      <c r="I96" s="23" t="inlineStr">
+      <c r="H96" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPJJtSujCjD1rbbNNcruy6b7TxeegT8EFRx2ZuDsZqE2J</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="12.4" customHeight="1" s="24">
-      <c r="A97" s="33" t="n"/>
-      <c r="B97" s="33" t="n"/>
-      <c r="C97" s="34" t="inlineStr">
+    <row r="97" ht="12.4" customHeight="1" s="23">
+      <c r="A97" s="31" t="n"/>
+      <c r="B97" s="31" t="n"/>
+      <c r="C97" s="32" t="inlineStr">
         <is>
           <t>gracejeff193@gmail.com</t>
         </is>
       </c>
-      <c r="D97" s="22" t="inlineStr">
+      <c r="D97" s="21" t="inlineStr">
         <is>
           <t>m(09RK+z_i</t>
         </is>
       </c>
-      <c r="E97" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F97" s="23" t="inlineStr">
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H97" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmcW58cuHhLKnvD9cgsMas33QazrBKePeQCSWwKY5dU2KF</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="12.4" customHeight="1" s="23">
+      <c r="A98" s="31" t="n"/>
+      <c r="B98" s="31" t="n"/>
+      <c r="C98" s="32" t="inlineStr">
+        <is>
+          <t>VirginiaMiller6962@gmail.com</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>7DxEq0)v#X</t>
+        </is>
+      </c>
+      <c r="E98" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I97" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmcW58cuHhLKnvD9cgsMas33QazrBKePeQCSWwKY5dU2KF</t>
-        </is>
-      </c>
-    </row>
-    <row r="98" ht="12.4" customHeight="1" s="24">
-      <c r="A98" s="33" t="n"/>
-      <c r="B98" s="33" t="n"/>
-      <c r="C98" s="34" t="inlineStr">
-        <is>
-          <t>VirginiaMiller6962@gmail.com</t>
-        </is>
-      </c>
-      <c r="D98" s="22" t="inlineStr">
-        <is>
-          <t>7DxEq0)v#X</t>
-        </is>
-      </c>
-      <c r="E98" s="23" t="inlineStr">
+      <c r="H98" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmXaWCYcP2G9XwRMrtBbYPPyxbuUYvUndZvia6tjvMx9cM</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="12.4" customHeight="1" s="23">
+      <c r="A99" s="31" t="n"/>
+      <c r="B99" s="31" t="n"/>
+      <c r="C99" s="32" t="inlineStr">
+        <is>
+          <t>ml7493953@gmail.com</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="inlineStr">
+        <is>
+          <t>_3bWXeStLi</t>
+        </is>
+      </c>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F99" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
+        </is>
+      </c>
+      <c r="G99" s="22" t="inlineStr">
+        <is>
+          <t>4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
+        </is>
+      </c>
+      <c r="H99" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmQcf9NdmoUtstjxV7FsMexEHaUVczLu1jUcqSCW5yhD1J</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="12.4" customHeight="1" s="23">
+      <c r="A100" s="31" t="n"/>
+      <c r="B100" s="31" t="n"/>
+      <c r="C100" s="32" t="inlineStr">
+        <is>
+          <t>lewinstanley936@gmail.com</t>
+        </is>
+      </c>
+      <c r="D100" s="21" t="inlineStr">
+        <is>
+          <t>+6u&amp;Ns@6km</t>
+        </is>
+      </c>
+      <c r="E100" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I98" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmXaWCYcP2G9XwRMrtBbYPPyxbuUYvUndZvia6tjvMx9cM</t>
-        </is>
-      </c>
-    </row>
-    <row r="99" ht="12.4" customHeight="1" s="24">
-      <c r="A99" s="33" t="n"/>
-      <c r="B99" s="33" t="n"/>
-      <c r="C99" s="34" t="inlineStr">
-        <is>
-          <t>ml7493953@gmail.com</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="inlineStr">
-        <is>
-          <t>_3bWXeStLi</t>
-        </is>
-      </c>
-      <c r="E99" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G99" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
-        </is>
-      </c>
-      <c r="H99" s="23" t="inlineStr">
-        <is>
-          <t>4HrtZ9DXGSTRQbUJp2akOdQ0nKJtYzel</t>
-        </is>
-      </c>
-      <c r="I99" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmQcf9NdmoUtstjxV7FsMexEHaUVczLu1jUcqSCW5yhD1J</t>
-        </is>
-      </c>
-    </row>
-    <row r="100" ht="12.4" customHeight="1" s="24">
-      <c r="A100" s="33" t="n"/>
-      <c r="B100" s="33" t="n"/>
-      <c r="C100" s="34" t="inlineStr">
-        <is>
-          <t>lewinstanley936@gmail.com</t>
-        </is>
-      </c>
-      <c r="D100" s="22" t="inlineStr">
-        <is>
-          <t>+6u&amp;Ns@6km</t>
-        </is>
-      </c>
-      <c r="E100" s="23" t="inlineStr">
+      <c r="H100" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmXzk7gSDPvyQz3rQd257WdMnLVvg32rdT3ffvEx7SAEWd</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="12.4" customHeight="1" s="23">
+      <c r="A101" s="31" t="n"/>
+      <c r="B101" s="31" t="n"/>
+      <c r="C101" s="32" t="inlineStr">
+        <is>
+          <t>sshackley9@gmail.com</t>
+        </is>
+      </c>
+      <c r="D101" s="21" t="inlineStr">
+        <is>
+          <t>J6K*0J%gk_</t>
+        </is>
+      </c>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F101" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
+        </is>
+      </c>
+      <c r="G101" s="22" t="inlineStr">
+        <is>
+          <t>LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
+        </is>
+      </c>
+      <c r="H101" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmdCoZgKAVxWMR7HsR284WCF8PFXtjPWZPxXQN7pshxjTr</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="12.4" customHeight="1" s="23">
+      <c r="A102" s="31" t="n"/>
+      <c r="B102" s="31" t="n"/>
+      <c r="C102" s="32" t="inlineStr">
+        <is>
+          <t>mb1142132@gmail.com</t>
+        </is>
+      </c>
+      <c r="D102" s="21" t="inlineStr">
+        <is>
+          <t>008BHXWgy%</t>
+        </is>
+      </c>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F102" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
+        </is>
+      </c>
+      <c r="G102" s="22" t="inlineStr">
+        <is>
+          <t>0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
+        </is>
+      </c>
+      <c r="H102" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmNWJCsjMLsj2fR1bXDJb7Km2mqJ3oMVqy74oym6ew6KaZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="12.4" customHeight="1" s="23">
+      <c r="A103" s="31" t="n"/>
+      <c r="B103" s="31" t="n"/>
+      <c r="C103" s="32" t="inlineStr">
+        <is>
+          <t>holidayk716@gmail.com</t>
+        </is>
+      </c>
+      <c r="D103" s="21" t="inlineStr">
+        <is>
+          <t>)%I99qtOt6</t>
+        </is>
+      </c>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F103" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
+        </is>
+      </c>
+      <c r="G103" s="22" t="inlineStr">
+        <is>
+          <t>eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
+        </is>
+      </c>
+      <c r="H103" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmP1owxvA5BhVoyY2iBBPditGGWw7cWRrJCujRF8ZeTaFz</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="12.4" customHeight="1" s="23">
+      <c r="A104" s="31" t="n"/>
+      <c r="B104" s="31" t="n"/>
+      <c r="C104" s="32" t="inlineStr">
+        <is>
+          <t>iane26779@gmail.com</t>
+        </is>
+      </c>
+      <c r="D104" s="21" t="inlineStr">
+        <is>
+          <t>14Qc^xJe$Q</t>
+        </is>
+      </c>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F104" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
+        </is>
+      </c>
+      <c r="G104" s="22" t="inlineStr">
+        <is>
+          <t>Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
+        </is>
+      </c>
+      <c r="H104" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmNZU91L6Xri66LFoh2nTTYZYcJAzpmg6fqKAnZXvniSyP</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="12.4" customHeight="1" s="23">
+      <c r="A105" s="31" t="n"/>
+      <c r="B105" s="31" t="n"/>
+      <c r="C105" s="32" t="inlineStr">
+        <is>
+          <t>lnicholson199@gmail.com</t>
+        </is>
+      </c>
+      <c r="D105" s="21" t="inlineStr">
+        <is>
+          <t>^KJyFNWs)6</t>
+        </is>
+      </c>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F105" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
+        </is>
+      </c>
+      <c r="G105" s="22" t="inlineStr">
+        <is>
+          <t>qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
+        </is>
+      </c>
+      <c r="H105" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmX2Pnfe9kxhyXs8LTmhyiBiiu5bMqVro7TpPwAhRw5LvP</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="12.4" customHeight="1" s="23">
+      <c r="A106" s="31" t="n"/>
+      <c r="B106" s="31" t="n"/>
+      <c r="C106" s="32" t="inlineStr">
+        <is>
+          <t>angelinaalbertson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D106" s="21" t="inlineStr">
+        <is>
+          <t>@EmxWf&amp;TT6</t>
+        </is>
+      </c>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F106" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/ULUtjZc2HJ6PeiNo5jtf2APdUakFVZIn</t>
+        </is>
+      </c>
+      <c r="G106" s="22" t="inlineStr">
+        <is>
+          <t>ULUtjZc2HJ6PeiNo5jtf2APdUakFVZIn</t>
+        </is>
+      </c>
+      <c r="H106" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmVsuBVX3nLM4T75rZ2YuS1JK5DvAurR7EA9SdoSduQkRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="12.4" customHeight="1" s="23">
+      <c r="A107" s="31" t="n"/>
+      <c r="B107" s="31" t="n"/>
+      <c r="C107" s="32" t="inlineStr">
+        <is>
+          <t>gabrielleflannagan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>1z0MBjRBc)</t>
+        </is>
+      </c>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F107" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/xeQLH8IC0HG_MfPLZqs1eLwxVX_4vF6N</t>
+        </is>
+      </c>
+      <c r="G107" s="22" t="inlineStr">
+        <is>
+          <t>xeQLH8IC0HG_MfPLZqs1eLwxVX_4vF6N</t>
+        </is>
+      </c>
+      <c r="H107" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmYCv2E1NPxSqfyJHcXML8h3UWoGAk4NzwtfthtYsL93tW</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="12.4" customHeight="1" s="23">
+      <c r="A108" s="31" t="n"/>
+      <c r="B108" s="31" t="n"/>
+      <c r="C108" s="32" t="inlineStr">
+        <is>
+          <t>salisburrymorgan@gmail.com</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="inlineStr">
+        <is>
+          <t>q1ARjI!r$C</t>
+        </is>
+      </c>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F108" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/muCIhPE4vStk0SkP_PoLGJrt5MCUFD--</t>
+        </is>
+      </c>
+      <c r="G108" s="22" t="inlineStr">
+        <is>
+          <t>muCIhPE4vStk0SkP_PoLGJrt5MCUFD--</t>
+        </is>
+      </c>
+      <c r="H108" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmTAqqaVh6nDjZPYkzBqmDqf8rrSxDxRGTCygBWPUP8Vxh</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="12.4" customHeight="1" s="23">
+      <c r="A109" s="31" t="n"/>
+      <c r="B109" s="31" t="n"/>
+      <c r="C109" s="32" t="inlineStr">
+        <is>
+          <t>curtissaunder@gmail.com</t>
+        </is>
+      </c>
+      <c r="D109" s="21" t="inlineStr">
+        <is>
+          <t>^Cj!87Kv3E</t>
+        </is>
+      </c>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F109" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/d8LZBb1t8SK9YZ_7mbiDNt4tgVaXxCqv</t>
+        </is>
+      </c>
+      <c r="G109" s="22" t="inlineStr">
+        <is>
+          <t>d8LZBb1t8SK9YZ_7mbiDNt4tgVaXxCqv</t>
+        </is>
+      </c>
+      <c r="H109" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmP5XwX7MXYgYE2QGNpHPzRzE8N28CBWGNPenSyXvMHLdk</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="12.4" customHeight="1" s="23">
+      <c r="A110" s="31" t="n"/>
+      <c r="B110" s="31" t="n"/>
+      <c r="C110" s="32" t="inlineStr">
+        <is>
+          <t>gimsonhunter2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D110" s="21" t="inlineStr">
+        <is>
+          <t>_@_9Mk1OdJ</t>
+        </is>
+      </c>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F110" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/JRoSpvDNCU0ubIsvFupjx7dlu9PubaTd</t>
+        </is>
+      </c>
+      <c r="G110" s="22" t="inlineStr">
+        <is>
+          <t>JRoSpvDNCU0ubIsvFupjx7dlu9PubaTd</t>
+        </is>
+      </c>
+      <c r="H110" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmP1sDzgpSfa624ymoB36DfGqzwwnGjwVCjHGHNRQFhq5q</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="12.4" customHeight="1" s="23">
+      <c r="A111" s="31" t="n"/>
+      <c r="B111" s="31" t="n"/>
+      <c r="C111" s="32" t="inlineStr">
+        <is>
+          <t>ThomasHoward9010@gmail.com</t>
+        </is>
+      </c>
+      <c r="D111" s="21" t="inlineStr">
+        <is>
+          <t>0Rgt2WghT$</t>
+        </is>
+      </c>
+      <c r="H111" s="22" t="inlineStr">
+        <is>
+          <t>ipfs://QmQXm9LTeWqXTvmsnJ2YWjv5C6osaJb9BVfiEUXAPHNHri</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="12.4" customHeight="1" s="23">
+      <c r="A112" s="31" t="n"/>
+      <c r="B112" s="31" t="n"/>
+      <c r="C112" s="32" t="inlineStr">
+        <is>
+          <t>cm8388450@gmail.com</t>
+        </is>
+      </c>
+      <c r="D112" s="21" t="inlineStr">
+        <is>
+          <t>!hZ&amp;O%FyO9</t>
+        </is>
+      </c>
+      <c r="E112" s="21" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="I100" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmXzk7gSDPvyQz3rQd257WdMnLVvg32rdT3ffvEx7SAEWd</t>
-        </is>
-      </c>
-    </row>
-    <row r="101" ht="12.4" customHeight="1" s="24">
-      <c r="A101" s="33" t="n"/>
-      <c r="B101" s="33" t="n"/>
-      <c r="C101" s="34" t="inlineStr">
-        <is>
-          <t>sshackley9@gmail.com</t>
-        </is>
-      </c>
-      <c r="D101" s="22" t="inlineStr">
-        <is>
-          <t>J6K*0J%gk_</t>
-        </is>
-      </c>
-      <c r="E101" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G101" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
-        </is>
-      </c>
-      <c r="H101" s="23" t="inlineStr">
-        <is>
-          <t>LhBLH-0JFwC9N2a_7CLJn8My_6eHaKwk</t>
-        </is>
-      </c>
-      <c r="I101" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmdCoZgKAVxWMR7HsR284WCF8PFXtjPWZPxXQN7pshxjTr</t>
-        </is>
-      </c>
-    </row>
-    <row r="102" ht="12.4" customHeight="1" s="24">
-      <c r="A102" s="33" t="n"/>
-      <c r="B102" s="33" t="n"/>
-      <c r="C102" s="34" t="inlineStr">
-        <is>
-          <t>mb1142132@gmail.com</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>008BHXWgy%</t>
-        </is>
-      </c>
-      <c r="E102" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G102" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
-        </is>
-      </c>
-      <c r="H102" s="23" t="inlineStr">
-        <is>
-          <t>0mAnLvQFmwvoLTrvx-k6wIQcu1OKbGlM</t>
-        </is>
-      </c>
-      <c r="I102" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmNWJCsjMLsj2fR1bXDJb7Km2mqJ3oMVqy74oym6ew6KaZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="103" ht="12.4" customHeight="1" s="24">
-      <c r="A103" s="33" t="n"/>
-      <c r="B103" s="33" t="n"/>
-      <c r="C103" s="34" t="inlineStr">
-        <is>
-          <t>holidayk716@gmail.com</t>
-        </is>
-      </c>
-      <c r="D103" s="22" t="inlineStr">
-        <is>
-          <t>)%I99qtOt6</t>
-        </is>
-      </c>
-      <c r="E103" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G103" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
-        </is>
-      </c>
-      <c r="H103" s="23" t="inlineStr">
-        <is>
-          <t>eaS8-BXRdG934v9B8_yPRC_tqG7GuJMu</t>
-        </is>
-      </c>
-      <c r="I103" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmP1owxvA5BhVoyY2iBBPditGGWw7cWRrJCujRF8ZeTaFz</t>
-        </is>
-      </c>
-    </row>
-    <row r="104" ht="12.4" customHeight="1" s="24">
-      <c r="A104" s="33" t="n"/>
-      <c r="B104" s="33" t="n"/>
-      <c r="C104" s="34" t="inlineStr">
-        <is>
-          <t>iane26779@gmail.com</t>
-        </is>
-      </c>
-      <c r="D104" s="22" t="inlineStr">
-        <is>
-          <t>14Qc^xJe$Q</t>
-        </is>
-      </c>
-      <c r="E104" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G104" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
-        </is>
-      </c>
-      <c r="H104" s="23" t="inlineStr">
-        <is>
-          <t>Iq2JkrgeQ54sjodmjXx1XijO-X_71QK3</t>
-        </is>
-      </c>
-      <c r="I104" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmNZU91L6Xri66LFoh2nTTYZYcJAzpmg6fqKAnZXvniSyP</t>
-        </is>
-      </c>
-    </row>
-    <row r="105" ht="12.4" customHeight="1" s="24">
-      <c r="A105" s="33" t="n"/>
-      <c r="B105" s="33" t="n"/>
-      <c r="C105" s="34" t="inlineStr">
-        <is>
-          <t>lnicholson199@gmail.com</t>
-        </is>
-      </c>
-      <c r="D105" s="22" t="inlineStr">
-        <is>
-          <t>^KJyFNWs)6</t>
-        </is>
-      </c>
-      <c r="E105" s="23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="G105" s="23" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>qP9l5pJ3bkXU56OM7DCTtjhrzDzexq4Q</t>
-        </is>
-      </c>
-      <c r="I105" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmX2Pnfe9kxhyXs8LTmhyiBiiu5bMqVro7TpPwAhRw5LvP</t>
-        </is>
-      </c>
-    </row>
-    <row r="106" ht="12.4" customHeight="1" s="24">
-      <c r="A106" s="33" t="n"/>
-      <c r="B106" s="33" t="n"/>
-      <c r="C106" s="34" t="inlineStr">
-        <is>
-          <t>angelinaalbertson@gmail.com</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>@EmxWf&amp;TT6</t>
-        </is>
-      </c>
-      <c r="I106" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmVsuBVX3nLM4T75rZ2YuS1JK5DvAurR7EA9SdoSduQkRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="107" ht="12.4" customHeight="1" s="24">
-      <c r="A107" s="33" t="n"/>
-      <c r="B107" s="33" t="n"/>
-      <c r="C107" s="34" t="inlineStr">
-        <is>
-          <t>gabrielleflannagan@gmail.com</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>1z0MBjRBc)</t>
-        </is>
-      </c>
-      <c r="I107" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmYCv2E1NPxSqfyJHcXML8h3UWoGAk4NzwtfthtYsL93tW</t>
-        </is>
-      </c>
-    </row>
-    <row r="108" ht="12.4" customHeight="1" s="24">
-      <c r="A108" s="33" t="n"/>
-      <c r="B108" s="33" t="n"/>
-      <c r="C108" s="34" t="inlineStr">
-        <is>
-          <t>salisburrymorgan@gmail.com</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="inlineStr">
-        <is>
-          <t>q1ARjI!r$C</t>
-        </is>
-      </c>
-      <c r="I108" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmTAqqaVh6nDjZPYkzBqmDqf8rrSxDxRGTCygBWPUP8Vxh</t>
-        </is>
-      </c>
-    </row>
-    <row r="109" ht="12.4" customHeight="1" s="24">
-      <c r="A109" s="33" t="n"/>
-      <c r="B109" s="33" t="n"/>
-      <c r="C109" s="34" t="inlineStr">
-        <is>
-          <t>curtissaunder@gmail.com</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>^Cj!87Kv3E</t>
-        </is>
-      </c>
-      <c r="I109" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmP5XwX7MXYgYE2QGNpHPzRzE8N28CBWGNPenSyXvMHLdk</t>
-        </is>
-      </c>
-    </row>
-    <row r="110" ht="12.4" customHeight="1" s="24">
-      <c r="A110" s="33" t="n"/>
-      <c r="B110" s="33" t="n"/>
-      <c r="C110" s="34" t="inlineStr">
-        <is>
-          <t>gimsonhunter2@gmail.com</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>_@_9Mk1OdJ</t>
-        </is>
-      </c>
-      <c r="I110" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmP1sDzgpSfa624ymoB36DfGqzwwnGjwVCjHGHNRQFhq5q</t>
-        </is>
-      </c>
-    </row>
-    <row r="111" ht="12.4" customHeight="1" s="24">
-      <c r="A111" s="33" t="n"/>
-      <c r="B111" s="33" t="n"/>
-      <c r="C111" s="34" t="inlineStr">
-        <is>
-          <t>ThomasHoward9010@gmail.com</t>
-        </is>
-      </c>
-      <c r="D111" s="22" t="inlineStr">
-        <is>
-          <t>0Rgt2WghT$</t>
-        </is>
-      </c>
-      <c r="I111" s="23" t="inlineStr">
-        <is>
-          <t>ipfs://QmQXm9LTeWqXTvmsnJ2YWjv5C6osaJb9BVfiEUXAPHNHri</t>
-        </is>
-      </c>
-    </row>
-    <row r="112" ht="12.4" customHeight="1" s="24">
-      <c r="A112" s="33" t="n"/>
-      <c r="B112" s="33" t="n"/>
-      <c r="C112" s="34" t="inlineStr">
-        <is>
-          <t>cm8388450@gmail.com</t>
-        </is>
-      </c>
-      <c r="D112" s="22" t="inlineStr">
-        <is>
-          <t>!hZ&amp;O%FyO9</t>
-        </is>
-      </c>
-      <c r="I112" s="23" t="inlineStr">
+      <c r="H112" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmP5ZyF9PPJuxR8dY3kUubb1upUe7j4daHkV9xmQWWMBJC</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="12.4" customHeight="1" s="24">
-      <c r="A113" s="33" t="n"/>
-      <c r="B113" s="33" t="n"/>
-      <c r="C113" s="34" t="inlineStr">
+    <row r="113" ht="12.4" customHeight="1" s="23">
+      <c r="A113" s="31" t="n"/>
+      <c r="B113" s="31" t="n"/>
+      <c r="C113" s="32" t="inlineStr">
         <is>
           <t>hfulton564@gmail.com</t>
         </is>
       </c>
-      <c r="D113" s="22" t="inlineStr">
+      <c r="D113" s="21" t="inlineStr">
         <is>
           <t>%4dSnrtn)(</t>
         </is>
       </c>
-      <c r="I113" s="23" t="inlineStr">
+      <c r="H113" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcW9NF8EUymTq5Ye3YCD8L73fR35qRNpF9hMwaN8wyEMc</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="12.4" customHeight="1" s="24">
-      <c r="A114" s="33" t="n"/>
-      <c r="B114" s="33" t="n"/>
-      <c r="C114" s="34" t="inlineStr">
+    <row r="114" ht="12.4" customHeight="1" s="23">
+      <c r="A114" s="31" t="n"/>
+      <c r="B114" s="31" t="n"/>
+      <c r="C114" s="32" t="inlineStr">
         <is>
           <t>littlealexis311@gmail.com</t>
         </is>
       </c>
-      <c r="D114" s="22" t="inlineStr">
+      <c r="D114" s="21" t="inlineStr">
         <is>
           <t>!E6YRxpej!</t>
         </is>
       </c>
-      <c r="I114" s="23" t="inlineStr">
+      <c r="E114" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F114" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/3ALMAQH1tIfwTMrbaWFrQ0TbwDHMNvRg</t>
+        </is>
+      </c>
+      <c r="G114" s="22" t="inlineStr">
+        <is>
+          <t>3ALMAQH1tIfwTMrbaWFrQ0TbwDHMNvRg</t>
+        </is>
+      </c>
+      <c r="H114" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNWiYGWFeZpjGnv3t4WebmQ4g4Nxft1G2QXdBwCHpEBhq</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="12.4" customHeight="1" s="24">
-      <c r="A115" s="33" t="n"/>
-      <c r="B115" s="33" t="n"/>
-      <c r="C115" s="34" t="inlineStr">
+    <row r="115" ht="12.4" customHeight="1" s="23">
+      <c r="A115" s="31" t="n"/>
+      <c r="B115" s="31" t="n"/>
+      <c r="C115" s="32" t="inlineStr">
         <is>
           <t>oaudley620@gmail.com</t>
         </is>
       </c>
-      <c r="D115" s="22" t="inlineStr">
+      <c r="D115" s="21" t="inlineStr">
         <is>
           <t>D4QB3QMg_T</t>
         </is>
       </c>
-      <c r="I115" s="23" t="inlineStr">
+      <c r="E115" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F115" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/DHOxEPoZSpGWCqebU67cIfu66YiquLHv</t>
+        </is>
+      </c>
+      <c r="G115" s="22" t="inlineStr">
+        <is>
+          <t>DHOxEPoZSpGWCqebU67cIfu66YiquLHv</t>
+        </is>
+      </c>
+      <c r="H115" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbV4RRNiZnrVAj7ypp3xCbGbmMZLybfR5Weo87Pd72gp2</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="12.4" customHeight="1" s="24">
-      <c r="A116" s="33" t="n"/>
-      <c r="B116" s="33" t="n"/>
-      <c r="C116" s="34" t="inlineStr">
+    <row r="116" ht="12.4" customHeight="1" s="23">
+      <c r="A116" s="31" t="n"/>
+      <c r="B116" s="31" t="n"/>
+      <c r="C116" s="32" t="inlineStr">
         <is>
           <t>evelynpass51@gmail.com</t>
         </is>
       </c>
-      <c r="D116" s="22" t="inlineStr">
+      <c r="D116" s="21" t="inlineStr">
         <is>
           <t>2@3G&amp;fhEuY</t>
         </is>
       </c>
-      <c r="I116" s="23" t="inlineStr">
+      <c r="E116" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F116" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/x5Ird-R3jhjCxYxnyxDUFxtqmITNoLze</t>
+        </is>
+      </c>
+      <c r="G116" s="22" t="inlineStr">
+        <is>
+          <t>x5Ird-R3jhjCxYxnyxDUFxtqmITNoLze</t>
+        </is>
+      </c>
+      <c r="H116" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPRceBrHbo925Px2HxdUwcG3TQqzDd45YSWRcm91WEUu8</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="12.4" customHeight="1" s="24">
-      <c r="A117" s="33" t="n"/>
-      <c r="B117" s="33" t="n"/>
-      <c r="C117" s="34" t="inlineStr">
+    <row r="117" ht="12.4" customHeight="1" s="23">
+      <c r="A117" s="31" t="n"/>
+      <c r="B117" s="31" t="n"/>
+      <c r="C117" s="32" t="inlineStr">
         <is>
           <t>melissapearcy6@gmail.com</t>
         </is>
       </c>
-      <c r="D117" s="22" t="inlineStr">
+      <c r="D117" s="21" t="inlineStr">
         <is>
           <t>^q%QK(rm2s</t>
         </is>
       </c>
-      <c r="I117" s="23" t="inlineStr">
+      <c r="E117" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F117" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/qOfoTBcQIBVmOOlaVoCAn65RfjuZfgX7</t>
+        </is>
+      </c>
+      <c r="G117" s="22" t="inlineStr">
+        <is>
+          <t>qOfoTBcQIBVmOOlaVoCAn65RfjuZfgX7</t>
+        </is>
+      </c>
+      <c r="H117" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmeH1F3yqeh1YTWa2b76RdicU4oreR1qgoXbJJ98GCevn1</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="12.4" customHeight="1" s="24">
-      <c r="A118" s="33" t="n"/>
-      <c r="B118" s="33" t="n"/>
-      <c r="C118" s="34" t="inlineStr">
+    <row r="118" ht="12.4" customHeight="1" s="23">
+      <c r="A118" s="31" t="n"/>
+      <c r="B118" s="31" t="n"/>
+      <c r="C118" s="32" t="inlineStr">
         <is>
           <t>marjoriej437@gmail.com</t>
         </is>
       </c>
-      <c r="D118" s="22" t="inlineStr">
+      <c r="D118" s="21" t="inlineStr">
         <is>
           <t>a_6ZKy5GED</t>
         </is>
       </c>
-      <c r="I118" s="23" t="inlineStr">
+      <c r="E118" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F118" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/ztcE54NA4NthEJzWFxnuumfAZhkVoKnn</t>
+        </is>
+      </c>
+      <c r="G118" s="22" t="inlineStr">
+        <is>
+          <t>ztcE54NA4NthEJzWFxnuumfAZhkVoKnn</t>
+        </is>
+      </c>
+      <c r="H118" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNRXtkF52bWesTvmuQ9XTUwLedWSdx2VuB6yRUQCE3PjY</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="12.4" customHeight="1" s="24">
-      <c r="A119" s="33" t="n"/>
-      <c r="B119" s="33" t="n"/>
-      <c r="C119" s="34" t="inlineStr">
+    <row r="119" ht="12.4" customHeight="1" s="23">
+      <c r="A119" s="31" t="n"/>
+      <c r="B119" s="31" t="n"/>
+      <c r="C119" s="32" t="inlineStr">
         <is>
           <t>wifkinsonjenna77@gmail.com</t>
         </is>
       </c>
-      <c r="D119" s="22" t="inlineStr">
+      <c r="D119" s="21" t="inlineStr">
         <is>
           <t>MyEEgi#J)5</t>
         </is>
       </c>
-      <c r="I119" s="23" t="inlineStr">
+      <c r="E119" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H119" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYBsw4jCY4jXKBqxSYTuU77RLqHFN9D6dYBzKUD3495uN</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="12.4" customHeight="1" s="24">
-      <c r="A120" s="33" t="n"/>
-      <c r="B120" s="33" t="n"/>
-      <c r="C120" s="34" t="inlineStr">
+    <row r="120" ht="12.4" customHeight="1" s="23">
+      <c r="A120" s="31" t="n"/>
+      <c r="B120" s="31" t="n"/>
+      <c r="C120" s="32" t="inlineStr">
         <is>
           <t>brickmanshirley9@gmail.com</t>
         </is>
       </c>
-      <c r="D120" s="22" t="inlineStr">
+      <c r="D120" s="21" t="inlineStr">
         <is>
           <t>A^*S2H08qa</t>
         </is>
       </c>
-      <c r="I120" s="23" t="inlineStr">
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F120" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/T5fpAwd_sT_cVSnQQrH81oRlETIRoFDb</t>
+        </is>
+      </c>
+      <c r="G120" s="22" t="inlineStr">
+        <is>
+          <t>T5fpAwd_sT_cVSnQQrH81oRlETIRoFDb</t>
+        </is>
+      </c>
+      <c r="H120" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbjB2cTxgq635xgXYpjDcsu71ZnQzJ5a7VbGwzjEYpYDe</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="12.4" customHeight="1" s="24">
-      <c r="A121" s="33" t="n"/>
-      <c r="B121" s="33" t="n"/>
-      <c r="C121" s="34" t="inlineStr">
+    <row r="121" ht="12.4" customHeight="1" s="23">
+      <c r="A121" s="31" t="n"/>
+      <c r="B121" s="31" t="n"/>
+      <c r="C121" s="32" t="inlineStr">
         <is>
           <t>hlillian922@gmail.com</t>
         </is>
       </c>
-      <c r="D121" s="22" t="inlineStr">
+      <c r="D121" s="21" t="inlineStr">
         <is>
           <t>s^3N+Ctkfc</t>
         </is>
       </c>
-      <c r="I121" s="23" t="inlineStr">
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F121" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/gAuUptuwds_KcLQPulbpGrmgiYZYQJlZ</t>
+        </is>
+      </c>
+      <c r="G121" s="22" t="inlineStr">
+        <is>
+          <t>gAuUptuwds_KcLQPulbpGrmgiYZYQJlZ</t>
+        </is>
+      </c>
+      <c r="H121" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTwd2A6LEL5YrdEmwcZE4dQQ75vkBiDfPW28rdS9SzNM9</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="12.4" customHeight="1" s="24">
-      <c r="A122" s="33" t="n"/>
-      <c r="B122" s="33" t="n"/>
-      <c r="C122" s="34" t="inlineStr">
+    <row r="122" ht="12.4" customHeight="1" s="23">
+      <c r="A122" s="31" t="n"/>
+      <c r="B122" s="31" t="n"/>
+      <c r="C122" s="32" t="inlineStr">
         <is>
           <t>ramaceylily9@gmail.com</t>
         </is>
       </c>
-      <c r="D122" s="22" t="inlineStr">
+      <c r="D122" s="21" t="inlineStr">
         <is>
           <t>@h9XK#Eq(B</t>
         </is>
       </c>
-      <c r="I122" s="23" t="inlineStr">
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F122" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/P-UIrGe0mMk3Ws4p3AB3RB1mXprbX8jT</t>
+        </is>
+      </c>
+      <c r="G122" s="22" t="inlineStr">
+        <is>
+          <t>P-UIrGe0mMk3Ws4p3AB3RB1mXprbX8jT</t>
+        </is>
+      </c>
+      <c r="H122" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaZEP69XS4HpiYyygsc1eWdPXWJ16y9fVhfTgXx1uWXgT</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="12.4" customHeight="1" s="24">
-      <c r="A123" s="33" t="n"/>
-      <c r="B123" s="33" t="n"/>
-      <c r="C123" s="34" t="inlineStr">
+    <row r="123" ht="12.4" customHeight="1" s="23">
+      <c r="A123" s="31" t="n"/>
+      <c r="B123" s="31" t="n"/>
+      <c r="C123" s="32" t="inlineStr">
         <is>
           <t>ChristopherMurphy1228@gmail.com</t>
         </is>
       </c>
-      <c r="D123" s="22" t="inlineStr">
+      <c r="D123" s="21" t="inlineStr">
         <is>
           <t>*TET4VDu)S</t>
         </is>
       </c>
-      <c r="I123" s="23" t="inlineStr">
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F123" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/cP4XaAEqv2GrElbf3YVxGsvTSRf4Pge3</t>
+        </is>
+      </c>
+      <c r="G123" s="22" t="inlineStr">
+        <is>
+          <t>cP4XaAEqv2GrElbf3YVxGsvTSRf4Pge3</t>
+        </is>
+      </c>
+      <c r="H123" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTYsBKrJM95PE3b6nnDbCeFdGdnfVPjxpDmg7feAnXQYg</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="12.4" customHeight="1" s="24">
-      <c r="A124" s="43" t="n"/>
-      <c r="B124" s="43" t="n"/>
-      <c r="C124" s="34" t="inlineStr">
+    <row r="124" ht="12.4" customHeight="1" s="23">
+      <c r="A124" s="41" t="n"/>
+      <c r="B124" s="41" t="n"/>
+      <c r="C124" s="32" t="inlineStr">
         <is>
           <t>saundercarl5@gmail.com</t>
         </is>
       </c>
-      <c r="D124" s="22" t="inlineStr">
+      <c r="D124" s="21" t="inlineStr">
         <is>
           <t>P3)GiVYw%_</t>
         </is>
       </c>
-      <c r="I124" s="23" t="inlineStr">
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F124" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/rWb9Vd0YrGjEABEfYQ2vLAJq0a1BN62l</t>
+        </is>
+      </c>
+      <c r="G124" s="22" t="inlineStr">
+        <is>
+          <t>rWb9Vd0YrGjEABEfYQ2vLAJq0a1BN62l</t>
+        </is>
+      </c>
+      <c r="H124" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmU7iE2B27hC38uDWKJTYiPjbRVx6zqGqMg6SCU7gh3Hiq</t>
         </is>
       </c>
     </row>
-    <row r="125" ht="12.4" customHeight="1" s="24">
-      <c r="A125" s="33" t="n"/>
-      <c r="B125" s="33" t="n"/>
-      <c r="C125" s="34" t="inlineStr">
+    <row r="125" ht="12.4" customHeight="1" s="23">
+      <c r="A125" s="31" t="n"/>
+      <c r="B125" s="31" t="n"/>
+      <c r="C125" s="32" t="inlineStr">
         <is>
           <t>ashtonpaterson0@gmail.com</t>
         </is>
       </c>
-      <c r="D125" s="22" t="inlineStr">
+      <c r="D125" s="21" t="inlineStr">
         <is>
           <t>8fDLF1no!v</t>
         </is>
       </c>
-      <c r="I125" s="23" t="inlineStr">
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H125" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUwJ6oJ4E4bJQwqssup4DstUNZ41XpBn3ogR8KEtCjMYV</t>
         </is>
       </c>
     </row>
-    <row r="126" ht="12.4" customHeight="1" s="24">
-      <c r="A126" s="33" t="n"/>
-      <c r="B126" s="33" t="n"/>
-      <c r="C126" s="34" t="inlineStr">
+    <row r="126" ht="12.4" customHeight="1" s="23">
+      <c r="A126" s="31" t="n"/>
+      <c r="B126" s="31" t="n"/>
+      <c r="C126" s="32" t="inlineStr">
         <is>
           <t>hkendal414@gmail.com</t>
         </is>
       </c>
-      <c r="D126" s="22" t="inlineStr">
+      <c r="D126" s="21" t="inlineStr">
         <is>
           <t>%F5aiSz3RZ</t>
         </is>
       </c>
-      <c r="I126" s="23" t="inlineStr">
+      <c r="H126" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmU2xmWVwtfgAC97D1NNJzCBeQJg85B6mAeiMD2XAsEtj4</t>
         </is>
       </c>
     </row>
-    <row r="127" ht="12.4" customHeight="1" s="24">
-      <c r="A127" s="33" t="n"/>
-      <c r="B127" s="33" t="n"/>
-      <c r="C127" s="34" t="inlineStr">
+    <row r="127" ht="12.4" customHeight="1" s="23">
+      <c r="A127" s="31" t="n"/>
+      <c r="B127" s="31" t="n"/>
+      <c r="C127" s="32" t="inlineStr">
         <is>
           <t>raleighlillian860@gmail.com</t>
         </is>
       </c>
-      <c r="D127" s="22" t="inlineStr">
+      <c r="D127" s="21" t="inlineStr">
         <is>
           <t>$54OWOMw8c</t>
         </is>
       </c>
-      <c r="I127" s="23" t="inlineStr">
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F127" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/olnLY3S3ks7QxZKsottp2k88G2nb2z7C</t>
+        </is>
+      </c>
+      <c r="G127" s="22" t="inlineStr">
+        <is>
+          <t>olnLY3S3ks7QxZKsottp2k88G2nb2z7C</t>
+        </is>
+      </c>
+      <c r="H127" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRfycSsA5fvrPiwMbQHkyv17oiuPgvuMUiJZ768Nr6zpP</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="12.4" customHeight="1" s="24">
-      <c r="A128" s="33" t="n"/>
-      <c r="B128" s="33" t="n"/>
-      <c r="C128" s="34" t="inlineStr">
+    <row r="128" ht="12.4" customHeight="1" s="23">
+      <c r="A128" s="31" t="n"/>
+      <c r="B128" s="31" t="n"/>
+      <c r="C128" s="32" t="inlineStr">
         <is>
           <t>abramsonj026@gmail.com</t>
         </is>
       </c>
-      <c r="D128" s="22" t="inlineStr">
+      <c r="D128" s="21" t="inlineStr">
         <is>
           <t>)8kBllcoz!</t>
         </is>
       </c>
-      <c r="I128" s="23" t="inlineStr">
+      <c r="H128" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmagtw7wFw2cSMKzcPs9SJXWiCYV4bnKHUff3ejJ2eAVnL</t>
         </is>
       </c>
     </row>
-    <row r="129" ht="12.4" customHeight="1" s="24">
-      <c r="A129" s="33" t="n"/>
-      <c r="B129" s="33" t="n"/>
-      <c r="C129" s="34" t="inlineStr">
+    <row r="129" ht="12.4" customHeight="1" s="23">
+      <c r="A129" s="31" t="n"/>
+      <c r="B129" s="31" t="n"/>
+      <c r="C129" s="32" t="inlineStr">
         <is>
           <t>sylviabosworth28@gmail.com</t>
         </is>
       </c>
-      <c r="D129" s="22" t="inlineStr">
+      <c r="D129" s="21" t="inlineStr">
         <is>
           <t>!jIWVCUa(0</t>
         </is>
       </c>
-      <c r="I129" s="23" t="inlineStr">
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F129" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/40FLwc8ce_zhmFxmX9dL-ZrVJvJSGN1F</t>
+        </is>
+      </c>
+      <c r="G129" s="22" t="inlineStr">
+        <is>
+          <t>40FLwc8ce_zhmFxmX9dL-ZrVJvJSGN1F</t>
+        </is>
+      </c>
+      <c r="H129" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTTpBpxJFmAsnQjCBechidu49ph41xWN3p5JREzUeragM</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="12.4" customHeight="1" s="24">
-      <c r="A130" s="33" t="n"/>
-      <c r="B130" s="33" t="n"/>
-      <c r="C130" s="34" t="inlineStr">
+    <row r="130" ht="12.4" customHeight="1" s="23">
+      <c r="A130" s="31" t="n"/>
+      <c r="B130" s="31" t="n"/>
+      <c r="C130" s="32" t="inlineStr">
         <is>
           <t>adrianhailey881@gmail.com</t>
         </is>
       </c>
-      <c r="D130" s="22" t="inlineStr">
+      <c r="D130" s="21" t="inlineStr">
         <is>
           <t>xi6ED@lN*K</t>
         </is>
       </c>
-      <c r="I130" s="23" t="inlineStr">
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H130" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSK2bmG761zzrmcnUWXfxM5GsHuaCC4bPZvJJavo8PBzs</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="12.4" customHeight="1" s="24">
-      <c r="A131" s="33" t="n"/>
-      <c r="B131" s="33" t="n"/>
-      <c r="C131" s="34" t="inlineStr">
+    <row r="131" ht="12.4" customHeight="1" s="23">
+      <c r="A131" s="31" t="n"/>
+      <c r="B131" s="31" t="n"/>
+      <c r="C131" s="32" t="inlineStr">
         <is>
           <t>owen62812@gmail.com</t>
         </is>
       </c>
-      <c r="D131" s="22" t="inlineStr">
+      <c r="D131" s="21" t="inlineStr">
         <is>
           <t>6WqdZIs0_x</t>
         </is>
       </c>
-      <c r="I131" s="23" t="inlineStr">
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H131" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmf85q5tzPsVzSHnk8VNEHqS4bWaJiFco4pi3kyWJ3s61w</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="12.4" customHeight="1" s="24">
-      <c r="A132" s="33" t="n"/>
-      <c r="B132" s="33" t="n"/>
-      <c r="C132" s="34" t="inlineStr">
+    <row r="132" ht="12.4" customHeight="1" s="23">
+      <c r="A132" s="31" t="n"/>
+      <c r="B132" s="31" t="n"/>
+      <c r="C132" s="32" t="inlineStr">
         <is>
           <t>macadamangelina4@gmail.com</t>
         </is>
       </c>
-      <c r="D132" s="22" t="inlineStr">
+      <c r="D132" s="21" t="inlineStr">
         <is>
           <t>^kG!Cy)n4d</t>
         </is>
       </c>
-      <c r="I132" s="23" t="inlineStr">
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H132" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmeQW53wLzEDmVQYHDSDxk83Lz3RcC8e6MnJP2sHzFj1e6</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="12.4" customHeight="1" s="24">
-      <c r="A133" s="43" t="n"/>
-      <c r="B133" s="43" t="n"/>
-      <c r="C133" s="34" t="inlineStr">
+    <row r="133" ht="12.4" customHeight="1" s="23">
+      <c r="A133" s="41" t="n"/>
+      <c r="B133" s="41" t="n"/>
+      <c r="C133" s="32" t="inlineStr">
         <is>
           <t>archibaldk37@gmail.com</t>
         </is>
       </c>
-      <c r="D133" s="22" t="inlineStr">
+      <c r="D133" s="21" t="inlineStr">
         <is>
           <t>$6a)vPO4xw</t>
         </is>
       </c>
-      <c r="I133" s="23" t="inlineStr">
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H133" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRcC2bwJrKKwJ8REhnwj2fSAfXMFoNgctas86PgR6t2CW</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="12.4" customHeight="1" s="24">
-      <c r="A134" s="33" t="n"/>
-      <c r="B134" s="33" t="n"/>
-      <c r="C134" s="34" t="inlineStr">
+    <row r="134" ht="12.4" customHeight="1" s="23">
+      <c r="A134" s="31" t="n"/>
+      <c r="B134" s="31" t="n"/>
+      <c r="C134" s="32" t="inlineStr">
         <is>
           <t>gp070726@gmail.com</t>
         </is>
       </c>
-      <c r="D134" s="22" t="inlineStr">
+      <c r="D134" s="21" t="inlineStr">
         <is>
           <t>rFg)TM$r%5</t>
         </is>
       </c>
-      <c r="I134" s="23" t="inlineStr">
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H134" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWs7cMSaPxXn6C5UUAvh7pNGTBjgtM4xoEhL66iWQ6q6M</t>
         </is>
       </c>
     </row>
-    <row r="135" ht="12.4" customHeight="1" s="24">
-      <c r="A135" s="33" t="n"/>
-      <c r="B135" s="33" t="n"/>
-      <c r="C135" s="34" t="inlineStr">
+    <row r="135" ht="12.4" customHeight="1" s="23">
+      <c r="A135" s="31" t="n"/>
+      <c r="B135" s="31" t="n"/>
+      <c r="C135" s="32" t="inlineStr">
         <is>
           <t>keatreginald026@gmail.com</t>
         </is>
       </c>
-      <c r="D135" s="22" t="inlineStr">
+      <c r="D135" s="21" t="inlineStr">
         <is>
           <t>^m$KsZBeV8</t>
         </is>
       </c>
-      <c r="I135" s="23" t="inlineStr">
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F135" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/tiGYIbtYSq9UranYKe4Ain7Chhdczo8B</t>
+        </is>
+      </c>
+      <c r="G135" s="22" t="inlineStr">
+        <is>
+          <t>tiGYIbtYSq9UranYKe4Ain7Chhdczo8B</t>
+        </is>
+      </c>
+      <c r="H135" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNd6cLSGZ8yjcWKsCTZMHcxbzaijkfR4eUUH77gkFhgTF</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="12.4" customHeight="1" s="24">
-      <c r="A136" s="43" t="n"/>
-      <c r="B136" s="43" t="n"/>
-      <c r="C136" s="34" t="inlineStr">
+    <row r="136" ht="12.4" customHeight="1" s="23">
+      <c r="A136" s="41" t="n"/>
+      <c r="B136" s="41" t="n"/>
+      <c r="C136" s="32" t="inlineStr">
         <is>
           <t>AlbertSmith9872@gmail.com</t>
         </is>
       </c>
-      <c r="D136" s="22" t="inlineStr">
+      <c r="D136" s="21" t="inlineStr">
         <is>
           <t>O22)Rw(A$0</t>
         </is>
       </c>
-      <c r="I136" s="23" t="inlineStr">
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F136" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/TmNcxayKC0qtWicjqBZ8LQIpw7jwz63i</t>
+        </is>
+      </c>
+      <c r="G136" s="22" t="inlineStr">
+        <is>
+          <t>TmNcxayKC0qtWicjqBZ8LQIpw7jwz63i</t>
+        </is>
+      </c>
+      <c r="H136" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPxtcYf37GZYxGDzc79kxyC5S7JweQYfHyTwfQc3sRcAX</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="12.4" customHeight="1" s="24">
-      <c r="A137" s="33" t="n"/>
-      <c r="B137" s="33" t="n"/>
-      <c r="C137" s="34" t="inlineStr">
+    <row r="137" ht="12.4" customHeight="1" s="23">
+      <c r="A137" s="31" t="n"/>
+      <c r="B137" s="31" t="n"/>
+      <c r="C137" s="32" t="inlineStr">
         <is>
           <t>cj3375398@gmail.com</t>
         </is>
       </c>
-      <c r="D137" s="22" t="inlineStr">
+      <c r="D137" s="21" t="inlineStr">
         <is>
           <t>K#9*nWw8Ua</t>
         </is>
       </c>
-      <c r="I137" s="23" t="inlineStr">
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H137" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNScrqPoPuCkRnzGSgfHJH2Y35C6T1AwBaMo4pEwu6XVz</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="12.4" customHeight="1" s="24">
-      <c r="A138" s="43" t="n"/>
-      <c r="B138" s="43" t="n"/>
-      <c r="C138" s="34" t="inlineStr">
+    <row r="138" ht="12.4" customHeight="1" s="23">
+      <c r="A138" s="41" t="n"/>
+      <c r="B138" s="41" t="n"/>
+      <c r="C138" s="32" t="inlineStr">
         <is>
           <t>AgathaLewin7981@gmail.com</t>
         </is>
       </c>
-      <c r="D138" s="22" t="inlineStr">
+      <c r="D138" s="21" t="inlineStr">
         <is>
           <t>ya%4&amp;Fhn#k</t>
         </is>
       </c>
-      <c r="I138" s="23" t="inlineStr">
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F138" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/VEW2zbv-nEtdhDPdwJ3WZ0xQheFSG0U5</t>
+        </is>
+      </c>
+      <c r="G138" s="22" t="inlineStr">
+        <is>
+          <t>VEW2zbv-nEtdhDPdwJ3WZ0xQheFSG0U5</t>
+        </is>
+      </c>
+      <c r="H138" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYjLzCgr2D5pHQ2MAEPRLVhEBBJuWVNf217Ai49ZwThZN</t>
         </is>
       </c>
     </row>
-    <row r="139" ht="12.4" customHeight="1" s="24">
-      <c r="A139" s="33" t="n"/>
-      <c r="B139" s="33" t="n"/>
-      <c r="C139" s="34" t="inlineStr">
+    <row r="139" ht="12.4" customHeight="1" s="23">
+      <c r="A139" s="31" t="n"/>
+      <c r="B139" s="31" t="n"/>
+      <c r="C139" s="32" t="inlineStr">
         <is>
           <t>ellingtongladys5@gmail.com</t>
         </is>
       </c>
-      <c r="D139" s="22" t="inlineStr">
+      <c r="D139" s="21" t="inlineStr">
         <is>
           <t>$A2+O9@fA*</t>
         </is>
       </c>
-      <c r="I139" s="23" t="inlineStr">
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F139" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/n2uanMiuaidITHN5dztgt3HtMdQbeBeT</t>
+        </is>
+      </c>
+      <c r="G139" s="22" t="inlineStr">
+        <is>
+          <t>n2uanMiuaidITHN5dztgt3HtMdQbeBeT</t>
+        </is>
+      </c>
+      <c r="H139" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQciJgL7zW5pFcCKQPw2N5fF4ieFsK7RRzv2dpf1tu9Jf</t>
         </is>
       </c>
     </row>
-    <row r="140" ht="12.4" customHeight="1" s="24">
-      <c r="A140" s="43" t="n"/>
-      <c r="B140" s="43" t="n"/>
-      <c r="C140" s="34" t="inlineStr">
+    <row r="140" ht="12.4" customHeight="1" s="23">
+      <c r="A140" s="41" t="n"/>
+      <c r="B140" s="41" t="n"/>
+      <c r="C140" s="32" t="inlineStr">
         <is>
           <t>oswaldc326@gmail.com</t>
         </is>
       </c>
-      <c r="D140" s="22" t="inlineStr">
+      <c r="D140" s="21" t="inlineStr">
         <is>
           <t>7dh+5E#r!3</t>
         </is>
       </c>
-      <c r="I140" s="23" t="inlineStr">
+      <c r="E140" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H140" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRcA19Uqdre9UtDA8X5VEgoCUpZqjmqQ1JRLPthLas9zG</t>
         </is>
       </c>
     </row>
-    <row r="141" ht="12.4" customHeight="1" s="24">
-      <c r="A141" s="43" t="n"/>
-      <c r="B141" s="43" t="n"/>
-      <c r="C141" s="34" t="inlineStr">
+    <row r="141" ht="12.4" customHeight="1" s="23">
+      <c r="A141" s="41" t="n"/>
+      <c r="B141" s="41" t="n"/>
+      <c r="C141" s="32" t="inlineStr">
         <is>
           <t>lilypearcy65@gmail.com</t>
         </is>
       </c>
-      <c r="D141" s="22" t="inlineStr">
+      <c r="D141" s="21" t="inlineStr">
         <is>
           <t>j5Me_TlT*C</t>
         </is>
       </c>
-      <c r="I141" s="23" t="inlineStr">
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F141" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/-voIJxbRsE8XWjQqCExRHu749rfYs4Wx</t>
+        </is>
+      </c>
+      <c r="G141" s="22" t="inlineStr">
+        <is>
+          <t>-voIJxbRsE8XWjQqCExRHu749rfYs4Wx</t>
+        </is>
+      </c>
+      <c r="H141" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmctafWMtQE4ZzofeYfSuqZU9tJgcN3XJFPn3SXRmdjjuq</t>
         </is>
       </c>
     </row>
-    <row r="142" ht="12.4" customHeight="1" s="24">
-      <c r="A142" s="33" t="n"/>
-      <c r="B142" s="33" t="n"/>
-      <c r="C142" s="34" t="inlineStr">
+    <row r="142" ht="12.4" customHeight="1" s="23">
+      <c r="A142" s="31" t="n"/>
+      <c r="B142" s="31" t="n"/>
+      <c r="C142" s="32" t="inlineStr">
         <is>
           <t>macadamdonald7@gmail.com</t>
         </is>
       </c>
-      <c r="D142" s="22" t="inlineStr">
+      <c r="D142" s="21" t="inlineStr">
         <is>
           <t>%1@7LzQbgA</t>
         </is>
       </c>
-      <c r="I142" s="23" t="inlineStr">
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F142" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/qL2xro8yrOakCIBJSmMaDTU3X29zL-jt</t>
+        </is>
+      </c>
+      <c r="G142" s="22" t="inlineStr">
+        <is>
+          <t>qL2xro8yrOakCIBJSmMaDTU3X29zL-jt</t>
+        </is>
+      </c>
+      <c r="H142" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW3hpB9iDWT4Mh1WDHrngvmJc7F2CSUScCiWa4vu33nRf</t>
         </is>
       </c>
     </row>
-    <row r="143" ht="12.4" customHeight="1" s="24">
-      <c r="A143" s="33" t="n"/>
-      <c r="B143" s="33" t="n"/>
-      <c r="D143" s="22" t="inlineStr">
+    <row r="143" ht="12.4" customHeight="1" s="23">
+      <c r="A143" s="31" t="n"/>
+      <c r="B143" s="31" t="n"/>
+      <c r="C143" s="37" t="inlineStr">
+        <is>
+          <t>daisyjerome4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D143" s="21" t="inlineStr">
         <is>
           <t>9O3B7uCd#(</t>
         </is>
       </c>
-      <c r="I143" s="23" t="inlineStr">
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="H143" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQedKUb3zydkmghkCFdAT6JSTo6NusBhPWsygvLtLvoY6</t>
         </is>
       </c>
     </row>
-    <row r="144" ht="12.4" customHeight="1" s="24">
-      <c r="A144" s="33" t="n"/>
-      <c r="B144" s="33" t="n"/>
-      <c r="D144" s="22" t="inlineStr">
+    <row r="144" ht="12.4" customHeight="1" s="23">
+      <c r="A144" s="31" t="n"/>
+      <c r="B144" s="31" t="n"/>
+      <c r="C144" s="37" t="inlineStr">
+        <is>
+          <t>petersongregory888@gmail.com</t>
+        </is>
+      </c>
+      <c r="D144" s="21" t="inlineStr">
         <is>
           <t>@$84HDSlu$</t>
         </is>
       </c>
-      <c r="I144" s="23" t="inlineStr">
+      <c r="H144" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbJuEw5E2nYkt7gBEMvaGjZYUeyCQZmmuJTKRa8X9yEF5</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="12.4" customHeight="1" s="24">
-      <c r="A145" s="43" t="n"/>
-      <c r="B145" s="43" t="n"/>
-      <c r="D145" s="22" t="inlineStr">
+    <row r="145" ht="12.4" customHeight="1" s="23">
+      <c r="A145" s="41" t="n"/>
+      <c r="B145" s="41" t="n"/>
+      <c r="C145" s="37" t="inlineStr">
+        <is>
+          <t>louischarlson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
         <is>
           <t>@pXG4KiGP2</t>
         </is>
       </c>
-      <c r="I145" s="23" t="inlineStr">
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F145" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/kzE-fSuPzeSSUkekICSFyRL04P1tZZR9</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>kzE-fSuPzeSSUkekICSFyRL04P1tZZR9</t>
+        </is>
+      </c>
+      <c r="H145" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPq8KKi3czmwfhjhejgSGEVT7o671n6X36L3MRaxQmqec</t>
         </is>
       </c>
     </row>
-    <row r="146" ht="12.4" customHeight="1" s="24">
-      <c r="A146" s="43" t="n"/>
-      <c r="B146" s="43" t="n"/>
-      <c r="D146" s="22" t="inlineStr">
+    <row r="146" ht="12.4" customHeight="1" s="23">
+      <c r="A146" s="41" t="n"/>
+      <c r="B146" s="41" t="n"/>
+      <c r="C146" s="37" t="inlineStr">
+        <is>
+          <t>ralphseric597@gmail.com</t>
+        </is>
+      </c>
+      <c r="D146" s="21" t="inlineStr">
         <is>
           <t>*L14TAfYn1</t>
         </is>
       </c>
-      <c r="I146" s="23" t="inlineStr">
+      <c r="H146" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUxrrmDPE9YR3eUFsSvutXLGzywEyPSCfhxwCcik9Pu3N</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="12.4" customHeight="1" s="24">
-      <c r="A147" s="33" t="n"/>
-      <c r="B147" s="33" t="n"/>
-      <c r="D147" s="22" t="inlineStr">
+    <row r="147" ht="12.4" customHeight="1" s="23">
+      <c r="A147" s="31" t="n"/>
+      <c r="B147" s="31" t="n"/>
+      <c r="C147" s="37" t="inlineStr">
+        <is>
+          <t>JasmineAnderson7216@gmail.com</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
         <is>
           <t>Flk2NOVii)</t>
         </is>
       </c>
-      <c r="I147" s="23" t="inlineStr">
+      <c r="H147" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWTiQDkdzEdBcdJsjKgvyk7oHywgiHy2Xmohi8BpUCLvK</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="12.4" customHeight="1" s="24">
-      <c r="A148" s="33" t="n"/>
-      <c r="B148" s="33" t="n"/>
-      <c r="D148" s="22" t="inlineStr">
+    <row r="148" ht="12.4" customHeight="1" s="23">
+      <c r="A148" s="31" t="n"/>
+      <c r="B148" s="31" t="n"/>
+      <c r="C148" s="37" t="inlineStr">
+        <is>
+          <t>bawermanrichard5@gmail.com</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
         <is>
           <t>x^5RXQxl)C</t>
         </is>
       </c>
-      <c r="I148" s="23" t="inlineStr">
+      <c r="H148" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXcvcyzCSe7QfJUNZ4Q5Wii3rg94WMyZH9LPQKcTjXQ2T</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="12.4" customHeight="1" s="24">
-      <c r="A149" s="43" t="n"/>
-      <c r="B149" s="43" t="n"/>
-      <c r="D149" s="22" t="inlineStr">
+    <row r="149" ht="12.4" customHeight="1" s="23">
+      <c r="A149" s="41" t="n"/>
+      <c r="B149" s="41" t="n"/>
+      <c r="C149" s="37" t="inlineStr">
+        <is>
+          <t>shrlmarshman@gmail.com</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
         <is>
           <t>+GblOG6r7Q</t>
         </is>
       </c>
-      <c r="I149" s="23" t="inlineStr">
+      <c r="H149" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmeacu2XtQ43228Fe8xq9fp8EcsVM5GDWCYYjfQpkQcFn3</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="12.4" customHeight="1" s="24">
-      <c r="A150" s="33" t="n"/>
-      <c r="B150" s="33" t="n"/>
-      <c r="D150" s="35" t="n"/>
-      <c r="E150" s="35" t="n"/>
-      <c r="F150" s="35" t="n"/>
-      <c r="I150" s="23" t="inlineStr">
+    <row r="150" ht="12.4" customHeight="1" s="23">
+      <c r="A150" s="31" t="n"/>
+      <c r="B150" s="31" t="n"/>
+      <c r="C150" s="37" t="inlineStr">
+        <is>
+          <t>jordankendal61@gmail.com</t>
+        </is>
+      </c>
+      <c r="D150" s="33" t="inlineStr">
+        <is>
+          <t>6c6XmHgd@+</t>
+        </is>
+      </c>
+      <c r="E150" s="33" t="n"/>
+      <c r="H150" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPUpVuswBCd4Ngm1ouk3gsq9n8N8385an4beWUHkReKav</t>
         </is>
       </c>
     </row>
-    <row r="151" ht="12.4" customHeight="1" s="24">
-      <c r="A151" s="33" t="n"/>
-      <c r="B151" s="33" t="n"/>
-      <c r="D151" s="35" t="n"/>
-      <c r="E151" s="35" t="n"/>
-      <c r="F151" s="35" t="n"/>
-      <c r="I151" s="23" t="inlineStr">
+    <row r="151" ht="12.4" customHeight="1" s="23">
+      <c r="A151" s="31" t="n"/>
+      <c r="B151" s="31" t="n"/>
+      <c r="C151" s="37" t="inlineStr">
+        <is>
+          <t>dunceandrew83@gmail.com</t>
+        </is>
+      </c>
+      <c r="D151" s="33" t="inlineStr">
+        <is>
+          <t>(EC%kK7R#1</t>
+        </is>
+      </c>
+      <c r="E151" s="33" t="n"/>
+      <c r="H151" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYEdykD5QdEcZ6srw43Dxs8rPH5J2vGpKXR6f6FLXuLsm</t>
         </is>
       </c>
     </row>
-    <row r="152" ht="12.4" customHeight="1" s="24">
-      <c r="A152" s="43" t="n"/>
-      <c r="B152" s="43" t="n"/>
-      <c r="D152" s="35" t="n"/>
-      <c r="E152" s="35" t="n"/>
-      <c r="F152" s="35" t="n"/>
-      <c r="I152" s="23" t="inlineStr">
+    <row r="152" ht="12.4" customHeight="1" s="23">
+      <c r="A152" s="41" t="n"/>
+      <c r="B152" s="41" t="n"/>
+      <c r="C152" s="37" t="inlineStr">
+        <is>
+          <t>radderiy963@gmail.com</t>
+        </is>
+      </c>
+      <c r="D152" s="33" t="inlineStr">
+        <is>
+          <t>&amp;Vg5GERp*T</t>
+        </is>
+      </c>
+      <c r="E152" s="33" t="n"/>
+      <c r="H152" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZFjczJZWfNpaFy539Ey1p3oLKYLQA179VbDBxNGHRvnF</t>
         </is>
       </c>
     </row>
-    <row r="153" ht="12.4" customHeight="1" s="24">
-      <c r="A153" s="43" t="n"/>
-      <c r="B153" s="43" t="n"/>
-      <c r="D153" s="35" t="n"/>
-      <c r="E153" s="35" t="n"/>
-      <c r="F153" s="35" t="n"/>
-      <c r="I153" s="23" t="inlineStr">
+    <row r="153" ht="12.4" customHeight="1" s="23">
+      <c r="A153" s="41" t="n"/>
+      <c r="B153" s="41" t="n"/>
+      <c r="C153" s="37" t="inlineStr">
+        <is>
+          <t>birch5170@gmail.com</t>
+        </is>
+      </c>
+      <c r="D153" s="33" t="inlineStr">
+        <is>
+          <t>&amp;lIF2SCy+&amp;</t>
+        </is>
+      </c>
+      <c r="E153" s="33" t="n"/>
+      <c r="H153" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfPZSn3HLicDuRBNE1SMKrxUghCoktKsGPcREVkCgBhcr</t>
         </is>
       </c>
     </row>
-    <row r="154" ht="12.4" customHeight="1" s="24">
-      <c r="A154" s="33" t="n"/>
-      <c r="B154" s="33" t="n"/>
-      <c r="D154" s="35" t="n"/>
-      <c r="E154" s="35" t="n"/>
-      <c r="F154" s="35" t="n"/>
-      <c r="I154" s="23" t="inlineStr">
+    <row r="154" ht="12.4" customHeight="1" s="23">
+      <c r="A154" s="31" t="n"/>
+      <c r="B154" s="31" t="n"/>
+      <c r="C154" s="37" t="inlineStr">
+        <is>
+          <t>eddingtons86@gmail.com</t>
+        </is>
+      </c>
+      <c r="D154" s="33" t="inlineStr">
+        <is>
+          <t>_#IU*%*rA6</t>
+        </is>
+      </c>
+      <c r="E154" s="33" t="n"/>
+      <c r="H154" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSZqrVmGTe3GtHaUDeryqW1EfmMiWRqea9bvuiGQ4FRfj</t>
         </is>
       </c>
     </row>
-    <row r="155" ht="12.4" customHeight="1" s="24">
-      <c r="A155" s="43" t="n"/>
-      <c r="B155" s="43" t="n"/>
-      <c r="D155" s="35" t="n"/>
-      <c r="E155" s="35" t="n"/>
-      <c r="F155" s="35" t="n"/>
-      <c r="I155" s="23" t="inlineStr">
+    <row r="155" ht="12.4" customHeight="1" s="23">
+      <c r="A155" s="41" t="n"/>
+      <c r="B155" s="41" t="n"/>
+      <c r="C155" s="37" t="inlineStr">
+        <is>
+          <t>gateviolet008@gmail.com</t>
+        </is>
+      </c>
+      <c r="D155" s="33" t="inlineStr">
+        <is>
+          <t>*bEkt*@56u</t>
+        </is>
+      </c>
+      <c r="E155" s="33" t="n"/>
+      <c r="H155" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWs1fZqogcpRVqFaeJV5JFm2vmA6Z61y2NWMRnX2E2Qu2</t>
         </is>
       </c>
     </row>
-    <row r="156" ht="12.4" customHeight="1" s="24">
-      <c r="A156" s="33" t="n"/>
-      <c r="B156" s="33" t="n"/>
-      <c r="D156" s="35" t="n"/>
-      <c r="E156" s="35" t="n"/>
-      <c r="F156" s="35" t="n"/>
-      <c r="I156" s="23" t="inlineStr">
+    <row r="156" ht="12.4" customHeight="1" s="23">
+      <c r="A156" s="31" t="n"/>
+      <c r="B156" s="31" t="n"/>
+      <c r="C156" s="37" t="inlineStr">
+        <is>
+          <t>jrdngalbraith@gmail.com</t>
+        </is>
+      </c>
+      <c r="D156" s="33" t="inlineStr">
+        <is>
+          <t>!7L+o$tJ%2</t>
+        </is>
+      </c>
+      <c r="E156" s="33" t="n"/>
+      <c r="H156" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRnymwoqM4sTBbww3h4kzx9Yx5txSPb9tsQvCqDq5Vhix</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="12.4" customHeight="1" s="24">
-      <c r="A157" s="33" t="n"/>
-      <c r="B157" s="33" t="n"/>
-      <c r="D157" s="35" t="n"/>
-      <c r="E157" s="35" t="n"/>
-      <c r="F157" s="35" t="n"/>
-      <c r="I157" s="23" t="inlineStr">
+    <row r="157" ht="12.4" customHeight="1" s="23">
+      <c r="A157" s="31" t="n"/>
+      <c r="B157" s="31" t="n"/>
+      <c r="C157" s="37" t="inlineStr">
+        <is>
+          <t>chestertonsharon@gmail.com</t>
+        </is>
+      </c>
+      <c r="D157" s="33" t="inlineStr">
+        <is>
+          <t>WdL4UbTzu*</t>
+        </is>
+      </c>
+      <c r="E157" s="33" t="n"/>
+      <c r="H157" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcVYeCNhE3GrtJNBJaWuXDrLzVxP6LKV1cQNahMuJZTEs</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="12.4" customHeight="1" s="24">
-      <c r="A158" s="43" t="n"/>
-      <c r="B158" s="43" t="n"/>
-      <c r="D158" s="35" t="n"/>
-      <c r="E158" s="35" t="n"/>
-      <c r="F158" s="35" t="n"/>
-      <c r="I158" s="23" t="inlineStr">
+    <row r="158" ht="12.4" customHeight="1" s="23">
+      <c r="A158" s="41" t="n"/>
+      <c r="B158" s="41" t="n"/>
+      <c r="C158" s="37" t="inlineStr">
+        <is>
+          <t>gabriellaphilips2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D158" s="33" t="inlineStr">
+        <is>
+          <t>@2DUXTFlDg</t>
+        </is>
+      </c>
+      <c r="E158" s="33" t="n"/>
+      <c r="H158" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZAbQXyZ8Ke7y2kHhJiWmBjPrNyQDUi4kMqo4DbAKyD2B</t>
         </is>
       </c>
     </row>
-    <row r="159" ht="12.4" customHeight="1" s="24">
-      <c r="A159" s="43" t="n"/>
-      <c r="B159" s="43" t="n"/>
-      <c r="D159" s="35" t="n"/>
-      <c r="E159" s="35" t="n"/>
-      <c r="F159" s="35" t="n"/>
-      <c r="I159" s="23" t="inlineStr">
+    <row r="159" ht="12.4" customHeight="1" s="23">
+      <c r="A159" s="41" t="n"/>
+      <c r="B159" s="41" t="n"/>
+      <c r="C159" s="37" t="inlineStr">
+        <is>
+          <t>samuelsdennis660@gmail.com</t>
+        </is>
+      </c>
+      <c r="D159" s="33" t="inlineStr">
+        <is>
+          <t>$Ily2Duk0n</t>
+        </is>
+      </c>
+      <c r="E159" s="33" t="n"/>
+      <c r="H159" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVwDxKAzHaqhXN8bMfACbw5e552pnqp5PArGYpFxz4BTr</t>
         </is>
       </c>
     </row>
-    <row r="160" ht="12.4" customHeight="1" s="24">
-      <c r="A160" s="33" t="n"/>
-      <c r="B160" s="33" t="n"/>
-      <c r="D160" s="35" t="n"/>
-      <c r="E160" s="35" t="n"/>
-      <c r="F160" s="35" t="n"/>
-      <c r="I160" s="23" t="inlineStr">
+    <row r="160" ht="12.4" customHeight="1" s="23">
+      <c r="A160" s="31" t="n"/>
+      <c r="B160" s="31" t="n"/>
+      <c r="C160" s="37" t="inlineStr">
+        <is>
+          <t>ahaig0046@gmail.com</t>
+        </is>
+      </c>
+      <c r="D160" s="33" t="inlineStr">
+        <is>
+          <t>3dURScgf(N</t>
+        </is>
+      </c>
+      <c r="E160" s="33" t="n"/>
+      <c r="H160" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUPSBDq1BSdpCFBkHSU5o66oYgnSRiS8PwBUkRMTSrdyL</t>
         </is>
       </c>
     </row>
-    <row r="161" ht="12.4" customHeight="1" s="24">
-      <c r="A161" s="43" t="n"/>
-      <c r="B161" s="43" t="n"/>
-      <c r="D161" s="35" t="n"/>
-      <c r="E161" s="35" t="n"/>
-      <c r="F161" s="35" t="n"/>
-      <c r="I161" s="23" t="inlineStr">
+    <row r="161" ht="12.4" customHeight="1" s="23">
+      <c r="A161" s="41" t="n"/>
+      <c r="B161" s="41" t="n"/>
+      <c r="C161" s="37" t="inlineStr">
+        <is>
+          <t>btrcalbertson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D161" s="33" t="inlineStr">
+        <is>
+          <t>378PFsmv(Q</t>
+        </is>
+      </c>
+      <c r="E161" s="33" t="n"/>
+      <c r="H161" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQYFcRGRZrN9EJerXENy3jBhidTamMRnNGYwtSvgJDohw</t>
         </is>
       </c>
     </row>
-    <row r="162" ht="12.4" customHeight="1" s="24">
-      <c r="A162" s="33" t="n"/>
-      <c r="B162" s="33" t="n"/>
-      <c r="D162" s="35" t="n"/>
-      <c r="E162" s="35" t="n"/>
-      <c r="F162" s="35" t="n"/>
-      <c r="I162" s="23" t="inlineStr">
+    <row r="162" ht="12.4" customHeight="1" s="23">
+      <c r="A162" s="31" t="n"/>
+      <c r="B162" s="31" t="n"/>
+      <c r="C162" s="37" t="inlineStr">
+        <is>
+          <t>raleighv017@gmail.com</t>
+        </is>
+      </c>
+      <c r="D162" s="33" t="inlineStr">
+        <is>
+          <t>(4%W_rK@9W</t>
+        </is>
+      </c>
+      <c r="E162" s="33" t="n"/>
+      <c r="H162" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZszERSrLwfvXoKJPom9mNMRr1Z99n13aziHD2XAKpMA9</t>
         </is>
       </c>
     </row>
-    <row r="163" ht="12.4" customHeight="1" s="24">
-      <c r="A163" s="43" t="n"/>
-      <c r="B163" s="43" t="n"/>
-      <c r="D163" s="35" t="n"/>
-      <c r="E163" s="35" t="n"/>
-      <c r="F163" s="35" t="n"/>
-      <c r="I163" s="23" t="inlineStr">
+    <row r="163" ht="12.4" customHeight="1" s="23">
+      <c r="A163" s="41" t="n"/>
+      <c r="B163" s="41" t="n"/>
+      <c r="C163" s="37" t="inlineStr">
+        <is>
+          <t>sethmacalister92@gmail.com</t>
+        </is>
+      </c>
+      <c r="D163" s="33" t="inlineStr">
+        <is>
+          <t>q7)TQJse*+</t>
+        </is>
+      </c>
+      <c r="E163" s="33" t="n"/>
+      <c r="H163" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZ554ambTuJJ65NeJqGq5zSi7bx8soKp1eZdBDYsoGkYK</t>
         </is>
       </c>
     </row>
-    <row r="164" ht="12.4" customHeight="1" s="24">
-      <c r="A164" s="33" t="n"/>
-      <c r="B164" s="33" t="n"/>
-      <c r="D164" s="35" t="n"/>
-      <c r="E164" s="35" t="n"/>
-      <c r="F164" s="35" t="n"/>
-      <c r="I164" s="23" t="inlineStr">
+    <row r="164" ht="12.4" customHeight="1" s="23">
+      <c r="A164" s="31" t="n"/>
+      <c r="B164" s="31" t="n"/>
+      <c r="C164" s="37" t="inlineStr">
+        <is>
+          <t>JackWalter4328@gmail.com</t>
+        </is>
+      </c>
+      <c r="D164" s="33" t="inlineStr">
+        <is>
+          <t>T7_Kw9Mz@A</t>
+        </is>
+      </c>
+      <c r="E164" s="33" t="n"/>
+      <c r="H164" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPEgFZeqTb7Az9VhftvLfNWdfMKWHTevEB8Qiy3rd8ikN</t>
         </is>
       </c>
     </row>
-    <row r="165" ht="12.4" customHeight="1" s="24">
-      <c r="A165" s="43" t="n"/>
-      <c r="B165" s="43" t="n"/>
-      <c r="D165" s="35" t="n"/>
-      <c r="E165" s="35" t="n"/>
-      <c r="F165" s="35" t="n"/>
-      <c r="I165" s="23" t="inlineStr">
+    <row r="165" ht="12.4" customHeight="1" s="23">
+      <c r="A165" s="41" t="n"/>
+      <c r="B165" s="41" t="n"/>
+      <c r="C165" s="37" t="inlineStr">
+        <is>
+          <t>bargemana4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D165" s="33" t="inlineStr">
+        <is>
+          <t>_fg(JLsh7@</t>
+        </is>
+      </c>
+      <c r="E165" s="33" t="n"/>
+      <c r="H165" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmX6GnScVUPtMHpKagBtteSNeYenJcnXkGLGm3PTKkxgmb</t>
         </is>
       </c>
     </row>
-    <row r="166" ht="12.4" customHeight="1" s="24">
-      <c r="A166" s="33" t="n"/>
-      <c r="B166" s="33" t="n"/>
-      <c r="D166" s="35" t="n"/>
-      <c r="E166" s="35" t="n"/>
-      <c r="F166" s="35" t="n"/>
-      <c r="I166" s="23" t="inlineStr">
+    <row r="166" ht="12.4" customHeight="1" s="23">
+      <c r="A166" s="31" t="n"/>
+      <c r="B166" s="31" t="n"/>
+      <c r="C166" s="37" t="inlineStr">
+        <is>
+          <t>nealj9296@gmail.com</t>
+        </is>
+      </c>
+      <c r="D166" s="33" t="inlineStr">
+        <is>
+          <t>^#gNGAq7z9</t>
+        </is>
+      </c>
+      <c r="E166" s="33" t="n"/>
+      <c r="H166" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qma2mR7xhQUm5GCL3MVSoPkKDWrmVKf7qTki7S9EATbde8</t>
         </is>
       </c>
     </row>
-    <row r="167" ht="12.4" customHeight="1" s="24">
-      <c r="A167" s="33" t="n"/>
-      <c r="B167" s="33" t="n"/>
-      <c r="D167" s="35" t="n"/>
-      <c r="E167" s="35" t="n"/>
-      <c r="F167" s="35" t="n"/>
-      <c r="I167" s="23" t="inlineStr">
+    <row r="167" ht="12.4" customHeight="1" s="23">
+      <c r="A167" s="31" t="n"/>
+      <c r="B167" s="31" t="n"/>
+      <c r="C167" s="37" t="inlineStr">
+        <is>
+          <t>kyledyson407@gmail.com</t>
+        </is>
+      </c>
+      <c r="D167" s="33" t="inlineStr">
+        <is>
+          <t>^G7CTNlU@s</t>
+        </is>
+      </c>
+      <c r="E167" s="33" t="n"/>
+      <c r="H167" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNq4L2CdzL4ujQYSbLJzjSwK5z1QfRZDCJJ2XeMtfUk1a</t>
         </is>
       </c>
     </row>
-    <row r="168" ht="12.4" customHeight="1" s="24">
-      <c r="A168" s="33" t="n"/>
-      <c r="B168" s="33" t="n"/>
-      <c r="D168" s="35" t="n"/>
-      <c r="E168" s="35" t="n"/>
-      <c r="F168" s="35" t="n"/>
-      <c r="I168" s="23" t="inlineStr">
+    <row r="168" ht="12.4" customHeight="1" s="23">
+      <c r="A168" s="31" t="n"/>
+      <c r="B168" s="31" t="n"/>
+      <c r="C168" s="37" t="inlineStr">
+        <is>
+          <t>xaddington3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D168" s="33" t="inlineStr">
+        <is>
+          <t>F3Ll7hiY(!</t>
+        </is>
+      </c>
+      <c r="E168" s="33" t="n"/>
+      <c r="H168" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTjEJu1LZKcZGFpH9rvUCQCpsfV8UPw3D53b2bhMbXFfg</t>
         </is>
       </c>
     </row>
-    <row r="169" ht="12.4" customHeight="1" s="24">
-      <c r="A169" s="33" t="n"/>
-      <c r="B169" s="33" t="n"/>
-      <c r="D169" s="35" t="n"/>
-      <c r="E169" s="35" t="n"/>
-      <c r="F169" s="35" t="n"/>
-      <c r="I169" s="23" t="inlineStr">
+    <row r="169" ht="12.4" customHeight="1" s="23">
+      <c r="A169" s="31" t="n"/>
+      <c r="B169" s="31" t="n"/>
+      <c r="C169" s="37" t="inlineStr">
+        <is>
+          <t>nymanm75@gmail.com</t>
+        </is>
+      </c>
+      <c r="D169" s="33" t="inlineStr">
+        <is>
+          <t>(lc2sXzj1X</t>
+        </is>
+      </c>
+      <c r="E169" s="33" t="n"/>
+      <c r="H169" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNpYhrxUAccuYsfSseoSuWzbefTnVGyiEUBqsbT968RPo</t>
         </is>
       </c>
     </row>
-    <row r="170" ht="12.4" customHeight="1" s="24">
-      <c r="A170" s="33" t="n"/>
-      <c r="B170" s="33" t="n"/>
-      <c r="D170" s="35" t="n"/>
-      <c r="E170" s="35" t="n"/>
-      <c r="F170" s="35" t="n"/>
-      <c r="I170" s="23" t="inlineStr">
+    <row r="170" ht="12.4" customHeight="1" s="23">
+      <c r="A170" s="31" t="n"/>
+      <c r="B170" s="31" t="n"/>
+      <c r="C170" s="37" t="inlineStr">
+        <is>
+          <t>AlanNathan2915@gmail.com</t>
+        </is>
+      </c>
+      <c r="D170" s="33" t="inlineStr">
+        <is>
+          <t>*1al)J4xK0</t>
+        </is>
+      </c>
+      <c r="E170" s="33" t="n"/>
+      <c r="H170" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmT21ST9p9Y6f11UzjjwNa9mDhf4f2LB9C25FJ1kKgYJp5</t>
         </is>
       </c>
     </row>
-    <row r="171" ht="12.4" customHeight="1" s="24">
-      <c r="A171" s="43" t="n"/>
-      <c r="B171" s="43" t="n"/>
-      <c r="D171" s="35" t="n"/>
-      <c r="E171" s="35" t="n"/>
-      <c r="F171" s="35" t="n"/>
-      <c r="I171" s="23" t="inlineStr">
+    <row r="171" ht="12.4" customHeight="1" s="23">
+      <c r="A171" s="41" t="n"/>
+      <c r="B171" s="41" t="n"/>
+      <c r="C171" s="37" t="inlineStr">
+        <is>
+          <t>watsongerld@gmail.com</t>
+        </is>
+      </c>
+      <c r="D171" s="33" t="inlineStr">
+        <is>
+          <t>7*W0J#q#&amp;s</t>
+        </is>
+      </c>
+      <c r="E171" s="33" t="n"/>
+      <c r="H171" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW6g6KyHnxYDw7kJG1d6rZb7EJHKdXTFrnPdHU6N97eUh</t>
         </is>
       </c>
     </row>
-    <row r="172" ht="12.4" customHeight="1" s="24">
-      <c r="A172" s="33" t="n"/>
-      <c r="B172" s="33" t="n"/>
-      <c r="D172" s="35" t="n"/>
-      <c r="E172" s="35" t="n"/>
-      <c r="F172" s="35" t="n"/>
-      <c r="I172" s="23" t="inlineStr">
+    <row r="172" ht="12.4" customHeight="1" s="23">
+      <c r="A172" s="31" t="n"/>
+      <c r="B172" s="31" t="n"/>
+      <c r="C172" s="37" t="inlineStr">
+        <is>
+          <t>mshackley8@gmail.com</t>
+        </is>
+      </c>
+      <c r="D172" s="33" t="inlineStr">
+        <is>
+          <t>o1HLyt&amp;V$+</t>
+        </is>
+      </c>
+      <c r="E172" s="33" t="n"/>
+      <c r="H172" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbjBi7KMs8HZnGXHMm6xwmCVwVxn7ad4iZkzTzXnfj1AA</t>
         </is>
       </c>
     </row>
-    <row r="173" ht="12.4" customHeight="1" s="24">
-      <c r="A173" s="43" t="n"/>
-      <c r="B173" s="43" t="n"/>
-      <c r="D173" s="35" t="n"/>
-      <c r="E173" s="35" t="n"/>
-      <c r="F173" s="35" t="n"/>
-      <c r="I173" s="23" t="inlineStr">
+    <row r="173" ht="12.4" customHeight="1" s="23">
+      <c r="A173" s="41" t="n"/>
+      <c r="B173" s="41" t="n"/>
+      <c r="C173" s="37" t="inlineStr">
+        <is>
+          <t>fthcrossman@gmail.com</t>
+        </is>
+      </c>
+      <c r="D173" s="33" t="inlineStr">
+        <is>
+          <t>76kwoC8j#I</t>
+        </is>
+      </c>
+      <c r="E173" s="33" t="n"/>
+      <c r="H173" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWdbqTmgSo9ubL8ep6sTd33tDRrhyGnXuA2jQuU3WSmYy</t>
         </is>
       </c>
     </row>
-    <row r="174" ht="12.4" customHeight="1" s="24">
-      <c r="A174" s="33" t="n"/>
-      <c r="B174" s="33" t="n"/>
-      <c r="D174" s="35" t="n"/>
-      <c r="E174" s="35" t="n"/>
-      <c r="F174" s="35" t="n"/>
-      <c r="I174" s="23" t="inlineStr">
+    <row r="174" ht="12.4" customHeight="1" s="23">
+      <c r="A174" s="31" t="n"/>
+      <c r="B174" s="31" t="n"/>
+      <c r="C174" s="37" t="inlineStr">
+        <is>
+          <t>MichelleOgden6057@gmail.com</t>
+        </is>
+      </c>
+      <c r="D174" s="33" t="inlineStr">
+        <is>
+          <t>(t5rXt7x2P</t>
+        </is>
+      </c>
+      <c r="E174" s="33" t="n"/>
+      <c r="H174" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXH3X5m2By34RUqtFHyRpDKnyWiziKUX8QtYWMy3g4GX5</t>
         </is>
       </c>
     </row>
-    <row r="175" ht="12.4" customHeight="1" s="24">
-      <c r="A175" s="43" t="n"/>
-      <c r="B175" s="43" t="n"/>
-      <c r="D175" s="35" t="n"/>
-      <c r="E175" s="35" t="n"/>
-      <c r="F175" s="35" t="n"/>
-      <c r="I175" s="23" t="inlineStr">
+    <row r="175" ht="12.4" customHeight="1" s="23">
+      <c r="A175" s="41" t="n"/>
+      <c r="B175" s="41" t="n"/>
+      <c r="C175" s="37" t="inlineStr">
+        <is>
+          <t>lynn37006@gmail.com</t>
+        </is>
+      </c>
+      <c r="D175" s="33" t="inlineStr">
+        <is>
+          <t>p91YO&amp;Mb$3</t>
+        </is>
+      </c>
+      <c r="E175" s="33" t="n"/>
+      <c r="H175" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmdMoVZQu6nbMKh8EGEiBkcAkSoNvLFHsUWJ5m7rzmmywN</t>
         </is>
       </c>
     </row>
-    <row r="176" ht="12.4" customHeight="1" s="24">
-      <c r="A176" s="33" t="n"/>
-      <c r="B176" s="33" t="n"/>
-      <c r="D176" s="35" t="n"/>
-      <c r="E176" s="35" t="n"/>
-      <c r="F176" s="35" t="n"/>
-      <c r="I176" s="23" t="inlineStr">
+    <row r="176" ht="12.4" customHeight="1" s="23">
+      <c r="A176" s="31" t="n"/>
+      <c r="B176" s="31" t="n"/>
+      <c r="C176" s="37" t="inlineStr">
+        <is>
+          <t>mildredshackley78@gmail.com</t>
+        </is>
+      </c>
+      <c r="D176" s="33" t="inlineStr">
+        <is>
+          <t>)suFYMRL7r</t>
+        </is>
+      </c>
+      <c r="E176" s="33" t="n"/>
+      <c r="H176" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTUPMNnsaPRtJinAFRxiMp4pREgeX1wSwxUTth8CYVLqE</t>
         </is>
       </c>
     </row>
-    <row r="177" ht="12.4" customHeight="1" s="24">
-      <c r="A177" s="43" t="n"/>
-      <c r="B177" s="43" t="n"/>
-      <c r="D177" s="35" t="n"/>
-      <c r="E177" s="35" t="n"/>
-      <c r="F177" s="35" t="n"/>
-      <c r="I177" s="23" t="inlineStr">
+    <row r="177" ht="12.4" customHeight="1" s="23">
+      <c r="A177" s="41" t="n"/>
+      <c r="B177" s="41" t="n"/>
+      <c r="C177" s="37" t="inlineStr">
+        <is>
+          <t>shackleykayla239@gmail.com</t>
+        </is>
+      </c>
+      <c r="D177" s="33" t="inlineStr">
+        <is>
+          <t>2bgDQq7G@z</t>
+        </is>
+      </c>
+      <c r="E177" s="33" t="n"/>
+      <c r="H177" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVSMy3ACwPtg8fJTVPkgMyyTKPpDD3Tw8PuKBDUW13KyH</t>
         </is>
       </c>
     </row>
-    <row r="178" ht="12.4" customHeight="1" s="24">
-      <c r="A178" s="33" t="n"/>
-      <c r="B178" s="33" t="n"/>
-      <c r="D178" s="35" t="n"/>
-      <c r="E178" s="35" t="n"/>
-      <c r="F178" s="35" t="n"/>
-      <c r="I178" s="23" t="inlineStr">
+    <row r="178" ht="12.4" customHeight="1" s="23">
+      <c r="A178" s="31" t="n"/>
+      <c r="B178" s="31" t="n"/>
+      <c r="C178" s="37" t="inlineStr">
+        <is>
+          <t>miers7985@gmail.com</t>
+        </is>
+      </c>
+      <c r="D178" s="33" t="inlineStr">
+        <is>
+          <t>j3uOriWg$h</t>
+        </is>
+      </c>
+      <c r="E178" s="33" t="n"/>
+      <c r="H178" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaTZqgy9ysBsvkRfhjvdzuuzZWbSNZfhXVdVeK3fY16Vm</t>
         </is>
       </c>
     </row>
-    <row r="179" ht="12.4" customHeight="1" s="24">
-      <c r="A179" s="33" t="n"/>
-      <c r="B179" s="33" t="n"/>
-      <c r="D179" s="35" t="n"/>
-      <c r="E179" s="35" t="n"/>
-      <c r="F179" s="35" t="n"/>
-      <c r="I179" s="23" t="inlineStr">
+    <row r="179" ht="12.4" customHeight="1" s="23">
+      <c r="A179" s="31" t="n"/>
+      <c r="B179" s="31" t="n"/>
+      <c r="C179" s="37" t="inlineStr">
+        <is>
+          <t>SandraStanley7088@gmail.com</t>
+        </is>
+      </c>
+      <c r="D179" s="33" t="inlineStr">
+        <is>
+          <t>*(8%P4t((4</t>
+        </is>
+      </c>
+      <c r="E179" s="33" t="n"/>
+      <c r="H179" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfKC2YKD1YN5PiVaANyLcYprzBw8V6zXEZqx4TSyZ37k6</t>
         </is>
       </c>
     </row>
-    <row r="180" ht="12.4" customHeight="1" s="24">
-      <c r="A180" s="33" t="n"/>
-      <c r="B180" s="33" t="n"/>
-      <c r="D180" s="35" t="n"/>
-      <c r="E180" s="35" t="n"/>
-      <c r="F180" s="35" t="n"/>
-      <c r="I180" s="23" t="inlineStr">
+    <row r="180" ht="12.4" customHeight="1" s="23">
+      <c r="A180" s="31" t="n"/>
+      <c r="B180" s="31" t="n"/>
+      <c r="C180" s="37" t="inlineStr">
+        <is>
+          <t>melanieflannagan17@gmail.com</t>
+        </is>
+      </c>
+      <c r="D180" s="33" t="inlineStr">
+        <is>
+          <t>nQ#Go$6*$3</t>
+        </is>
+      </c>
+      <c r="E180" s="33" t="n"/>
+      <c r="H180" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYiBSx876Y6wSp3rmdVGMmYkYUPmdFeJ8dkPZQyyCMAp8</t>
         </is>
       </c>
     </row>
-    <row r="181" ht="12.4" customHeight="1" s="24">
-      <c r="A181" s="33" t="n"/>
-      <c r="B181" s="33" t="n"/>
-      <c r="D181" s="35" t="n"/>
-      <c r="E181" s="35" t="n"/>
-      <c r="F181" s="35" t="n"/>
-      <c r="I181" s="23" t="inlineStr">
+    <row r="181" ht="12.4" customHeight="1" s="23">
+      <c r="A181" s="31" t="n"/>
+      <c r="B181" s="31" t="n"/>
+      <c r="C181" s="37" t="inlineStr">
+        <is>
+          <t>rs2949095@gmail.com</t>
+        </is>
+      </c>
+      <c r="D181" s="33" t="inlineStr">
+        <is>
+          <t>V)2Q91bdLG</t>
+        </is>
+      </c>
+      <c r="E181" s="33" t="n"/>
+      <c r="H181" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qme78XkYu9LVXAdKFX4BRYBYBw8vfdGHihhqx41dpR2zX3</t>
         </is>
       </c>
     </row>
-    <row r="182" ht="12.4" customHeight="1" s="24">
-      <c r="A182" s="43" t="n"/>
-      <c r="B182" s="43" t="n"/>
-      <c r="D182" s="35" t="n"/>
-      <c r="E182" s="35" t="n"/>
-      <c r="F182" s="35" t="n"/>
-      <c r="I182" s="23" t="inlineStr">
+    <row r="182" ht="12.4" customHeight="1" s="23">
+      <c r="A182" s="41" t="n"/>
+      <c r="B182" s="41" t="n"/>
+      <c r="C182" s="37" t="inlineStr">
+        <is>
+          <t>traceyoscar39@gmail.com</t>
+        </is>
+      </c>
+      <c r="D182" s="33" t="inlineStr">
+        <is>
+          <t>(5M7ZcMUj5</t>
+        </is>
+      </c>
+      <c r="E182" s="33" t="n"/>
+      <c r="H182" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVga66MkunUKJTqeCUA3oJhewoKPUEm63VDe7FzV36Fpn</t>
         </is>
       </c>
     </row>
-    <row r="183" ht="12.4" customHeight="1" s="24">
-      <c r="A183" s="33" t="n"/>
-      <c r="B183" s="33" t="n"/>
-      <c r="D183" s="35" t="n"/>
-      <c r="E183" s="35" t="n"/>
-      <c r="F183" s="35" t="n"/>
-      <c r="I183" s="23" t="inlineStr">
+    <row r="183" ht="12.4" customHeight="1" s="23">
+      <c r="A183" s="31" t="n"/>
+      <c r="B183" s="31" t="n"/>
+      <c r="C183" s="37" t="inlineStr">
+        <is>
+          <t>michaelsonmarisa04@gmail.com</t>
+        </is>
+      </c>
+      <c r="D183" s="33" t="inlineStr">
+        <is>
+          <t>_(9Uqoyv3j</t>
+        </is>
+      </c>
+      <c r="E183" s="33" t="n"/>
+      <c r="H183" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQNEe7AbemU7pydrToLcacaQohdxn9x5kZfhqMuqMQK2H</t>
         </is>
       </c>
     </row>
-    <row r="184" ht="12.4" customHeight="1" s="24">
-      <c r="A184" s="33" t="n"/>
-      <c r="B184" s="33" t="n"/>
-      <c r="D184" s="35" t="n"/>
-      <c r="E184" s="35" t="n"/>
-      <c r="F184" s="35" t="n"/>
-      <c r="I184" s="23" t="inlineStr">
+    <row r="184" ht="12.4" customHeight="1" s="23">
+      <c r="A184" s="31" t="n"/>
+      <c r="B184" s="31" t="n"/>
+      <c r="C184" s="37" t="inlineStr">
+        <is>
+          <t>chandterchloe9@gmail.com</t>
+        </is>
+      </c>
+      <c r="D184" s="33" t="inlineStr">
+        <is>
+          <t>&amp;4u#FQrvW^</t>
+        </is>
+      </c>
+      <c r="E184" s="33" t="n"/>
+      <c r="H184" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVZPnzWUHNCnJ4ksgNACLLMwE4vjnxDUwLyuDv83WWExM</t>
         </is>
       </c>
     </row>
-    <row r="185" ht="12.4" customHeight="1" s="24">
-      <c r="A185" s="33" t="n"/>
-      <c r="B185" s="33" t="n"/>
-      <c r="D185" s="35" t="n"/>
-      <c r="E185" s="35" t="n"/>
-      <c r="F185" s="35" t="n"/>
-      <c r="I185" s="23" t="inlineStr">
+    <row r="185" ht="12.4" customHeight="1" s="23">
+      <c r="A185" s="31" t="n"/>
+      <c r="B185" s="31" t="n"/>
+      <c r="C185" s="37" t="inlineStr">
+        <is>
+          <t>lairdk976@gmail.com</t>
+        </is>
+      </c>
+      <c r="D185" s="33" t="inlineStr">
+        <is>
+          <t>(4AttJdann</t>
+        </is>
+      </c>
+      <c r="E185" s="33" t="n"/>
+      <c r="H185" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcWbkdhZu8F4cEEEFgkfgwF88Sf8VpHYUtBbb7Q2gzkLQ</t>
         </is>
       </c>
     </row>
-    <row r="186" ht="12.4" customHeight="1" s="24">
-      <c r="A186" s="43" t="n"/>
-      <c r="B186" s="43" t="n"/>
-      <c r="D186" s="35" t="n"/>
-      <c r="E186" s="35" t="n"/>
-      <c r="F186" s="35" t="n"/>
-      <c r="I186" s="23" t="inlineStr">
+    <row r="186" ht="12.4" customHeight="1" s="23">
+      <c r="A186" s="41" t="n"/>
+      <c r="B186" s="41" t="n"/>
+      <c r="C186" s="37" t="inlineStr">
+        <is>
+          <t>holidaykatelyn84@gmail.com</t>
+        </is>
+      </c>
+      <c r="D186" s="33" t="inlineStr">
+        <is>
+          <t>#9K#dxWWO0</t>
+        </is>
+      </c>
+      <c r="E186" s="33" t="n"/>
+      <c r="H186" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbLBKRcGRT3A4fi87CxMUCJt6v3usCEvtNgdK1XKYDKfK</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="12.4" customHeight="1" s="24">
-      <c r="A187" s="33" t="n"/>
-      <c r="B187" s="33" t="n"/>
-      <c r="D187" s="35" t="n"/>
-      <c r="E187" s="35" t="n"/>
-      <c r="F187" s="35" t="n"/>
-      <c r="I187" s="23" t="inlineStr">
+    <row r="187" ht="12.4" customHeight="1" s="23">
+      <c r="A187" s="31" t="n"/>
+      <c r="B187" s="31" t="n"/>
+      <c r="C187" s="37" t="inlineStr">
+        <is>
+          <t>wifkinsoncelia@gmail.com</t>
+        </is>
+      </c>
+      <c r="D187" s="33" t="inlineStr">
+        <is>
+          <t>7J&amp;6iFTs+n</t>
+        </is>
+      </c>
+      <c r="E187" s="33" t="n"/>
+      <c r="H187" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYXEHfqoUYB8BX6imBME7UJitEzUnDZoQh1JPdwGBoSvR</t>
         </is>
       </c>
     </row>
-    <row r="188" ht="12.4" customHeight="1" s="24">
-      <c r="A188" s="33" t="n"/>
-      <c r="B188" s="33" t="n"/>
-      <c r="D188" s="35" t="n"/>
-      <c r="E188" s="35" t="n"/>
-      <c r="F188" s="35" t="n"/>
-      <c r="I188" s="23" t="inlineStr">
+    <row r="188" ht="12.4" customHeight="1" s="23">
+      <c r="A188" s="31" t="n"/>
+      <c r="B188" s="31" t="n"/>
+      <c r="C188" s="37" t="inlineStr">
+        <is>
+          <t>rogergavin308@gmail.com</t>
+        </is>
+      </c>
+      <c r="D188" s="33" t="inlineStr">
+        <is>
+          <t>m!B4!+XzO$</t>
+        </is>
+      </c>
+      <c r="E188" s="33" t="n"/>
+      <c r="H188" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVptgcGTQyh1Bfr3BAqxSXAugqfMkZyyJXo9qBc48grjN</t>
         </is>
       </c>
     </row>
-    <row r="189" ht="12.4" customHeight="1" s="24">
-      <c r="A189" s="33" t="n"/>
-      <c r="B189" s="33" t="n"/>
-      <c r="D189" s="35" t="n"/>
-      <c r="E189" s="35" t="n"/>
-      <c r="F189" s="35" t="n"/>
-      <c r="I189" s="23" t="inlineStr">
+    <row r="189" ht="12.4" customHeight="1" s="23">
+      <c r="A189" s="31" t="n"/>
+      <c r="B189" s="31" t="n"/>
+      <c r="C189" s="37" t="inlineStr">
+        <is>
+          <t>mp354786@gmail.com</t>
+        </is>
+      </c>
+      <c r="D189" s="33" t="inlineStr">
+        <is>
+          <t>*#a1EgSbv&amp;</t>
+        </is>
+      </c>
+      <c r="E189" s="33" t="n"/>
+      <c r="H189" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmduMderYbfBAksgBYMD2eTdFyVDB1GPxBSzh8k422sUk7</t>
         </is>
       </c>
     </row>
-    <row r="190" ht="12.4" customHeight="1" s="24">
-      <c r="A190" s="33" t="n"/>
-      <c r="B190" s="33" t="n"/>
-      <c r="D190" s="35" t="n"/>
-      <c r="E190" s="35" t="n"/>
-      <c r="F190" s="35" t="n"/>
-      <c r="I190" s="23" t="inlineStr">
+    <row r="190" ht="12.4" customHeight="1" s="23">
+      <c r="A190" s="31" t="n"/>
+      <c r="B190" s="31" t="n"/>
+      <c r="C190" s="37" t="inlineStr">
+        <is>
+          <t>colinbacker3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D190" s="33" t="inlineStr">
+        <is>
+          <t>+C+(4MEn^$</t>
+        </is>
+      </c>
+      <c r="E190" s="33" t="n"/>
+      <c r="H190" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRajpPvV3m3vWLhu22mq7xMUa4dxCz5N2uL92fX5mqJDA</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="12.4" customHeight="1" s="24">
-      <c r="A191" s="43" t="n"/>
-      <c r="B191" s="43" t="n"/>
-      <c r="D191" s="35" t="n"/>
-      <c r="E191" s="35" t="n"/>
-      <c r="F191" s="35" t="n"/>
-      <c r="I191" s="23" t="inlineStr">
+    <row r="191" ht="12.4" customHeight="1" s="23">
+      <c r="A191" s="41" t="n"/>
+      <c r="B191" s="41" t="n"/>
+      <c r="C191" s="37" t="inlineStr">
+        <is>
+          <t>leonarswayne3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D191" s="33" t="inlineStr">
+        <is>
+          <t>g6vxfB4#^i</t>
+        </is>
+      </c>
+      <c r="E191" s="33" t="n"/>
+      <c r="H191" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNSYETPprWekrDnb3DHcAYVubiXHBcP7Ua7tM6TYTZBeE</t>
         </is>
       </c>
     </row>
-    <row r="192" ht="12.4" customHeight="1" s="24">
-      <c r="A192" s="33" t="n"/>
-      <c r="B192" s="33" t="n"/>
-      <c r="D192" s="35" t="n"/>
-      <c r="E192" s="35" t="n"/>
-      <c r="F192" s="35" t="n"/>
-      <c r="I192" s="23" t="inlineStr">
+    <row r="192" ht="12.4" customHeight="1" s="23">
+      <c r="A192" s="31" t="n"/>
+      <c r="B192" s="31" t="n"/>
+      <c r="C192" s="37" t="inlineStr">
+        <is>
+          <t>mp5050611@gmail.com</t>
+        </is>
+      </c>
+      <c r="D192" s="33" t="inlineStr">
+        <is>
+          <t>(45QwjD#i%</t>
+        </is>
+      </c>
+      <c r="E192" s="33" t="n"/>
+      <c r="H192" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW3V4YBsdbQhEhLDw3JAcUNpAzDfqgNjmigUnuG6FBNT3</t>
         </is>
       </c>
     </row>
-    <row r="193" ht="12.4" customHeight="1" s="24">
-      <c r="A193" s="33" t="n"/>
-      <c r="B193" s="33" t="n"/>
-      <c r="D193" s="35" t="n"/>
-      <c r="E193" s="35" t="n"/>
-      <c r="F193" s="35" t="n"/>
-      <c r="I193" s="23" t="inlineStr">
+    <row r="193" ht="12.4" customHeight="1" s="23">
+      <c r="A193" s="31" t="n"/>
+      <c r="B193" s="31" t="n"/>
+      <c r="C193" s="37" t="inlineStr">
+        <is>
+          <t>lrngmsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="D193" s="33" t="inlineStr">
+        <is>
+          <t>O(3BMjTlxJ</t>
+        </is>
+      </c>
+      <c r="E193" s="33" t="n"/>
+      <c r="H193" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmdLbLwaBkBrd6tJCUar7dRvsW5sVvonvj32oEvwmqwsyJ</t>
         </is>
       </c>
     </row>
-    <row r="194" ht="12.4" customHeight="1" s="24">
-      <c r="A194" s="43" t="n"/>
-      <c r="B194" s="43" t="n"/>
-      <c r="D194" s="35" t="n"/>
-      <c r="E194" s="35" t="n"/>
-      <c r="F194" s="35" t="n"/>
-      <c r="I194" s="23" t="inlineStr">
+    <row r="194" ht="12.4" customHeight="1" s="23">
+      <c r="A194" s="41" t="n"/>
+      <c r="B194" s="41" t="n"/>
+      <c r="C194" s="37" t="inlineStr">
+        <is>
+          <t>dayadelina66@gmail.com</t>
+        </is>
+      </c>
+      <c r="D194" s="33" t="inlineStr">
+        <is>
+          <t>+QlHQdoa$7</t>
+        </is>
+      </c>
+      <c r="E194" s="33" t="n"/>
+      <c r="H194" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW1jxZaVza3SrGnvFNTP8Aj6iEVCNtWC5UJWtJmtn629w</t>
         </is>
       </c>
     </row>
-    <row r="195" ht="12.4" customHeight="1" s="24">
-      <c r="A195" s="33" t="n"/>
-      <c r="B195" s="33" t="n"/>
-      <c r="D195" s="35" t="n"/>
-      <c r="E195" s="35" t="n"/>
-      <c r="F195" s="35" t="n"/>
-      <c r="I195" s="23" t="inlineStr">
+    <row r="195" ht="12.4" customHeight="1" s="23">
+      <c r="A195" s="31" t="n"/>
+      <c r="B195" s="31" t="n"/>
+      <c r="C195" s="37" t="inlineStr">
+        <is>
+          <t>ashtonaddington5@gmail.com</t>
+        </is>
+      </c>
+      <c r="D195" s="33" t="inlineStr">
+        <is>
+          <t>_rXid!&amp;y_8</t>
+        </is>
+      </c>
+      <c r="E195" s="33" t="n"/>
+      <c r="H195" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRFJNpjyVoN5DW1BiwyPU2rv9zoRZHfobXYs7WYbKdQNo</t>
         </is>
       </c>
     </row>
-    <row r="196" ht="12.4" customHeight="1" s="24">
-      <c r="A196" s="33" t="n"/>
-      <c r="B196" s="33" t="n"/>
-      <c r="D196" s="35" t="n"/>
-      <c r="E196" s="35" t="n"/>
-      <c r="F196" s="35" t="n"/>
-      <c r="I196" s="23" t="inlineStr">
+    <row r="196" ht="12.4" customHeight="1" s="23">
+      <c r="A196" s="31" t="n"/>
+      <c r="B196" s="31" t="n"/>
+      <c r="C196" s="37" t="inlineStr">
+        <is>
+          <t>jkingsman996@gmail.com</t>
+        </is>
+      </c>
+      <c r="D196" s="33" t="inlineStr">
+        <is>
+          <t>%0NCs!ZvYh</t>
+        </is>
+      </c>
+      <c r="E196" s="33" t="n"/>
+      <c r="H196" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNj1suSki6ycHTVxWMbeh4cskJJChj6FUwknH98NLNuVh</t>
         </is>
       </c>
     </row>
-    <row r="197" ht="12.4" customHeight="1" s="24">
-      <c r="A197" s="33" t="n"/>
-      <c r="B197" s="33" t="n"/>
-      <c r="D197" s="35" t="n"/>
-      <c r="E197" s="35" t="n"/>
-      <c r="F197" s="35" t="n"/>
-      <c r="I197" s="23" t="inlineStr">
+    <row r="197" ht="12.4" customHeight="1" s="23">
+      <c r="A197" s="31" t="n"/>
+      <c r="B197" s="31" t="n"/>
+      <c r="C197" s="37" t="inlineStr">
+        <is>
+          <t>RalphAllford4406@gmail.com</t>
+        </is>
+      </c>
+      <c r="D197" s="33" t="inlineStr">
+        <is>
+          <t>F^37dN)xFR</t>
+        </is>
+      </c>
+      <c r="E197" s="33" t="n"/>
+      <c r="H197" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTEWCxYMYtxPDjyGXpdpiYF1B5P4KUFTMZBezh15vzPUV</t>
         </is>
       </c>
     </row>
-    <row r="198" ht="12.4" customHeight="1" s="24">
-      <c r="A198" s="33" t="n"/>
-      <c r="B198" s="33" t="n"/>
-      <c r="D198" s="35" t="n"/>
-      <c r="E198" s="35" t="n"/>
-      <c r="F198" s="35" t="n"/>
-      <c r="I198" s="23" t="inlineStr">
+    <row r="198" ht="12.4" customHeight="1" s="23">
+      <c r="A198" s="31" t="n"/>
+      <c r="B198" s="31" t="n"/>
+      <c r="C198" s="37" t="inlineStr">
+        <is>
+          <t>jcarrington539@gmail.com</t>
+        </is>
+      </c>
+      <c r="D198" s="33" t="inlineStr">
+        <is>
+          <t>d984RdTg!4</t>
+        </is>
+      </c>
+      <c r="E198" s="33" t="n"/>
+      <c r="H198" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWF5GD133FNUB3gtVaedZnat5TAZ9XqGn8op2rio41NJA</t>
         </is>
       </c>
     </row>
-    <row r="199" ht="12.4" customHeight="1" s="24">
-      <c r="A199" s="33" t="n"/>
-      <c r="B199" s="33" t="n"/>
-      <c r="D199" s="35" t="n"/>
-      <c r="E199" s="35" t="n"/>
-      <c r="F199" s="35" t="n"/>
-      <c r="I199" s="23" t="inlineStr">
+    <row r="199" ht="12.4" customHeight="1" s="23">
+      <c r="A199" s="31" t="n"/>
+      <c r="B199" s="31" t="n"/>
+      <c r="C199" s="37" t="inlineStr">
+        <is>
+          <t>leonoradutton839@gmail.com</t>
+        </is>
+      </c>
+      <c r="D199" s="33" t="inlineStr">
+        <is>
+          <t>(V%2A6SbdS</t>
+        </is>
+      </c>
+      <c r="E199" s="33" t="n"/>
+      <c r="H199" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXxsLhUK11d4uhVyT5CPtJoMPqPc5Ddc7oXHxR3qJnaQZ</t>
         </is>
       </c>
     </row>
-    <row r="200" ht="12.4" customHeight="1" s="24">
-      <c r="A200" s="33" t="n"/>
-      <c r="B200" s="33" t="n"/>
-      <c r="D200" s="35" t="n"/>
-      <c r="E200" s="35" t="n"/>
-      <c r="F200" s="35" t="n"/>
-      <c r="I200" s="23" t="inlineStr">
+    <row r="200" ht="12.4" customHeight="1" s="23">
+      <c r="A200" s="31" t="n"/>
+      <c r="B200" s="31" t="n"/>
+      <c r="C200" s="37" t="inlineStr">
+        <is>
+          <t>trinityalbertson94@gmail.com</t>
+        </is>
+      </c>
+      <c r="D200" s="33" t="inlineStr">
+        <is>
+          <t>!1Rwn39Yl@</t>
+        </is>
+      </c>
+      <c r="E200" s="33" t="n"/>
+      <c r="H200" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWcm7Tyxjh8i33dhjXDacoTxnSnmEKoALxi7dq4xkhrcB</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="14.9" customHeight="1" s="23">
+      <c r="C201" s="37" t="inlineStr">
+        <is>
+          <t>faner7413@gmail.com</t>
+        </is>
+      </c>
+      <c r="D201" s="22" t="inlineStr">
+        <is>
+          <t>qB1Edq3h*%</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="14.9" customHeight="1" s="23">
+      <c r="C202" s="37" t="inlineStr">
+        <is>
+          <t>beatricethorndike938@gmail.com</t>
+        </is>
+      </c>
+      <c r="D202" s="22" t="inlineStr">
+        <is>
+          <t>w_9)tD1tjA</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="14.9" customHeight="1" s="23">
+      <c r="C203" s="37" t="inlineStr">
+        <is>
+          <t>asherlock269@gmail.com</t>
+        </is>
+      </c>
+      <c r="D203" s="22" t="inlineStr">
+        <is>
+          <t>_G!tALgy06</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="14.9" customHeight="1" s="23">
+      <c r="C204" s="37" t="inlineStr">
+        <is>
+          <t>dyson0489@gmail.com</t>
+        </is>
+      </c>
+      <c r="D204" s="22" t="inlineStr">
+        <is>
+          <t>gcH13Z^k#g</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="14.9" customHeight="1" s="23">
+      <c r="C205" s="37" t="inlineStr">
+        <is>
+          <t>daynora970@gmail.com</t>
+        </is>
+      </c>
+      <c r="D205" s="22" t="inlineStr">
+        <is>
+          <t>*58#tkEaiH</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="14.9" customHeight="1" s="23">
+      <c r="C206" s="37" t="inlineStr">
+        <is>
+          <t>ryanlarkins643@gmail.com</t>
+        </is>
+      </c>
+      <c r="D206" s="22" t="inlineStr">
+        <is>
+          <t>9Y5fPBkQQ&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="14.9" customHeight="1" s="23">
+      <c r="C207" s="37" t="inlineStr">
+        <is>
+          <t>sheldonlaura812@gmail.com</t>
+        </is>
+      </c>
+      <c r="D207" s="22" t="inlineStr">
+        <is>
+          <t>DQ2F0TCgp)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="14.9" customHeight="1" s="23">
+      <c r="C208" s="37" t="inlineStr">
+        <is>
+          <t>millerhayden001@gmail.com</t>
+        </is>
+      </c>
+      <c r="D208" s="22" t="inlineStr">
+        <is>
+          <t>_5di9DfLDZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="14.9" customHeight="1" s="23">
+      <c r="C209" s="37" t="inlineStr">
+        <is>
+          <t>geraldwallace908@gmail.com</t>
+        </is>
+      </c>
+      <c r="D209" s="22" t="inlineStr">
+        <is>
+          <t>pcD*3TEb9B</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="14.9" customHeight="1" s="23">
+      <c r="C210" s="37" t="inlineStr">
+        <is>
+          <t>arnoldmabel33@gmail.com</t>
+        </is>
+      </c>
+      <c r="D210" s="22" t="inlineStr">
+        <is>
+          <t>2aQ8T3yA_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="14.9" customHeight="1" s="23">
+      <c r="C211" s="37" t="inlineStr">
+        <is>
+          <t>herbertbarrington03@gmail.com</t>
+        </is>
+      </c>
+      <c r="D211" s="22" t="inlineStr">
+        <is>
+          <t>Pe^4NmvyG!</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="14.9" customHeight="1" s="23">
+      <c r="C212" s="37" t="inlineStr">
+        <is>
+          <t>rmacadam81@gmail.com</t>
+        </is>
+      </c>
+      <c r="D212" s="22" t="inlineStr">
+        <is>
+          <t>n@3o*SUQTt</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="14.9" customHeight="1" s="23">
+      <c r="C213" s="37" t="inlineStr">
+        <is>
+          <t>blackelijah50@gmail.com</t>
+        </is>
+      </c>
+      <c r="D213" s="22" t="inlineStr">
+        <is>
+          <t>%5S2arxMaZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="14.9" customHeight="1" s="23">
+      <c r="C214" s="37" t="inlineStr">
+        <is>
+          <t>yvonnecreighton35@gmail.com</t>
+        </is>
+      </c>
+      <c r="D214" s="22" t="inlineStr">
+        <is>
+          <t>I0%uEKsb%3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="14.9" customHeight="1" s="23">
+      <c r="C215" s="37" t="inlineStr">
+        <is>
+          <t>jg4727707@gmail.com</t>
+        </is>
+      </c>
+      <c r="D215" s="22" t="inlineStr">
+        <is>
+          <t>+1huC4gg1t</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="14.9" customHeight="1" s="23">
+      <c r="C216" s="37" t="inlineStr">
+        <is>
+          <t>hardmanjackson188@gmail.com</t>
+        </is>
+      </c>
+      <c r="D216" s="22" t="inlineStr">
+        <is>
+          <t>6_+E6D3W(u</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="14.9" customHeight="1" s="23">
+      <c r="C217" s="37" t="inlineStr">
+        <is>
+          <t>bootmanian1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D217" s="22" t="inlineStr">
+        <is>
+          <t>Je+3LYpC8$</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="14.9" customHeight="1" s="23">
+      <c r="C218" s="37" t="inlineStr">
+        <is>
+          <t>garrisonn232@gmail.com</t>
+        </is>
+      </c>
+      <c r="D218" s="22" t="inlineStr">
+        <is>
+          <t>J&amp;2jiNPcf*</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="14.9" customHeight="1" s="23">
+      <c r="C219" s="37" t="inlineStr">
+        <is>
+          <t>abramsonlily0@gmail.com</t>
+        </is>
+      </c>
+      <c r="D219" s="22" t="inlineStr">
+        <is>
+          <t>C0G2g7@_*8</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="14.9" customHeight="1" s="23">
+      <c r="C220" s="37" t="inlineStr">
+        <is>
+          <t>mdyson249@gmail.com</t>
+        </is>
+      </c>
+      <c r="D220" s="22" t="inlineStr">
+        <is>
+          <t>m0%0#WpF&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="14.9" customHeight="1" s="23">
+      <c r="C221" s="37" t="inlineStr">
+        <is>
+          <t>gcroftoon33@gmail.com</t>
+        </is>
+      </c>
+      <c r="D221" s="22" t="inlineStr">
+        <is>
+          <t>)c9L7Acfk2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="14.9" customHeight="1" s="23">
+      <c r="C222" s="37" t="inlineStr">
+        <is>
+          <t>wquincy625@gmail.com</t>
+        </is>
+      </c>
+      <c r="D222" s="22" t="inlineStr">
+        <is>
+          <t>#BSe6UpT9q</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="14.9" customHeight="1" s="23">
+      <c r="C223" s="37" t="inlineStr">
+        <is>
+          <t>ws1970514@gmail.com</t>
+        </is>
+      </c>
+      <c r="D223" s="22" t="inlineStr">
+        <is>
+          <t>WL(AgQdH%7</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="14.9" customHeight="1" s="23">
+      <c r="C224" s="37" t="inlineStr">
+        <is>
+          <t>kleapman220@gmail.com</t>
+        </is>
+      </c>
+      <c r="D224" s="22" t="inlineStr">
+        <is>
+          <t>*6Wkm+oEml</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="14.9" customHeight="1" s="23">
+      <c r="C225" s="37" t="inlineStr">
+        <is>
+          <t>cj8075074@gmail.com</t>
+        </is>
+      </c>
+      <c r="D225" s="22" t="inlineStr">
+        <is>
+          <t>%hXn&amp;w&amp;nH9</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="14.9" customHeight="1" s="23">
+      <c r="C226" s="37" t="inlineStr">
+        <is>
+          <t>dflannagan141@gmail.com</t>
+        </is>
+      </c>
+      <c r="D226" s="22" t="inlineStr">
+        <is>
+          <t>*CZs4kBdDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="14.9" customHeight="1" s="23">
+      <c r="C227" s="37" t="inlineStr">
+        <is>
+          <t>aw3573645@gmail.com</t>
+        </is>
+      </c>
+      <c r="D227" s="22" t="inlineStr">
+        <is>
+          <t>n*6Lrp$mkd</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="14.9" customHeight="1" s="23">
+      <c r="C228" s="37" t="inlineStr">
+        <is>
+          <t>trinityayrton@gmail.com</t>
+        </is>
+      </c>
+      <c r="D228" s="22" t="inlineStr">
+        <is>
+          <t>&amp;IZQdR3Wd7</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="14.9" customHeight="1" s="23">
+      <c r="C229" s="37" t="inlineStr">
+        <is>
+          <t>kirkwinifred63@gmail.com</t>
+        </is>
+      </c>
+      <c r="D229" s="22" t="inlineStr">
+        <is>
+          <t>oh(_1D#iPr</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="14.9" customHeight="1" s="23">
+      <c r="C230" s="37" t="inlineStr">
+        <is>
+          <t>carloselmers498@gmail.com</t>
+        </is>
+      </c>
+      <c r="D230" s="22" t="inlineStr">
+        <is>
+          <t>^*%EfXow1e</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="14.9" customHeight="1" s="23">
+      <c r="C231" s="37" t="inlineStr">
+        <is>
+          <t>boswortha432@gmail.com</t>
+        </is>
+      </c>
+      <c r="D231" s="22" t="inlineStr">
+        <is>
+          <t>&amp;96QtxfMbz</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="14.9" customHeight="1" s="23">
+      <c r="C232" s="37" t="inlineStr">
+        <is>
+          <t>taylorcarrington169@gmail.com</t>
+        </is>
+      </c>
+      <c r="D232" s="22" t="inlineStr">
+        <is>
+          <t>&amp;2LIIfQBZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="14.9" customHeight="1" s="23">
+      <c r="C233" s="37" t="inlineStr">
+        <is>
+          <t>nelsonhunter386@gmail.com</t>
+        </is>
+      </c>
+      <c r="D233" s="22" t="inlineStr">
+        <is>
+          <t>$1)NxTUeRx</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="14.9" customHeight="1" s="23">
+      <c r="C234" s="37" t="inlineStr">
+        <is>
+          <t>noraarchibald443@gmail.com</t>
+        </is>
+      </c>
+      <c r="D234" s="22" t="inlineStr">
+        <is>
+          <t>_a(FXWctd4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="14.9" customHeight="1" s="23">
+      <c r="C235" s="37" t="inlineStr">
+        <is>
+          <t>kaitlynpaterson4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D235" s="22" t="inlineStr">
+        <is>
+          <t>)+%2CuxR$r</t>
+        </is>
+      </c>
+    </row>
+    <row r="236" ht="14.9" customHeight="1" s="23">
+      <c r="C236" s="37" t="inlineStr">
+        <is>
+          <t>makaylapalmer942@gmail.com</t>
+        </is>
+      </c>
+      <c r="D236" s="22" t="inlineStr">
+        <is>
+          <t>!4HxCjnP9g</t>
+        </is>
+      </c>
+    </row>
+    <row r="237" ht="14.9" customHeight="1" s="23">
+      <c r="C237" s="37" t="inlineStr">
+        <is>
+          <t>kingsmangrace07@gmail.com</t>
+        </is>
+      </c>
+      <c r="D237" s="22" t="inlineStr">
+        <is>
+          <t>&amp;lb3Zg1MTk</t>
+        </is>
+      </c>
+    </row>
+    <row r="238" ht="14.9" customHeight="1" s="23">
+      <c r="C238" s="37" t="inlineStr">
+        <is>
+          <t>christiandowman@gmail.com</t>
+        </is>
+      </c>
+      <c r="D238" s="22" t="inlineStr">
+        <is>
+          <t>mo2gGvSdL%</t>
+        </is>
+      </c>
+    </row>
+    <row r="239" ht="14.9" customHeight="1" s="23">
+      <c r="C239" s="37" t="inlineStr">
+        <is>
+          <t>jabramson473@gmail.com</t>
+        </is>
+      </c>
+      <c r="D239" s="22" t="inlineStr">
+        <is>
+          <t>@#y_P4HcXk</t>
+        </is>
+      </c>
+    </row>
+    <row r="240" ht="14.9" customHeight="1" s="23">
+      <c r="C240" s="37" t="inlineStr">
+        <is>
+          <t>oldmanj710@gmail.com</t>
+        </is>
+      </c>
+      <c r="D240" s="22" t="inlineStr">
+        <is>
+          <t>^NSdsgQHr6</t>
+        </is>
+      </c>
+    </row>
+    <row r="241" ht="14.9" customHeight="1" s="23">
+      <c r="C241" s="37" t="inlineStr">
+        <is>
+          <t>michellemacalister17@gmail.com</t>
+        </is>
+      </c>
+      <c r="D241" s="22" t="inlineStr">
+        <is>
+          <t>73iAYb%b#*</t>
+        </is>
+      </c>
+    </row>
+    <row r="242" ht="14.9" customHeight="1" s="23">
+      <c r="C242" s="37" t="inlineStr">
+        <is>
+          <t>jennifergarrison43@gmail.com</t>
+        </is>
+      </c>
+      <c r="D242" s="22" t="inlineStr">
+        <is>
+          <t>kIOhqiB)*5</t>
+        </is>
+      </c>
+    </row>
+    <row r="243" ht="14.9" customHeight="1" s="23">
+      <c r="C243" s="37" t="inlineStr">
+        <is>
+          <t>ford03085@gmail.com</t>
+        </is>
+      </c>
+      <c r="D243" s="22" t="inlineStr">
+        <is>
+          <t>Kn5XJRO5H!</t>
+        </is>
+      </c>
+    </row>
+    <row r="244" ht="14.9" customHeight="1" s="23">
+      <c r="C244" s="37" t="inlineStr">
+        <is>
+          <t>dowmanandrew779@gmail.com</t>
+        </is>
+      </c>
+      <c r="D244" s="22" t="inlineStr">
+        <is>
+          <t>f*6O3Xaf3^</t>
+        </is>
+      </c>
+    </row>
+    <row r="245" ht="14.9" customHeight="1" s="23">
+      <c r="C245" s="37" t="inlineStr">
+        <is>
+          <t>bishopdiana717@gmail.com</t>
+        </is>
+      </c>
+      <c r="D245" s="22" t="inlineStr">
+        <is>
+          <t>9dN4RRvU&amp;a</t>
+        </is>
+      </c>
+    </row>
+    <row r="246" ht="14.9" customHeight="1" s="23">
+      <c r="C246" s="37" t="inlineStr">
+        <is>
+          <t>vaudley07@gmail.com</t>
+        </is>
+      </c>
+      <c r="D246" s="22" t="inlineStr">
+        <is>
+          <t>*7yqkReEOx</t>
+        </is>
+      </c>
+    </row>
+    <row r="247" ht="14.9" customHeight="1" s="23">
+      <c r="C247" s="37" t="inlineStr">
+        <is>
+          <t>dnnslamberts@gmail.com</t>
+        </is>
+      </c>
+      <c r="D247" s="22" t="inlineStr">
+        <is>
+          <t>bse3Q*Y_0!</t>
+        </is>
+      </c>
+    </row>
+    <row r="248" ht="14.9" customHeight="1" s="23">
+      <c r="C248" s="37" t="inlineStr">
+        <is>
+          <t>pl954655@gmail.com</t>
+        </is>
+      </c>
+      <c r="D248" s="22" t="inlineStr">
+        <is>
+          <t>^xz&amp;5LLtVr</t>
+        </is>
+      </c>
+    </row>
+    <row r="249" ht="14.9" customHeight="1" s="23">
+      <c r="C249" s="37" t="inlineStr">
+        <is>
+          <t>to5569518@gmail.com</t>
+        </is>
+      </c>
+      <c r="D249" s="22" t="inlineStr">
+        <is>
+          <t>!kdk9XTlOP</t>
+        </is>
+      </c>
+    </row>
+    <row r="250" ht="14.9" customHeight="1" s="23">
+      <c r="C250" s="37" t="inlineStr">
+        <is>
+          <t>oakmansheila478@gmail.com</t>
+        </is>
+      </c>
+      <c r="D250" s="22" t="inlineStr">
+        <is>
+          <t>*eS9jSQ90T</t>
+        </is>
+      </c>
+    </row>
+    <row r="251" ht="14.9" customHeight="1" s="23">
+      <c r="C251" s="37" t="inlineStr">
+        <is>
+          <t>vanessasalisburry492@gmail.com</t>
+        </is>
+      </c>
+      <c r="D251" s="22" t="inlineStr">
+        <is>
+          <t>$p69Pkedv_</t>
+        </is>
+      </c>
+    </row>
+    <row r="252" ht="14.9" customHeight="1" s="23">
+      <c r="C252" s="37" t="inlineStr">
+        <is>
+          <t>ryderanthony85@gmail.com</t>
+        </is>
+      </c>
+      <c r="D252" s="22" t="inlineStr">
+        <is>
+          <t>a)rU7#P!Yh</t>
+        </is>
+      </c>
+    </row>
+    <row r="253" ht="14.9" customHeight="1" s="23">
+      <c r="C253" s="37" t="inlineStr">
+        <is>
+          <t>jenniferpass376@gmail.com</t>
+        </is>
+      </c>
+      <c r="D253" s="22" t="inlineStr">
+        <is>
+          <t>@7QF*q0i^5</t>
+        </is>
+      </c>
+    </row>
+    <row r="254" ht="14.9" customHeight="1" s="23">
+      <c r="C254" s="37" t="inlineStr">
+        <is>
+          <t>jordanotis883@gmail.com</t>
+        </is>
+      </c>
+      <c r="D254" s="22" t="inlineStr">
+        <is>
+          <t>L!7n1S_wxK</t>
+        </is>
+      </c>
+    </row>
+    <row r="255" ht="14.9" customHeight="1" s="23">
+      <c r="C255" s="37" t="inlineStr">
+        <is>
+          <t>backerralph54@gmail.com</t>
+        </is>
+      </c>
+      <c r="D255" s="22" t="inlineStr">
+        <is>
+          <t>a%0HlqBBB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="256" ht="14.9" customHeight="1" s="23">
+      <c r="C256" s="37" t="inlineStr">
+        <is>
+          <t>lflatcher7@gmail.com</t>
+        </is>
+      </c>
+      <c r="D256" s="22" t="inlineStr">
+        <is>
+          <t>!dOUAbZd4W</t>
+        </is>
+      </c>
+    </row>
+    <row r="257" ht="14.9" customHeight="1" s="23">
+      <c r="C257" s="37" t="inlineStr">
+        <is>
+          <t>passashley999@gmail.com</t>
+        </is>
+      </c>
+      <c r="D257" s="22" t="inlineStr">
+        <is>
+          <t>@i5$@XrLQ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="258" ht="14.9" customHeight="1" s="23">
+      <c r="C258" s="37" t="inlineStr">
+        <is>
+          <t>RachelAlsopp4143@gmail.com</t>
+        </is>
+      </c>
+      <c r="D258" s="22" t="inlineStr">
+        <is>
+          <t>X&amp;+*G0Dm4e</t>
+        </is>
+      </c>
+    </row>
+    <row r="259" ht="14.9" customHeight="1" s="23">
+      <c r="C259" s="37" t="inlineStr">
+        <is>
+          <t>marisadunce95@gmail.com</t>
+        </is>
+      </c>
+      <c r="D259" s="22" t="inlineStr">
+        <is>
+          <t>!WLp4OGyW)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260" ht="14.9" customHeight="1" s="23">
+      <c r="C260" s="37" t="inlineStr">
+        <is>
+          <t>nevillbrian407@gmail.com</t>
+        </is>
+      </c>
+      <c r="D260" s="22" t="inlineStr">
+        <is>
+          <t>fw4Dh4@b$k</t>
+        </is>
+      </c>
+    </row>
+    <row r="261" ht="14.9" customHeight="1" s="23">
+      <c r="C261" s="37" t="inlineStr">
+        <is>
+          <t>formankylie8@gmail.com</t>
+        </is>
+      </c>
+      <c r="D261" s="22" t="inlineStr">
+        <is>
+          <t>9A7P#lKnZ*</t>
+        </is>
+      </c>
+    </row>
+    <row r="262" ht="14.9" customHeight="1" s="23">
+      <c r="C262" s="37" t="inlineStr">
+        <is>
+          <t>oscarnevill7@gmail.com</t>
+        </is>
+      </c>
+      <c r="D262" s="22" t="inlineStr">
+        <is>
+          <t>$q1jnJz##J</t>
+        </is>
+      </c>
+    </row>
+    <row r="263" ht="14.9" customHeight="1" s="23">
+      <c r="C263" s="37" t="inlineStr">
+        <is>
+          <t>mildredparson10@gmail.com</t>
+        </is>
+      </c>
+      <c r="D263" s="22" t="inlineStr">
+        <is>
+          <t>5r9Wfedqx^</t>
+        </is>
+      </c>
+    </row>
+    <row r="264" ht="14.9" customHeight="1" s="23">
+      <c r="C264" s="37" t="inlineStr">
+        <is>
+          <t>oakmangabriel88@gmail.com</t>
+        </is>
+      </c>
+      <c r="D264" s="22" t="inlineStr">
+        <is>
+          <t>(7Ka(RmtFO</t>
+        </is>
+      </c>
+    </row>
+    <row r="265" ht="14.9" customHeight="1" s="23">
+      <c r="C265" s="37" t="inlineStr">
+        <is>
+          <t>mollybacker2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D265" s="22" t="inlineStr">
+        <is>
+          <t>fL%+OFcb(1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266" ht="14.9" customHeight="1" s="23">
+      <c r="C266" s="37" t="inlineStr">
+        <is>
+          <t>hoggarths725@gmail.com</t>
+        </is>
+      </c>
+      <c r="D266" s="22" t="inlineStr">
+        <is>
+          <t>^@cKzzwea6</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" ht="14.9" customHeight="1" s="23">
+      <c r="C267" s="37" t="inlineStr">
+        <is>
+          <t>blomfieldaaron84@gmail.com</t>
+        </is>
+      </c>
+      <c r="D267" s="22" t="inlineStr">
+        <is>
+          <t>q^x4JyRHD*</t>
+        </is>
+      </c>
+    </row>
+    <row r="268" ht="14.9" customHeight="1" s="23">
+      <c r="C268" s="37" t="inlineStr">
+        <is>
+          <t>on2123933@gmail.com</t>
+        </is>
+      </c>
+      <c r="D268" s="22" t="inlineStr">
+        <is>
+          <t>AMJWcwqs+4</t>
+        </is>
+      </c>
+    </row>
+    <row r="269" ht="14.9" customHeight="1" s="23">
+      <c r="C269" s="37" t="inlineStr">
+        <is>
+          <t>jennaeddington2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D269" s="22" t="inlineStr">
+        <is>
+          <t>$0TO7_sIQx</t>
+        </is>
+      </c>
+    </row>
+    <row r="270" ht="14.9" customHeight="1" s="23">
+      <c r="C270" s="37" t="inlineStr">
+        <is>
+          <t>boolmanmabel@gmail.com</t>
+        </is>
+      </c>
+      <c r="D270" s="22" t="inlineStr">
+        <is>
+          <t>rO&amp;!F5Stg(</t>
+        </is>
+      </c>
+    </row>
+    <row r="271" ht="14.9" customHeight="1" s="23">
+      <c r="C271" s="37" t="inlineStr">
+        <is>
+          <t>hr380794@gmail.com</t>
+        </is>
+      </c>
+      <c r="D271" s="22" t="inlineStr">
+        <is>
+          <t>3*6SO5Jf+d</t>
+        </is>
+      </c>
+    </row>
+    <row r="272" ht="14.9" customHeight="1" s="23">
+      <c r="C272" s="37" t="inlineStr">
+        <is>
+          <t>katherinecarey510@gmail.com</t>
+        </is>
+      </c>
+      <c r="D272" s="22" t="inlineStr">
+        <is>
+          <t>^2QRVo0chc</t>
+        </is>
+      </c>
+    </row>
+    <row r="273" ht="14.9" customHeight="1" s="23">
+      <c r="C273" s="37" t="inlineStr">
+        <is>
+          <t>hoggarthsylvia4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D273" s="22" t="inlineStr">
+        <is>
+          <t>6OTrxoqj_d</t>
+        </is>
+      </c>
+    </row>
+    <row r="274" ht="14.9" customHeight="1" s="23">
+      <c r="C274" s="37" t="inlineStr">
+        <is>
+          <t>richardatcheson42@gmail.com</t>
+        </is>
+      </c>
+      <c r="D274" s="22" t="inlineStr">
+        <is>
+          <t>zXC3Ub9x7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="275" ht="14.9" customHeight="1" s="23">
+      <c r="C275" s="37" t="inlineStr">
+        <is>
+          <t>lambertsclaire4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D275" s="22" t="inlineStr">
+        <is>
+          <t>$KqXNR*bj1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" ht="14.9" customHeight="1" s="23">
+      <c r="C276" s="37" t="inlineStr">
+        <is>
+          <t>katherineenderson8@gmail.com</t>
+        </is>
+      </c>
+      <c r="D276" s="22" t="inlineStr">
+        <is>
+          <t>D3@i2KHwRw</t>
+        </is>
+      </c>
+    </row>
+    <row r="277" ht="14.9" customHeight="1" s="23">
+      <c r="C277" s="37" t="inlineStr">
+        <is>
+          <t>hshackley908@gmail.com</t>
+        </is>
+      </c>
+      <c r="D277" s="22" t="inlineStr">
+        <is>
+          <t>^5N+lyA_dk</t>
+        </is>
+      </c>
+    </row>
+    <row r="278" ht="14.9" customHeight="1" s="23">
+      <c r="C278" s="37" t="inlineStr">
+        <is>
+          <t>mgalbraith063@gmail.com</t>
+        </is>
+      </c>
+      <c r="D278" s="22" t="inlineStr">
+        <is>
+          <t>9Un0Cl^k%c</t>
+        </is>
+      </c>
+    </row>
+    <row r="279" ht="14.9" customHeight="1" s="23">
+      <c r="C279" s="37" t="inlineStr">
+        <is>
+          <t>jadenshackley5@gmail.com</t>
+        </is>
+      </c>
+      <c r="D279" s="22" t="inlineStr">
+        <is>
+          <t>+Y@&amp;3Cxmf!</t>
+        </is>
+      </c>
+    </row>
+    <row r="280" ht="14.9" customHeight="1" s="23">
+      <c r="C280" s="37" t="inlineStr">
+        <is>
+          <t>senderson509@gmail.com</t>
+        </is>
+      </c>
+      <c r="D280" s="22" t="inlineStr">
+        <is>
+          <t>(+zK)CkTm3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281" ht="14.9" customHeight="1" s="23">
+      <c r="C281" s="37" t="inlineStr">
+        <is>
+          <t>IanAdrian6398@gmail.com</t>
+        </is>
+      </c>
+      <c r="D281" s="22" t="inlineStr">
+        <is>
+          <t>#zSlYb55(0</t>
+        </is>
+      </c>
+    </row>
+    <row r="282" ht="14.9" customHeight="1" s="23">
+      <c r="C282" s="37" t="inlineStr">
+        <is>
+          <t>ayoumans517@gmail.com</t>
+        </is>
+      </c>
+      <c r="D282" s="22" t="inlineStr">
+        <is>
+          <t>N#V7OftwXD</t>
+        </is>
+      </c>
+    </row>
+    <row r="283" ht="14.9" customHeight="1" s="23">
+      <c r="C283" s="37" t="inlineStr">
+        <is>
+          <t>philipsnoah586@gmail.com</t>
+        </is>
+      </c>
+      <c r="D283" s="22" t="inlineStr">
+        <is>
+          <t>O$6zRjhGp^</t>
+        </is>
+      </c>
+    </row>
+    <row r="284" ht="14.9" customHeight="1" s="23">
+      <c r="C284" s="37" t="inlineStr">
+        <is>
+          <t>saundermildred54@gmail.com</t>
+        </is>
+      </c>
+      <c r="D284" s="22" t="inlineStr">
+        <is>
+          <t>_vYQgFo*8H</t>
+        </is>
+      </c>
+    </row>
+    <row r="285" ht="14.9" customHeight="1" s="23">
+      <c r="C285" s="37" t="inlineStr">
+        <is>
+          <t>gatebenjamin3@gmail.com</t>
+        </is>
+      </c>
+      <c r="D285" s="22" t="inlineStr">
+        <is>
+          <t>lZ05Cqd@&amp;I</t>
+        </is>
+      </c>
+    </row>
+    <row r="286" ht="14.9" customHeight="1" s="23">
+      <c r="C286" s="37" t="inlineStr">
+        <is>
+          <t>stanleyv265@gmail.com</t>
+        </is>
+      </c>
+      <c r="D286" s="22" t="inlineStr">
+        <is>
+          <t>T7^1Pz1aRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="287" ht="14.9" customHeight="1" s="23">
+      <c r="C287" s="37" t="inlineStr">
+        <is>
+          <t>hrbrtjerome@gmail.com</t>
+        </is>
+      </c>
+      <c r="D287" s="22" t="inlineStr">
+        <is>
+          <t>Q&amp;O$D3De)Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="288" ht="14.9" customHeight="1" s="23">
+      <c r="C288" s="37" t="inlineStr">
+        <is>
+          <t>macduffgladys@gmail.com</t>
+        </is>
+      </c>
+      <c r="D288" s="22" t="inlineStr">
+        <is>
+          <t>^7^KR+vlCr</t>
+        </is>
+      </c>
+    </row>
+    <row r="289" ht="14.9" customHeight="1" s="23">
+      <c r="C289" s="37" t="inlineStr">
+        <is>
+          <t>endersonn92@gmail.com</t>
+        </is>
+      </c>
+      <c r="D289" s="22" t="inlineStr">
+        <is>
+          <t>u*9G3VHN9o</t>
+        </is>
+      </c>
+    </row>
+    <row r="290" ht="14.9" customHeight="1" s="23">
+      <c r="C290" s="37" t="inlineStr">
+        <is>
+          <t>rd4057873@gmail.com</t>
+        </is>
+      </c>
+      <c r="D290" s="22" t="inlineStr">
+        <is>
+          <t>&amp;6fRXHNrS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="291" ht="14.9" customHeight="1" s="23">
+      <c r="C291" s="37" t="inlineStr">
+        <is>
+          <t>traceytimothy12@gmail.com</t>
+        </is>
+      </c>
+      <c r="D291" s="22" t="inlineStr">
+        <is>
+          <t>8p(pSGSh$q</t>
+        </is>
+      </c>
+    </row>
+    <row r="292" ht="14.9" customHeight="1" s="23">
+      <c r="C292" s="37" t="inlineStr">
+        <is>
+          <t>ellapaterson464@gmail.com</t>
+        </is>
+      </c>
+      <c r="D292" s="22" t="inlineStr">
+        <is>
+          <t>5(4Sz)*Zph</t>
+        </is>
+      </c>
+    </row>
+    <row r="293" ht="14.9" customHeight="1" s="23">
+      <c r="C293" s="37" t="inlineStr">
+        <is>
+          <t>addingtonl02@gmail.com</t>
+        </is>
+      </c>
+      <c r="D293" s="22" t="inlineStr">
+        <is>
+          <t>)OWb0H)ii7</t>
+        </is>
+      </c>
+    </row>
+    <row r="294" ht="14.9" customHeight="1" s="23">
+      <c r="C294" s="37" t="inlineStr">
+        <is>
+          <t>dp534955@gmail.com</t>
+        </is>
+      </c>
+      <c r="D294" s="22" t="inlineStr">
+        <is>
+          <t>%9AjIIol#l</t>
+        </is>
+      </c>
+    </row>
+    <row r="295" ht="14.9" customHeight="1" s="23">
+      <c r="C295" s="37" t="inlineStr">
+        <is>
+          <t>gustmanolivia@gmail.com</t>
+        </is>
+      </c>
+      <c r="D295" s="22" t="inlineStr">
+        <is>
+          <t>A9I+5Ql&amp;&amp;q</t>
+        </is>
+      </c>
+    </row>
+    <row r="296" ht="14.9" customHeight="1" s="23">
+      <c r="C296" s="37" t="inlineStr">
+        <is>
+          <t>paulinea646@gmail.com</t>
+        </is>
+      </c>
+      <c r="D296" s="22" t="inlineStr">
+        <is>
+          <t>E3XO^&amp;Nz#s</t>
+        </is>
+      </c>
+    </row>
+    <row r="297" ht="14.9" customHeight="1" s="23">
+      <c r="C297" s="37" t="inlineStr">
+        <is>
+          <t>xenderson843@gmail.com</t>
+        </is>
+      </c>
+      <c r="D297" s="22" t="inlineStr">
+        <is>
+          <t>#BwnGxsB8X</t>
+        </is>
+      </c>
+    </row>
+    <row r="298" ht="14.9" customHeight="1" s="23">
+      <c r="C298" s="37" t="inlineStr">
+        <is>
+          <t>ameliaquincy45@gmail.com</t>
+        </is>
+      </c>
+      <c r="D298" s="22" t="inlineStr">
+        <is>
+          <t>t#6Q3ED4fh</t>
+        </is>
+      </c>
+    </row>
+    <row r="299" ht="14.9" customHeight="1" s="23">
+      <c r="C299" s="37" t="inlineStr">
+        <is>
+          <t>formangrace6@gmail.com</t>
+        </is>
+      </c>
+      <c r="D299" s="22" t="inlineStr">
+        <is>
+          <t>U)4F)wKb5W</t>
+        </is>
+      </c>
+    </row>
+    <row r="300" ht="14.9" customHeight="1" s="23">
+      <c r="C300" s="37" t="inlineStr">
+        <is>
+          <t>gibbsthomas358@gmail.com</t>
+        </is>
+      </c>
+      <c r="D300" s="22" t="inlineStr">
+        <is>
+          <t>h+65S$iK73</t>
+        </is>
+      </c>
+    </row>
+    <row r="301" ht="14.9" customHeight="1" s="23">
+      <c r="C301" s="37" t="inlineStr">
+        <is>
+          <t>jt670785@gmail.com</t>
+        </is>
+      </c>
+      <c r="D301" s="22" t="inlineStr">
+        <is>
+          <t>z!0PKOrA_$</t>
+        </is>
+      </c>
+    </row>
+    <row r="302" ht="14.9" customHeight="1" s="23">
+      <c r="C302" s="37" t="inlineStr">
+        <is>
+          <t>agimson04@gmail.com</t>
+        </is>
+      </c>
+      <c r="D302" s="22" t="inlineStr">
+        <is>
+          <t>t+2aWoRW!e</t>
+        </is>
+      </c>
+    </row>
+    <row r="303" ht="14.9" customHeight="1" s="23">
+      <c r="C303" s="37" t="inlineStr">
+        <is>
+          <t>aliseyoumans163@gmail.com</t>
+        </is>
+      </c>
+      <c r="D303" s="22" t="inlineStr">
+        <is>
+          <t>$Na4&amp;HXx8i</t>
+        </is>
+      </c>
+    </row>
+    <row r="304" ht="14.9" customHeight="1" s="23">
+      <c r="C304" s="37" t="inlineStr">
+        <is>
+          <t>vp288196@gmail.com</t>
+        </is>
+      </c>
+      <c r="D304" s="22" t="inlineStr">
+        <is>
+          <t>_h64+SaB%H</t>
+        </is>
+      </c>
+    </row>
+    <row r="305" ht="14.9" customHeight="1" s="23">
+      <c r="C305" s="37" t="inlineStr">
+        <is>
+          <t>aarthurs734@gmail.com</t>
+        </is>
+      </c>
+      <c r="D305" s="22" t="inlineStr">
+        <is>
+          <t>Oq3I$LFt*M</t>
+        </is>
+      </c>
+    </row>
+    <row r="306" ht="14.9" customHeight="1" s="23">
+      <c r="C306" s="37" t="inlineStr">
+        <is>
+          <t>hoggarthowen89@gmail.com</t>
+        </is>
+      </c>
+      <c r="D306" s="22" t="inlineStr">
+        <is>
+          <t>(h9jJEWvVh</t>
+        </is>
+      </c>
+    </row>
+    <row r="307" ht="14.9" customHeight="1" s="23">
+      <c r="C307" s="37" t="inlineStr">
+        <is>
+          <t>nw7634726@gmail.com</t>
+        </is>
+      </c>
+      <c r="D307" s="22" t="inlineStr">
+        <is>
+          <t>)Ul0EzLK9E</t>
+        </is>
+      </c>
+    </row>
+    <row r="308" ht="14.9" customHeight="1" s="23">
+      <c r="C308" s="37" t="inlineStr">
+        <is>
+          <t>susandyson276@gmail.com</t>
+        </is>
+      </c>
+      <c r="D308" s="22" t="inlineStr">
+        <is>
+          <t>_s0VYsoRrL</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -5416,7 +5416,7 @@
           <t>https://eth-rinkeby.alchemyapi.io/v2/kzE-fSuPzeSSUkekICSFyRL04P1tZZR9</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" s="22" t="inlineStr">
         <is>
           <t>kzE-fSuPzeSSUkekICSFyRL04P1tZZR9</t>
         </is>
@@ -5440,6 +5440,11 @@
           <t>*L14TAfYn1</t>
         </is>
       </c>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H146" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUxrrmDPE9YR3eUFsSvutXLGzywEyPSCfhxwCcik9Pu3N</t>
@@ -5459,6 +5464,21 @@
           <t>Flk2NOVii)</t>
         </is>
       </c>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F147" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/6mle3TX5AgPdcHFveVDwgmSuB6jQlPBe</t>
+        </is>
+      </c>
+      <c r="G147" s="22" t="inlineStr">
+        <is>
+          <t>6mle3TX5AgPdcHFveVDwgmSuB6jQlPBe</t>
+        </is>
+      </c>
       <c r="H147" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWTiQDkdzEdBcdJsjKgvyk7oHywgiHy2Xmohi8BpUCLvK</t>
@@ -5497,6 +5517,21 @@
           <t>+GblOG6r7Q</t>
         </is>
       </c>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F149" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/779SsAHtwtLIpmqgXtOA6cGEfGUEgCA-</t>
+        </is>
+      </c>
+      <c r="G149" s="22" t="inlineStr">
+        <is>
+          <t>779SsAHtwtLIpmqgXtOA6cGEfGUEgCA-</t>
+        </is>
+      </c>
       <c r="H149" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmeacu2XtQ43228Fe8xq9fp8EcsVM5GDWCYYjfQpkQcFn3</t>
@@ -5536,7 +5571,11 @@
           <t>(EC%kK7R#1</t>
         </is>
       </c>
-      <c r="E151" s="33" t="n"/>
+      <c r="E151" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H151" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYEdykD5QdEcZ6srw43Dxs8rPH5J2vGpKXR6f6FLXuLsm</t>
@@ -5556,7 +5595,21 @@
           <t>&amp;Vg5GERp*T</t>
         </is>
       </c>
-      <c r="E152" s="33" t="n"/>
+      <c r="E152" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F152" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/_TrKZutUxVGuC4pRZZkPG1bPoEWMMzha</t>
+        </is>
+      </c>
+      <c r="G152" s="22" t="inlineStr">
+        <is>
+          <t>_TrKZutUxVGuC4pRZZkPG1bPoEWMMzha</t>
+        </is>
+      </c>
       <c r="H152" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZFjczJZWfNpaFy539Ey1p3oLKYLQA179VbDBxNGHRvnF</t>
@@ -5576,7 +5629,11 @@
           <t>&amp;lIF2SCy+&amp;</t>
         </is>
       </c>
-      <c r="E153" s="33" t="n"/>
+      <c r="E153" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H153" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfPZSn3HLicDuRBNE1SMKrxUghCoktKsGPcREVkCgBhcr</t>
@@ -5596,7 +5653,11 @@
           <t>_#IU*%*rA6</t>
         </is>
       </c>
-      <c r="E154" s="33" t="n"/>
+      <c r="E154" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H154" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSZqrVmGTe3GtHaUDeryqW1EfmMiWRqea9bvuiGQ4FRfj</t>
@@ -5616,7 +5677,11 @@
           <t>*bEkt*@56u</t>
         </is>
       </c>
-      <c r="E155" s="33" t="n"/>
+      <c r="E155" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H155" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWs1fZqogcpRVqFaeJV5JFm2vmA6Z61y2NWMRnX2E2Qu2</t>
@@ -5656,7 +5721,21 @@
           <t>WdL4UbTzu*</t>
         </is>
       </c>
-      <c r="E157" s="33" t="n"/>
+      <c r="E157" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F157" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/8N5z1hjk70FxQqBGtExoOQqWWMQXdT5H</t>
+        </is>
+      </c>
+      <c r="G157" s="22" t="inlineStr">
+        <is>
+          <t>8N5z1hjk70FxQqBGtExoOQqWWMQXdT5H</t>
+        </is>
+      </c>
       <c r="H157" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcVYeCNhE3GrtJNBJaWuXDrLzVxP6LKV1cQNahMuJZTEs</t>
@@ -5676,7 +5755,21 @@
           <t>@2DUXTFlDg</t>
         </is>
       </c>
-      <c r="E158" s="33" t="n"/>
+      <c r="E158" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F158" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/yhoG4GWhBUXS3dQ_VInvJM4uQLfU7E2f</t>
+        </is>
+      </c>
+      <c r="G158" s="22" t="inlineStr">
+        <is>
+          <t>yhoG4GWhBUXS3dQ_VInvJM4uQLfU7E2f</t>
+        </is>
+      </c>
       <c r="H158" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZAbQXyZ8Ke7y2kHhJiWmBjPrNyQDUi4kMqo4DbAKyD2B</t>
@@ -5696,7 +5789,21 @@
           <t>$Ily2Duk0n</t>
         </is>
       </c>
-      <c r="E159" s="33" t="n"/>
+      <c r="E159" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F159" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/LcY5p0Bs-Y4CpUfSE8dJuNF3VvB2dw7i</t>
+        </is>
+      </c>
+      <c r="G159" s="22" t="inlineStr">
+        <is>
+          <t>LcY5p0Bs-Y4CpUfSE8dJuNF3VvB2dw7i</t>
+        </is>
+      </c>
       <c r="H159" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVwDxKAzHaqhXN8bMfACbw5e552pnqp5PArGYpFxz4BTr</t>
@@ -5716,7 +5823,21 @@
           <t>3dURScgf(N</t>
         </is>
       </c>
-      <c r="E160" s="33" t="n"/>
+      <c r="E160" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F160" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/uTE26Q__RESbsRsRXDxkdH9OVspjDtbw</t>
+        </is>
+      </c>
+      <c r="G160" s="22" t="inlineStr">
+        <is>
+          <t>uTE26Q__RESbsRsRXDxkdH9OVspjDtbw</t>
+        </is>
+      </c>
       <c r="H160" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUPSBDq1BSdpCFBkHSU5o66oYgnSRiS8PwBUkRMTSrdyL</t>
@@ -5736,7 +5857,21 @@
           <t>378PFsmv(Q</t>
         </is>
       </c>
-      <c r="E161" s="33" t="n"/>
+      <c r="E161" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F161" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/kzumJTAlcberjfVINSao72yGxLT8aF9A</t>
+        </is>
+      </c>
+      <c r="G161" s="22" t="inlineStr">
+        <is>
+          <t>kzumJTAlcberjfVINSao72yGxLT8aF9A</t>
+        </is>
+      </c>
       <c r="H161" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQYFcRGRZrN9EJerXENy3jBhidTamMRnNGYwtSvgJDohw</t>
@@ -5756,7 +5891,11 @@
           <t>(4%W_rK@9W</t>
         </is>
       </c>
-      <c r="E162" s="33" t="n"/>
+      <c r="E162" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H162" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZszERSrLwfvXoKJPom9mNMRr1Z99n13aziHD2XAKpMA9</t>
@@ -5776,7 +5915,21 @@
           <t>q7)TQJse*+</t>
         </is>
       </c>
-      <c r="E163" s="33" t="n"/>
+      <c r="E163" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F163" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/OkoFVmIGAhZgsec6Jcn6ggEDZzIhBzu5</t>
+        </is>
+      </c>
+      <c r="G163" s="22" t="inlineStr">
+        <is>
+          <t>OkoFVmIGAhZgsec6Jcn6ggEDZzIhBzu5</t>
+        </is>
+      </c>
       <c r="H163" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmZ554ambTuJJ65NeJqGq5zSi7bx8soKp1eZdBDYsoGkYK</t>
@@ -5816,7 +5969,21 @@
           <t>_fg(JLsh7@</t>
         </is>
       </c>
-      <c r="E165" s="33" t="n"/>
+      <c r="E165" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F165" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/7X8tl2JV2KvX2K-OEtDAtgNFZ48k074L</t>
+        </is>
+      </c>
+      <c r="G165" s="22" t="inlineStr">
+        <is>
+          <t>7X8tl2JV2KvX2K-OEtDAtgNFZ48k074L</t>
+        </is>
+      </c>
       <c r="H165" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmX6GnScVUPtMHpKagBtteSNeYenJcnXkGLGm3PTKkxgmb</t>
@@ -5836,7 +6003,11 @@
           <t>^#gNGAq7z9</t>
         </is>
       </c>
-      <c r="E166" s="33" t="n"/>
+      <c r="E166" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H166" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qma2mR7xhQUm5GCL3MVSoPkKDWrmVKf7qTki7S9EATbde8</t>
@@ -5856,7 +6027,21 @@
           <t>^G7CTNlU@s</t>
         </is>
       </c>
-      <c r="E167" s="33" t="n"/>
+      <c r="E167" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F167" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/4xcYGJwk_p5LaSxFSfQLitlknfMsxbpO</t>
+        </is>
+      </c>
+      <c r="G167" s="22" t="inlineStr">
+        <is>
+          <t>4xcYGJwk_p5LaSxFSfQLitlknfMsxbpO</t>
+        </is>
+      </c>
       <c r="H167" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNq4L2CdzL4ujQYSbLJzjSwK5z1QfRZDCJJ2XeMtfUk1a</t>
@@ -5876,7 +6061,21 @@
           <t>F3Ll7hiY(!</t>
         </is>
       </c>
-      <c r="E168" s="33" t="n"/>
+      <c r="E168" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F168" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/cS-dtMM6b2lDh8GMyaKwHYx4Yd8yxtkR</t>
+        </is>
+      </c>
+      <c r="G168" s="22" t="inlineStr">
+        <is>
+          <t>cS-dtMM6b2lDh8GMyaKwHYx4Yd8yxtkR</t>
+        </is>
+      </c>
       <c r="H168" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTjEJu1LZKcZGFpH9rvUCQCpsfV8UPw3D53b2bhMbXFfg</t>
@@ -5896,7 +6095,21 @@
           <t>(lc2sXzj1X</t>
         </is>
       </c>
-      <c r="E169" s="33" t="n"/>
+      <c r="E169" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F169" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/l4Mnq_4s4dJ6ROGUwo5bEFKG5fHDfk3q</t>
+        </is>
+      </c>
+      <c r="G169" s="22" t="inlineStr">
+        <is>
+          <t>l4Mnq_4s4dJ6ROGUwo5bEFKG5fHDfk3q</t>
+        </is>
+      </c>
       <c r="H169" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNpYhrxUAccuYsfSseoSuWzbefTnVGyiEUBqsbT968RPo</t>
@@ -5916,7 +6129,21 @@
           <t>*1al)J4xK0</t>
         </is>
       </c>
-      <c r="E170" s="33" t="n"/>
+      <c r="E170" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F170" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/9s61YYqGdLcIblbbc1AQ1Oar16Uy4Vxy</t>
+        </is>
+      </c>
+      <c r="G170" s="22" t="inlineStr">
+        <is>
+          <t>9s61YYqGdLcIblbbc1AQ1Oar16Uy4Vxy</t>
+        </is>
+      </c>
       <c r="H170" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmT21ST9p9Y6f11UzjjwNa9mDhf4f2LB9C25FJ1kKgYJp5</t>
@@ -5936,7 +6163,21 @@
           <t>7*W0J#q#&amp;s</t>
         </is>
       </c>
-      <c r="E171" s="33" t="n"/>
+      <c r="E171" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F171" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/goeNY8kxcwqhrZVl8KFfjNLOGeJmpisP</t>
+        </is>
+      </c>
+      <c r="G171" s="22" t="inlineStr">
+        <is>
+          <t>goeNY8kxcwqhrZVl8KFfjNLOGeJmpisP</t>
+        </is>
+      </c>
       <c r="H171" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW6g6KyHnxYDw7kJG1d6rZb7EJHKdXTFrnPdHU6N97eUh</t>
@@ -5956,7 +6197,21 @@
           <t>o1HLyt&amp;V$+</t>
         </is>
       </c>
-      <c r="E172" s="33" t="n"/>
+      <c r="E172" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F172" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/BZ9F50Dwy-1stT-UnpV9RZAJQRNU2taf</t>
+        </is>
+      </c>
+      <c r="G172" s="22" t="inlineStr">
+        <is>
+          <t>BZ9F50Dwy-1stT-UnpV9RZAJQRNU2taf</t>
+        </is>
+      </c>
       <c r="H172" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbjBi7KMs8HZnGXHMm6xwmCVwVxn7ad4iZkzTzXnfj1AA</t>
@@ -5976,7 +6231,21 @@
           <t>76kwoC8j#I</t>
         </is>
       </c>
-      <c r="E173" s="33" t="n"/>
+      <c r="E173" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F173" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/9_2dIPDYwGRR9BqEBxbgME23zci35laJ</t>
+        </is>
+      </c>
+      <c r="G173" s="22" t="inlineStr">
+        <is>
+          <t>9_2dIPDYwGRR9BqEBxbgME23zci35laJ</t>
+        </is>
+      </c>
       <c r="H173" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWdbqTmgSo9ubL8ep6sTd33tDRrhyGnXuA2jQuU3WSmYy</t>
@@ -5996,7 +6265,21 @@
           <t>(t5rXt7x2P</t>
         </is>
       </c>
-      <c r="E174" s="33" t="n"/>
+      <c r="E174" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F174" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/XI8ZpTY-LAQCpQqYYWvcdPraXSyKTrtT</t>
+        </is>
+      </c>
+      <c r="G174" s="22" t="inlineStr">
+        <is>
+          <t>XI8ZpTY-LAQCpQqYYWvcdPraXSyKTrtT</t>
+        </is>
+      </c>
       <c r="H174" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXH3X5m2By34RUqtFHyRpDKnyWiziKUX8QtYWMy3g4GX5</t>
@@ -6016,7 +6299,11 @@
           <t>p91YO&amp;Mb$3</t>
         </is>
       </c>
-      <c r="E175" s="33" t="n"/>
+      <c r="E175" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H175" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmdMoVZQu6nbMKh8EGEiBkcAkSoNvLFHsUWJ5m7rzmmywN</t>
@@ -6036,7 +6323,21 @@
           <t>)suFYMRL7r</t>
         </is>
       </c>
-      <c r="E176" s="33" t="n"/>
+      <c r="E176" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F176" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/PSBT4E-KHXvxfn2jKCyhlR_Kd4CzpSUV</t>
+        </is>
+      </c>
+      <c r="G176" s="22" t="inlineStr">
+        <is>
+          <t>PSBT4E-KHXvxfn2jKCyhlR_Kd4CzpSUV</t>
+        </is>
+      </c>
       <c r="H176" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTUPMNnsaPRtJinAFRxiMp4pREgeX1wSwxUTth8CYVLqE</t>
@@ -6056,7 +6357,11 @@
           <t>2bgDQq7G@z</t>
         </is>
       </c>
-      <c r="E177" s="33" t="n"/>
+      <c r="E177" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H177" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVSMy3ACwPtg8fJTVPkgMyyTKPpDD3Tw8PuKBDUW13KyH</t>
@@ -6076,7 +6381,21 @@
           <t>j3uOriWg$h</t>
         </is>
       </c>
-      <c r="E178" s="33" t="n"/>
+      <c r="E178" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F178" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/N7yUXw_8BJ6Pq3C8V0uPZtNA2nyZDk7n</t>
+        </is>
+      </c>
+      <c r="G178" s="22" t="inlineStr">
+        <is>
+          <t>N7yUXw_8BJ6Pq3C8V0uPZtNA2nyZDk7n</t>
+        </is>
+      </c>
       <c r="H178" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmaTZqgy9ysBsvkRfhjvdzuuzZWbSNZfhXVdVeK3fY16Vm</t>
@@ -6096,7 +6415,21 @@
           <t>*(8%P4t((4</t>
         </is>
       </c>
-      <c r="E179" s="33" t="n"/>
+      <c r="E179" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F179" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/8VMjGoazIyD173kec_170-kf5RZ_-3cN</t>
+        </is>
+      </c>
+      <c r="G179" s="22" t="inlineStr">
+        <is>
+          <t>8VMjGoazIyD173kec_170-kf5RZ_-3cN</t>
+        </is>
+      </c>
       <c r="H179" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmfKC2YKD1YN5PiVaANyLcYprzBw8V6zXEZqx4TSyZ37k6</t>
@@ -6116,7 +6449,21 @@
           <t>nQ#Go$6*$3</t>
         </is>
       </c>
-      <c r="E180" s="33" t="n"/>
+      <c r="E180" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F180" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/7W4ijTkWFr4C3zuDlX-ZpmtXbe0BGbba</t>
+        </is>
+      </c>
+      <c r="G180" s="22" t="inlineStr">
+        <is>
+          <t>7W4ijTkWFr4C3zuDlX-ZpmtXbe0BGbba</t>
+        </is>
+      </c>
       <c r="H180" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYiBSx876Y6wSp3rmdVGMmYkYUPmdFeJ8dkPZQyyCMAp8</t>
@@ -6176,7 +6523,21 @@
           <t>_(9Uqoyv3j</t>
         </is>
       </c>
-      <c r="E183" s="33" t="n"/>
+      <c r="E183" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F183" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/5bGQkm_veJXRqi1Qz828kj6e4GShRSIB</t>
+        </is>
+      </c>
+      <c r="G183" s="22" t="inlineStr">
+        <is>
+          <t>5bGQkm_veJXRqi1Qz828kj6e4GShRSIB</t>
+        </is>
+      </c>
       <c r="H183" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmQNEe7AbemU7pydrToLcacaQohdxn9x5kZfhqMuqMQK2H</t>
@@ -6216,7 +6577,21 @@
           <t>(4AttJdann</t>
         </is>
       </c>
-      <c r="E185" s="33" t="n"/>
+      <c r="E185" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F185" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/dxd7iNQas0WxfS6T6-PYSao8pn8a0pO2</t>
+        </is>
+      </c>
+      <c r="G185" s="22" t="inlineStr">
+        <is>
+          <t>dxd7iNQas0WxfS6T6-PYSao8pn8a0pO2</t>
+        </is>
+      </c>
       <c r="H185" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcWbkdhZu8F4cEEEFgkfgwF88Sf8VpHYUtBbb7Q2gzkLQ</t>
@@ -6236,7 +6611,21 @@
           <t>#9K#dxWWO0</t>
         </is>
       </c>
-      <c r="E186" s="33" t="n"/>
+      <c r="E186" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F186" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/k9QmWIgdONra2ID7C1Q9mElrg89D6Dte</t>
+        </is>
+      </c>
+      <c r="G186" s="22" t="inlineStr">
+        <is>
+          <t>k9QmWIgdONra2ID7C1Q9mElrg89D6Dte</t>
+        </is>
+      </c>
       <c r="H186" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmbLBKRcGRT3A4fi87CxMUCJt6v3usCEvtNgdK1XKYDKfK</t>
@@ -6256,7 +6645,21 @@
           <t>7J&amp;6iFTs+n</t>
         </is>
       </c>
-      <c r="E187" s="33" t="n"/>
+      <c r="E187" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F187" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Z8M7bjBiquNC_VbeCPmSFf1hpr9ZOUEQ</t>
+        </is>
+      </c>
+      <c r="G187" s="22" t="inlineStr">
+        <is>
+          <t>Z8M7bjBiquNC_VbeCPmSFf1hpr9ZOUEQ</t>
+        </is>
+      </c>
       <c r="H187" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYXEHfqoUYB8BX6imBME7UJitEzUnDZoQh1JPdwGBoSvR</t>
@@ -6276,7 +6679,21 @@
           <t>m!B4!+XzO$</t>
         </is>
       </c>
-      <c r="E188" s="33" t="n"/>
+      <c r="E188" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F188" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/TFJHSX0NydztePveDqSy247xQ3MQgNM_</t>
+        </is>
+      </c>
+      <c r="G188" s="22" t="inlineStr">
+        <is>
+          <t>TFJHSX0NydztePveDqSy247xQ3MQgNM_</t>
+        </is>
+      </c>
       <c r="H188" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVptgcGTQyh1Bfr3BAqxSXAugqfMkZyyJXo9qBc48grjN</t>
@@ -6296,7 +6713,21 @@
           <t>*#a1EgSbv&amp;</t>
         </is>
       </c>
-      <c r="E189" s="33" t="n"/>
+      <c r="E189" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F189" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/OUwz4DRaaQnHPsskhbFI0MDAO-0DuUEp</t>
+        </is>
+      </c>
+      <c r="G189" s="22" t="inlineStr">
+        <is>
+          <t>OUwz4DRaaQnHPsskhbFI0MDAO-0DuUEp</t>
+        </is>
+      </c>
       <c r="H189" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmduMderYbfBAksgBYMD2eTdFyVDB1GPxBSzh8k422sUk7</t>
@@ -6316,7 +6747,21 @@
           <t>+C+(4MEn^$</t>
         </is>
       </c>
-      <c r="E190" s="33" t="n"/>
+      <c r="E190" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F190" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/fx1o01Fl33P-vlRl2cXxmEiU7WGa-ryl</t>
+        </is>
+      </c>
+      <c r="G190" s="22" t="inlineStr">
+        <is>
+          <t>fx1o01Fl33P-vlRl2cXxmEiU7WGa-ryl</t>
+        </is>
+      </c>
       <c r="H190" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRajpPvV3m3vWLhu22mq7xMUa4dxCz5N2uL92fX5mqJDA</t>
@@ -6336,7 +6781,21 @@
           <t>g6vxfB4#^i</t>
         </is>
       </c>
-      <c r="E191" s="33" t="n"/>
+      <c r="E191" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F191" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/bXM5x6syylK-cUsjz22cj-xGStMcfxhv</t>
+        </is>
+      </c>
+      <c r="G191" s="22" t="inlineStr">
+        <is>
+          <t>bXM5x6syylK-cUsjz22cj-xGStMcfxhv</t>
+        </is>
+      </c>
       <c r="H191" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNSYETPprWekrDnb3DHcAYVubiXHBcP7Ua7tM6TYTZBeE</t>
@@ -6356,7 +6815,21 @@
           <t>(45QwjD#i%</t>
         </is>
       </c>
-      <c r="E192" s="33" t="n"/>
+      <c r="E192" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F192" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/zsuCo19k_Su5ZqcbecmdEHQ-2Lgl0icL</t>
+        </is>
+      </c>
+      <c r="G192" s="22" t="inlineStr">
+        <is>
+          <t>zsuCo19k_Su5ZqcbecmdEHQ-2Lgl0icL</t>
+        </is>
+      </c>
       <c r="H192" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW3V4YBsdbQhEhLDw3JAcUNpAzDfqgNjmigUnuG6FBNT3</t>
@@ -6376,7 +6849,21 @@
           <t>O(3BMjTlxJ</t>
         </is>
       </c>
-      <c r="E193" s="33" t="n"/>
+      <c r="E193" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F193" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Vhh944gqdtgcJNaRcY66CxTTYmOOIcV5</t>
+        </is>
+      </c>
+      <c r="G193" s="22" t="inlineStr">
+        <is>
+          <t>Vhh944gqdtgcJNaRcY66CxTTYmOOIcV5</t>
+        </is>
+      </c>
       <c r="H193" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmdLbLwaBkBrd6tJCUar7dRvsW5sVvonvj32oEvwmqwsyJ</t>
@@ -6416,7 +6903,21 @@
           <t>_rXid!&amp;y_8</t>
         </is>
       </c>
-      <c r="E195" s="33" t="n"/>
+      <c r="E195" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F195" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/f5vKXv57V28h-K7GEDocx2VRTOkzk3Pa</t>
+        </is>
+      </c>
+      <c r="G195" s="22" t="inlineStr">
+        <is>
+          <t>f5vKXv57V28h-K7GEDocx2VRTOkzk3Pa</t>
+        </is>
+      </c>
       <c r="H195" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRFJNpjyVoN5DW1BiwyPU2rv9zoRZHfobXYs7WYbKdQNo</t>
@@ -6436,7 +6937,21 @@
           <t>%0NCs!ZvYh</t>
         </is>
       </c>
-      <c r="E196" s="33" t="n"/>
+      <c r="E196" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F196" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/9NCrxLqmcgz8uer1Lrjq8eJuczsxvO8E</t>
+        </is>
+      </c>
+      <c r="G196" s="22" t="inlineStr">
+        <is>
+          <t>9NCrxLqmcgz8uer1Lrjq8eJuczsxvO8E</t>
+        </is>
+      </c>
       <c r="H196" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmNj1suSki6ycHTVxWMbeh4cskJJChj6FUwknH98NLNuVh</t>
@@ -6456,7 +6971,11 @@
           <t>F^37dN)xFR</t>
         </is>
       </c>
-      <c r="E197" s="33" t="n"/>
+      <c r="E197" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H197" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmTEWCxYMYtxPDjyGXpdpiYF1B5P4KUFTMZBezh15vzPUV</t>
@@ -6476,7 +6995,11 @@
           <t>d984RdTg!4</t>
         </is>
       </c>
-      <c r="E198" s="33" t="n"/>
+      <c r="E198" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H198" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWF5GD133FNUB3gtVaedZnat5TAZ9XqGn8op2rio41NJA</t>
@@ -6496,7 +7019,21 @@
           <t>(V%2A6SbdS</t>
         </is>
       </c>
-      <c r="E199" s="33" t="n"/>
+      <c r="E199" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F199" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/sTDfdqPUXCsK58aUXVwyS08aVcKsXl8s</t>
+        </is>
+      </c>
+      <c r="G199" s="22" t="inlineStr">
+        <is>
+          <t>sTDfdqPUXCsK58aUXVwyS08aVcKsXl8s</t>
+        </is>
+      </c>
       <c r="H199" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmXxsLhUK11d4uhVyT5CPtJoMPqPc5Ddc7oXHxR3qJnaQZ</t>
@@ -6516,7 +7053,11 @@
           <t>!1Rwn39Yl@</t>
         </is>
       </c>
-      <c r="E200" s="33" t="n"/>
+      <c r="E200" s="33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="H200" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWcm7Tyxjh8i33dhjXDacoTxnSnmEKoALxi7dq4xkhrcB</t>
@@ -6534,6 +7075,21 @@
           <t>qB1Edq3h*%</t>
         </is>
       </c>
+      <c r="E201" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F201" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/UU0SkTjKlMwvDyMjE_DJxSsYw1P9IV4R</t>
+        </is>
+      </c>
+      <c r="G201" s="22" t="inlineStr">
+        <is>
+          <t>UU0SkTjKlMwvDyMjE_DJxSsYw1P9IV4R</t>
+        </is>
+      </c>
     </row>
     <row r="202" ht="14.9" customHeight="1" s="23">
       <c r="C202" s="37" t="inlineStr">
@@ -6546,6 +7102,21 @@
           <t>w_9)tD1tjA</t>
         </is>
       </c>
+      <c r="E202" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F202" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/567Xwys5hUtOBmybVZRR3dx_IqXEW6BV</t>
+        </is>
+      </c>
+      <c r="G202" s="22" t="inlineStr">
+        <is>
+          <t>567Xwys5hUtOBmybVZRR3dx_IqXEW6BV</t>
+        </is>
+      </c>
     </row>
     <row r="203" ht="14.9" customHeight="1" s="23">
       <c r="C203" s="37" t="inlineStr">
@@ -6556,6 +7127,21 @@
       <c r="D203" s="22" t="inlineStr">
         <is>
           <t>_G!tALgy06</t>
+        </is>
+      </c>
+      <c r="E203" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F203" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/bwdt4F6WPabkcWfT4OqiX_gArEUWhnui</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>bwdt4F6WPabkcWfT4OqiX_gArEUWhnui</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/week 1.xlsx
@@ -21,7 +21,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
@@ -43,28 +43,28 @@
     <font>
       <name val="Noto Sans CJK SC"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="14"/>
     </font>
     <font>
       <name val="Noto Sans CJK SC"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="6"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FFC9211E"/>
       <sz val="11"/>
     </font>
@@ -77,21 +77,21 @@
     <font>
       <name val="PingFang SC"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FFC9211E"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Helvetica Neue"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FFC9211E"/>
-      <sz val="9.6"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
-      <family val="0"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="6"/>
     </font>
@@ -156,15 +156,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -175,7 +175,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -199,32 +199,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -251,32 +251,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -644,25 +641,26 @@
   </sheetPr>
   <dimension ref="A1:AMJ308"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A298" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D315" activeCellId="0" sqref="D315"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A295" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C307" activeCellId="0" sqref="C307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.8671875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="12.55" customWidth="1" style="21" min="1" max="1"/>
-    <col width="13.67" customWidth="1" style="21" min="2" max="2"/>
-    <col width="30.28" customWidth="1" style="22" min="3" max="3"/>
-    <col width="17.15" customWidth="1" style="21" min="4" max="4"/>
+    <col width="12.57" customWidth="1" style="21" min="1" max="1"/>
+    <col width="13.72" customWidth="1" style="21" min="2" max="2"/>
+    <col width="30.29" customWidth="1" style="22" min="3" max="3"/>
+    <col width="17.15" customWidth="1" style="22" min="4" max="4"/>
     <col width="15.29" customWidth="1" style="21" min="5" max="5"/>
-    <col width="39.25" customWidth="1" style="22" min="6" max="6"/>
-    <col width="26.43" customWidth="1" style="22" min="7" max="7"/>
-    <col width="63.29" customWidth="1" style="22" min="8" max="8"/>
-    <col width="66.43000000000001" customWidth="1" style="22" min="9" max="9"/>
-    <col width="9.140000000000001" customWidth="1" style="22" min="1022" max="1024"/>
+    <col width="39.29" customWidth="1" style="21" min="6" max="6"/>
+    <col width="26.43" customWidth="1" style="21" min="7" max="7"/>
+    <col width="63.29" customWidth="1" style="21" min="8" max="8"/>
+    <col width="66.43000000000001" customWidth="1" style="21" min="9" max="9"/>
+    <col width="11.86" customWidth="1" style="21" min="10" max="1021"/>
+    <col width="9.15" customWidth="1" style="21" min="1022" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.25" customHeight="1" s="23">
+    <row r="1" ht="37.5" customHeight="1" s="23">
       <c r="A1" s="24" t="inlineStr">
         <is>
           <t>钱包地址</t>
@@ -710,315 +708,315 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" s="23">
+    <row r="2" ht="21.75" customHeight="1" s="23">
       <c r="A2" s="31" t="n"/>
       <c r="B2" s="31" t="n"/>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="22" t="inlineStr">
         <is>
           <t>linkguopeng@gmail.com</t>
         </is>
       </c>
-      <c r="D2" s="33" t="n"/>
-      <c r="E2" s="34" t="inlineStr">
+      <c r="D2" s="32" t="n"/>
+      <c r="E2" s="33" t="inlineStr">
         <is>
           <t>Y红色是测试用的</t>
         </is>
       </c>
-      <c r="F2" s="21" t="n"/>
-      <c r="G2" s="21" t="n"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" s="23">
+      <c r="F2" s="34" t="n"/>
+      <c r="G2" s="34" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="23">
       <c r="A3" s="31" t="n"/>
       <c r="B3" s="31" t="n"/>
-      <c r="C3" s="32" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>mcharlson29@gmail.com</t>
         </is>
       </c>
-      <c r="D3" s="21" t="inlineStr">
+      <c r="D3" s="34" t="inlineStr">
         <is>
           <t>23498ji234</t>
         </is>
       </c>
-      <c r="E3" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" s="23">
+      <c r="E3" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="23">
       <c r="A4" s="31" t="n"/>
       <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>mpass7289@gmail.com</t>
         </is>
       </c>
-      <c r="D4" s="21" t="inlineStr">
+      <c r="D4" s="34" t="inlineStr">
         <is>
           <t>kjgkuy8769</t>
         </is>
       </c>
-      <c r="E4" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" s="23">
+      <c r="E4" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="23">
       <c r="A5" s="31" t="n"/>
       <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>angelfreeman495@gmail.com</t>
         </is>
       </c>
-      <c r="D5" s="21" t="inlineStr">
+      <c r="D5" s="34" t="inlineStr">
         <is>
           <t>cht32489</t>
         </is>
       </c>
-      <c r="E5" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" s="23">
+      <c r="E5" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="23">
       <c r="A6" s="31" t="n"/>
       <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="C6" s="22" t="inlineStr">
         <is>
           <t>croftoonsheila73@gmail.com</t>
         </is>
       </c>
-      <c r="D6" s="21" t="inlineStr">
+      <c r="D6" s="34" t="inlineStr">
         <is>
           <t>hHy5DTHxy&amp;</t>
         </is>
       </c>
-      <c r="E6" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" s="23">
+      <c r="E6" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="23">
       <c r="A7" s="31" t="n"/>
       <c r="B7" s="31" t="n"/>
-      <c r="C7" s="32" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>ritagrrsn@gmail.com</t>
         </is>
       </c>
-      <c r="D7" s="21" t="inlineStr">
+      <c r="D7" s="34" t="inlineStr">
         <is>
           <t>2e)Z5QCaU%</t>
         </is>
       </c>
-      <c r="E7" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F7" s="32" t="inlineStr">
+      <c r="E7" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F7" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
         </is>
       </c>
-      <c r="H7" s="32" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" s="23">
+    <row r="8" ht="18.75" customHeight="1" s="23">
       <c r="A8" s="31" t="n"/>
       <c r="B8" s="31" t="n"/>
-      <c r="C8" s="32" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>AlexandraMathews6713@gmail.com</t>
         </is>
       </c>
-      <c r="D8" s="21" t="inlineStr">
+      <c r="D8" s="34" t="inlineStr">
         <is>
           <t>sHtMKn1d_2</t>
         </is>
       </c>
-      <c r="E8" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F8" s="32" t="inlineStr">
+      <c r="E8" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
-      <c r="H8" s="32" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="23">
+    <row r="9" ht="18.75" customHeight="1" s="23">
       <c r="A9" s="31" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="32" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>EdwardMiller6883@gmail.com</t>
         </is>
       </c>
-      <c r="D9" s="21" t="inlineStr">
+      <c r="D9" s="34" t="inlineStr">
         <is>
           <t>l6iJL5Ye^Q</t>
         </is>
       </c>
-      <c r="E9" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H9" s="32" t="inlineStr">
+      <c r="E9" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H9" s="22" t="inlineStr">
         <is>
           <t>QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" s="23">
+    <row r="10" ht="18.75" customHeight="1" s="23">
       <c r="A10" s="31" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="32" t="inlineStr">
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>AnitaSmith6459@gmail.com</t>
         </is>
       </c>
-      <c r="D10" s="21" t="inlineStr">
+      <c r="D10" s="34" t="inlineStr">
         <is>
           <t>(jHDLmhSl1</t>
         </is>
       </c>
-      <c r="E10" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F10" s="32" t="inlineStr">
+      <c r="E10" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F10" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
-      <c r="H10" s="32" t="inlineStr">
+      <c r="H10" s="22" t="inlineStr">
         <is>
           <t>QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" s="23">
+    <row r="11" ht="18.75" customHeight="1" s="23">
       <c r="A11" s="31" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="32" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>nshorter236@gmail.com</t>
         </is>
       </c>
-      <c r="D11" s="21" t="inlineStr">
+      <c r="D11" s="34" t="inlineStr">
         <is>
           <t>+8cgQPlw*A</t>
         </is>
       </c>
-      <c r="E11" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F11" s="32" t="inlineStr">
+      <c r="E11" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F11" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" s="23">
+    <row r="12" ht="18.75" customHeight="1" s="23">
       <c r="A12" s="31" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="32" t="inlineStr">
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>leonarsdonovan@gmail.com</t>
         </is>
       </c>
-      <c r="D12" s="21" t="inlineStr">
+      <c r="D12" s="34" t="inlineStr">
         <is>
           <t>&amp;1bCgi4s+2</t>
         </is>
       </c>
-      <c r="E12" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" s="23">
+      <c r="E12" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="23">
       <c r="A13" s="31" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="32" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>holidayj775@gmail.com</t>
         </is>
       </c>
-      <c r="D13" s="21" t="inlineStr">
+      <c r="D13" s="34" t="inlineStr">
         <is>
           <t>%w3w4Y#f4I</t>
         </is>
       </c>
-      <c r="E13" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F13" s="32" t="inlineStr">
+      <c r="E13" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" s="23">
+    <row r="14" ht="18.75" customHeight="1" s="23">
       <c r="A14" s="31" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="32" t="inlineStr">
+      <c r="C14" s="22" t="inlineStr">
         <is>
           <t>macduffm99@gmail.com</t>
         </is>
       </c>
-      <c r="D14" s="21" t="inlineStr">
+      <c r="D14" s="34" t="inlineStr">
         <is>
           <t>!K!&amp;fBqQ0l</t>
         </is>
       </c>
-      <c r="E14" s="34" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F14" s="32" t="inlineStr">
+      <c r="E14" s="33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F14" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" s="23">
+    <row r="15" ht="18.75" customHeight="1" s="23">
       <c r="A15" s="31" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="32" t="inlineStr">
+      <c r="C15" s="22" t="inlineStr">
         <is>
           <t>owenlwn@gmail.com</t>
         </is>
       </c>
-      <c r="D15" s="21" t="inlineStr">
+      <c r="D15" s="34" t="inlineStr">
         <is>
           <t>2rCg0JC$^o</t>
         </is>
       </c>
-      <c r="E15" s="34" t="inlineStr">
+      <c r="E15" s="33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1027,17 +1025,17 @@
     <row r="16" ht="18.75" customHeight="1" s="23">
       <c r="A16" s="31" t="n"/>
       <c r="B16" s="31" t="n"/>
-      <c r="C16" s="32" t="inlineStr">
+      <c r="C16" s="22" t="inlineStr">
         <is>
           <t>dwifkinson6@gmail.com</t>
         </is>
       </c>
-      <c r="D16" s="21" t="inlineStr">
+      <c r="D16" s="34" t="inlineStr">
         <is>
           <t>^nt#1We68F</t>
         </is>
       </c>
-      <c r="E16" s="34" t="inlineStr">
+      <c r="E16" s="33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1046,12 +1044,12 @@
     <row r="17" ht="16.5" customHeight="1" s="23">
       <c r="A17" s="31" t="n"/>
       <c r="B17" s="31" t="n"/>
-      <c r="C17" s="32" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>macduffdavid61@gmail.com</t>
         </is>
       </c>
-      <c r="D17" s="21" t="inlineStr">
+      <c r="D17" s="34" t="inlineStr">
         <is>
           <t>H)GPF9Cpy*</t>
         </is>
@@ -1060,22 +1058,22 @@
     <row r="18" ht="16.5" customHeight="1" s="23">
       <c r="A18" s="31" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="32" t="inlineStr">
+      <c r="C18" s="22" t="inlineStr">
         <is>
           <t>MichaelFreeman6075@gmail.com</t>
         </is>
       </c>
-      <c r="D18" s="21" t="inlineStr">
+      <c r="D18" s="34" t="inlineStr">
         <is>
           <t>sxm2QVj@$%</t>
         </is>
       </c>
-      <c r="E18" s="21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F18" s="32" t="inlineStr">
+      <c r="E18" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
         </is>
@@ -1084,17 +1082,17 @@
     <row r="19" ht="16.5" customHeight="1" s="23">
       <c r="A19" s="31" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="32" t="inlineStr">
+      <c r="C19" s="22" t="inlineStr">
         <is>
           <t>juliawinter964@gmail.com</t>
         </is>
       </c>
-      <c r="D19" s="21" t="inlineStr">
+      <c r="D19" s="34" t="inlineStr">
         <is>
           <t>TCkSeOuw*1</t>
         </is>
       </c>
-      <c r="E19" s="21" t="inlineStr">
+      <c r="E19" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1103,17 +1101,17 @@
     <row r="20" ht="16.5" customHeight="1" s="23">
       <c r="A20" s="31" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="32" t="inlineStr">
+      <c r="C20" s="22" t="inlineStr">
         <is>
           <t>adrianwalter085@gmail.com</t>
         </is>
       </c>
-      <c r="D20" s="21" t="inlineStr">
+      <c r="D20" s="34" t="inlineStr">
         <is>
           <t>_28R&amp;pqzPr</t>
         </is>
       </c>
-      <c r="H20" s="32" t="inlineStr">
+      <c r="H20" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYxhRXCp7SBiBLWfp6msrwG5fwyukV5q7jFnnoLD1b5XU</t>
         </is>
@@ -1122,17 +1120,17 @@
     <row r="21" ht="16.5" customHeight="1" s="23">
       <c r="A21" s="31" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="32" t="inlineStr">
+      <c r="C21" s="22" t="inlineStr">
         <is>
           <t>destinybawerman270@gmail.com</t>
         </is>
       </c>
-      <c r="D21" s="21" t="inlineStr">
+      <c r="D21" s="34" t="inlineStr">
         <is>
           <t>#sHL*HuB&amp;2</t>
         </is>
       </c>
-      <c r="E21" s="21" t="inlineStr">
+      <c r="E21" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1147,7 +1145,7 @@
           <t>9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
         </is>
       </c>
-      <c r="H21" s="32" t="inlineStr">
+      <c r="H21" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
         </is>
@@ -1156,22 +1154,22 @@
     <row r="22" ht="16.5" customHeight="1" s="23">
       <c r="A22" s="31" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="32" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>dysonjames662@gmail.com</t>
         </is>
       </c>
-      <c r="D22" s="21" t="inlineStr">
+      <c r="D22" s="34" t="inlineStr">
         <is>
           <t>(zz%Y^hjO2</t>
         </is>
       </c>
-      <c r="E22" s="21" t="inlineStr">
+      <c r="E22" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
-      <c r="H22" s="32" t="inlineStr">
+      <c r="H22" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmcbihzC3yb3aeHqHsQicf44rL4zn3GcPLuz7RjQppmYJT</t>
         </is>
@@ -1180,74 +1178,74 @@
     <row r="23" ht="16.5" customHeight="1" s="23">
       <c r="A23" s="31" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="32" t="inlineStr">
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>antoniogustman7@gmail.com</t>
         </is>
       </c>
-      <c r="D23" s="21" t="inlineStr">
+      <c r="D23" s="34" t="inlineStr">
         <is>
           <t>vgWvDb!L&amp;8</t>
         </is>
       </c>
-      <c r="E23" s="21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F23" s="32" t="inlineStr">
+      <c r="E23" s="34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F23" s="22" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/dB0WkyqLYSejLIzuSFyy3BHkvQFIWzJ6</t>
         </is>
       </c>
-      <c r="H23" s="32" t="inlineStr">
+      <c r="H23" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qmd6vipZgxtJCdKQ4kUVRGcJGQj4fRNZ9nGmpXNpkcZMEZ</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="16.5" customFormat="1" customHeight="1" s="35">
-      <c r="A24" s="36" t="inlineStr">
+    <row r="24" ht="69" customHeight="1" s="23">
+      <c r="A24" s="35" t="inlineStr">
         <is>
           <t>0xC79deDdDD1F6a891f2D13f13BDaDa3A446Bc9ef5</t>
         </is>
       </c>
-      <c r="B24" s="37" t="inlineStr">
+      <c r="B24" s="36" t="inlineStr">
         <is>
           <t>746efaa058965c0e4b322c1512bc64b326ff7b92f6f6dfa0a44e6ddc4ddb824c</t>
         </is>
       </c>
-      <c r="C24" s="38" t="inlineStr">
+      <c r="C24" s="37" t="inlineStr">
         <is>
           <t>marshmanj148@gmail.com</t>
         </is>
       </c>
-      <c r="D24" s="39" t="inlineStr">
+      <c r="D24" s="38" t="inlineStr">
         <is>
           <t>%#+8E*V!xi</t>
         </is>
       </c>
-      <c r="E24" s="39" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F24" s="35" t="inlineStr">
+      <c r="E24" s="38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F24" s="37" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
         </is>
       </c>
-      <c r="G24" s="35" t="inlineStr">
+      <c r="G24" s="37" t="inlineStr">
         <is>
           <t>0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
         </is>
       </c>
-      <c r="H24" s="38" t="inlineStr">
+      <c r="H24" s="37" t="inlineStr">
         <is>
           <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
         </is>
       </c>
-      <c r="I24" s="40" t="inlineStr">
+      <c r="I24" s="39" t="inlineStr">
         <is>
           <t>0xdd0cB7c171113fA7577e8765D02Ae329BAACb09d</t>
         </is>
@@ -1257,27 +1255,27 @@
       <c r="AMJ24" s="22" t="n"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" s="23">
-      <c r="A25" s="37" t="inlineStr">
+      <c r="A25" s="36" t="inlineStr">
         <is>
           <t>0xc2927F418946a634AB712b37b8959C9Ce94f257a</t>
         </is>
       </c>
-      <c r="B25" s="37" t="inlineStr">
+      <c r="B25" s="36" t="inlineStr">
         <is>
           <t>cd0234ceaca07ba972b92f2d306c7f3ed8e7885a6534348b9699aaa600808284</t>
         </is>
       </c>
-      <c r="C25" s="32" t="inlineStr">
+      <c r="C25" s="22" t="inlineStr">
         <is>
           <t>tclapton3@gmail.com</t>
         </is>
       </c>
-      <c r="D25" s="21" t="inlineStr">
+      <c r="D25" s="34" t="inlineStr">
         <is>
           <t>Jw1GJl!U$$</t>
         </is>
       </c>
-      <c r="E25" s="21" t="inlineStr">
+      <c r="E25" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1292,34 +1290,34 @@
           <t>ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
         </is>
       </c>
-      <c r="H25" s="32" t="inlineStr">
+      <c r="H25" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
         </is>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1" s="23">
-      <c r="A26" s="37" t="inlineStr">
+      <c r="A26" s="36" t="inlineStr">
         <is>
           <t>0x2bc1971582EbBFF3Ad69da41BDa4821720177211</t>
         </is>
       </c>
-      <c r="B26" s="37" t="inlineStr">
+      <c r="B26" s="36" t="inlineStr">
         <is>
           <t>7106b6ae7ce69daf7a3282871f731e1ffcf35c561417968939cb2bcd8a26dbae</t>
         </is>
       </c>
-      <c r="C26" s="32" t="inlineStr">
+      <c r="C26" s="22" t="inlineStr">
         <is>
           <t>pass51428@gmail.com</t>
         </is>
       </c>
-      <c r="D26" s="21" t="inlineStr">
+      <c r="D26" s="34" t="inlineStr">
         <is>
           <t>A6ZMYDMq!s</t>
         </is>
       </c>
-      <c r="E26" s="21" t="inlineStr">
+      <c r="E26" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1334,34 +1332,34 @@
           <t>FbfRUaWHlXtPq8pkk8hdmcVi59i_bGwn</t>
         </is>
       </c>
-      <c r="H26" s="32" t="inlineStr">
+      <c r="H26" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
         </is>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1" s="23">
-      <c r="A27" s="37" t="inlineStr">
+      <c r="A27" s="36" t="inlineStr">
         <is>
           <t>0xEcdE52f080a25c2369070be84e4E8654fA45c606</t>
         </is>
       </c>
-      <c r="B27" s="37" t="inlineStr">
+      <c r="B27" s="36" t="inlineStr">
         <is>
           <t>7b5b9ee66e3f8e091934a21fb939cddc433cf07061066616383be7ceec35acbb</t>
         </is>
       </c>
-      <c r="C27" s="32" t="inlineStr">
+      <c r="C27" s="22" t="inlineStr">
         <is>
           <t>mathewsbernard57@gmail.com</t>
         </is>
       </c>
-      <c r="D27" s="21" t="inlineStr">
+      <c r="D27" s="34" t="inlineStr">
         <is>
           <t>(Hh55ZTmw5</t>
         </is>
       </c>
-      <c r="E27" s="21" t="inlineStr">
+      <c r="E27" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1376,34 +1374,34 @@
           <t>uNxD9TI9QVFX7EoW05PlvT8CNIpqB1ja</t>
         </is>
       </c>
-      <c r="H27" s="32" t="inlineStr">
+      <c r="H27" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVZ9wTfL2wmVjcfz5SYKaGgFpqTLGddrMZPAXszmeShry</t>
         </is>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1" s="23">
-      <c r="A28" s="37" t="inlineStr">
+      <c r="A28" s="36" t="inlineStr">
         <is>
           <t>0xB767210427C3f4c90bAe34E38ee44CCb03566096</t>
         </is>
       </c>
-      <c r="B28" s="37" t="inlineStr">
+      <c r="B28" s="36" t="inlineStr">
         <is>
           <t>6e92e93d2a34d68c81a389c21e41ce75241f176df2126654ba6907015f1340d7</t>
         </is>
       </c>
-      <c r="C28" s="32" t="inlineStr">
+      <c r="C28" s="22" t="inlineStr">
         <is>
           <t>joshuabawerman@gmail.com</t>
         </is>
       </c>
-      <c r="D28" s="21" t="inlineStr">
+      <c r="D28" s="34" t="inlineStr">
         <is>
           <t>H!8o2LtCzL</t>
         </is>
       </c>
-      <c r="E28" s="21" t="inlineStr">
+      <c r="E28" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1418,34 +1416,34 @@
           <t>zDvo3r-nCbHkw5GIVQaPKOdQ7h7Mdowv</t>
         </is>
       </c>
-      <c r="H28" s="32" t="inlineStr">
+      <c r="H28" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmSLrBwxSWv8B5yUu8WAp6qArenwgaQsUAGFpc8RTTFAnv</t>
         </is>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" s="23">
-      <c r="A29" s="37" t="inlineStr">
+      <c r="A29" s="36" t="inlineStr">
         <is>
           <t>0xae489149DefE6bD0165fd968E3d38c446Fefe55e</t>
         </is>
       </c>
-      <c r="B29" s="37" t="inlineStr">
+      <c r="B29" s="36" t="inlineStr">
         <is>
           <t>7e99042905fd785467c41a4a68eea1cfe254a102bd8753cbeb37925166cfdb2b</t>
         </is>
       </c>
-      <c r="C29" s="32" t="inlineStr">
+      <c r="C29" s="22" t="inlineStr">
         <is>
           <t>cdunce0@gmail.com</t>
         </is>
       </c>
-      <c r="D29" s="21" t="inlineStr">
+      <c r="D29" s="34" t="inlineStr">
         <is>
           <t>R*8Cr6ttvH</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1460,34 +1458,34 @@
           <t>0OAIdKICGXqh65oNfK70xUt-aR7TARKE</t>
         </is>
       </c>
-      <c r="H29" s="32" t="inlineStr">
+      <c r="H29" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmWnRxBrE3Fv3hErcnedGeFLJsoqv7MHaGZQmS4JokSAuB</t>
         </is>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1" s="23">
-      <c r="A30" s="37" t="inlineStr">
+      <c r="A30" s="36" t="inlineStr">
         <is>
           <t>0xe06537a76a5e449B40435230d316252853fC8e60</t>
         </is>
       </c>
-      <c r="B30" s="37" t="inlineStr">
+      <c r="B30" s="36" t="inlineStr">
         <is>
           <t>18d65b2cc761647ea398dab5fc3f822eb5ac0d9bf9bfa51b70beba0872521cb3</t>
         </is>
       </c>
-      <c r="C30" s="32" t="inlineStr">
+      <c r="C30" s="22" t="inlineStr">
         <is>
           <t>annbarrington216@gmail.com</t>
         </is>
       </c>
-      <c r="D30" s="21" t="inlineStr">
+      <c r="D30" s="34" t="inlineStr">
         <is>
           <t>24TdrHBh%R</t>
         </is>
       </c>
-      <c r="E30" s="21" t="inlineStr">
+      <c r="E30" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1502,34 +1500,34 @@
           <t>e5Vo_N-lE00tPDqYFUa6Ck8zFRYiWqmq</t>
         </is>
       </c>
-      <c r="H30" s="32" t="inlineStr">
+      <c r="H30" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRTA9VNnfghjb1viWER3U5cghK9RZwmjvwcpzKTkMQZyh</t>
         </is>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1" s="23">
-      <c r="A31" s="37" t="inlineStr">
+      <c r="A31" s="36" t="inlineStr">
         <is>
           <t>0x132aD8e01eD6337bb5C196E93f67adD013818D7d</t>
         </is>
       </c>
-      <c r="B31" s="37" t="inlineStr">
+      <c r="B31" s="36" t="inlineStr">
         <is>
           <t>0fca612cdcadd620e947b2f799b2538cc28b9e9e975ba5f91d5654223a5bba66</t>
         </is>
       </c>
-      <c r="C31" s="32" t="inlineStr">
+      <c r="C31" s="22" t="inlineStr">
         <is>
           <t>sierrabootman@gmail.com</t>
         </is>
       </c>
-      <c r="D31" s="21" t="inlineStr">
+      <c r="D31" s="34" t="inlineStr">
         <is>
           <t>W5*+1RqXMV</t>
         </is>
       </c>
-      <c r="E31" s="21" t="inlineStr">
+      <c r="E31" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1544,34 +1542,34 @@
           <t>cW_OyB5I90XSxwq6eeQFTS4kiKBioC1B</t>
         </is>
       </c>
-      <c r="H31" s="32" t="inlineStr">
+      <c r="H31" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYXTpye4wWjHx2QG9EuE3tx3yj6fKzeEay9yhZfPPoYxL</t>
         </is>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1" s="23">
-      <c r="A32" s="37" t="inlineStr">
+      <c r="A32" s="36" t="inlineStr">
         <is>
           <t>0x9b30A17351efD2b45ED42D3d3CE2C65002A716a5</t>
         </is>
       </c>
-      <c r="B32" s="37" t="inlineStr">
+      <c r="B32" s="36" t="inlineStr">
         <is>
           <t>3045155f665f825ba4ebbc33071a6ce54e5cdc5bae896a635b87220cbd9507e2</t>
         </is>
       </c>
-      <c r="C32" s="32" t="inlineStr">
+      <c r="C32" s="22" t="inlineStr">
         <is>
           <t>jbarrington799@gmail.com</t>
         </is>
       </c>
-      <c r="D32" s="21" t="inlineStr">
+      <c r="D32" s="34" t="inlineStr">
         <is>
           <t>98XUFqAq!L</t>
         </is>
       </c>
-      <c r="E32" s="21" t="inlineStr">
+      <c r="E32" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1586,34 +1584,34 @@
           <t>1zWVMyCoaTbeCpaVwxRl-bLmU4GTcucL</t>
         </is>
       </c>
-      <c r="H32" s="32" t="inlineStr">
+      <c r="H32" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW1USgv8KHiGvnaJN7KDs4XqwWYjDeQQjb4Ksi2tZ7UX2</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1" s="23">
-      <c r="A33" s="37" t="inlineStr">
+    <row r="33" ht="82.5" customHeight="1" s="23">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>0xC19741d20A775d49270bA9C29638D758CBf4C684</t>
         </is>
       </c>
-      <c r="B33" s="37" t="inlineStr">
+      <c r="B33" s="36" t="inlineStr">
         <is>
           <t>e7c1c392b3d759493ec72d270cd89ef38d02cf721d953ff14e02465c8eaa7875</t>
         </is>
       </c>
-      <c r="C33" s="32" t="inlineStr">
+      <c r="C33" s="22" t="inlineStr">
         <is>
           <t>GeorgeStanley6726@gmail.com</t>
         </is>
       </c>
-      <c r="D33" s="21" t="inlineStr">
+      <c r="D33" s="34" t="inlineStr">
         <is>
           <t>W_3IAnh5A*</t>
         </is>
       </c>
-      <c r="E33" s="21" t="inlineStr">
+      <c r="E33" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1628,34 +1626,34 @@
           <t>2l-VY8MJEZX5xkxRL0eLVL0OP1f5mGTX</t>
         </is>
       </c>
-      <c r="H33" s="32" t="inlineStr">
+      <c r="H33" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmYyQzUZ5X3YErCoUppLnSkL6d8HkjFuymfrcXfh4DtWNv</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1" s="23">
-      <c r="A34" s="37" t="inlineStr">
+    <row r="34" ht="82.5" customHeight="1" s="23">
+      <c r="A34" s="36" t="inlineStr">
         <is>
           <t>0xD4A3d53A9FB4bE7fAC97E644d6011985A2108c42</t>
         </is>
       </c>
-      <c r="B34" s="37" t="inlineStr">
+      <c r="B34" s="36" t="inlineStr">
         <is>
           <t>5b63281ae3acd1a53a7a0686f37aa6f53187fb7edb6fcb23d79e477a621a3685</t>
         </is>
       </c>
-      <c r="C34" s="32" t="inlineStr">
+      <c r="C34" s="22" t="inlineStr">
         <is>
           <t>hamphreyjohn77@gmail.com</t>
         </is>
       </c>
-      <c r="D34" s="21" t="inlineStr">
+      <c r="D34" s="34" t="inlineStr">
         <is>
           <t>niv(J8TueC</t>
         </is>
       </c>
-      <c r="E34" s="21" t="inlineStr">
+      <c r="E34" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1676,28 +1674,28 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="16.5" customHeight="1" s="23">
-      <c r="A35" s="37" t="inlineStr">
+    <row r="35" ht="82.5" customHeight="1" s="23">
+      <c r="A35" s="36" t="inlineStr">
         <is>
           <t>0x88086ba4436F40f61F7c965AEbAfb4d314D2D1b3</t>
         </is>
       </c>
-      <c r="B35" s="37" t="inlineStr">
+      <c r="B35" s="36" t="inlineStr">
         <is>
           <t>597ca8734904354ad1e1a8782fdcffe691b0cd82333f2d4b2b58fe6a6dba34bb</t>
         </is>
       </c>
-      <c r="C35" s="32" t="inlineStr">
+      <c r="C35" s="22" t="inlineStr">
         <is>
           <t>cameronbosworth165@gmail.com</t>
         </is>
       </c>
-      <c r="D35" s="21" t="inlineStr">
+      <c r="D35" s="34" t="inlineStr">
         <is>
           <t>#j2o%ZIyo+</t>
         </is>
       </c>
-      <c r="E35" s="21" t="inlineStr">
+      <c r="E35" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1718,28 +1716,28 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1" s="23">
-      <c r="A36" s="37" t="inlineStr">
+    <row r="36" ht="82.5" customHeight="1" s="23">
+      <c r="A36" s="36" t="inlineStr">
         <is>
           <t>0xf229010bA41Dcf20e30a36183dbfDF2F21090A47</t>
         </is>
       </c>
-      <c r="B36" s="37" t="inlineStr">
+      <c r="B36" s="36" t="inlineStr">
         <is>
           <t>745d6990f47563b91b7622de0ad136eed2e237128b5b2eeed982ff6da9422c36</t>
         </is>
       </c>
-      <c r="C36" s="32" t="inlineStr">
+      <c r="C36" s="22" t="inlineStr">
         <is>
           <t>carringtonsean2@gmail.com</t>
         </is>
       </c>
-      <c r="D36" s="21" t="inlineStr">
+      <c r="D36" s="34" t="inlineStr">
         <is>
           <t>^JP*eWJr77</t>
         </is>
       </c>
-      <c r="E36" s="21" t="inlineStr">
+      <c r="E36" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1760,28 +1758,28 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1" s="23">
-      <c r="A37" s="37" t="inlineStr">
+    <row r="37" ht="82.5" customHeight="1" s="23">
+      <c r="A37" s="36" t="inlineStr">
         <is>
           <t>0xec6cD5d37F835529BA0e015dE4649EDfDE21ACfD</t>
         </is>
       </c>
-      <c r="B37" s="37" t="inlineStr">
+      <c r="B37" s="36" t="inlineStr">
         <is>
           <t>29299047ba2b8c66f441379f3757f5698226901d67edc8b164f618ebf56db4a6</t>
         </is>
       </c>
-      <c r="C37" s="32" t="inlineStr">
+      <c r="C37" s="22" t="inlineStr">
         <is>
           <t>vltarchibald@gmail.com</t>
         </is>
       </c>
-      <c r="D37" s="21" t="inlineStr">
+      <c r="D37" s="34" t="inlineStr">
         <is>
           <t>&amp;#7XRHdb$E</t>
         </is>
       </c>
-      <c r="E37" s="21" t="inlineStr">
+      <c r="E37" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1802,28 +1800,28 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="16.5" customHeight="1" s="23">
-      <c r="A38" s="37" t="inlineStr">
+    <row r="38" ht="82.5" customHeight="1" s="23">
+      <c r="A38" s="36" t="inlineStr">
         <is>
           <t>0x4d596d636b99798c2B7329633454E11F1e828774</t>
         </is>
       </c>
-      <c r="B38" s="37" t="inlineStr">
+      <c r="B38" s="36" t="inlineStr">
         <is>
           <t>df6bde0a846614171d9373a51ba9d0945012d3f3c23f9724efe3ec849fc863e5</t>
         </is>
       </c>
-      <c r="C38" s="32" t="inlineStr">
+      <c r="C38" s="22" t="inlineStr">
         <is>
           <t>LindaGoodman9356@gmail.com</t>
         </is>
       </c>
-      <c r="D38" s="21" t="inlineStr">
+      <c r="D38" s="34" t="inlineStr">
         <is>
           <t>$S8CdfSO78</t>
         </is>
       </c>
-      <c r="E38" s="21" t="inlineStr">
+      <c r="E38" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -1834,28 +1832,28 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1" s="23">
-      <c r="A39" s="37" t="inlineStr">
+    <row r="39" ht="82.5" customHeight="1" s="23">
+      <c r="A39" s="36" t="inlineStr">
         <is>
           <t>0xD6Ee7Df8c9c1A3Cd31E76406564dDDcc8928bCD5</t>
         </is>
       </c>
-      <c r="B39" s="37" t="inlineStr">
+      <c r="B39" s="36" t="inlineStr">
         <is>
           <t>b5f4e1c9c7612e03e5ed716a725ee107a5dddc8df19939d05d146f154a87f4e4</t>
         </is>
       </c>
-      <c r="C39" s="32" t="inlineStr">
+      <c r="C39" s="22" t="inlineStr">
         <is>
           <t>fane6314@gmail.com</t>
         </is>
       </c>
-      <c r="D39" s="21" t="inlineStr">
+      <c r="D39" s="34" t="inlineStr">
         <is>
           <t>0)21TVEx(A</t>
         </is>
       </c>
-      <c r="E39" s="21" t="inlineStr">
+      <c r="E39" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1876,28 +1874,28 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="16.5" customHeight="1" s="23">
-      <c r="A40" s="37" t="inlineStr">
+    <row r="40" ht="82.5" customHeight="1" s="23">
+      <c r="A40" s="36" t="inlineStr">
         <is>
           <t>0xe03C0932C202985F09752BbD682Ca562f48fD531</t>
         </is>
       </c>
-      <c r="B40" s="37" t="inlineStr">
+      <c r="B40" s="36" t="inlineStr">
         <is>
           <t>9702d442350d4c77d6c7bc57be7a88e5af1e2c2376452c91c58595f785069b9d</t>
         </is>
       </c>
-      <c r="C40" s="32" t="inlineStr">
+      <c r="C40" s="22" t="inlineStr">
         <is>
           <t>lambertslandon40@gmail.com</t>
         </is>
       </c>
-      <c r="D40" s="21" t="inlineStr">
+      <c r="D40" s="34" t="inlineStr">
         <is>
           <t>g(Nt7uPr1C</t>
         </is>
       </c>
-      <c r="E40" s="21" t="inlineStr">
+      <c r="E40" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1918,28 +1916,28 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="16.5" customHeight="1" s="23">
-      <c r="A41" s="37" t="inlineStr">
+    <row r="41" ht="82.5" customHeight="1" s="23">
+      <c r="A41" s="36" t="inlineStr">
         <is>
           <t>0x0B1071a0CFFfb2a01c64BC39B5aE87dEFDEa8446</t>
         </is>
       </c>
-      <c r="B41" s="37" t="inlineStr">
+      <c r="B41" s="36" t="inlineStr">
         <is>
           <t>1cccbbce48419598ba841927c2942b4410bcba840332c3a35bcb7c45c029dc20</t>
         </is>
       </c>
-      <c r="C41" s="32" t="inlineStr">
+      <c r="C41" s="22" t="inlineStr">
         <is>
           <t>brickmanb619@gmail.com</t>
         </is>
       </c>
-      <c r="D41" s="21" t="inlineStr">
+      <c r="D41" s="34" t="inlineStr">
         <is>
           <t>_O_A5U_o$7</t>
         </is>
       </c>
-      <c r="E41" s="21" t="inlineStr">
+      <c r="E41" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1960,28 +1958,28 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="16.5" customHeight="1" s="23">
-      <c r="A42" s="37" t="inlineStr">
+    <row r="42" ht="82.5" customHeight="1" s="23">
+      <c r="A42" s="36" t="inlineStr">
         <is>
           <t>0xE62752f8De53B5258aB09A9dc9789d480ff0adEe</t>
         </is>
       </c>
-      <c r="B42" s="37" t="inlineStr">
+      <c r="B42" s="36" t="inlineStr">
         <is>
           <t>ec50b38f862c4cb60fcd6faebd2f1f5bf0ef03358b532475b87ace3ce13125ec</t>
         </is>
       </c>
-      <c r="C42" s="32" t="inlineStr">
+      <c r="C42" s="22" t="inlineStr">
         <is>
           <t>passseth511@gmail.com</t>
         </is>
       </c>
-      <c r="D42" s="21" t="inlineStr">
+      <c r="D42" s="34" t="inlineStr">
         <is>
           <t>p(6sfSwvER</t>
         </is>
       </c>
-      <c r="E42" s="21" t="inlineStr">
+      <c r="E42" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2002,28 +2000,28 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1" s="23">
-      <c r="A43" s="37" t="inlineStr">
+    <row r="43" ht="82.5" customHeight="1" s="23">
+      <c r="A43" s="36" t="inlineStr">
         <is>
           <t>0x395d80505ec2E4d0cB9765Da0A4EFdB23c7FF4C3</t>
         </is>
       </c>
-      <c r="B43" s="37" t="inlineStr">
+      <c r="B43" s="36" t="inlineStr">
         <is>
           <t>438c3655883e4771e0dae3f4a8f12967048d41aa67d766880d23e29d315fdbab</t>
         </is>
       </c>
-      <c r="C43" s="32" t="inlineStr">
+      <c r="C43" s="22" t="inlineStr">
         <is>
           <t>dflatcher726@gmail.com</t>
         </is>
       </c>
-      <c r="D43" s="21" t="inlineStr">
+      <c r="D43" s="34" t="inlineStr">
         <is>
           <t>*nn3IVWu9^</t>
         </is>
       </c>
-      <c r="E43" s="21" t="inlineStr">
+      <c r="E43" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2044,28 +2042,28 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="16.5" customHeight="1" s="23">
-      <c r="A44" s="37" t="inlineStr">
+    <row r="44" ht="82.5" customHeight="1" s="23">
+      <c r="A44" s="36" t="inlineStr">
         <is>
           <t>0x4056612FFF2a789d9595DdFb21e1F9581840b80A</t>
         </is>
       </c>
-      <c r="B44" s="37" t="inlineStr">
+      <c r="B44" s="36" t="inlineStr">
         <is>
           <t>17548afe93fd4e971d884e85e6c22af41836fc66c00fb17675894bd8cc9af4e2</t>
         </is>
       </c>
-      <c r="C44" s="32" t="inlineStr">
+      <c r="C44" s="22" t="inlineStr">
         <is>
           <t>NicholasPhilips5725@gmail.com</t>
         </is>
       </c>
-      <c r="D44" s="21" t="inlineStr">
+      <c r="D44" s="34" t="inlineStr">
         <is>
           <t>$zIfnw_M86</t>
         </is>
       </c>
-      <c r="E44" s="21" t="inlineStr">
+      <c r="E44" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2086,28 +2084,28 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="16.5" customHeight="1" s="23">
-      <c r="A45" s="37" t="inlineStr">
+    <row r="45" ht="82.5" customHeight="1" s="23">
+      <c r="A45" s="36" t="inlineStr">
         <is>
           <t>0x0fDb48B870F79Efea7e769B7eFA66c3CFf6bD95a</t>
         </is>
       </c>
-      <c r="B45" s="37" t="inlineStr">
+      <c r="B45" s="36" t="inlineStr">
         <is>
           <t>8d1a142ed14ea8fb32221d1a39934a941ef76af6f052b3d195b301677210871d</t>
         </is>
       </c>
-      <c r="C45" s="32" t="inlineStr">
+      <c r="C45" s="22" t="inlineStr">
         <is>
           <t>margaretmarlow644@gmail.com</t>
         </is>
       </c>
-      <c r="D45" s="21" t="inlineStr">
+      <c r="D45" s="34" t="inlineStr">
         <is>
           <t>_8EsyEza#*</t>
         </is>
       </c>
-      <c r="E45" s="21" t="inlineStr">
+      <c r="E45" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2118,28 +2116,28 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1" s="23">
-      <c r="A46" s="37" t="inlineStr">
+    <row r="46" ht="82.5" customHeight="1" s="23">
+      <c r="A46" s="36" t="inlineStr">
         <is>
           <t>0xf6d5183D338926709D4080EE0161AEDaf2AC4986</t>
         </is>
       </c>
-      <c r="B46" s="37" t="inlineStr">
+      <c r="B46" s="36" t="inlineStr">
         <is>
           <t>f1c2d7cb8e8d4a7ca393edefe1b2e07af2f70ee31b7d5a105f4861bef4ee5820</t>
         </is>
       </c>
-      <c r="C46" s="32" t="inlineStr">
+      <c r="C46" s="22" t="inlineStr">
         <is>
           <t>youmansj71@gmail.com</t>
         </is>
       </c>
-      <c r="D46" s="21" t="inlineStr">
+      <c r="D46" s="34" t="inlineStr">
         <is>
           <t>^J5$f*PbD2</t>
         </is>
       </c>
-      <c r="E46" s="21" t="inlineStr">
+      <c r="E46" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2160,28 +2158,28 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="16.5" customHeight="1" s="23">
-      <c r="A47" s="37" t="inlineStr">
+    <row r="47" ht="82.5" customHeight="1" s="23">
+      <c r="A47" s="36" t="inlineStr">
         <is>
           <t>0x0a7Ae50b22c841363d50C527ff15Ef13a585F93f</t>
         </is>
       </c>
-      <c r="B47" s="37" t="inlineStr">
+      <c r="B47" s="36" t="inlineStr">
         <is>
           <t>dbcdc4173961fbbfbddc46664d794c87e778c7492451f73275dbb6272c89f7c6</t>
         </is>
       </c>
-      <c r="C47" s="32" t="inlineStr">
+      <c r="C47" s="22" t="inlineStr">
         <is>
           <t>alsoppluccile9@gmail.com</t>
         </is>
       </c>
-      <c r="D47" s="21" t="inlineStr">
+      <c r="D47" s="34" t="inlineStr">
         <is>
           <t>p9gaVG!q_c</t>
         </is>
       </c>
-      <c r="E47" s="21" t="inlineStr">
+      <c r="E47" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2192,28 +2190,28 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="16.5" customHeight="1" s="23">
-      <c r="A48" s="37" t="inlineStr">
+    <row r="48" ht="82.5" customHeight="1" s="23">
+      <c r="A48" s="36" t="inlineStr">
         <is>
           <t>0x368aD80904Ce52da8048edE71021Dfa7F1b4207c</t>
         </is>
       </c>
-      <c r="B48" s="37" t="inlineStr">
+      <c r="B48" s="36" t="inlineStr">
         <is>
           <t>fb6215460bae630601e5ce133299bc6d150b2dae671fd70e15ab49f36ca3c30a</t>
         </is>
       </c>
-      <c r="C48" s="32" t="inlineStr">
+      <c r="C48" s="22" t="inlineStr">
         <is>
           <t>jt4992705@gmail.com</t>
         </is>
       </c>
-      <c r="D48" s="21" t="inlineStr">
+      <c r="D48" s="34" t="inlineStr">
         <is>
           <t>F13dQS3u%Y</t>
         </is>
       </c>
-      <c r="E48" s="21" t="inlineStr">
+      <c r="E48" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -2224,28 +2222,28 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1" s="23">
-      <c r="A49" s="37" t="inlineStr">
+    <row r="49" ht="82.5" customHeight="1" s="23">
+      <c r="A49" s="36" t="inlineStr">
         <is>
           <t>0x3486c759e80C34115d8d262156643ead060F0dad</t>
         </is>
       </c>
-      <c r="B49" s="37" t="inlineStr">
+      <c r="B49" s="36" t="inlineStr">
         <is>
           <t>0a61e990eb0cf152d1d3cfc85521530b3aba578002e69e2e2be83224c2278504</t>
         </is>
       </c>
-      <c r="C49" s="32" t="inlineStr">
+      <c r="C49" s="22" t="inlineStr">
         <is>
           <t>oswaldantonio249@gmail.com</t>
         </is>
       </c>
-      <c r="D49" s="21" t="inlineStr">
+      <c r="D49" s="34" t="inlineStr">
         <is>
           <t>tH7WB9vps%</t>
         </is>
       </c>
-      <c r="E49" s="21" t="inlineStr">
+      <c r="E49" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2266,28 +2264,28 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="16.5" customHeight="1" s="23">
-      <c r="A50" s="37" t="inlineStr">
+    <row r="50" ht="82.5" customHeight="1" s="23">
+      <c r="A50" s="36" t="inlineStr">
         <is>
           <t>0x4c22E363DFe55cb3bA39107c98525bd781F4659a</t>
         </is>
       </c>
-      <c r="B50" s="37" t="inlineStr">
+      <c r="B50" s="36" t="inlineStr">
         <is>
           <t>7a39f61c456449b29bb3b53ff302188aeaca17af4692df2a7318e5760d3dc95a</t>
         </is>
       </c>
-      <c r="C50" s="32" t="inlineStr">
+      <c r="C50" s="22" t="inlineStr">
         <is>
           <t>deborahdyson5@gmail.com</t>
         </is>
       </c>
-      <c r="D50" s="21" t="inlineStr">
+      <c r="D50" s="34" t="inlineStr">
         <is>
           <t>Gh&amp;2EiNrH4</t>
         </is>
       </c>
-      <c r="E50" s="21" t="inlineStr">
+      <c r="E50" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2308,28 +2306,28 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="16.5" customHeight="1" s="23">
-      <c r="A51" s="37" t="inlineStr">
+    <row r="51" ht="82.5" customHeight="1" s="23">
+      <c r="A51" s="36" t="inlineStr">
         <is>
           <t>0xA94Fc6eBE5cf192af3C8F356db0F0670ac8F20dA</t>
         </is>
       </c>
-      <c r="B51" s="37" t="inlineStr">
+      <c r="B51" s="36" t="inlineStr">
         <is>
           <t>6c3362d44d63add0e578a3f95d7a5af6e3535a929d3196fde0aa73d8c0252668</t>
         </is>
       </c>
-      <c r="C51" s="32" t="inlineStr">
+      <c r="C51" s="22" t="inlineStr">
         <is>
           <t>avac3936@gmail.com</t>
         </is>
       </c>
-      <c r="D51" s="21" t="inlineStr">
+      <c r="D51" s="34" t="inlineStr">
         <is>
           <t>EC@J6Epc1h</t>
         </is>
       </c>
-      <c r="E51" s="21" t="inlineStr">
+      <c r="E51" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2350,28 +2348,28 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="16.5" customHeight="1" s="23">
-      <c r="A52" s="37" t="inlineStr">
+    <row r="52" ht="82.5" customHeight="1" s="23">
+      <c r="A52" s="36" t="inlineStr">
         <is>
           <t>0xC68a21cbB7C4eAD8b23A0f7108058FfddD0838B6</t>
         </is>
       </c>
-      <c r="B52" s="37" t="inlineStr">
+      <c r="B52" s="36" t="inlineStr">
         <is>
           <t>860ad4efde75b405c983dd2aa95701823d8e2f6b2fbb0170bd2423ccf13fff0a</t>
         </is>
       </c>
-      <c r="C52" s="32" t="inlineStr">
+      <c r="C52" s="22" t="inlineStr">
         <is>
           <t>fr7534003@gmail.com</t>
         </is>
       </c>
-      <c r="D52" s="21" t="inlineStr">
+      <c r="D52" s="34" t="inlineStr">
         <is>
           <t>hM3ZBOTw(8</t>
         </is>
       </c>
-      <c r="E52" s="21" t="inlineStr">
+      <c r="E52" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2392,28 +2390,28 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="16.5" customHeight="1" s="23">
-      <c r="A53" s="37" t="inlineStr">
+    <row r="53" ht="82.5" customHeight="1" s="23">
+      <c r="A53" s="36" t="inlineStr">
         <is>
           <t>0x62561E104B29F2E449084A984B114258ab5fb88a</t>
         </is>
       </c>
-      <c r="B53" s="37" t="inlineStr">
+      <c r="B53" s="36" t="inlineStr">
         <is>
           <t>9d4a75d9597ea2852461bc09e176754bdcaadb41d60311d9d03746d006263fc7</t>
         </is>
       </c>
-      <c r="C53" s="32" t="inlineStr">
+      <c r="C53" s="22" t="inlineStr">
         <is>
           <t>hannahralphs012@gmail.com</t>
         </is>
       </c>
-      <c r="D53" s="21" t="inlineStr">
+      <c r="D53" s="34" t="inlineStr">
         <is>
           <t>^dUSj7b43O</t>
         </is>
       </c>
-      <c r="E53" s="21" t="inlineStr">
+      <c r="E53" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2434,28 +2432,28 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="16.5" customHeight="1" s="23">
-      <c r="A54" s="37" t="inlineStr">
+    <row r="54" ht="82.5" customHeight="1" s="23">
+      <c r="A54" s="36" t="inlineStr">
         <is>
           <t>0xDAafA355C965507D2a77f36fCbE7B197C5E455f8</t>
         </is>
       </c>
-      <c r="B54" s="37" t="inlineStr">
+      <c r="B54" s="36" t="inlineStr">
         <is>
           <t>d2caf5e638510eb3aee6fe425c2f2470819c86d3e41771a0c9fc32b241cb07a8</t>
         </is>
       </c>
-      <c r="C54" s="32" t="inlineStr">
+      <c r="C54" s="22" t="inlineStr">
         <is>
           <t>sheldonmaria02@gmail.com</t>
         </is>
       </c>
-      <c r="D54" s="21" t="inlineStr">
+      <c r="D54" s="34" t="inlineStr">
         <is>
           <t>S_9v6OmbVg</t>
         </is>
       </c>
-      <c r="E54" s="21" t="inlineStr">
+      <c r="E54" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2476,28 +2474,28 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="16.5" customHeight="1" s="23">
-      <c r="A55" s="37" t="inlineStr">
+    <row r="55" ht="82.5" customHeight="1" s="23">
+      <c r="A55" s="36" t="inlineStr">
         <is>
           <t>0x8201D2C6338E04A764F314a5E83600af0905C226</t>
         </is>
       </c>
-      <c r="B55" s="37" t="inlineStr">
+      <c r="B55" s="36" t="inlineStr">
         <is>
           <t>933bf7a0c892299a798d00b9169a2fb9b53be8e29cb7ce17097975b99f546598</t>
         </is>
       </c>
-      <c r="C55" s="32" t="inlineStr">
+      <c r="C55" s="22" t="inlineStr">
         <is>
           <t>nymanclaire084@gmail.com</t>
         </is>
       </c>
-      <c r="D55" s="21" t="inlineStr">
+      <c r="D55" s="34" t="inlineStr">
         <is>
           <t>grfX%lR&amp;(8</t>
         </is>
       </c>
-      <c r="E55" s="21" t="inlineStr">
+      <c r="E55" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2518,28 +2516,28 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="16.5" customHeight="1" s="23">
-      <c r="A56" s="37" t="inlineStr">
+    <row r="56" ht="82.5" customHeight="1" s="23">
+      <c r="A56" s="36" t="inlineStr">
         <is>
           <t>0x8DE9d9adf859E7a6FC4656d93e9286855bEa2926</t>
         </is>
       </c>
-      <c r="B56" s="37" t="inlineStr">
+      <c r="B56" s="36" t="inlineStr">
         <is>
           <t>7c1f2e7ebef167f097e0675938f7c8a301848c3bd5c1c45df9040988fd47946d</t>
         </is>
       </c>
-      <c r="C56" s="32" t="inlineStr">
+      <c r="C56" s="22" t="inlineStr">
         <is>
           <t>taftbarbara034@gmail.com</t>
         </is>
       </c>
-      <c r="D56" s="21" t="inlineStr">
+      <c r="D56" s="34" t="inlineStr">
         <is>
           <t>m95&amp;1RML(7</t>
         </is>
       </c>
-      <c r="E56" s="21" t="inlineStr">
+      <c r="E56" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2560,28 +2558,28 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="12.4" customHeight="1" s="23">
-      <c r="A57" s="37" t="inlineStr">
+    <row r="57" ht="82.5" customHeight="1" s="23">
+      <c r="A57" s="36" t="inlineStr">
         <is>
           <t>0x60d4e1331aAFf8107fB46A2983Ec0e583a8F1FD4</t>
         </is>
       </c>
-      <c r="B57" s="37" t="inlineStr">
+      <c r="B57" s="36" t="inlineStr">
         <is>
           <t>d91a3accc54b6a072b8ebeb9911360358e17f349fcbfd987baceb2858c874c47</t>
         </is>
       </c>
-      <c r="C57" s="32" t="inlineStr">
+      <c r="C57" s="22" t="inlineStr">
         <is>
           <t>cartermiln578@gmail.com</t>
         </is>
       </c>
-      <c r="D57" s="21" t="inlineStr">
+      <c r="D57" s="34" t="inlineStr">
         <is>
           <t>Z^O64gY(9w</t>
         </is>
       </c>
-      <c r="E57" s="21" t="inlineStr">
+      <c r="E57" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2602,28 +2600,28 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="12.4" customHeight="1" s="23">
-      <c r="A58" s="37" t="inlineStr">
+    <row r="58" ht="82.5" customHeight="1" s="23">
+      <c r="A58" s="36" t="inlineStr">
         <is>
           <t>0x77Eed884a91480c579B96a3A9267B2ddF840D6d4</t>
         </is>
       </c>
-      <c r="B58" s="37" t="inlineStr">
+      <c r="B58" s="36" t="inlineStr">
         <is>
           <t>66c0c131ae1d15597e54689b47d034255e5848aed6a6ffa017c2aa13c3981603</t>
         </is>
       </c>
-      <c r="C58" s="32" t="inlineStr">
+      <c r="C58" s="22" t="inlineStr">
         <is>
           <t>bt2389128@gmail.com</t>
         </is>
       </c>
-      <c r="D58" s="21" t="inlineStr">
+      <c r="D58" s="34" t="inlineStr">
         <is>
           <t>W9S5IQy3+^</t>
         </is>
       </c>
-      <c r="E58" s="21" t="inlineStr">
+      <c r="E58" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2645,27 +2643,27 @@
       </c>
     </row>
     <row r="59" ht="12.4" customHeight="1" s="23">
-      <c r="A59" s="37" t="inlineStr">
+      <c r="A59" s="36" t="inlineStr">
         <is>
           <t>0x68b22008849b5AeD4a36C7409224423383a1EAFa</t>
         </is>
       </c>
-      <c r="B59" s="37" t="inlineStr">
+      <c r="B59" s="36" t="inlineStr">
         <is>
           <t>5455c0fb5ad379fc9695a00eef0bedccb3da77e42400a685f1e8aa145cf85318</t>
         </is>
       </c>
-      <c r="C59" s="32" t="inlineStr">
+      <c r="C59" s="22" t="inlineStr">
         <is>
           <t>bblomfield440@gmail.com</t>
         </is>
       </c>
-      <c r="D59" s="21" t="inlineStr">
+      <c r="D59" s="34" t="inlineStr">
         <is>
           <t>krV6LWtsg#</t>
         </is>
       </c>
-      <c r="E59" s="21" t="inlineStr">
+      <c r="E59" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2687,27 +2685,27 @@
       </c>
     </row>
     <row r="60" ht="12.4" customHeight="1" s="23">
-      <c r="A60" s="37" t="inlineStr">
+      <c r="A60" s="36" t="inlineStr">
         <is>
           <t>0xb6d5fC2Ab3D675149025eB1055C8acAf17b4DCa2</t>
         </is>
       </c>
-      <c r="B60" s="37" t="inlineStr">
+      <c r="B60" s="36" t="inlineStr">
         <is>
           <t>abf63f2c8efb7c24f79e15bf74cee97612fbcfa2723c0a9df537b65db8e34c04</t>
         </is>
       </c>
-      <c r="C60" s="32" t="inlineStr">
+      <c r="C60" s="22" t="inlineStr">
         <is>
           <t>bbridjet4@gmail.com</t>
         </is>
       </c>
-      <c r="D60" s="21" t="inlineStr">
+      <c r="D60" s="34" t="inlineStr">
         <is>
           <t>*91VbDIxt9</t>
         </is>
       </c>
-      <c r="E60" s="21" t="inlineStr">
+      <c r="E60" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2729,27 +2727,27 @@
       </c>
     </row>
     <row r="61" ht="12.4" customHeight="1" s="23">
-      <c r="A61" s="37" t="inlineStr">
+      <c r="A61" s="36" t="inlineStr">
         <is>
           <t>0x6b2B5fc53070A0D6a2360E3A28e336AD1D419871</t>
         </is>
       </c>
-      <c r="B61" s="37" t="inlineStr">
+      <c r="B61" s="36" t="inlineStr">
         <is>
           <t>a6cdf22097fc9085daacb9ef0c9752ec040c9c89e087924b6c29c13b54b34ef3</t>
         </is>
       </c>
-      <c r="C61" s="32" t="inlineStr">
+      <c r="C61" s="22" t="inlineStr">
         <is>
           <t>kingsmaneric270@gmail.com</t>
         </is>
       </c>
-      <c r="D61" s="21" t="inlineStr">
+      <c r="D61" s="34" t="inlineStr">
         <is>
           <t>qLf%zFlq!2</t>
         </is>
       </c>
-      <c r="E61" s="21" t="inlineStr">
+      <c r="E61" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2771,27 +2769,27 @@
       </c>
     </row>
     <row r="62" ht="12.4" customHeight="1" s="23">
-      <c r="A62" s="37" t="inlineStr">
+      <c r="A62" s="36" t="inlineStr">
         <is>
           <t>0xFDc20515ecbB7bca9fAe480579A06818dd03324A</t>
         </is>
       </c>
-      <c r="B62" s="37" t="inlineStr">
+      <c r="B62" s="36" t="inlineStr">
         <is>
           <t>1722464b67418f65b988ab6c87bd3dec727028f3e22b985b1777f9f82c0e26c2</t>
         </is>
       </c>
-      <c r="C62" s="32" t="inlineStr">
+      <c r="C62" s="22" t="inlineStr">
         <is>
           <t>chandterlucy87@gmail.com</t>
         </is>
       </c>
-      <c r="D62" s="21" t="inlineStr">
+      <c r="D62" s="34" t="inlineStr">
         <is>
           <t>SDN&amp;07zxL+</t>
         </is>
       </c>
-      <c r="E62" s="21" t="inlineStr">
+      <c r="E62" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2813,27 +2811,27 @@
       </c>
     </row>
     <row r="63" ht="12.4" customHeight="1" s="23">
-      <c r="A63" s="37" t="inlineStr">
+      <c r="A63" s="36" t="inlineStr">
         <is>
           <t>0x14B0A4033CACc2631aC95f2998e2CbeCd5B53AE2</t>
         </is>
       </c>
-      <c r="B63" s="37" t="inlineStr">
+      <c r="B63" s="36" t="inlineStr">
         <is>
           <t>378b872f1cd547be5e1c11a92d1d331130a6d448819295804b43d206aa0ef94e</t>
         </is>
       </c>
-      <c r="C63" s="32" t="inlineStr">
+      <c r="C63" s="22" t="inlineStr">
         <is>
           <t>bo609703@gmail.com</t>
         </is>
       </c>
-      <c r="D63" s="21" t="inlineStr">
+      <c r="D63" s="34" t="inlineStr">
         <is>
           <t>NRa4_9Bx67</t>
         </is>
       </c>
-      <c r="E63" s="21" t="inlineStr">
+      <c r="E63" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2855,27 +2853,27 @@
       </c>
     </row>
     <row r="64" ht="12.4" customHeight="1" s="23">
-      <c r="A64" s="37" t="inlineStr">
+      <c r="A64" s="36" t="inlineStr">
         <is>
           <t>0xFE4015A0448462D355EE81A422E2582E97404672</t>
         </is>
       </c>
-      <c r="B64" s="37" t="inlineStr">
+      <c r="B64" s="36" t="inlineStr">
         <is>
           <t>5e239f6cfc3914aa49eeb4b0b2a8c1dcb00bbe9fb696fdf36e5801d955f04df2</t>
         </is>
       </c>
-      <c r="C64" s="32" t="inlineStr">
+      <c r="C64" s="22" t="inlineStr">
         <is>
           <t>angelinaconors960@gmail.com</t>
         </is>
       </c>
-      <c r="D64" s="21" t="inlineStr">
+      <c r="D64" s="34" t="inlineStr">
         <is>
           <t>(V3HUmS7Vg</t>
         </is>
       </c>
-      <c r="E64" s="21" t="inlineStr">
+      <c r="E64" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2897,27 +2895,27 @@
       </c>
     </row>
     <row r="65" ht="12.4" customHeight="1" s="23">
-      <c r="A65" s="37" t="inlineStr">
+      <c r="A65" s="36" t="inlineStr">
         <is>
           <t>0x252e1E4810BF1dac85C23C7f52F16A1B9dc89BeD</t>
         </is>
       </c>
-      <c r="B65" s="37" t="inlineStr">
+      <c r="B65" s="36" t="inlineStr">
         <is>
           <t>27f8e77e3eea434a8dbb60b71b6a852c1c63da1cdd2bc738f44e1cbfcd132d2a</t>
         </is>
       </c>
-      <c r="C65" s="32" t="inlineStr">
+      <c r="C65" s="22" t="inlineStr">
         <is>
           <t>haleyelmers004@gmail.com</t>
         </is>
       </c>
-      <c r="D65" s="21" t="inlineStr">
+      <c r="D65" s="34" t="inlineStr">
         <is>
           <t>(A^b7Z(scz</t>
         </is>
       </c>
-      <c r="E65" s="21" t="inlineStr">
+      <c r="E65" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2939,27 +2937,27 @@
       </c>
     </row>
     <row r="66" ht="12.4" customHeight="1" s="23">
-      <c r="A66" s="37" t="inlineStr">
+      <c r="A66" s="36" t="inlineStr">
         <is>
           <t>0x8ED76B2BEdE67f671E9ba8A06a04834E89cC863f</t>
         </is>
       </c>
-      <c r="B66" s="37" t="inlineStr">
+      <c r="B66" s="36" t="inlineStr">
         <is>
           <t>11081afee3aa542c890cd67760ad0762207a2a629a9b3890e9f7eb3512f2bae2</t>
         </is>
       </c>
-      <c r="C66" s="32" t="inlineStr">
+      <c r="C66" s="22" t="inlineStr">
         <is>
           <t>elmersj2@gmail.com</t>
         </is>
       </c>
-      <c r="D66" s="21" t="inlineStr">
+      <c r="D66" s="34" t="inlineStr">
         <is>
           <t>u#zYkpg*+9</t>
         </is>
       </c>
-      <c r="E66" s="21" t="inlineStr">
+      <c r="E66" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -2981,27 +2979,27 @@
       </c>
     </row>
     <row r="67" ht="12.4" customHeight="1" s="23">
-      <c r="A67" s="37" t="inlineStr">
+      <c r="A67" s="36" t="inlineStr">
         <is>
           <t>0x61f459D204a84dEac7730e2A5945b717b4C02410</t>
         </is>
       </c>
-      <c r="B67" s="37" t="inlineStr">
+      <c r="B67" s="36" t="inlineStr">
         <is>
           <t>5872d6863b3b07c67a8c231c7ad6ee2f36f8078e49e0858ff0b66776120829aa</t>
         </is>
       </c>
-      <c r="C67" s="32" t="inlineStr">
+      <c r="C67" s="22" t="inlineStr">
         <is>
           <t>ellaraleigh72@gmail.com</t>
         </is>
       </c>
-      <c r="D67" s="21" t="inlineStr">
+      <c r="D67" s="34" t="inlineStr">
         <is>
           <t>QR2YSVlL_o</t>
         </is>
       </c>
-      <c r="E67" s="21" t="inlineStr">
+      <c r="E67" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3023,27 +3021,27 @@
       </c>
     </row>
     <row r="68" ht="12.4" customHeight="1" s="23">
-      <c r="A68" s="37" t="inlineStr">
+      <c r="A68" s="36" t="inlineStr">
         <is>
           <t>0xf14dDA85C2505E1b01bD7ad18e48974CcEf76E9b</t>
         </is>
       </c>
-      <c r="B68" s="37" t="inlineStr">
+      <c r="B68" s="36" t="inlineStr">
         <is>
           <t>ea82a754f383833c3b02bb5ca0553104aadaa6c38cb2266c169d72fa260fb8b9</t>
         </is>
       </c>
-      <c r="C68" s="32" t="inlineStr">
+      <c r="C68" s="22" t="inlineStr">
         <is>
           <t>db986259@gmail.com</t>
         </is>
       </c>
-      <c r="D68" s="21" t="inlineStr">
+      <c r="D68" s="34" t="inlineStr">
         <is>
           <t>(30pFAfgL7</t>
         </is>
       </c>
-      <c r="E68" s="21" t="inlineStr">
+      <c r="E68" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3075,17 +3073,17 @@
           <t>0a86437692dffcd5ae6501b41c9760f00a06de3abcf9c5fe6a91eb069523c584</t>
         </is>
       </c>
-      <c r="C69" s="32" t="inlineStr">
+      <c r="C69" s="22" t="inlineStr">
         <is>
           <t>adriansimon874@gmail.com</t>
         </is>
       </c>
-      <c r="D69" s="21" t="inlineStr">
+      <c r="D69" s="34" t="inlineStr">
         <is>
           <t>@9WBaWQx25</t>
         </is>
       </c>
-      <c r="E69" s="21" t="inlineStr">
+      <c r="E69" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3107,17 +3105,17 @@
           <t>efd6fc961b245e1e4a49ad2b3a71b9d1d24500dfe085572981334e209ce0bd9f</t>
         </is>
       </c>
-      <c r="C70" s="32" t="inlineStr">
+      <c r="C70" s="22" t="inlineStr">
         <is>
           <t>AdrianSmith6187@gmail.com</t>
         </is>
       </c>
-      <c r="D70" s="21" t="inlineStr">
+      <c r="D70" s="34" t="inlineStr">
         <is>
           <t>_sgAIN&amp;Nh0</t>
         </is>
       </c>
-      <c r="E70" s="21" t="inlineStr">
+      <c r="E70" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3149,17 +3147,17 @@
           <t>9e0215a680e31f33a06ce13739733c8fb76b3a2adf9d635e0b8d0cc75047dcb1</t>
         </is>
       </c>
-      <c r="C71" s="32" t="inlineStr">
+      <c r="C71" s="22" t="inlineStr">
         <is>
           <t>crossmansierra865@gmail.com</t>
         </is>
       </c>
-      <c r="D71" s="21" t="inlineStr">
+      <c r="D71" s="34" t="inlineStr">
         <is>
           <t>#&amp;6X$JZL2l</t>
         </is>
       </c>
-      <c r="E71" s="21" t="inlineStr">
+      <c r="E71" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3191,17 +3189,17 @@
           <t>69c64fd515276ba40e219f3a9d77b57b7794a74254405c5b6989d916f46d5ddd</t>
         </is>
       </c>
-      <c r="C72" s="32" t="inlineStr">
+      <c r="C72" s="22" t="inlineStr">
         <is>
           <t>ld163277@gmail.com</t>
         </is>
       </c>
-      <c r="D72" s="21" t="inlineStr">
+      <c r="D72" s="34" t="inlineStr">
         <is>
           <t>H6IXZHJd#T</t>
         </is>
       </c>
-      <c r="E72" s="21" t="inlineStr">
+      <c r="E72" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3228,22 +3226,22 @@
           <t>0x2338925b5CdD1763f24F323729e2e79c823550eF</t>
         </is>
       </c>
-      <c r="B73" s="37" t="inlineStr">
+      <c r="B73" s="36" t="inlineStr">
         <is>
           <t>2b723f3b63b0a63905556cf1ca5c4e48992ea4cfd6a39229043b5fba5728c9ad</t>
         </is>
       </c>
-      <c r="C73" s="32" t="inlineStr">
+      <c r="C73" s="22" t="inlineStr">
         <is>
           <t>jenkinkatherine4@gmail.com</t>
         </is>
       </c>
-      <c r="D73" s="21" t="inlineStr">
+      <c r="D73" s="34" t="inlineStr">
         <is>
           <t>!2AB5nVtue</t>
         </is>
       </c>
-      <c r="E73" s="21" t="inlineStr">
+      <c r="E73" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3265,19 +3263,19 @@
       </c>
     </row>
     <row r="74" ht="12.4" customHeight="1" s="23">
-      <c r="A74" s="37" t="n"/>
-      <c r="B74" s="37" t="n"/>
-      <c r="C74" s="32" t="inlineStr">
+      <c r="A74" s="36" t="n"/>
+      <c r="B74" s="36" t="n"/>
+      <c r="C74" s="22" t="inlineStr">
         <is>
           <t>agate930@gmail.com</t>
         </is>
       </c>
-      <c r="D74" s="21" t="inlineStr">
+      <c r="D74" s="34" t="inlineStr">
         <is>
           <t>+(EdhJ^uj3</t>
         </is>
       </c>
-      <c r="E74" s="21" t="inlineStr">
+      <c r="E74" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3301,17 +3299,17 @@
     <row r="75" ht="12.4" customHeight="1" s="23">
       <c r="A75" s="31" t="n"/>
       <c r="B75" s="31" t="n"/>
-      <c r="C75" s="32" t="inlineStr">
+      <c r="C75" s="22" t="inlineStr">
         <is>
           <t>laurenbarrington22@gmail.com</t>
         </is>
       </c>
-      <c r="D75" s="21" t="inlineStr">
+      <c r="D75" s="34" t="inlineStr">
         <is>
           <t>#qMJVuO4n0</t>
         </is>
       </c>
-      <c r="E75" s="21" t="inlineStr">
+      <c r="E75" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3335,17 +3333,17 @@
     <row r="76" ht="12.4" customHeight="1" s="23">
       <c r="A76" s="31" t="n"/>
       <c r="B76" s="31" t="n"/>
-      <c r="C76" s="32" t="inlineStr">
+      <c r="C76" s="22" t="inlineStr">
         <is>
           <t>whitealan857@gmail.com</t>
         </is>
       </c>
-      <c r="D76" s="21" t="inlineStr">
+      <c r="D76" s="34" t="inlineStr">
         <is>
           <t>h7wM4@Hf+Y</t>
         </is>
       </c>
-      <c r="E76" s="21" t="inlineStr">
+      <c r="E76" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3369,17 +3367,17 @@
     <row r="77" ht="12.4" customHeight="1" s="23">
       <c r="A77" s="31" t="n"/>
       <c r="B77" s="31" t="n"/>
-      <c r="C77" s="32" t="inlineStr">
+      <c r="C77" s="22" t="inlineStr">
         <is>
           <t>hodgesgabriel4@gmail.com</t>
         </is>
       </c>
-      <c r="D77" s="21" t="inlineStr">
+      <c r="D77" s="34" t="inlineStr">
         <is>
           <t>sn4TolWZ_8</t>
         </is>
       </c>
-      <c r="E77" s="21" t="inlineStr">
+      <c r="E77" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3403,17 +3401,17 @@
     <row r="78" ht="12.4" customHeight="1" s="23">
       <c r="A78" s="31" t="n"/>
       <c r="B78" s="31" t="n"/>
-      <c r="C78" s="32" t="inlineStr">
+      <c r="C78" s="22" t="inlineStr">
         <is>
           <t>derrickaudrey35@gmail.com</t>
         </is>
       </c>
-      <c r="D78" s="21" t="inlineStr">
+      <c r="D78" s="34" t="inlineStr">
         <is>
           <t>t*y6TPJgJ6</t>
         </is>
       </c>
-      <c r="E78" s="21" t="inlineStr">
+      <c r="E78" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3437,17 +3435,17 @@
     <row r="79" ht="12.4" customHeight="1" s="23">
       <c r="A79" s="31" t="n"/>
       <c r="B79" s="31" t="n"/>
-      <c r="C79" s="32" t="inlineStr">
+      <c r="C79" s="22" t="inlineStr">
         <is>
           <t>vg523946@gmail.com</t>
         </is>
       </c>
-      <c r="D79" s="21" t="inlineStr">
+      <c r="D79" s="34" t="inlineStr">
         <is>
           <t>*aI8UvPtEP</t>
         </is>
       </c>
-      <c r="E79" s="21" t="inlineStr">
+      <c r="E79" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3471,17 +3469,17 @@
     <row r="80" ht="12.4" customHeight="1" s="23">
       <c r="A80" s="31" t="n"/>
       <c r="B80" s="31" t="n"/>
-      <c r="C80" s="32" t="inlineStr">
+      <c r="C80" s="22" t="inlineStr">
         <is>
           <t>parsonjulia1@gmail.com</t>
         </is>
       </c>
-      <c r="D80" s="21" t="inlineStr">
+      <c r="D80" s="34" t="inlineStr">
         <is>
           <t>_+$q1lMm60</t>
         </is>
       </c>
-      <c r="E80" s="21" t="inlineStr">
+      <c r="E80" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3495,17 +3493,17 @@
     <row r="81" ht="12.4" customHeight="1" s="23">
       <c r="A81" s="31" t="n"/>
       <c r="B81" s="31" t="n"/>
-      <c r="C81" s="32" t="inlineStr">
+      <c r="C81" s="22" t="inlineStr">
         <is>
           <t>bf5341822@gmail.com</t>
         </is>
       </c>
-      <c r="D81" s="21" t="inlineStr">
+      <c r="D81" s="34" t="inlineStr">
         <is>
           <t>@@wu6_GFRt</t>
         </is>
       </c>
-      <c r="E81" s="21" t="inlineStr">
+      <c r="E81" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3519,17 +3517,17 @@
     <row r="82" ht="12.4" customHeight="1" s="23">
       <c r="A82" s="31" t="n"/>
       <c r="B82" s="31" t="n"/>
-      <c r="C82" s="32" t="inlineStr">
+      <c r="C82" s="22" t="inlineStr">
         <is>
           <t>mramacey2@gmail.com</t>
         </is>
       </c>
-      <c r="D82" s="21" t="inlineStr">
+      <c r="D82" s="34" t="inlineStr">
         <is>
           <t>((8J@5Yb_4</t>
         </is>
       </c>
-      <c r="E82" s="21" t="inlineStr">
+      <c r="E82" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3543,17 +3541,17 @@
     <row r="83" ht="12.4" customHeight="1" s="23">
       <c r="A83" s="31" t="n"/>
       <c r="B83" s="31" t="n"/>
-      <c r="C83" s="32" t="inlineStr">
+      <c r="C83" s="22" t="inlineStr">
         <is>
           <t>galbraithp67@gmail.com</t>
         </is>
       </c>
-      <c r="D83" s="21" t="inlineStr">
+      <c r="D83" s="34" t="inlineStr">
         <is>
           <t>#9(8CWmsq^</t>
         </is>
       </c>
-      <c r="E83" s="21" t="inlineStr">
+      <c r="E83" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3567,17 +3565,17 @@
     <row r="84" ht="12.4" customHeight="1" s="23">
       <c r="A84" s="31" t="n"/>
       <c r="B84" s="31" t="n"/>
-      <c r="C84" s="32" t="inlineStr">
+      <c r="C84" s="22" t="inlineStr">
         <is>
           <t>hannahjerome374@gmail.com</t>
         </is>
       </c>
-      <c r="D84" s="21" t="inlineStr">
+      <c r="D84" s="34" t="inlineStr">
         <is>
           <t>@P)7LncvXA</t>
         </is>
       </c>
-      <c r="E84" s="21" t="inlineStr">
+      <c r="E84" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3601,17 +3599,17 @@
     <row r="85" ht="12.4" customHeight="1" s="23">
       <c r="A85" s="31" t="n"/>
       <c r="B85" s="31" t="n"/>
-      <c r="C85" s="32" t="inlineStr">
+      <c r="C85" s="22" t="inlineStr">
         <is>
           <t>ca1803284@gmail.com</t>
         </is>
       </c>
-      <c r="D85" s="21" t="inlineStr">
+      <c r="D85" s="34" t="inlineStr">
         <is>
           <t>*Q3FdCBn3V</t>
         </is>
       </c>
-      <c r="E85" s="21" t="inlineStr">
+      <c r="E85" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3625,17 +3623,17 @@
     <row r="86" ht="12.4" customHeight="1" s="23">
       <c r="A86" s="31" t="n"/>
       <c r="B86" s="31" t="n"/>
-      <c r="C86" s="32" t="inlineStr">
+      <c r="C86" s="22" t="inlineStr">
         <is>
           <t>agathabarnes23@gmail.com</t>
         </is>
       </c>
-      <c r="D86" s="21" t="inlineStr">
+      <c r="D86" s="34" t="inlineStr">
         <is>
           <t>i$9Xd@2MYd</t>
         </is>
       </c>
-      <c r="E86" s="21" t="inlineStr">
+      <c r="E86" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3659,17 +3657,17 @@
     <row r="87" ht="12.4" customHeight="1" s="23">
       <c r="A87" s="31" t="n"/>
       <c r="B87" s="31" t="n"/>
-      <c r="C87" s="32" t="inlineStr">
+      <c r="C87" s="22" t="inlineStr">
         <is>
           <t>me602027@gmail.com</t>
         </is>
       </c>
-      <c r="D87" s="21" t="inlineStr">
+      <c r="D87" s="34" t="inlineStr">
         <is>
           <t>7N27YIlT(7</t>
         </is>
       </c>
-      <c r="E87" s="21" t="inlineStr">
+      <c r="E87" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3691,19 +3689,19 @@
       </c>
     </row>
     <row r="88" ht="12.4" customHeight="1" s="23">
-      <c r="A88" s="41" t="n"/>
-      <c r="B88" s="41" t="n"/>
-      <c r="C88" s="32" t="inlineStr">
+      <c r="A88" s="40" t="n"/>
+      <c r="B88" s="40" t="n"/>
+      <c r="C88" s="22" t="inlineStr">
         <is>
           <t>wifkinsonarianna@gmail.com</t>
         </is>
       </c>
-      <c r="D88" s="21" t="inlineStr">
+      <c r="D88" s="34" t="inlineStr">
         <is>
           <t>%j7C6gmE2B</t>
         </is>
       </c>
-      <c r="E88" s="21" t="inlineStr">
+      <c r="E88" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3727,17 +3725,17 @@
     <row r="89" ht="12.4" customHeight="1" s="23">
       <c r="A89" s="31" t="n"/>
       <c r="B89" s="31" t="n"/>
-      <c r="C89" s="32" t="inlineStr">
+      <c r="C89" s="22" t="inlineStr">
         <is>
           <t>gatealise65@gmail.com</t>
         </is>
       </c>
-      <c r="D89" s="21" t="inlineStr">
+      <c r="D89" s="34" t="inlineStr">
         <is>
           <t>Q&amp;6H+fVb%R</t>
         </is>
       </c>
-      <c r="E89" s="21" t="inlineStr">
+      <c r="E89" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3761,17 +3759,17 @@
     <row r="90" ht="12.4" customHeight="1" s="23">
       <c r="A90" s="31" t="n"/>
       <c r="B90" s="31" t="n"/>
-      <c r="C90" s="32" t="inlineStr">
+      <c r="C90" s="22" t="inlineStr">
         <is>
           <t>lucasaustin949@gmail.com</t>
         </is>
       </c>
-      <c r="D90" s="21" t="inlineStr">
+      <c r="D90" s="34" t="inlineStr">
         <is>
           <t>*EUQBa$Mr9</t>
         </is>
       </c>
-      <c r="E90" s="21" t="inlineStr">
+      <c r="E90" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3795,17 +3793,17 @@
     <row r="91" ht="12.4" customHeight="1" s="23">
       <c r="A91" s="31" t="n"/>
       <c r="B91" s="31" t="n"/>
-      <c r="C91" s="32" t="inlineStr">
+      <c r="C91" s="22" t="inlineStr">
         <is>
           <t>flemingisabel2@gmail.com</t>
         </is>
       </c>
-      <c r="D91" s="21" t="inlineStr">
+      <c r="D91" s="34" t="inlineStr">
         <is>
           <t>rI$JpGGo(2</t>
         </is>
       </c>
-      <c r="E91" s="21" t="inlineStr">
+      <c r="E91" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3819,17 +3817,17 @@
     <row r="92" ht="12.4" customHeight="1" s="23">
       <c r="A92" s="31" t="n"/>
       <c r="B92" s="31" t="n"/>
-      <c r="C92" s="32" t="inlineStr">
+      <c r="C92" s="22" t="inlineStr">
         <is>
           <t>maceysebastian62@gmail.com</t>
         </is>
       </c>
-      <c r="D92" s="21" t="inlineStr">
+      <c r="D92" s="34" t="inlineStr">
         <is>
           <t>@0Fhrc#BG)</t>
         </is>
       </c>
-      <c r="E92" s="21" t="inlineStr">
+      <c r="E92" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3853,17 +3851,17 @@
     <row r="93" ht="12.4" customHeight="1" s="23">
       <c r="A93" s="31" t="n"/>
       <c r="B93" s="31" t="n"/>
-      <c r="C93" s="32" t="inlineStr">
+      <c r="C93" s="22" t="inlineStr">
         <is>
           <t>jenkinmadeline03@gmail.com</t>
         </is>
       </c>
-      <c r="D93" s="21" t="inlineStr">
+      <c r="D93" s="34" t="inlineStr">
         <is>
           <t>!y#L_UN7G3</t>
         </is>
       </c>
-      <c r="E93" s="21" t="inlineStr">
+      <c r="E93" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -3877,17 +3875,17 @@
     <row r="94" ht="12.4" customHeight="1" s="23">
       <c r="A94" s="31" t="n"/>
       <c r="B94" s="31" t="n"/>
-      <c r="C94" s="32" t="inlineStr">
+      <c r="C94" s="22" t="inlineStr">
         <is>
           <t>hardmanm79@gmail.com</t>
         </is>
       </c>
-      <c r="D94" s="21" t="inlineStr">
+      <c r="D94" s="34" t="inlineStr">
         <is>
           <t>sG1lKIbFJ^</t>
         </is>
       </c>
-      <c r="E94" s="21" t="inlineStr">
+      <c r="E94" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3911,17 +3909,17 @@
     <row r="95" ht="12.4" customHeight="1" s="23">
       <c r="A95" s="31" t="n"/>
       <c r="B95" s="31" t="n"/>
-      <c r="C95" s="32" t="inlineStr">
+      <c r="C95" s="22" t="inlineStr">
         <is>
           <t>NoraHaig5443@gmail.com</t>
         </is>
       </c>
-      <c r="D95" s="21" t="inlineStr">
+      <c r="D95" s="34" t="inlineStr">
         <is>
           <t>3R8MUSgZ$(</t>
         </is>
       </c>
-      <c r="E95" s="21" t="inlineStr">
+      <c r="E95" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3945,17 +3943,17 @@
     <row r="96" ht="12.4" customHeight="1" s="23">
       <c r="A96" s="31" t="n"/>
       <c r="B96" s="31" t="n"/>
-      <c r="C96" s="32" t="inlineStr">
+      <c r="C96" s="22" t="inlineStr">
         <is>
           <t>daisyarthurs144@gmail.com</t>
         </is>
       </c>
-      <c r="D96" s="21" t="inlineStr">
+      <c r="D96" s="34" t="inlineStr">
         <is>
           <t>YN1h7uUnB!</t>
         </is>
       </c>
-      <c r="E96" s="21" t="inlineStr">
+      <c r="E96" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -3979,17 +3977,17 @@
     <row r="97" ht="12.4" customHeight="1" s="23">
       <c r="A97" s="31" t="n"/>
       <c r="B97" s="31" t="n"/>
-      <c r="C97" s="32" t="inlineStr">
+      <c r="C97" s="22" t="inlineStr">
         <is>
           <t>gracejeff193@gmail.com</t>
         </is>
       </c>
-      <c r="D97" s="21" t="inlineStr">
+      <c r="D97" s="34" t="inlineStr">
         <is>
           <t>m(09RK+z_i</t>
         </is>
       </c>
-      <c r="E97" s="21" t="inlineStr">
+      <c r="E97" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4003,17 +4001,17 @@
     <row r="98" ht="12.4" customHeight="1" s="23">
       <c r="A98" s="31" t="n"/>
       <c r="B98" s="31" t="n"/>
-      <c r="C98" s="32" t="inlineStr">
+      <c r="C98" s="22" t="inlineStr">
         <is>
           <t>VirginiaMiller6962@gmail.com</t>
         </is>
       </c>
-      <c r="D98" s="21" t="inlineStr">
+      <c r="D98" s="34" t="inlineStr">
         <is>
           <t>7DxEq0)v#X</t>
         </is>
       </c>
-      <c r="E98" s="21" t="inlineStr">
+      <c r="E98" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -4027,17 +4025,17 @@
     <row r="99" ht="12.4" customHeight="1" s="23">
       <c r="A99" s="31" t="n"/>
       <c r="B99" s="31" t="n"/>
-      <c r="C99" s="32" t="inlineStr">
+      <c r="C99" s="22" t="inlineStr">
         <is>
           <t>ml7493953@gmail.com</t>
         </is>
       </c>
-      <c r="D99" s="21" t="inlineStr">
+      <c r="D99" s="34" t="inlineStr">
         <is>
           <t>_3bWXeStLi</t>
         </is>
       </c>
-      <c r="E99" s="21" t="inlineStr">
+      <c r="E99" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4061,17 +4059,17 @@
     <row r="100" ht="12.4" customHeight="1" s="23">
       <c r="A100" s="31" t="n"/>
       <c r="B100" s="31" t="n"/>
-      <c r="C100" s="32" t="inlineStr">
+      <c r="C100" s="22" t="inlineStr">
         <is>
           <t>lewinstanley936@gmail.com</t>
         </is>
       </c>
-      <c r="D100" s="21" t="inlineStr">
+      <c r="D100" s="34" t="inlineStr">
         <is>
           <t>+6u&amp;Ns@6km</t>
         </is>
       </c>
-      <c r="E100" s="21" t="inlineStr">
+      <c r="E100" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -4085,17 +4083,17 @@
     <row r="101" ht="12.4" customHeight="1" s="23">
       <c r="A101" s="31" t="n"/>
       <c r="B101" s="31" t="n"/>
-      <c r="C101" s="32" t="inlineStr">
+      <c r="C101" s="22" t="inlineStr">
         <is>
           <t>sshackley9@gmail.com</t>
         </is>
       </c>
-      <c r="D101" s="21" t="inlineStr">
+      <c r="D101" s="34" t="inlineStr">
         <is>
           <t>J6K*0J%gk_</t>
         </is>
       </c>
-      <c r="E101" s="21" t="inlineStr">
+      <c r="E101" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4119,17 +4117,17 @@
     <row r="102" ht="12.4" customHeight="1" s="23">
       <c r="A102" s="31" t="n"/>
       <c r="B102" s="31" t="n"/>
-      <c r="C102" s="32" t="inlineStr">
+      <c r="C102" s="22" t="inlineStr">
         <is>
           <t>mb1142132@gmail.com</t>
         </is>
       </c>
-      <c r="D102" s="21" t="inlineStr">
+      <c r="D102" s="34" t="inlineStr">
         <is>
           <t>008BHXWgy%</t>
         </is>
       </c>
-      <c r="E102" s="21" t="inlineStr">
+      <c r="E102" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4153,17 +4151,17 @@
     <row r="103" ht="12.4" customHeight="1" s="23">
       <c r="A103" s="31" t="n"/>
       <c r="B103" s="31" t="n"/>
-      <c r="C103" s="32" t="inlineStr">
+      <c r="C103" s="22" t="inlineStr">
         <is>
           <t>holidayk716@gmail.com</t>
         </is>
       </c>
-      <c r="D103" s="21" t="inlineStr">
+      <c r="D103" s="34" t="inlineStr">
         <is>
           <t>)%I99qtOt6</t>
         </is>
       </c>
-      <c r="E103" s="21" t="inlineStr">
+      <c r="E103" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4187,17 +4185,17 @@
     <row r="104" ht="12.4" customHeight="1" s="23">
       <c r="A104" s="31" t="n"/>
       <c r="B104" s="31" t="n"/>
-      <c r="C104" s="32" t="inlineStr">
+      <c r="C104" s="22" t="inlineStr">
         <is>
           <t>iane26779@gmail.com</t>
         </is>
       </c>
-      <c r="D104" s="21" t="inlineStr">
+      <c r="D104" s="34" t="inlineStr">
         <is>
           <t>14Qc^xJe$Q</t>
         </is>
       </c>
-      <c r="E104" s="21" t="inlineStr">
+      <c r="E104" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4221,17 +4219,17 @@
     <row r="105" ht="12.4" customHeight="1" s="23">
       <c r="A105" s="31" t="n"/>
       <c r="B105" s="31" t="n"/>
-      <c r="C105" s="32" t="inlineStr">
+      <c r="C105" s="22" t="inlineStr">
         <is>
           <t>lnicholson199@gmail.com</t>
         </is>
       </c>
-      <c r="D105" s="21" t="inlineStr">
+      <c r="D105" s="34" t="inlineStr">
         <is>
           <t>^KJyFNWs)6</t>
         </is>
       </c>
-      <c r="E105" s="21" t="inlineStr">
+      <c r="E105" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4255,17 +4253,17 @@
     <row r="106" ht="12.4" customHeight="1" s="23">
       <c r="A106" s="31" t="n"/>
       <c r="B106" s="31" t="n"/>
-      <c r="C106" s="32" t="inlineStr">
+      <c r="C106" s="22" t="inlineStr">
         <is>
           <t>angelinaalbertson@gmail.com</t>
         </is>
       </c>
-      <c r="D106" s="21" t="inlineStr">
+      <c r="D106" s="34" t="inlineStr">
         <is>
           <t>@EmxWf&amp;TT6</t>
         </is>
       </c>
-      <c r="E106" s="21" t="inlineStr">
+      <c r="E106" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4289,17 +4287,17 @@
     <row r="107" ht="12.4" customHeight="1" s="23">
       <c r="A107" s="31" t="n"/>
       <c r="B107" s="31" t="n"/>
-      <c r="C107" s="32" t="inlineStr">
+      <c r="C107" s="22" t="inlineStr">
         <is>
           <t>gabrielleflannagan@gmail.com</t>
         </is>
       </c>
-      <c r="D107" s="21" t="inlineStr">
+      <c r="D107" s="34" t="inlineStr">
         <is>
           <t>1z0MBjRBc)</t>
         </is>
       </c>
-      <c r="E107" s="21" t="inlineStr">
+      <c r="E107" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4323,17 +4321,17 @@
     <row r="108" ht="12.4" customHeight="1" s="23">
       <c r="A108" s="31" t="n"/>
       <c r="B108" s="31" t="n"/>
-      <c r="C108" s="32" t="inlineStr">
+      <c r="C108" s="22" t="inlineStr">
         <is>
           <t>salisburrymorgan@gmail.com</t>
         </is>
       </c>
-      <c r="D108" s="21" t="inlineStr">
+      <c r="D108" s="34" t="inlineStr">
         <is>
           <t>q1ARjI!r$C</t>
         </is>
       </c>
-      <c r="E108" s="21" t="inlineStr">
+      <c r="E108" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4357,17 +4355,17 @@
     <row r="109" ht="12.4" customHeight="1" s="23">
       <c r="A109" s="31" t="n"/>
       <c r="B109" s="31" t="n"/>
-      <c r="C109" s="32" t="inlineStr">
+      <c r="C109" s="22" t="inlineStr">
         <is>
           <t>curtissaunder@gmail.com</t>
         </is>
       </c>
-      <c r="D109" s="21" t="inlineStr">
+      <c r="D109" s="34" t="inlineStr">
         <is>
           <t>^Cj!87Kv3E</t>
         </is>
       </c>
-      <c r="E109" s="21" t="inlineStr">
+      <c r="E109" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4391,17 +4389,17 @@
     <row r="110" ht="12.4" customHeight="1" s="23">
       <c r="A110" s="31" t="n"/>
       <c r="B110" s="31" t="n"/>
-      <c r="C110" s="32" t="inlineStr">
+      <c r="C110" s="22" t="inlineStr">
         <is>
           <t>gimsonhunter2@gmail.com</t>
         </is>
       </c>
-      <c r="D110" s="21" t="inlineStr">
+      <c r="D110" s="34" t="inlineStr">
         <is>
           <t>_@_9Mk1OdJ</t>
         </is>
       </c>
-      <c r="E110" s="21" t="inlineStr">
+      <c r="E110" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4425,12 +4423,12 @@
     <row r="111" ht="12.4" customHeight="1" s="23">
       <c r="A111" s="31" t="n"/>
       <c r="B111" s="31" t="n"/>
-      <c r="C111" s="32" t="inlineStr">
+      <c r="C111" s="22" t="inlineStr">
         <is>
           <t>ThomasHoward9010@gmail.com</t>
         </is>
       </c>
-      <c r="D111" s="21" t="inlineStr">
+      <c r="D111" s="34" t="inlineStr">
         <is>
           <t>0Rgt2WghT$</t>
         </is>
@@ -4444,17 +4442,17 @@
     <row r="112" ht="12.4" customHeight="1" s="23">
       <c r="A112" s="31" t="n"/>
       <c r="B112" s="31" t="n"/>
-      <c r="C112" s="32" t="inlineStr">
+      <c r="C112" s="22" t="inlineStr">
         <is>
           <t>cm8388450@gmail.com</t>
         </is>
       </c>
-      <c r="D112" s="21" t="inlineStr">
+      <c r="D112" s="34" t="inlineStr">
         <is>
           <t>!hZ&amp;O%FyO9</t>
         </is>
       </c>
-      <c r="E112" s="21" t="inlineStr">
+      <c r="E112" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -4468,12 +4466,12 @@
     <row r="113" ht="12.4" customHeight="1" s="23">
       <c r="A113" s="31" t="n"/>
       <c r="B113" s="31" t="n"/>
-      <c r="C113" s="32" t="inlineStr">
+      <c r="C113" s="22" t="inlineStr">
         <is>
           <t>hfulton564@gmail.com</t>
         </is>
       </c>
-      <c r="D113" s="21" t="inlineStr">
+      <c r="D113" s="34" t="inlineStr">
         <is>
           <t>%4dSnrtn)(</t>
         </is>
@@ -4487,17 +4485,17 @@
     <row r="114" ht="12.4" customHeight="1" s="23">
       <c r="A114" s="31" t="n"/>
       <c r="B114" s="31" t="n"/>
-      <c r="C114" s="32" t="inlineStr">
+      <c r="C114" s="22" t="inlineStr">
         <is>
           <t>littlealexis311@gmail.com</t>
         </is>
       </c>
-      <c r="D114" s="21" t="inlineStr">
+      <c r="D114" s="34" t="inlineStr">
         <is>
           <t>!E6YRxpej!</t>
         </is>
       </c>
-      <c r="E114" s="21" t="inlineStr">
+      <c r="E114" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4521,17 +4519,17 @@
     <row r="115" ht="12.4" customHeight="1" s="23">
       <c r="A115" s="31" t="n"/>
       <c r="B115" s="31" t="n"/>
-      <c r="C115" s="32" t="inlineStr">
+      <c r="C115" s="22" t="inlineStr">
         <is>
           <t>oaudley620@gmail.com</t>
         </is>
       </c>
-      <c r="D115" s="21" t="inlineStr">
+      <c r="D115" s="34" t="inlineStr">
         <is>
           <t>D4QB3QMg_T</t>
         </is>
       </c>
-      <c r="E115" s="21" t="inlineStr">
+      <c r="E115" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4555,17 +4553,17 @@
     <row r="116" ht="12.4" customHeight="1" s="23">
       <c r="A116" s="31" t="n"/>
       <c r="B116" s="31" t="n"/>
-      <c r="C116" s="32" t="inlineStr">
+      <c r="C116" s="22" t="inlineStr">
         <is>
           <t>evelynpass51@gmail.com</t>
         </is>
       </c>
-      <c r="D116" s="21" t="inlineStr">
+      <c r="D116" s="34" t="inlineStr">
         <is>
           <t>2@3G&amp;fhEuY</t>
         </is>
       </c>
-      <c r="E116" s="21" t="inlineStr">
+      <c r="E116" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4589,17 +4587,17 @@
     <row r="117" ht="12.4" customHeight="1" s="23">
       <c r="A117" s="31" t="n"/>
       <c r="B117" s="31" t="n"/>
-      <c r="C117" s="32" t="inlineStr">
+      <c r="C117" s="22" t="inlineStr">
         <is>
           <t>melissapearcy6@gmail.com</t>
         </is>
       </c>
-      <c r="D117" s="21" t="inlineStr">
+      <c r="D117" s="34" t="inlineStr">
         <is>
           <t>^q%QK(rm2s</t>
         </is>
       </c>
-      <c r="E117" s="21" t="inlineStr">
+      <c r="E117" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4623,17 +4621,17 @@
     <row r="118" ht="12.4" customHeight="1" s="23">
       <c r="A118" s="31" t="n"/>
       <c r="B118" s="31" t="n"/>
-      <c r="C118" s="32" t="inlineStr">
+      <c r="C118" s="22" t="inlineStr">
         <is>
           <t>marjoriej437@gmail.com</t>
         </is>
       </c>
-      <c r="D118" s="21" t="inlineStr">
+      <c r="D118" s="34" t="inlineStr">
         <is>
           <t>a_6ZKy5GED</t>
         </is>
       </c>
-      <c r="E118" s="21" t="inlineStr">
+      <c r="E118" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4657,17 +4655,17 @@
     <row r="119" ht="12.4" customHeight="1" s="23">
       <c r="A119" s="31" t="n"/>
       <c r="B119" s="31" t="n"/>
-      <c r="C119" s="32" t="inlineStr">
+      <c r="C119" s="22" t="inlineStr">
         <is>
           <t>wifkinsonjenna77@gmail.com</t>
         </is>
       </c>
-      <c r="D119" s="21" t="inlineStr">
+      <c r="D119" s="34" t="inlineStr">
         <is>
           <t>MyEEgi#J)5</t>
         </is>
       </c>
-      <c r="E119" s="21" t="inlineStr">
+      <c r="E119" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -4681,17 +4679,17 @@
     <row r="120" ht="12.4" customHeight="1" s="23">
       <c r="A120" s="31" t="n"/>
       <c r="B120" s="31" t="n"/>
-      <c r="C120" s="32" t="inlineStr">
+      <c r="C120" s="22" t="inlineStr">
         <is>
           <t>brickmanshirley9@gmail.com</t>
         </is>
       </c>
-      <c r="D120" s="21" t="inlineStr">
+      <c r="D120" s="34" t="inlineStr">
         <is>
           <t>A^*S2H08qa</t>
         </is>
       </c>
-      <c r="E120" s="21" t="inlineStr">
+      <c r="E120" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4715,17 +4713,17 @@
     <row r="121" ht="12.4" customHeight="1" s="23">
       <c r="A121" s="31" t="n"/>
       <c r="B121" s="31" t="n"/>
-      <c r="C121" s="32" t="inlineStr">
+      <c r="C121" s="22" t="inlineStr">
         <is>
           <t>hlillian922@gmail.com</t>
         </is>
       </c>
-      <c r="D121" s="21" t="inlineStr">
+      <c r="D121" s="34" t="inlineStr">
         <is>
           <t>s^3N+Ctkfc</t>
         </is>
       </c>
-      <c r="E121" s="21" t="inlineStr">
+      <c r="E121" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4749,17 +4747,17 @@
     <row r="122" ht="12.4" customHeight="1" s="23">
       <c r="A122" s="31" t="n"/>
       <c r="B122" s="31" t="n"/>
-      <c r="C122" s="32" t="inlineStr">
+      <c r="C122" s="22" t="inlineStr">
         <is>
           <t>ramaceylily9@gmail.com</t>
         </is>
       </c>
-      <c r="D122" s="21" t="inlineStr">
+      <c r="D122" s="34" t="inlineStr">
         <is>
           <t>@h9XK#Eq(B</t>
         </is>
       </c>
-      <c r="E122" s="21" t="inlineStr">
+      <c r="E122" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4783,17 +4781,17 @@
     <row r="123" ht="12.4" customHeight="1" s="23">
       <c r="A123" s="31" t="n"/>
       <c r="B123" s="31" t="n"/>
-      <c r="C123" s="32" t="inlineStr">
+      <c r="C123" s="22" t="inlineStr">
         <is>
           <t>ChristopherMurphy1228@gmail.com</t>
         </is>
       </c>
-      <c r="D123" s="21" t="inlineStr">
+      <c r="D123" s="34" t="inlineStr">
         <is>
           <t>*TET4VDu)S</t>
         </is>
       </c>
-      <c r="E123" s="21" t="inlineStr">
+      <c r="E123" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4815,19 +4813,19 @@
       </c>
     </row>
     <row r="124" ht="12.4" customHeight="1" s="23">
-      <c r="A124" s="41" t="n"/>
-      <c r="B124" s="41" t="n"/>
-      <c r="C124" s="32" t="inlineStr">
+      <c r="A124" s="40" t="n"/>
+      <c r="B124" s="40" t="n"/>
+      <c r="C124" s="22" t="inlineStr">
         <is>
           <t>saundercarl5@gmail.com</t>
         </is>
       </c>
-      <c r="D124" s="21" t="inlineStr">
+      <c r="D124" s="34" t="inlineStr">
         <is>
           <t>P3)GiVYw%_</t>
         </is>
       </c>
-      <c r="E124" s="21" t="inlineStr">
+      <c r="E124" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4851,17 +4849,17 @@
     <row r="125" ht="12.4" customHeight="1" s="23">
       <c r="A125" s="31" t="n"/>
       <c r="B125" s="31" t="n"/>
-      <c r="C125" s="32" t="inlineStr">
+      <c r="C125" s="22" t="inlineStr">
         <is>
           <t>ashtonpaterson0@gmail.com</t>
         </is>
       </c>
-      <c r="D125" s="21" t="inlineStr">
+      <c r="D125" s="34" t="inlineStr">
         <is>
           <t>8fDLF1no!v</t>
         </is>
       </c>
-      <c r="E125" s="21" t="inlineStr">
+      <c r="E125" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -4875,12 +4873,12 @@
     <row r="126" ht="12.4" customHeight="1" s="23">
       <c r="A126" s="31" t="n"/>
       <c r="B126" s="31" t="n"/>
-      <c r="C126" s="32" t="inlineStr">
+      <c r="C126" s="22" t="inlineStr">
         <is>
           <t>hkendal414@gmail.com</t>
         </is>
       </c>
-      <c r="D126" s="21" t="inlineStr">
+      <c r="D126" s="34" t="inlineStr">
         <is>
           <t>%F5aiSz3RZ</t>
         </is>
@@ -4894,17 +4892,17 @@
     <row r="127" ht="12.4" customHeight="1" s="23">
       <c r="A127" s="31" t="n"/>
       <c r="B127" s="31" t="n"/>
-      <c r="C127" s="32" t="inlineStr">
+      <c r="C127" s="22" t="inlineStr">
         <is>
           <t>raleighlillian860@gmail.com</t>
         </is>
       </c>
-      <c r="D127" s="21" t="inlineStr">
+      <c r="D127" s="34" t="inlineStr">
         <is>
           <t>$54OWOMw8c</t>
         </is>
       </c>
-      <c r="E127" s="21" t="inlineStr">
+      <c r="E127" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4928,12 +4926,12 @@
     <row r="128" ht="12.4" customHeight="1" s="23">
       <c r="A128" s="31" t="n"/>
       <c r="B128" s="31" t="n"/>
-      <c r="C128" s="32" t="inlineStr">
+      <c r="C128" s="22" t="inlineStr">
         <is>
           <t>abramsonj026@gmail.com</t>
         </is>
       </c>
-      <c r="D128" s="21" t="inlineStr">
+      <c r="D128" s="34" t="inlineStr">
         <is>
           <t>)8kBllcoz!</t>
         </is>
@@ -4947,17 +4945,17 @@
     <row r="129" ht="12.4" customHeight="1" s="23">
       <c r="A129" s="31" t="n"/>
       <c r="B129" s="31" t="n"/>
-      <c r="C129" s="32" t="inlineStr">
+      <c r="C129" s="22" t="inlineStr">
         <is>
           <t>sylviabosworth28@gmail.com</t>
         </is>
       </c>
-      <c r="D129" s="21" t="inlineStr">
+      <c r="D129" s="34" t="inlineStr">
         <is>
           <t>!jIWVCUa(0</t>
         </is>
       </c>
-      <c r="E129" s="21" t="inlineStr">
+      <c r="E129" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -4981,17 +4979,17 @@
     <row r="130" ht="12.4" customHeight="1" s="23">
       <c r="A130" s="31" t="n"/>
       <c r="B130" s="31" t="n"/>
-      <c r="C130" s="32" t="inlineStr">
+      <c r="C130" s="22" t="inlineStr">
         <is>
           <t>adrianhailey881@gmail.com</t>
         </is>
       </c>
-      <c r="D130" s="21" t="inlineStr">
+      <c r="D130" s="34" t="inlineStr">
         <is>
           <t>xi6ED@lN*K</t>
         </is>
       </c>
-      <c r="E130" s="21" t="inlineStr">
+      <c r="E130" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5005,17 +5003,17 @@
     <row r="131" ht="12.4" customHeight="1" s="23">
       <c r="A131" s="31" t="n"/>
       <c r="B131" s="31" t="n"/>
-      <c r="C131" s="32" t="inlineStr">
+      <c r="C131" s="22" t="inlineStr">
         <is>
           <t>owen62812@gmail.com</t>
         </is>
       </c>
-      <c r="D131" s="21" t="inlineStr">
+      <c r="D131" s="34" t="inlineStr">
         <is>
           <t>6WqdZIs0_x</t>
         </is>
       </c>
-      <c r="E131" s="21" t="inlineStr">
+      <c r="E131" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5029,17 +5027,17 @@
     <row r="132" ht="12.4" customHeight="1" s="23">
       <c r="A132" s="31" t="n"/>
       <c r="B132" s="31" t="n"/>
-      <c r="C132" s="32" t="inlineStr">
+      <c r="C132" s="22" t="inlineStr">
         <is>
           <t>macadamangelina4@gmail.com</t>
         </is>
       </c>
-      <c r="D132" s="21" t="inlineStr">
+      <c r="D132" s="34" t="inlineStr">
         <is>
           <t>^kG!Cy)n4d</t>
         </is>
       </c>
-      <c r="E132" s="21" t="inlineStr">
+      <c r="E132" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5051,19 +5049,19 @@
       </c>
     </row>
     <row r="133" ht="12.4" customHeight="1" s="23">
-      <c r="A133" s="41" t="n"/>
-      <c r="B133" s="41" t="n"/>
-      <c r="C133" s="32" t="inlineStr">
+      <c r="A133" s="40" t="n"/>
+      <c r="B133" s="40" t="n"/>
+      <c r="C133" s="22" t="inlineStr">
         <is>
           <t>archibaldk37@gmail.com</t>
         </is>
       </c>
-      <c r="D133" s="21" t="inlineStr">
+      <c r="D133" s="34" t="inlineStr">
         <is>
           <t>$6a)vPO4xw</t>
         </is>
       </c>
-      <c r="E133" s="21" t="inlineStr">
+      <c r="E133" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5077,17 +5075,17 @@
     <row r="134" ht="12.4" customHeight="1" s="23">
       <c r="A134" s="31" t="n"/>
       <c r="B134" s="31" t="n"/>
-      <c r="C134" s="32" t="inlineStr">
+      <c r="C134" s="22" t="inlineStr">
         <is>
           <t>gp070726@gmail.com</t>
         </is>
       </c>
-      <c r="D134" s="21" t="inlineStr">
+      <c r="D134" s="34" t="inlineStr">
         <is>
           <t>rFg)TM$r%5</t>
         </is>
       </c>
-      <c r="E134" s="21" t="inlineStr">
+      <c r="E134" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5101,17 +5099,17 @@
     <row r="135" ht="12.4" customHeight="1" s="23">
       <c r="A135" s="31" t="n"/>
       <c r="B135" s="31" t="n"/>
-      <c r="C135" s="32" t="inlineStr">
+      <c r="C135" s="22" t="inlineStr">
         <is>
           <t>keatreginald026@gmail.com</t>
         </is>
       </c>
-      <c r="D135" s="21" t="inlineStr">
+      <c r="D135" s="34" t="inlineStr">
         <is>
           <t>^m$KsZBeV8</t>
         </is>
       </c>
-      <c r="E135" s="21" t="inlineStr">
+      <c r="E135" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5133,19 +5131,19 @@
       </c>
     </row>
     <row r="136" ht="12.4" customHeight="1" s="23">
-      <c r="A136" s="41" t="n"/>
-      <c r="B136" s="41" t="n"/>
-      <c r="C136" s="32" t="inlineStr">
+      <c r="A136" s="40" t="n"/>
+      <c r="B136" s="40" t="n"/>
+      <c r="C136" s="22" t="inlineStr">
         <is>
           <t>AlbertSmith9872@gmail.com</t>
         </is>
       </c>
-      <c r="D136" s="21" t="inlineStr">
+      <c r="D136" s="34" t="inlineStr">
         <is>
           <t>O22)Rw(A$0</t>
         </is>
       </c>
-      <c r="E136" s="22" t="inlineStr">
+      <c r="E136" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5169,17 +5167,17 @@
     <row r="137" ht="12.4" customHeight="1" s="23">
       <c r="A137" s="31" t="n"/>
       <c r="B137" s="31" t="n"/>
-      <c r="C137" s="32" t="inlineStr">
+      <c r="C137" s="22" t="inlineStr">
         <is>
           <t>cj3375398@gmail.com</t>
         </is>
       </c>
-      <c r="D137" s="21" t="inlineStr">
+      <c r="D137" s="34" t="inlineStr">
         <is>
           <t>K#9*nWw8Ua</t>
         </is>
       </c>
-      <c r="E137" s="22" t="inlineStr">
+      <c r="E137" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5191,19 +5189,19 @@
       </c>
     </row>
     <row r="138" ht="12.4" customHeight="1" s="23">
-      <c r="A138" s="41" t="n"/>
-      <c r="B138" s="41" t="n"/>
-      <c r="C138" s="32" t="inlineStr">
+      <c r="A138" s="40" t="n"/>
+      <c r="B138" s="40" t="n"/>
+      <c r="C138" s="22" t="inlineStr">
         <is>
           <t>AgathaLewin7981@gmail.com</t>
         </is>
       </c>
-      <c r="D138" s="21" t="inlineStr">
+      <c r="D138" s="34" t="inlineStr">
         <is>
           <t>ya%4&amp;Fhn#k</t>
         </is>
       </c>
-      <c r="E138" s="22" t="inlineStr">
+      <c r="E138" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5227,17 +5225,17 @@
     <row r="139" ht="12.4" customHeight="1" s="23">
       <c r="A139" s="31" t="n"/>
       <c r="B139" s="31" t="n"/>
-      <c r="C139" s="32" t="inlineStr">
+      <c r="C139" s="22" t="inlineStr">
         <is>
           <t>ellingtongladys5@gmail.com</t>
         </is>
       </c>
-      <c r="D139" s="21" t="inlineStr">
+      <c r="D139" s="34" t="inlineStr">
         <is>
           <t>$A2+O9@fA*</t>
         </is>
       </c>
-      <c r="E139" s="22" t="inlineStr">
+      <c r="E139" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5259,19 +5257,19 @@
       </c>
     </row>
     <row r="140" ht="12.4" customHeight="1" s="23">
-      <c r="A140" s="41" t="n"/>
-      <c r="B140" s="41" t="n"/>
-      <c r="C140" s="32" t="inlineStr">
+      <c r="A140" s="40" t="n"/>
+      <c r="B140" s="40" t="n"/>
+      <c r="C140" s="22" t="inlineStr">
         <is>
           <t>oswaldc326@gmail.com</t>
         </is>
       </c>
-      <c r="D140" s="21" t="inlineStr">
+      <c r="D140" s="34" t="inlineStr">
         <is>
           <t>7dh+5E#r!3</t>
         </is>
       </c>
-      <c r="E140" s="21" t="inlineStr">
+      <c r="E140" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5283,19 +5281,19 @@
       </c>
     </row>
     <row r="141" ht="12.4" customHeight="1" s="23">
-      <c r="A141" s="41" t="n"/>
-      <c r="B141" s="41" t="n"/>
-      <c r="C141" s="32" t="inlineStr">
+      <c r="A141" s="40" t="n"/>
+      <c r="B141" s="40" t="n"/>
+      <c r="C141" s="22" t="inlineStr">
         <is>
           <t>lilypearcy65@gmail.com</t>
         </is>
       </c>
-      <c r="D141" s="21" t="inlineStr">
+      <c r="D141" s="34" t="inlineStr">
         <is>
           <t>j5Me_TlT*C</t>
         </is>
       </c>
-      <c r="E141" s="22" t="inlineStr">
+      <c r="E141" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5319,17 +5317,17 @@
     <row r="142" ht="12.4" customHeight="1" s="23">
       <c r="A142" s="31" t="n"/>
       <c r="B142" s="31" t="n"/>
-      <c r="C142" s="32" t="inlineStr">
+      <c r="C142" s="22" t="inlineStr">
         <is>
           <t>macadamdonald7@gmail.com</t>
         </is>
       </c>
-      <c r="D142" s="21" t="inlineStr">
+      <c r="D142" s="34" t="inlineStr">
         <is>
           <t>%1@7LzQbgA</t>
         </is>
       </c>
-      <c r="E142" s="22" t="inlineStr">
+      <c r="E142" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5353,17 +5351,17 @@
     <row r="143" ht="12.4" customHeight="1" s="23">
       <c r="A143" s="31" t="n"/>
       <c r="B143" s="31" t="n"/>
-      <c r="C143" s="37" t="inlineStr">
+      <c r="C143" s="36" t="inlineStr">
         <is>
           <t>daisyjerome4@gmail.com</t>
         </is>
       </c>
-      <c r="D143" s="21" t="inlineStr">
+      <c r="D143" s="34" t="inlineStr">
         <is>
           <t>9O3B7uCd#(</t>
         </is>
       </c>
-      <c r="E143" s="22" t="inlineStr">
+      <c r="E143" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5377,12 +5375,12 @@
     <row r="144" ht="12.4" customHeight="1" s="23">
       <c r="A144" s="31" t="n"/>
       <c r="B144" s="31" t="n"/>
-      <c r="C144" s="37" t="inlineStr">
+      <c r="C144" s="36" t="inlineStr">
         <is>
           <t>petersongregory888@gmail.com</t>
         </is>
       </c>
-      <c r="D144" s="21" t="inlineStr">
+      <c r="D144" s="34" t="inlineStr">
         <is>
           <t>@$84HDSlu$</t>
         </is>
@@ -5394,19 +5392,19 @@
       </c>
     </row>
     <row r="145" ht="12.4" customHeight="1" s="23">
-      <c r="A145" s="41" t="n"/>
-      <c r="B145" s="41" t="n"/>
-      <c r="C145" s="37" t="inlineStr">
+      <c r="A145" s="40" t="n"/>
+      <c r="B145" s="40" t="n"/>
+      <c r="C145" s="36" t="inlineStr">
         <is>
           <t>louischarlson@gmail.com</t>
         </is>
       </c>
-      <c r="D145" s="21" t="inlineStr">
+      <c r="D145" s="34" t="inlineStr">
         <is>
           <t>@pXG4KiGP2</t>
         </is>
       </c>
-      <c r="E145" s="22" t="inlineStr">
+      <c r="E145" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5428,19 +5426,19 @@
       </c>
     </row>
     <row r="146" ht="12.4" customHeight="1" s="23">
-      <c r="A146" s="41" t="n"/>
-      <c r="B146" s="41" t="n"/>
-      <c r="C146" s="37" t="inlineStr">
+      <c r="A146" s="40" t="n"/>
+      <c r="B146" s="40" t="n"/>
+      <c r="C146" s="36" t="inlineStr">
         <is>
           <t>ralphseric597@gmail.com</t>
         </is>
       </c>
-      <c r="D146" s="21" t="inlineStr">
+      <c r="D146" s="34" t="inlineStr">
         <is>
           <t>*L14TAfYn1</t>
         </is>
       </c>
-      <c r="E146" s="22" t="inlineStr">
+      <c r="E146" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5454,17 +5452,17 @@
     <row r="147" ht="12.4" customHeight="1" s="23">
       <c r="A147" s="31" t="n"/>
       <c r="B147" s="31" t="n"/>
-      <c r="C147" s="37" t="inlineStr">
+      <c r="C147" s="36" t="inlineStr">
         <is>
           <t>JasmineAnderson7216@gmail.com</t>
         </is>
       </c>
-      <c r="D147" s="21" t="inlineStr">
+      <c r="D147" s="34" t="inlineStr">
         <is>
           <t>Flk2NOVii)</t>
         </is>
       </c>
-      <c r="E147" s="22" t="inlineStr">
+      <c r="E147" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5488,12 +5486,12 @@
     <row r="148" ht="12.4" customHeight="1" s="23">
       <c r="A148" s="31" t="n"/>
       <c r="B148" s="31" t="n"/>
-      <c r="C148" s="37" t="inlineStr">
+      <c r="C148" s="36" t="inlineStr">
         <is>
           <t>bawermanrichard5@gmail.com</t>
         </is>
       </c>
-      <c r="D148" s="21" t="inlineStr">
+      <c r="D148" s="34" t="inlineStr">
         <is>
           <t>x^5RXQxl)C</t>
         </is>
@@ -5505,19 +5503,19 @@
       </c>
     </row>
     <row r="149" ht="12.4" customHeight="1" s="23">
-      <c r="A149" s="41" t="n"/>
-      <c r="B149" s="41" t="n"/>
-      <c r="C149" s="37" t="inlineStr">
+      <c r="A149" s="40" t="n"/>
+      <c r="B149" s="40" t="n"/>
+      <c r="C149" s="36" t="inlineStr">
         <is>
           <t>shrlmarshman@gmail.com</t>
         </is>
       </c>
-      <c r="D149" s="21" t="inlineStr">
+      <c r="D149" s="34" t="inlineStr">
         <is>
           <t>+GblOG6r7Q</t>
         </is>
       </c>
-      <c r="E149" s="22" t="inlineStr">
+      <c r="E149" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5541,17 +5539,17 @@
     <row r="150" ht="12.4" customHeight="1" s="23">
       <c r="A150" s="31" t="n"/>
       <c r="B150" s="31" t="n"/>
-      <c r="C150" s="37" t="inlineStr">
+      <c r="C150" s="36" t="inlineStr">
         <is>
           <t>jordankendal61@gmail.com</t>
         </is>
       </c>
-      <c r="D150" s="33" t="inlineStr">
+      <c r="D150" s="34" t="inlineStr">
         <is>
           <t>6c6XmHgd@+</t>
         </is>
       </c>
-      <c r="E150" s="33" t="n"/>
+      <c r="E150" s="32" t="n"/>
       <c r="H150" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPUpVuswBCd4Ngm1ouk3gsq9n8N8385an4beWUHkReKav</t>
@@ -5561,17 +5559,17 @@
     <row r="151" ht="12.4" customHeight="1" s="23">
       <c r="A151" s="31" t="n"/>
       <c r="B151" s="31" t="n"/>
-      <c r="C151" s="37" t="inlineStr">
+      <c r="C151" s="36" t="inlineStr">
         <is>
           <t>dunceandrew83@gmail.com</t>
         </is>
       </c>
-      <c r="D151" s="33" t="inlineStr">
+      <c r="D151" s="34" t="inlineStr">
         <is>
           <t>(EC%kK7R#1</t>
         </is>
       </c>
-      <c r="E151" s="33" t="inlineStr">
+      <c r="E151" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5583,19 +5581,19 @@
       </c>
     </row>
     <row r="152" ht="12.4" customHeight="1" s="23">
-      <c r="A152" s="41" t="n"/>
-      <c r="B152" s="41" t="n"/>
-      <c r="C152" s="37" t="inlineStr">
+      <c r="A152" s="40" t="n"/>
+      <c r="B152" s="40" t="n"/>
+      <c r="C152" s="36" t="inlineStr">
         <is>
           <t>radderiy963@gmail.com</t>
         </is>
       </c>
-      <c r="D152" s="33" t="inlineStr">
+      <c r="D152" s="34" t="inlineStr">
         <is>
           <t>&amp;Vg5GERp*T</t>
         </is>
       </c>
-      <c r="E152" s="33" t="inlineStr">
+      <c r="E152" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5617,19 +5615,19 @@
       </c>
     </row>
     <row r="153" ht="12.4" customHeight="1" s="23">
-      <c r="A153" s="41" t="n"/>
-      <c r="B153" s="41" t="n"/>
-      <c r="C153" s="37" t="inlineStr">
+      <c r="A153" s="40" t="n"/>
+      <c r="B153" s="40" t="n"/>
+      <c r="C153" s="36" t="inlineStr">
         <is>
           <t>birch5170@gmail.com</t>
         </is>
       </c>
-      <c r="D153" s="33" t="inlineStr">
+      <c r="D153" s="34" t="inlineStr">
         <is>
           <t>&amp;lIF2SCy+&amp;</t>
         </is>
       </c>
-      <c r="E153" s="33" t="inlineStr">
+      <c r="E153" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5643,17 +5641,17 @@
     <row r="154" ht="12.4" customHeight="1" s="23">
       <c r="A154" s="31" t="n"/>
       <c r="B154" s="31" t="n"/>
-      <c r="C154" s="37" t="inlineStr">
+      <c r="C154" s="36" t="inlineStr">
         <is>
           <t>eddingtons86@gmail.com</t>
         </is>
       </c>
-      <c r="D154" s="33" t="inlineStr">
+      <c r="D154" s="34" t="inlineStr">
         <is>
           <t>_#IU*%*rA6</t>
         </is>
       </c>
-      <c r="E154" s="33" t="inlineStr">
+      <c r="E154" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5665,19 +5663,19 @@
       </c>
     </row>
     <row r="155" ht="12.4" customHeight="1" s="23">
-      <c r="A155" s="41" t="n"/>
-      <c r="B155" s="41" t="n"/>
-      <c r="C155" s="37" t="inlineStr">
+      <c r="A155" s="40" t="n"/>
+      <c r="B155" s="40" t="n"/>
+      <c r="C155" s="36" t="inlineStr">
         <is>
           <t>gateviolet008@gmail.com</t>
         </is>
       </c>
-      <c r="D155" s="33" t="inlineStr">
+      <c r="D155" s="34" t="inlineStr">
         <is>
           <t>*bEkt*@56u</t>
         </is>
       </c>
-      <c r="E155" s="33" t="inlineStr">
+      <c r="E155" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5691,17 +5689,17 @@
     <row r="156" ht="12.4" customHeight="1" s="23">
       <c r="A156" s="31" t="n"/>
       <c r="B156" s="31" t="n"/>
-      <c r="C156" s="37" t="inlineStr">
+      <c r="C156" s="36" t="inlineStr">
         <is>
           <t>jrdngalbraith@gmail.com</t>
         </is>
       </c>
-      <c r="D156" s="33" t="inlineStr">
+      <c r="D156" s="34" t="inlineStr">
         <is>
           <t>!7L+o$tJ%2</t>
         </is>
       </c>
-      <c r="E156" s="33" t="n"/>
+      <c r="E156" s="32" t="n"/>
       <c r="H156" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmRnymwoqM4sTBbww3h4kzx9Yx5txSPb9tsQvCqDq5Vhix</t>
@@ -5711,17 +5709,17 @@
     <row r="157" ht="12.4" customHeight="1" s="23">
       <c r="A157" s="31" t="n"/>
       <c r="B157" s="31" t="n"/>
-      <c r="C157" s="37" t="inlineStr">
+      <c r="C157" s="36" t="inlineStr">
         <is>
           <t>chestertonsharon@gmail.com</t>
         </is>
       </c>
-      <c r="D157" s="33" t="inlineStr">
+      <c r="D157" s="34" t="inlineStr">
         <is>
           <t>WdL4UbTzu*</t>
         </is>
       </c>
-      <c r="E157" s="33" t="inlineStr">
+      <c r="E157" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5743,19 +5741,19 @@
       </c>
     </row>
     <row r="158" ht="12.4" customHeight="1" s="23">
-      <c r="A158" s="41" t="n"/>
-      <c r="B158" s="41" t="n"/>
-      <c r="C158" s="37" t="inlineStr">
+      <c r="A158" s="40" t="n"/>
+      <c r="B158" s="40" t="n"/>
+      <c r="C158" s="36" t="inlineStr">
         <is>
           <t>gabriellaphilips2@gmail.com</t>
         </is>
       </c>
-      <c r="D158" s="33" t="inlineStr">
+      <c r="D158" s="34" t="inlineStr">
         <is>
           <t>@2DUXTFlDg</t>
         </is>
       </c>
-      <c r="E158" s="33" t="inlineStr">
+      <c r="E158" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5777,19 +5775,19 @@
       </c>
     </row>
     <row r="159" ht="12.4" customHeight="1" s="23">
-      <c r="A159" s="41" t="n"/>
-      <c r="B159" s="41" t="n"/>
-      <c r="C159" s="37" t="inlineStr">
+      <c r="A159" s="40" t="n"/>
+      <c r="B159" s="40" t="n"/>
+      <c r="C159" s="36" t="inlineStr">
         <is>
           <t>samuelsdennis660@gmail.com</t>
         </is>
       </c>
-      <c r="D159" s="33" t="inlineStr">
+      <c r="D159" s="34" t="inlineStr">
         <is>
           <t>$Ily2Duk0n</t>
         </is>
       </c>
-      <c r="E159" s="33" t="inlineStr">
+      <c r="E159" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5813,17 +5811,17 @@
     <row r="160" ht="12.4" customHeight="1" s="23">
       <c r="A160" s="31" t="n"/>
       <c r="B160" s="31" t="n"/>
-      <c r="C160" s="37" t="inlineStr">
+      <c r="C160" s="36" t="inlineStr">
         <is>
           <t>ahaig0046@gmail.com</t>
         </is>
       </c>
-      <c r="D160" s="33" t="inlineStr">
+      <c r="D160" s="34" t="inlineStr">
         <is>
           <t>3dURScgf(N</t>
         </is>
       </c>
-      <c r="E160" s="33" t="inlineStr">
+      <c r="E160" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5845,19 +5843,19 @@
       </c>
     </row>
     <row r="161" ht="12.4" customHeight="1" s="23">
-      <c r="A161" s="41" t="n"/>
-      <c r="B161" s="41" t="n"/>
-      <c r="C161" s="37" t="inlineStr">
+      <c r="A161" s="40" t="n"/>
+      <c r="B161" s="40" t="n"/>
+      <c r="C161" s="36" t="inlineStr">
         <is>
           <t>btrcalbertson@gmail.com</t>
         </is>
       </c>
-      <c r="D161" s="33" t="inlineStr">
+      <c r="D161" s="34" t="inlineStr">
         <is>
           <t>378PFsmv(Q</t>
         </is>
       </c>
-      <c r="E161" s="33" t="inlineStr">
+      <c r="E161" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5881,17 +5879,17 @@
     <row r="162" ht="12.4" customHeight="1" s="23">
       <c r="A162" s="31" t="n"/>
       <c r="B162" s="31" t="n"/>
-      <c r="C162" s="37" t="inlineStr">
+      <c r="C162" s="36" t="inlineStr">
         <is>
           <t>raleighv017@gmail.com</t>
         </is>
       </c>
-      <c r="D162" s="33" t="inlineStr">
+      <c r="D162" s="34" t="inlineStr">
         <is>
           <t>(4%W_rK@9W</t>
         </is>
       </c>
-      <c r="E162" s="33" t="inlineStr">
+      <c r="E162" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -5903,19 +5901,19 @@
       </c>
     </row>
     <row r="163" ht="12.4" customHeight="1" s="23">
-      <c r="A163" s="41" t="n"/>
-      <c r="B163" s="41" t="n"/>
-      <c r="C163" s="37" t="inlineStr">
+      <c r="A163" s="40" t="n"/>
+      <c r="B163" s="40" t="n"/>
+      <c r="C163" s="36" t="inlineStr">
         <is>
           <t>sethmacalister92@gmail.com</t>
         </is>
       </c>
-      <c r="D163" s="33" t="inlineStr">
+      <c r="D163" s="34" t="inlineStr">
         <is>
           <t>q7)TQJse*+</t>
         </is>
       </c>
-      <c r="E163" s="33" t="inlineStr">
+      <c r="E163" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5939,17 +5937,17 @@
     <row r="164" ht="12.4" customHeight="1" s="23">
       <c r="A164" s="31" t="n"/>
       <c r="B164" s="31" t="n"/>
-      <c r="C164" s="37" t="inlineStr">
+      <c r="C164" s="36" t="inlineStr">
         <is>
           <t>JackWalter4328@gmail.com</t>
         </is>
       </c>
-      <c r="D164" s="33" t="inlineStr">
+      <c r="D164" s="34" t="inlineStr">
         <is>
           <t>T7_Kw9Mz@A</t>
         </is>
       </c>
-      <c r="E164" s="33" t="n"/>
+      <c r="E164" s="32" t="n"/>
       <c r="H164" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmPEgFZeqTb7Az9VhftvLfNWdfMKWHTevEB8Qiy3rd8ikN</t>
@@ -5957,19 +5955,19 @@
       </c>
     </row>
     <row r="165" ht="12.4" customHeight="1" s="23">
-      <c r="A165" s="41" t="n"/>
-      <c r="B165" s="41" t="n"/>
-      <c r="C165" s="37" t="inlineStr">
+      <c r="A165" s="40" t="n"/>
+      <c r="B165" s="40" t="n"/>
+      <c r="C165" s="36" t="inlineStr">
         <is>
           <t>bargemana4@gmail.com</t>
         </is>
       </c>
-      <c r="D165" s="33" t="inlineStr">
+      <c r="D165" s="34" t="inlineStr">
         <is>
           <t>_fg(JLsh7@</t>
         </is>
       </c>
-      <c r="E165" s="33" t="inlineStr">
+      <c r="E165" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -5993,17 +5991,17 @@
     <row r="166" ht="12.4" customHeight="1" s="23">
       <c r="A166" s="31" t="n"/>
       <c r="B166" s="31" t="n"/>
-      <c r="C166" s="37" t="inlineStr">
+      <c r="C166" s="36" t="inlineStr">
         <is>
           <t>nealj9296@gmail.com</t>
         </is>
       </c>
-      <c r="D166" s="33" t="inlineStr">
+      <c r="D166" s="34" t="inlineStr">
         <is>
           <t>^#gNGAq7z9</t>
         </is>
       </c>
-      <c r="E166" s="33" t="inlineStr">
+      <c r="E166" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -6017,17 +6015,17 @@
     <row r="167" ht="12.4" customHeight="1" s="23">
       <c r="A167" s="31" t="n"/>
       <c r="B167" s="31" t="n"/>
-      <c r="C167" s="37" t="inlineStr">
+      <c r="C167" s="36" t="inlineStr">
         <is>
           <t>kyledyson407@gmail.com</t>
         </is>
       </c>
-      <c r="D167" s="33" t="inlineStr">
+      <c r="D167" s="34" t="inlineStr">
         <is>
           <t>^G7CTNlU@s</t>
         </is>
       </c>
-      <c r="E167" s="33" t="inlineStr">
+      <c r="E167" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6051,17 +6049,17 @@
     <row r="168" ht="12.4" customHeight="1" s="23">
       <c r="A168" s="31" t="n"/>
       <c r="B168" s="31" t="n"/>
-      <c r="C168" s="37" t="inlineStr">
+      <c r="C168" s="36" t="inlineStr">
         <is>
           <t>xaddington3@gmail.com</t>
         </is>
       </c>
-      <c r="D168" s="33" t="inlineStr">
+      <c r="D168" s="34" t="inlineStr">
         <is>
           <t>F3Ll7hiY(!</t>
         </is>
       </c>
-      <c r="E168" s="33" t="inlineStr">
+      <c r="E168" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6085,17 +6083,17 @@
     <row r="169" ht="12.4" customHeight="1" s="23">
       <c r="A169" s="31" t="n"/>
       <c r="B169" s="31" t="n"/>
-      <c r="C169" s="37" t="inlineStr">
+      <c r="C169" s="36" t="inlineStr">
         <is>
           <t>nymanm75@gmail.com</t>
         </is>
       </c>
-      <c r="D169" s="33" t="inlineStr">
+      <c r="D169" s="34" t="inlineStr">
         <is>
           <t>(lc2sXzj1X</t>
         </is>
       </c>
-      <c r="E169" s="33" t="inlineStr">
+      <c r="E169" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6119,17 +6117,17 @@
     <row r="170" ht="12.4" customHeight="1" s="23">
       <c r="A170" s="31" t="n"/>
       <c r="B170" s="31" t="n"/>
-      <c r="C170" s="37" t="inlineStr">
+      <c r="C170" s="36" t="inlineStr">
         <is>
           <t>AlanNathan2915@gmail.com</t>
         </is>
       </c>
-      <c r="D170" s="33" t="inlineStr">
+      <c r="D170" s="34" t="inlineStr">
         <is>
           <t>*1al)J4xK0</t>
         </is>
       </c>
-      <c r="E170" s="33" t="inlineStr">
+      <c r="E170" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6151,19 +6149,19 @@
       </c>
     </row>
     <row r="171" ht="12.4" customHeight="1" s="23">
-      <c r="A171" s="41" t="n"/>
-      <c r="B171" s="41" t="n"/>
-      <c r="C171" s="37" t="inlineStr">
+      <c r="A171" s="40" t="n"/>
+      <c r="B171" s="40" t="n"/>
+      <c r="C171" s="36" t="inlineStr">
         <is>
           <t>watsongerld@gmail.com</t>
         </is>
       </c>
-      <c r="D171" s="33" t="inlineStr">
+      <c r="D171" s="34" t="inlineStr">
         <is>
           <t>7*W0J#q#&amp;s</t>
         </is>
       </c>
-      <c r="E171" s="33" t="inlineStr">
+      <c r="E171" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6187,17 +6185,17 @@
     <row r="172" ht="12.4" customHeight="1" s="23">
       <c r="A172" s="31" t="n"/>
       <c r="B172" s="31" t="n"/>
-      <c r="C172" s="37" t="inlineStr">
+      <c r="C172" s="36" t="inlineStr">
         <is>
           <t>mshackley8@gmail.com</t>
         </is>
       </c>
-      <c r="D172" s="33" t="inlineStr">
+      <c r="D172" s="34" t="inlineStr">
         <is>
           <t>o1HLyt&amp;V$+</t>
         </is>
       </c>
-      <c r="E172" s="33" t="inlineStr">
+      <c r="E172" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6219,19 +6217,19 @@
       </c>
     </row>
     <row r="173" ht="12.4" customHeight="1" s="23">
-      <c r="A173" s="41" t="n"/>
-      <c r="B173" s="41" t="n"/>
-      <c r="C173" s="37" t="inlineStr">
+      <c r="A173" s="40" t="n"/>
+      <c r="B173" s="40" t="n"/>
+      <c r="C173" s="36" t="inlineStr">
         <is>
           <t>fthcrossman@gmail.com</t>
         </is>
       </c>
-      <c r="D173" s="33" t="inlineStr">
+      <c r="D173" s="34" t="inlineStr">
         <is>
           <t>76kwoC8j#I</t>
         </is>
       </c>
-      <c r="E173" s="33" t="inlineStr">
+      <c r="E173" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6255,17 +6253,17 @@
     <row r="174" ht="12.4" customHeight="1" s="23">
       <c r="A174" s="31" t="n"/>
       <c r="B174" s="31" t="n"/>
-      <c r="C174" s="37" t="inlineStr">
+      <c r="C174" s="36" t="inlineStr">
         <is>
           <t>MichelleOgden6057@gmail.com</t>
         </is>
       </c>
-      <c r="D174" s="33" t="inlineStr">
+      <c r="D174" s="34" t="inlineStr">
         <is>
           <t>(t5rXt7x2P</t>
         </is>
       </c>
-      <c r="E174" s="33" t="inlineStr">
+      <c r="E174" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6287,19 +6285,19 @@
       </c>
     </row>
     <row r="175" ht="12.4" customHeight="1" s="23">
-      <c r="A175" s="41" t="n"/>
-      <c r="B175" s="41" t="n"/>
-      <c r="C175" s="37" t="inlineStr">
+      <c r="A175" s="40" t="n"/>
+      <c r="B175" s="40" t="n"/>
+      <c r="C175" s="36" t="inlineStr">
         <is>
           <t>lynn37006@gmail.com</t>
         </is>
       </c>
-      <c r="D175" s="33" t="inlineStr">
+      <c r="D175" s="34" t="inlineStr">
         <is>
           <t>p91YO&amp;Mb$3</t>
         </is>
       </c>
-      <c r="E175" s="33" t="inlineStr">
+      <c r="E175" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -6313,17 +6311,17 @@
     <row r="176" ht="12.4" customHeight="1" s="23">
       <c r="A176" s="31" t="n"/>
       <c r="B176" s="31" t="n"/>
-      <c r="C176" s="37" t="inlineStr">
+      <c r="C176" s="36" t="inlineStr">
         <is>
           <t>mildredshackley78@gmail.com</t>
         </is>
       </c>
-      <c r="D176" s="33" t="inlineStr">
+      <c r="D176" s="34" t="inlineStr">
         <is>
           <t>)suFYMRL7r</t>
         </is>
       </c>
-      <c r="E176" s="33" t="inlineStr">
+      <c r="E176" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6345,19 +6343,19 @@
       </c>
     </row>
     <row r="177" ht="12.4" customHeight="1" s="23">
-      <c r="A177" s="41" t="n"/>
-      <c r="B177" s="41" t="n"/>
-      <c r="C177" s="37" t="inlineStr">
+      <c r="A177" s="40" t="n"/>
+      <c r="B177" s="40" t="n"/>
+      <c r="C177" s="36" t="inlineStr">
         <is>
           <t>shackleykayla239@gmail.com</t>
         </is>
       </c>
-      <c r="D177" s="33" t="inlineStr">
+      <c r="D177" s="34" t="inlineStr">
         <is>
           <t>2bgDQq7G@z</t>
         </is>
       </c>
-      <c r="E177" s="33" t="inlineStr">
+      <c r="E177" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -6371,17 +6369,17 @@
     <row r="178" ht="12.4" customHeight="1" s="23">
       <c r="A178" s="31" t="n"/>
       <c r="B178" s="31" t="n"/>
-      <c r="C178" s="37" t="inlineStr">
+      <c r="C178" s="36" t="inlineStr">
         <is>
           <t>miers7985@gmail.com</t>
         </is>
       </c>
-      <c r="D178" s="33" t="inlineStr">
+      <c r="D178" s="34" t="inlineStr">
         <is>
           <t>j3uOriWg$h</t>
         </is>
       </c>
-      <c r="E178" s="33" t="inlineStr">
+      <c r="E178" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6405,17 +6403,17 @@
     <row r="179" ht="12.4" customHeight="1" s="23">
       <c r="A179" s="31" t="n"/>
       <c r="B179" s="31" t="n"/>
-      <c r="C179" s="37" t="inlineStr">
+      <c r="C179" s="36" t="inlineStr">
         <is>
           <t>SandraStanley7088@gmail.com</t>
         </is>
       </c>
-      <c r="D179" s="33" t="inlineStr">
+      <c r="D179" s="34" t="inlineStr">
         <is>
           <t>*(8%P4t((4</t>
         </is>
       </c>
-      <c r="E179" s="33" t="inlineStr">
+      <c r="E179" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6439,17 +6437,17 @@
     <row r="180" ht="12.4" customHeight="1" s="23">
       <c r="A180" s="31" t="n"/>
       <c r="B180" s="31" t="n"/>
-      <c r="C180" s="37" t="inlineStr">
+      <c r="C180" s="36" t="inlineStr">
         <is>
           <t>melanieflannagan17@gmail.com</t>
         </is>
       </c>
-      <c r="D180" s="33" t="inlineStr">
+      <c r="D180" s="34" t="inlineStr">
         <is>
           <t>nQ#Go$6*$3</t>
         </is>
       </c>
-      <c r="E180" s="33" t="inlineStr">
+      <c r="E180" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6473,17 +6471,17 @@
     <row r="181" ht="12.4" customHeight="1" s="23">
       <c r="A181" s="31" t="n"/>
       <c r="B181" s="31" t="n"/>
-      <c r="C181" s="37" t="inlineStr">
+      <c r="C181" s="36" t="inlineStr">
         <is>
           <t>rs2949095@gmail.com</t>
         </is>
       </c>
-      <c r="D181" s="33" t="inlineStr">
+      <c r="D181" s="34" t="inlineStr">
         <is>
           <t>V)2Q91bdLG</t>
         </is>
       </c>
-      <c r="E181" s="33" t="n"/>
+      <c r="E181" s="32" t="n"/>
       <c r="H181" s="22" t="inlineStr">
         <is>
           <t>ipfs://Qme78XkYu9LVXAdKFX4BRYBYBw8vfdGHihhqx41dpR2zX3</t>
@@ -6491,19 +6489,19 @@
       </c>
     </row>
     <row r="182" ht="12.4" customHeight="1" s="23">
-      <c r="A182" s="41" t="n"/>
-      <c r="B182" s="41" t="n"/>
-      <c r="C182" s="37" t="inlineStr">
+      <c r="A182" s="40" t="n"/>
+      <c r="B182" s="40" t="n"/>
+      <c r="C182" s="36" t="inlineStr">
         <is>
           <t>traceyoscar39@gmail.com</t>
         </is>
       </c>
-      <c r="D182" s="33" t="inlineStr">
+      <c r="D182" s="34" t="inlineStr">
         <is>
           <t>(5M7ZcMUj5</t>
         </is>
       </c>
-      <c r="E182" s="33" t="n"/>
+      <c r="E182" s="32" t="n"/>
       <c r="H182" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVga66MkunUKJTqeCUA3oJhewoKPUEm63VDe7FzV36Fpn</t>
@@ -6513,17 +6511,17 @@
     <row r="183" ht="12.4" customHeight="1" s="23">
       <c r="A183" s="31" t="n"/>
       <c r="B183" s="31" t="n"/>
-      <c r="C183" s="37" t="inlineStr">
+      <c r="C183" s="36" t="inlineStr">
         <is>
           <t>michaelsonmarisa04@gmail.com</t>
         </is>
       </c>
-      <c r="D183" s="33" t="inlineStr">
+      <c r="D183" s="34" t="inlineStr">
         <is>
           <t>_(9Uqoyv3j</t>
         </is>
       </c>
-      <c r="E183" s="33" t="inlineStr">
+      <c r="E183" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6547,17 +6545,17 @@
     <row r="184" ht="12.4" customHeight="1" s="23">
       <c r="A184" s="31" t="n"/>
       <c r="B184" s="31" t="n"/>
-      <c r="C184" s="37" t="inlineStr">
+      <c r="C184" s="36" t="inlineStr">
         <is>
           <t>chandterchloe9@gmail.com</t>
         </is>
       </c>
-      <c r="D184" s="33" t="inlineStr">
+      <c r="D184" s="34" t="inlineStr">
         <is>
           <t>&amp;4u#FQrvW^</t>
         </is>
       </c>
-      <c r="E184" s="33" t="n"/>
+      <c r="E184" s="32" t="n"/>
       <c r="H184" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmVZPnzWUHNCnJ4ksgNACLLMwE4vjnxDUwLyuDv83WWExM</t>
@@ -6567,17 +6565,17 @@
     <row r="185" ht="12.4" customHeight="1" s="23">
       <c r="A185" s="31" t="n"/>
       <c r="B185" s="31" t="n"/>
-      <c r="C185" s="37" t="inlineStr">
+      <c r="C185" s="36" t="inlineStr">
         <is>
           <t>lairdk976@gmail.com</t>
         </is>
       </c>
-      <c r="D185" s="33" t="inlineStr">
+      <c r="D185" s="34" t="inlineStr">
         <is>
           <t>(4AttJdann</t>
         </is>
       </c>
-      <c r="E185" s="33" t="inlineStr">
+      <c r="E185" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6599,19 +6597,19 @@
       </c>
     </row>
     <row r="186" ht="12.4" customHeight="1" s="23">
-      <c r="A186" s="41" t="n"/>
-      <c r="B186" s="41" t="n"/>
-      <c r="C186" s="37" t="inlineStr">
+      <c r="A186" s="40" t="n"/>
+      <c r="B186" s="40" t="n"/>
+      <c r="C186" s="36" t="inlineStr">
         <is>
           <t>holidaykatelyn84@gmail.com</t>
         </is>
       </c>
-      <c r="D186" s="33" t="inlineStr">
+      <c r="D186" s="34" t="inlineStr">
         <is>
           <t>#9K#dxWWO0</t>
         </is>
       </c>
-      <c r="E186" s="33" t="inlineStr">
+      <c r="E186" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6635,17 +6633,17 @@
     <row r="187" ht="12.4" customHeight="1" s="23">
       <c r="A187" s="31" t="n"/>
       <c r="B187" s="31" t="n"/>
-      <c r="C187" s="37" t="inlineStr">
+      <c r="C187" s="36" t="inlineStr">
         <is>
           <t>wifkinsoncelia@gmail.com</t>
         </is>
       </c>
-      <c r="D187" s="33" t="inlineStr">
+      <c r="D187" s="34" t="inlineStr">
         <is>
           <t>7J&amp;6iFTs+n</t>
         </is>
       </c>
-      <c r="E187" s="33" t="inlineStr">
+      <c r="E187" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6669,17 +6667,17 @@
     <row r="188" ht="12.4" customHeight="1" s="23">
       <c r="A188" s="31" t="n"/>
       <c r="B188" s="31" t="n"/>
-      <c r="C188" s="37" t="inlineStr">
+      <c r="C188" s="36" t="inlineStr">
         <is>
           <t>rogergavin308@gmail.com</t>
         </is>
       </c>
-      <c r="D188" s="33" t="inlineStr">
+      <c r="D188" s="34" t="inlineStr">
         <is>
           <t>m!B4!+XzO$</t>
         </is>
       </c>
-      <c r="E188" s="33" t="inlineStr">
+      <c r="E188" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6703,17 +6701,17 @@
     <row r="189" ht="12.4" customHeight="1" s="23">
       <c r="A189" s="31" t="n"/>
       <c r="B189" s="31" t="n"/>
-      <c r="C189" s="37" t="inlineStr">
+      <c r="C189" s="36" t="inlineStr">
         <is>
           <t>mp354786@gmail.com</t>
         </is>
       </c>
-      <c r="D189" s="33" t="inlineStr">
+      <c r="D189" s="34" t="inlineStr">
         <is>
           <t>*#a1EgSbv&amp;</t>
         </is>
       </c>
-      <c r="E189" s="33" t="inlineStr">
+      <c r="E189" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6737,17 +6735,17 @@
     <row r="190" ht="12.4" customHeight="1" s="23">
       <c r="A190" s="31" t="n"/>
       <c r="B190" s="31" t="n"/>
-      <c r="C190" s="37" t="inlineStr">
+      <c r="C190" s="36" t="inlineStr">
         <is>
           <t>colinbacker3@gmail.com</t>
         </is>
       </c>
-      <c r="D190" s="33" t="inlineStr">
+      <c r="D190" s="34" t="inlineStr">
         <is>
           <t>+C+(4MEn^$</t>
         </is>
       </c>
-      <c r="E190" s="33" t="inlineStr">
+      <c r="E190" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6769,19 +6767,19 @@
       </c>
     </row>
     <row r="191" ht="12.4" customHeight="1" s="23">
-      <c r="A191" s="41" t="n"/>
-      <c r="B191" s="41" t="n"/>
-      <c r="C191" s="37" t="inlineStr">
+      <c r="A191" s="40" t="n"/>
+      <c r="B191" s="40" t="n"/>
+      <c r="C191" s="36" t="inlineStr">
         <is>
           <t>leonarswayne3@gmail.com</t>
         </is>
       </c>
-      <c r="D191" s="33" t="inlineStr">
+      <c r="D191" s="34" t="inlineStr">
         <is>
           <t>g6vxfB4#^i</t>
         </is>
       </c>
-      <c r="E191" s="33" t="inlineStr">
+      <c r="E191" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6805,17 +6803,17 @@
     <row r="192" ht="12.4" customHeight="1" s="23">
       <c r="A192" s="31" t="n"/>
       <c r="B192" s="31" t="n"/>
-      <c r="C192" s="37" t="inlineStr">
+      <c r="C192" s="36" t="inlineStr">
         <is>
           <t>mp5050611@gmail.com</t>
         </is>
       </c>
-      <c r="D192" s="33" t="inlineStr">
+      <c r="D192" s="34" t="inlineStr">
         <is>
           <t>(45QwjD#i%</t>
         </is>
       </c>
-      <c r="E192" s="33" t="inlineStr">
+      <c r="E192" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6839,17 +6837,17 @@
     <row r="193" ht="12.4" customHeight="1" s="23">
       <c r="A193" s="31" t="n"/>
       <c r="B193" s="31" t="n"/>
-      <c r="C193" s="37" t="inlineStr">
+      <c r="C193" s="36" t="inlineStr">
         <is>
           <t>lrngmsn@gmail.com</t>
         </is>
       </c>
-      <c r="D193" s="33" t="inlineStr">
+      <c r="D193" s="34" t="inlineStr">
         <is>
           <t>O(3BMjTlxJ</t>
         </is>
       </c>
-      <c r="E193" s="33" t="inlineStr">
+      <c r="E193" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6871,19 +6869,19 @@
       </c>
     </row>
     <row r="194" ht="12.4" customHeight="1" s="23">
-      <c r="A194" s="41" t="n"/>
-      <c r="B194" s="41" t="n"/>
-      <c r="C194" s="37" t="inlineStr">
+      <c r="A194" s="40" t="n"/>
+      <c r="B194" s="40" t="n"/>
+      <c r="C194" s="36" t="inlineStr">
         <is>
           <t>dayadelina66@gmail.com</t>
         </is>
       </c>
-      <c r="D194" s="33" t="inlineStr">
+      <c r="D194" s="34" t="inlineStr">
         <is>
           <t>+QlHQdoa$7</t>
         </is>
       </c>
-      <c r="E194" s="33" t="n"/>
+      <c r="E194" s="32" t="n"/>
       <c r="H194" s="22" t="inlineStr">
         <is>
           <t>ipfs://QmW1jxZaVza3SrGnvFNTP8Aj6iEVCNtWC5UJWtJmtn629w</t>
@@ -6893,17 +6891,17 @@
     <row r="195" ht="12.4" customHeight="1" s="23">
       <c r="A195" s="31" t="n"/>
       <c r="B195" s="31" t="n"/>
-      <c r="C195" s="37" t="inlineStr">
+      <c r="C195" s="36" t="inlineStr">
         <is>
           <t>ashtonaddington5@gmail.com</t>
         </is>
       </c>
-      <c r="D195" s="33" t="inlineStr">
+      <c r="D195" s="34" t="inlineStr">
         <is>
           <t>_rXid!&amp;y_8</t>
         </is>
       </c>
-      <c r="E195" s="33" t="inlineStr">
+      <c r="E195" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6927,17 +6925,17 @@
     <row r="196" ht="12.4" customHeight="1" s="23">
       <c r="A196" s="31" t="n"/>
       <c r="B196" s="31" t="n"/>
-      <c r="C196" s="37" t="inlineStr">
+      <c r="C196" s="36" t="inlineStr">
         <is>
           <t>jkingsman996@gmail.com</t>
         </is>
       </c>
-      <c r="D196" s="33" t="inlineStr">
+      <c r="D196" s="34" t="inlineStr">
         <is>
           <t>%0NCs!ZvYh</t>
         </is>
       </c>
-      <c r="E196" s="33" t="inlineStr">
+      <c r="E196" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -6961,17 +6959,17 @@
     <row r="197" ht="12.4" customHeight="1" s="23">
       <c r="A197" s="31" t="n"/>
       <c r="B197" s="31" t="n"/>
-      <c r="C197" s="37" t="inlineStr">
+      <c r="C197" s="36" t="inlineStr">
         <is>
           <t>RalphAllford4406@gmail.com</t>
         </is>
       </c>
-      <c r="D197" s="33" t="inlineStr">
+      <c r="D197" s="34" t="inlineStr">
         <is>
           <t>F^37dN)xFR</t>
         </is>
       </c>
-      <c r="E197" s="33" t="inlineStr">
+      <c r="E197" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -6985,17 +6983,17 @@
     <row r="198" ht="12.4" customHeight="1" s="23">
       <c r="A198" s="31" t="n"/>
       <c r="B198" s="31" t="n"/>
-      <c r="C198" s="37" t="inlineStr">
+      <c r="C198" s="36" t="inlineStr">
         <is>
           <t>jcarrington539@gmail.com</t>
         </is>
       </c>
-      <c r="D198" s="33" t="inlineStr">
+      <c r="D198" s="34" t="inlineStr">
         <is>
           <t>d984RdTg!4</t>
         </is>
       </c>
-      <c r="E198" s="33" t="inlineStr">
+      <c r="E198" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -7009,17 +7007,17 @@
     <row r="199" ht="12.4" customHeight="1" s="23">
       <c r="A199" s="31" t="n"/>
       <c r="B199" s="31" t="n"/>
-      <c r="C199" s="37" t="inlineStr">
+      <c r="C199" s="36" t="inlineStr">
         <is>
           <t>leonoradutton839@gmail.com</t>
         </is>
       </c>
-      <c r="D199" s="33" t="inlineStr">
+      <c r="D199" s="34" t="inlineStr">
         <is>
           <t>(V%2A6SbdS</t>
         </is>
       </c>
-      <c r="E199" s="33" t="inlineStr">
+      <c r="E199" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -7043,17 +7041,17 @@
     <row r="200" ht="12.4" customHeight="1" s="23">
       <c r="A200" s="31" t="n"/>
       <c r="B200" s="31" t="n"/>
-      <c r="C200" s="37" t="inlineStr">
+      <c r="C200" s="36" t="inlineStr">
         <is>
           <t>trinityalbertson94@gmail.com</t>
         </is>
       </c>
-      <c r="D200" s="33" t="inlineStr">
+      <c r="D200" s="34" t="inlineStr">
         <is>
           <t>!1Rwn39Yl@</t>
         </is>
       </c>
-      <c r="E200" s="33" t="inlineStr">
+      <c r="E200" s="34" t="inlineStr">
         <is>
           <t>×</t>
         </is>
@@ -7065,7 +7063,7 @@
       </c>
     </row>
     <row r="201" ht="14.9" customHeight="1" s="23">
-      <c r="C201" s="37" t="inlineStr">
+      <c r="C201" s="36" t="inlineStr">
         <is>
           <t>faner7413@gmail.com</t>
         </is>
@@ -7075,7 +7073,7 @@
           <t>qB1Edq3h*%</t>
         </is>
       </c>
-      <c r="E201" s="22" t="inlineStr">
+      <c r="E201" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -7092,7 +7090,7 @@
       </c>
     </row>
     <row r="202" ht="14.9" customHeight="1" s="23">
-      <c r="C202" s="37" t="inlineStr">
+      <c r="C202" s="36" t="inlineStr">
         <is>
           <t>beatricethorndike938@gmail.com</t>
         </is>
@@ -7102,7 +7100,7 @@
           <t>w_9)tD1tjA</t>
         </is>
       </c>
-      <c r="E202" s="22" t="inlineStr">
+      <c r="E202" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -7119,7 +7117,7 @@
       </c>
     </row>
     <row r="203" ht="14.9" customHeight="1" s="23">
-      <c r="C203" s="37" t="inlineStr">
+      <c r="C203" s="36" t="inlineStr">
         <is>
           <t>asherlock269@gmail.com</t>
         </is>
@@ -7129,7 +7127,7 @@
           <t>_G!tALgy06</t>
         </is>
       </c>
-      <c r="E203" s="22" t="inlineStr">
+      <c r="E203" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -7139,14 +7137,14 @@
           <t>https://eth-rinkeby.alchemyapi.io/v2/bwdt4F6WPabkcWfT4OqiX_gArEUWhnui</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G203" s="22" t="inlineStr">
         <is>
           <t>bwdt4F6WPabkcWfT4OqiX_gArEUWhnui</t>
         </is>
       </c>
     </row>
     <row r="204" ht="14.9" customHeight="1" s="23">
-      <c r="C204" s="37" t="inlineStr">
+      <c r="C204" s="36" t="inlineStr">
         <is>
           <t>dyson0489@gmail.com</t>
         </is>
@@ -7156,9 +7154,24 @@
           <t>gcH13Z^k#g</t>
         </is>
       </c>
+      <c r="E204" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F204" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/M0ASriINRL1TFejDi2-dux8d39he3zfO</t>
+        </is>
+      </c>
+      <c r="G204" s="22" t="inlineStr">
+        <is>
+          <t>M0ASriINRL1TFejDi2-dux8d39he3zfO</t>
+        </is>
+      </c>
     </row>
     <row r="205" ht="14.9" customHeight="1" s="23">
-      <c r="C205" s="37" t="inlineStr">
+      <c r="C205" s="36" t="inlineStr">
         <is>
           <t>daynora970@gmail.com</t>
         </is>
@@ -7168,9 +7181,24 @@
           <t>*58#tkEaiH</t>
         </is>
       </c>
+      <c r="E205" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F205" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/mUOIUa5KD3WvI3o_uidzCRQ8ZUdWRSHL</t>
+        </is>
+      </c>
+      <c r="G205" s="22" t="inlineStr">
+        <is>
+          <t>mUOIUa5KD3WvI3o_uidzCRQ8ZUdWRSHL</t>
+        </is>
+      </c>
     </row>
     <row r="206" ht="14.9" customHeight="1" s="23">
-      <c r="C206" s="37" t="inlineStr">
+      <c r="C206" s="36" t="inlineStr">
         <is>
           <t>ryanlarkins643@gmail.com</t>
         </is>
@@ -7180,9 +7208,24 @@
           <t>9Y5fPBkQQ&amp;</t>
         </is>
       </c>
+      <c r="E206" s="22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F206" s="22" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/4DTx0ZHGLn91uuL470cdgPAXeyJWggvx</t>
+        </is>
+      </c>
+      <c r="G206" s="22" t="inlineStr">
+        <is>
+          <t>4DTx0ZHGLn91uuL470cdgPAXeyJWggvx</t>
+        </is>
+      </c>
     </row>
     <row r="207" ht="14.9" customHeight="1" s="23">
-      <c r="C207" s="37" t="inlineStr">
+      <c r="C207" s="36" t="inlineStr">
         <is>
           <t>sheldonlaura812@gmail.com</t>
         </is>
@@ -7194,7 +7237,7 @@
       </c>
     </row>
     <row r="208" ht="14.9" customHeight="1" s="23">
-      <c r="C208" s="37" t="inlineStr">
+      <c r="C208" s="36" t="inlineStr">
         <is>
           <t>millerhayden001@gmail.com</t>
         </is>
@@ -7206,7 +7249,7 @@
       </c>
     </row>
     <row r="209" ht="14.9" customHeight="1" s="23">
-      <c r="C209" s="37" t="inlineStr">
+      <c r="C209" s="36" t="inlineStr">
         <is>
           <t>geraldwallace908@gmail.com</t>
         </is>
@@ -7216,9 +7259,24 @@
           <t>pcD*3TEb9B</t>
         </is>
       </c>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F209" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/dL7achtewGiM1HEgOtW9f-ogsCYX7v3l</t>
+        </is>
+      </c>
+      <c r="G209" s="21" t="inlineStr">
+        <is>
+          <t>dL7achtewGiM1HEgOtW9f-ogsCYX7v3l</t>
+        </is>
+      </c>
     </row>
     <row r="210" ht="14.9" customHeight="1" s="23">
-      <c r="C210" s="37" t="inlineStr">
+      <c r="C210" s="36" t="inlineStr">
         <is>
           <t>arnoldmabel33@gmail.com</t>
         </is>
@@ -7228,9 +7286,24 @@
           <t>2aQ8T3yA_0</t>
         </is>
       </c>
+      <c r="E210" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F210" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/jJYRL59VqQvclCUzxDnzs6WR9Ux9AmLP</t>
+        </is>
+      </c>
+      <c r="G210" s="21" t="inlineStr">
+        <is>
+          <t>jJYRL59VqQvclCUzxDnzs6WR9Ux9AmLP</t>
+        </is>
+      </c>
     </row>
     <row r="211" ht="14.9" customHeight="1" s="23">
-      <c r="C211" s="37" t="inlineStr">
+      <c r="C211" s="36" t="inlineStr">
         <is>
           <t>herbertbarrington03@gmail.com</t>
         </is>
@@ -7240,9 +7313,24 @@
           <t>Pe^4NmvyG!</t>
         </is>
       </c>
+      <c r="E211" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F211" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/zh1V9V_bGKHiPQZAkBl0WsqE6nqSoCFy</t>
+        </is>
+      </c>
+      <c r="G211" s="21" t="inlineStr">
+        <is>
+          <t>zh1V9V_bGKHiPQZAkBl0WsqE6nqSoCFy</t>
+        </is>
+      </c>
     </row>
     <row r="212" ht="14.9" customHeight="1" s="23">
-      <c r="C212" s="37" t="inlineStr">
+      <c r="C212" s="36" t="inlineStr">
         <is>
           <t>rmacadam81@gmail.com</t>
         </is>
@@ -7254,7 +7342,7 @@
       </c>
     </row>
     <row r="213" ht="14.9" customHeight="1" s="23">
-      <c r="C213" s="37" t="inlineStr">
+      <c r="C213" s="36" t="inlineStr">
         <is>
           <t>blackelijah50@gmail.com</t>
         </is>
@@ -7264,9 +7352,14 @@
           <t>%5S2arxMaZ</t>
         </is>
       </c>
+      <c r="E213" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="214" ht="14.9" customHeight="1" s="23">
-      <c r="C214" s="37" t="inlineStr">
+      <c r="C214" s="36" t="inlineStr">
         <is>
           <t>yvonnecreighton35@gmail.com</t>
         </is>
@@ -7276,9 +7369,24 @@
           <t>I0%uEKsb%3</t>
         </is>
       </c>
+      <c r="E214" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F214" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Rh21Jlb-sDUR7ngpMrCzE8tuWyaf7hnd</t>
+        </is>
+      </c>
+      <c r="G214" s="21" t="inlineStr">
+        <is>
+          <t>Rh21Jlb-sDUR7ngpMrCzE8tuWyaf7hnd</t>
+        </is>
+      </c>
     </row>
     <row r="215" ht="14.9" customHeight="1" s="23">
-      <c r="C215" s="37" t="inlineStr">
+      <c r="C215" s="36" t="inlineStr">
         <is>
           <t>jg4727707@gmail.com</t>
         </is>
@@ -7288,9 +7396,24 @@
           <t>+1huC4gg1t</t>
         </is>
       </c>
+      <c r="E215" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F215" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/Z3C49SFObThXdS1BywRD9Mgyl5w-drrY</t>
+        </is>
+      </c>
+      <c r="G215" s="21" t="inlineStr">
+        <is>
+          <t>Z3C49SFObThXdS1BywRD9Mgyl5w-drrY</t>
+        </is>
+      </c>
     </row>
     <row r="216" ht="14.9" customHeight="1" s="23">
-      <c r="C216" s="37" t="inlineStr">
+      <c r="C216" s="36" t="inlineStr">
         <is>
           <t>hardmanjackson188@gmail.com</t>
         </is>
@@ -7300,9 +7423,24 @@
           <t>6_+E6D3W(u</t>
         </is>
       </c>
+      <c r="E216" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F216" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/jl0YKzvMNFZqqYOri2dfoFg0RmSDM781</t>
+        </is>
+      </c>
+      <c r="G216" s="21" t="inlineStr">
+        <is>
+          <t>jl0YKzvMNFZqqYOri2dfoFg0RmSDM781</t>
+        </is>
+      </c>
     </row>
     <row r="217" ht="14.9" customHeight="1" s="23">
-      <c r="C217" s="37" t="inlineStr">
+      <c r="C217" s="36" t="inlineStr">
         <is>
           <t>bootmanian1@gmail.com</t>
         </is>
@@ -7312,9 +7450,24 @@
           <t>Je+3LYpC8$</t>
         </is>
       </c>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F217" s="21" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/21eEj-2tcbeP59GBL_M6LGFYUphqJhCL</t>
+        </is>
+      </c>
+      <c r="G217" s="21" t="inlineStr">
+        <is>
+          <t>21eEj-2tcbeP59GBL_M6LGFYUphqJhCL</t>
+        </is>
+      </c>
     </row>
     <row r="218" ht="14.9" customHeight="1" s="23">
-      <c r="C218" s="37" t="inlineStr">
+      <c r="C218" s="36" t="inlineStr">
         <is>
           <t>garrisonn232@gmail.com</t>
         </is>
@@ -7324,9 +7477,14 @@
           <t>J&amp;2jiNPcf*</t>
         </is>
       </c>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="219" ht="14.9" customHeight="1" s="23">
-      <c r="C219" s="37" t="inlineStr">
+      <c r="C219" s="36" t="inlineStr">
         <is>
           <t>abramsonlily0@gmail.com</t>
         </is>
@@ -7336,9 +7494,14 @@
           <t>C0G2g7@_*8</t>
         </is>
       </c>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="220" ht="14.9" customHeight="1" s="23">
-      <c r="C220" s="37" t="inlineStr">
+      <c r="C220" s="36" t="inlineStr">
         <is>
           <t>mdyson249@gmail.com</t>
         </is>
@@ -7348,9 +7511,14 @@
           <t>m0%0#WpF&amp;A</t>
         </is>
       </c>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="221" ht="14.9" customHeight="1" s="23">
-      <c r="C221" s="37" t="inlineStr">
+      <c r="C221" s="36" t="inlineStr">
         <is>
           <t>gcroftoon33@gmail.com</t>
         </is>
@@ -7360,9 +7528,14 @@
           <t>)c9L7Acfk2</t>
         </is>
       </c>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="222" ht="14.9" customHeight="1" s="23">
-      <c r="C222" s="37" t="inlineStr">
+      <c r="C222" s="36" t="inlineStr">
         <is>
           <t>wquincy625@gmail.com</t>
         </is>
@@ -7372,9 +7545,14 @@
           <t>#BSe6UpT9q</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="223" ht="14.9" customHeight="1" s="23">
-      <c r="C223" s="37" t="inlineStr">
+      <c r="C223" s="36" t="inlineStr">
         <is>
           <t>ws1970514@gmail.com</t>
         </is>
@@ -7386,7 +7564,7 @@
       </c>
     </row>
     <row r="224" ht="14.9" customHeight="1" s="23">
-      <c r="C224" s="37" t="inlineStr">
+      <c r="C224" s="36" t="inlineStr">
         <is>
           <t>kleapman220@gmail.com</t>
         </is>
@@ -7398,7 +7576,7 @@
       </c>
     </row>
     <row r="225" ht="14.9" customHeight="1" s="23">
-      <c r="C225" s="37" t="inlineStr">
+      <c r="C225" s="36" t="inlineStr">
         <is>
           <t>cj8075074@gmail.com</t>
         </is>
@@ -7410,7 +7588,7 @@
       </c>
     </row>
     <row r="226" ht="14.9" customHeight="1" s="23">
-      <c r="C226" s="37" t="inlineStr">
+      <c r="C226" s="36" t="inlineStr">
         <is>
           <t>dflannagan141@gmail.com</t>
         </is>
@@ -7422,7 +7600,7 @@
       </c>
     </row>
     <row r="227" ht="14.9" customHeight="1" s="23">
-      <c r="C227" s="37" t="inlineStr">
+      <c r="C227" s="36" t="inlineStr">
         <is>
           <t>aw3573645@gmail.com</t>
         </is>
@@ -7434,7 +7612,7 @@
       </c>
     </row>
     <row r="228" ht="14.9" customHeight="1" s="23">
-      <c r="C228" s="37" t="inlineStr">
+      <c r="C228" s="36" t="inlineStr">
         <is>
           <t>trinityayrton@gmail.com</t>
         </is>
@@ -7446,7 +7624,7 @@
       </c>
     </row>
     <row r="229" ht="14.9" customHeight="1" s="23">
-      <c r="C229" s="37" t="inlineStr">
+      <c r="C229" s="36" t="inlineStr">
         <is>
           <t>kirkwinifred63@gmail.com</t>
         </is>
@@ -7458,7 +7636,7 @@
       </c>
     </row>
     <row r="230" ht="14.9" customHeight="1" s="23">
-      <c r="C230" s="37" t="inlineStr">
+      <c r="C230" s="36" t="inlineStr">
         <is>
           <t>carloselmers498@gmail.com</t>
         </is>
@@ -7470,7 +7648,7 @@
       </c>
     </row>
     <row r="231" ht="14.9" customHeight="1" s="23">
-      <c r="C231" s="37" t="inlineStr">
+      <c r="C231" s="36" t="inlineStr">
         <is>
           <t>boswortha432@gmail.com</t>
         </is>
@@ -7482,7 +7660,7 @@
       </c>
     </row>
     <row r="232" ht="14.9" customHeight="1" s="23">
-      <c r="C232" s="37" t="inlineStr">
+      <c r="C232" s="36" t="inlineStr">
         <is>
           <t>taylorcarrington169@gmail.com</t>
         </is>
@@ -7494,7 +7672,7 @@
       </c>
     </row>
     <row r="233" ht="14.9" customHeight="1" s="23">
-      <c r="C233" s="37" t="inlineStr">
+      <c r="C233" s="36" t="inlineStr">
         <is>
           <t>nelsonhunter386@gmail.com</t>
         </is>
@@ -7506,7 +7684,7 @@
       </c>
     </row>
     <row r="234" ht="14.9" customHeight="1" s="23">
-      <c r="C234" s="37" t="inlineStr">
+      <c r="C234" s="36" t="inlineStr">
         <is>
           <t>noraarchibald443@gmail.com</t>
         </is>
@@ -7518,7 +7696,7 @@
       </c>
     </row>
     <row r="235" ht="14.9" customHeight="1" s="23">
-      <c r="C235" s="37" t="inlineStr">
+      <c r="C235" s="36" t="inlineStr">
         <is>
           <t>kaitlynpaterson4@gmail.com</t>
         </is>
@@ -7530,7 +7708,7 @@
       </c>
     </row>
     <row r="236" ht="14.9" customHeight="1" s="23">
-      <c r="C236" s="37" t="inlineStr">
+      <c r="C236" s="36" t="inlineStr">
         <is>
           <t>makaylapalmer942@gmail.com</t>
         </is>
@@ -7542,7 +7720,7 @@
       </c>
     </row>
     <row r="237" ht="14.9" customHeight="1" s="23">
-      <c r="C237" s="37" t="inlineStr">
+      <c r="C237" s="36" t="inlineStr">
         <is>
           <t>kingsmangrace07@gmail.com</t>
         </is>
@@ -7554,7 +7732,7 @@
       </c>
     </row>
     <row r="238" ht="14.9" customHeight="1" s="23">
-      <c r="C238" s="37" t="inlineStr">
+      <c r="C238" s="36" t="inlineStr">
         <is>
           <t>christiandowman@gmail.com</t>
         </is>
@@ -7566,7 +7744,7 @@
       </c>
     </row>
     <row r="239" ht="14.9" customHeight="1" s="23">
-      <c r="C239" s="37" t="inlineStr">
+      <c r="C239" s="36" t="inlineStr">
         <is>
           <t>jabramson473@gmail.com</t>
         </is>
@@ -7578,7 +7756,7 @@
       </c>
     </row>
     <row r="240" ht="14.9" customHeight="1" s="23">
-      <c r="C240" s="37" t="inlineStr">
+      <c r="C240" s="36" t="inlineStr">
         <is>
           <t>oldmanj710@gmail.com</t>
         </is>
@@ -7590,7 +7768,7 @@
       </c>
     </row>
     <row r="241" ht="14.9" customHeight="1" s="23">
-      <c r="C241" s="37" t="inlineStr">
+      <c r="C241" s="36" t="inlineStr">
         <is>
           <t>michellemacalister17@gmail.com</t>
         </is>
@@ -7602,7 +7780,7 @@
       </c>
     </row>
     <row r="242" ht="14.9" customHeight="1" s="23">
-      <c r="C242" s="37" t="inlineStr">
+      <c r="C242" s="36" t="inlineStr">
         <is>
           <t>jennifergarrison43@gmail.com</t>
         </is>
@@ -7614,7 +7792,7 @@
       </c>
     </row>
     <row r="243" ht="14.9" customHeight="1" s="23">
-      <c r="C243" s="37" t="inlineStr">
+      <c r="C243" s="36" t="inlineStr">
         <is>
           <t>ford03085@gmail.com</t>
         </is>
@@ -7626,7 +7804,7 @@
       </c>
     </row>
     <row r="244" ht="14.9" customHeight="1" s="23">
-      <c r="C244" s="37" t="inlineStr">
+      <c r="C244" s="36" t="inlineStr">
         <is>
           <t>dowmanandrew779@gmail.com</t>
         </is>
@@ -7638,7 +7816,7 @@
       </c>
     </row>
     <row r="245" ht="14.9" customHeight="1" s="23">
-      <c r="C245" s="37" t="inlineStr">
+      <c r="C245" s="36" t="inlineStr">
         <is>
           <t>bishopdiana717@gmail.com</t>
         </is>
@@ -7650,7 +7828,7 @@
       </c>
     </row>
     <row r="246" ht="14.9" customHeight="1" s="23">
-      <c r="C246" s="37" t="inlineStr">
+      <c r="C246" s="36" t="inlineStr">
         <is>
           <t>vaudley07@gmail.com</t>
         </is>
@@ -7662,7 +7840,7 @@
       </c>
     </row>
     <row r="247" ht="14.9" customHeight="1" s="23">
-      <c r="C247" s="37" t="inlineStr">
+      <c r="C247" s="36" t="inlineStr">
         <is>
           <t>dnnslamberts@gmail.com</t>
         </is>
@@ -7674,7 +7852,7 @@
       </c>
     </row>
     <row r="248" ht="14.9" customHeight="1" s="23">
-      <c r="C248" s="37" t="inlineStr">
+      <c r="C248" s="36" t="inlineStr">
         <is>
           <t>pl954655@gmail.com</t>
         </is>
@@ -7686,7 +7864,7 @@
       </c>
     </row>
     <row r="249" ht="14.9" customHeight="1" s="23">
-      <c r="C249" s="37" t="inlineStr">
+      <c r="C249" s="36" t="inlineStr">
         <is>
           <t>to5569518@gmail.com</t>
         </is>
@@ -7698,7 +7876,7 @@
       </c>
     </row>
     <row r="250" ht="14.9" customHeight="1" s="23">
-      <c r="C250" s="37" t="inlineStr">
+      <c r="C250" s="36" t="inlineStr">
         <is>
           <t>oakmansheila478@gmail.com</t>
         </is>
@@ -7710,7 +7888,7 @@
       </c>
     </row>
     <row r="251" ht="14.9" customHeight="1" s="23">
-      <c r="C251" s="37" t="inlineStr">
+      <c r="C251" s="36" t="inlineStr">
         <is>
           <t>vanessasalisburry492@gmail.com</t>
         </is>
@@ -7722,7 +7900,7 @@
       </c>
     </row>
     <row r="252" ht="14.9" customHeight="1" s="23">
-      <c r="C252" s="37" t="inlineStr">
+      <c r="C252" s="36" t="inlineStr">
         <is>
           <t>ryderanthony85@gmail.com</t>
         </is>
@@ -7734,7 +7912,7 @@
       </c>
     </row>
     <row r="253" ht="14.9" customHeight="1" s="23">
-      <c r="C253" s="37" t="inlineStr">
+      <c r="C253" s="36" t="inlineStr">
         <is>
           <t>jenniferpass376@gmail.com</t>
         </is>
@@ -7746,7 +7924,7 @@
       </c>
     </row>
     <row r="254" ht="14.9" customHeight="1" s="23">
-      <c r="C254" s="37" t="inlineStr">
+      <c r="C254" s="36" t="inlineStr">
         <is>
           <t>jordanotis883@gmail.com</t>
         </is>
@@ -7758,7 +7936,7 @@
       </c>
     </row>
     <row r="255" ht="14.9" customHeight="1" s="23">
-      <c r="C255" s="37" t="inlineStr">
+      <c r="C255" s="36" t="inlineStr">
         <is>
           <t>backerralph54@gmail.com</t>
         </is>
@@ -7770,7 +7948,7 @@
       </c>
     </row>
     <row r="256" ht="14.9" customHeight="1" s="23">
-      <c r="C256" s="37" t="inlineStr">
+      <c r="C256" s="36" t="inlineStr">
         <is>
           <t>lflatcher7@gmail.com</t>
         </is>
@@ -7782,7 +7960,7 @@
       </c>
     </row>
     <row r="257" ht="14.9" customHeight="1" s="23">
-      <c r="C257" s="37" t="inlineStr">
+      <c r="C257" s="36" t="inlineStr">
         <is>
           <t>passashley999@gmail.com</t>
         </is>
@@ -7794,7 +7972,7 @@
       </c>
     </row>
     <row r="258" ht="14.9" customHeight="1" s="23">
-      <c r="C258" s="37" t="inlineStr">
+      <c r="C258" s="36" t="inlineStr">
         <is>
           <t>RachelAlsopp4143@gmail.com</t>
         </is>
@@ -7806,7 +7984,7 @@
       </c>
     </row>
     <row r="259" ht="14.9" customHeight="1" s="23">
-      <c r="C259" s="37" t="inlineStr">
+      <c r="C259" s="36" t="inlineStr">
         <is>
           <t>marisadunce95@gmail.com</t>
         </is>
@@ -7818,7 +7996,7 @@
       </c>
     </row>
     <row r="260" ht="14.9" customHeight="1" s="23">
-      <c r="C260" s="37" t="inlineStr">
+      <c r="C260" s="36" t="inlineStr">
         <is>
           <t>nevillbrian407@gmail.com</t>
         </is>
@@ -7830,7 +8008,7 @@
       </c>
     </row>
     <row r="261" ht="14.9" customHeight="1" s="23">
-      <c r="C261" s="37" t="inlineStr">
+      <c r="C261" s="36" t="inlineStr">
         <is>
           <t>formankylie8@gmail.com</t>
         </is>
@@ -7842,7 +8020,7 @@
       </c>
     </row>
     <row r="262" ht="14.9" customHeight="1" s="23">
-      <c r="C262" s="37" t="inlineStr">
+      <c r="C262" s="36" t="inlineStr">
         <is>
           <t>oscarnevill7@gmail.com</t>
         </is>
@@ -7854,7 +8032,7 @@
       </c>
     </row>
     <row r="263" ht="14.9" customHeight="1" s="23">
-      <c r="C263" s="37" t="inlineStr">
+      <c r="C263" s="36" t="inlineStr">
         <is>
           <t>mildredparson10@gmail.com</t>
         </is>
@@ -7866,7 +8044,7 @@
       </c>
     </row>
     <row r="264" ht="14.9" customHeight="1" s="23">
-      <c r="C264" s="37" t="inlineStr">
+      <c r="C264" s="36" t="inlineStr">
         <is>
           <t>oakmangabriel88@gmail.com</t>
         </is>
@@ -7878,7 +8056,7 @@
       </c>
     </row>
     <row r="265" ht="14.9" customHeight="1" s="23">
-      <c r="C265" s="37" t="inlineStr">
+      <c r="C265" s="36" t="inlineStr">
         <is>
           <t>mollybacker2@gmail.com</t>
         </is>
@@ -7890,7 +8068,7 @@
       </c>
     </row>
     <row r="266" ht="14.9" customHeight="1" s="23">
-      <c r="C266" s="37" t="inlineStr">
+      <c r="C266" s="36" t="inlineStr">
         <is>
           <t>hoggarths725@gmail.com</t>
         </is>
@@ -7902,7 +8080,7 @@
       </c>
     </row>
     <row r="267" ht="14.9" customHeight="1" s="23">
-      <c r="C267" s="37" t="inlineStr">
+      <c r="C267" s="36" t="inlineStr">
         <is>
           <t>blomfieldaaron84@gmail.com</t>
         </is>
@@ -7914,7 +8092,7 @@
       </c>
     </row>
     <row r="268" ht="14.9" customHeight="1" s="23">
-      <c r="C268" s="37" t="inlineStr">
+      <c r="C268" s="36" t="inlineStr">
         <is>
           <t>on2123933@gmail.com</t>
         </is>
@@ -7926,7 +8104,7 @@
       </c>
     </row>
     <row r="269" ht="14.9" customHeight="1" s="23">
-      <c r="C269" s="37" t="inlineStr">
+      <c r="C269" s="36" t="inlineStr">
         <is>
           <t>jennaeddington2@gmail.com</t>
         </is>
@@ -7938,7 +8116,7 @@
       </c>
     </row>
     <row r="270" ht="14.9" customHeight="1" s="23">
-      <c r="C270" s="37" t="inlineStr">
+      <c r="C270" s="36" t="inlineStr">
         <is>
           <t>boolmanmabel@gmail.com</t>
         </is>
@@ -7950,7 +8128,7 @@
       </c>
     </row>
     <row r="271" ht="14.9" customHeight="1" s="23">
-      <c r="C271" s="37" t="inlineStr">
+      <c r="C271" s="36" t="inlineStr">
         <is>
           <t>hr380794@gmail.com</t>
         </is>
@@ -7962,7 +8140,7 @@
       </c>
     </row>
     <row r="272" ht="14.9" customHeight="1" s="23">
-      <c r="C272" s="37" t="inlineStr">
+      <c r="C272" s="36" t="inlineStr">
         <is>
           <t>katherinecarey510@gmail.com</t>
         </is>
@@ -7974,7 +8152,7 @@
       </c>
     </row>
     <row r="273" ht="14.9" customHeight="1" s="23">
-      <c r="C273" s="37" t="inlineStr">
+      <c r="C273" s="36" t="inlineStr">
         <is>
           <t>hoggarthsylvia4@gmail.com</t>
         </is>
@@ -7986,7 +8164,7 @@
       </c>
     </row>
     <row r="274" ht="14.9" customHeight="1" s="23">
-      <c r="C274" s="37" t="inlineStr">
+      <c r="C274" s="36" t="inlineStr">
         <is>
           <t>richardatcheson42@gmail.com</t>
         </is>
@@ -7998,7 +8176,7 @@
       </c>
     </row>
     <row r="275" ht="14.9" customHeight="1" s="23">
-      <c r="C275" s="37" t="inlineStr">
+      <c r="C275" s="36" t="inlineStr">
         <is>
           <t>lambertsclaire4@gmail.com</t>
         </is>
@@ -8010,7 +8188,7 @@
       </c>
     </row>
     <row r="276" ht="14.9" customHeight="1" s="23">
-      <c r="C276" s="37" t="inlineStr">
+      <c r="C276" s="36" t="inlineStr">
         <is>
           <t>katherineenderson8@gmail.com</t>
         </is>
@@ -8022,7 +8200,7 @@
       </c>
     </row>
     <row r="277" ht="14.9" customHeight="1" s="23">
-      <c r="C277" s="37" t="inlineStr">
+      <c r="C277" s="36" t="inlineStr">
         <is>
           <t>hshackley908@gmail.com</t>
         </is>
@@ -8034,7 +8212,7 @@
       </c>
     </row>
     <row r="278" ht="14.9" customHeight="1" s="23">
-      <c r="C278" s="37" t="inlineStr">
+      <c r="C278" s="36" t="inlineStr">
         <is>
           <t>mgalbraith063@gmail.com</t>
         </is>
@@ -8046,7 +8224,7 @@
       </c>
     </row>
     <row r="279" ht="14.9" customHeight="1" s="23">
-      <c r="C279" s="37" t="inlineStr">
+      <c r="C279" s="36" t="inlineStr">
         <is>
           <t>jadenshackley5@gmail.com</t>
         </is>
@@ -8058,7 +8236,7 @@
       </c>
     </row>
     <row r="280" ht="14.9" customHeight="1" s="23">
-      <c r="C280" s="37" t="inlineStr">
+      <c r="C280" s="36" t="inlineStr">
         <is>
           <t>senderson509@gmail.com</t>
         </is>
@@ -8070,7 +8248,7 @@
       </c>
     </row>
     <row r="281" ht="14.9" customHeight="1" s="23">
-      <c r="C281" s="37" t="inlineStr">
+      <c r="C281" s="36" t="inlineStr">
         <is>
           <t>IanAdrian6398@gmail.com</t>
         </is>
@@ -8082,7 +8260,7 @@
       </c>
     </row>
     <row r="282" ht="14.9" customHeight="1" s="23">
-      <c r="C282" s="37" t="inlineStr">
+      <c r="C282" s="36" t="inlineStr">
         <is>
           <t>ayoumans517@gmail.com</t>
         </is>
@@ -8094,7 +8272,7 @@
       </c>
     </row>
     <row r="283" ht="14.9" customHeight="1" s="23">
-      <c r="C283" s="37" t="inlineStr">
+      <c r="C283" s="36" t="inlineStr">
         <is>
           <t>philipsnoah586@gmail.com</t>
         </is>
@@ -8106,7 +8284,7 @@
       </c>
     </row>
     <row r="284" ht="14.9" customHeight="1" s="23">
-      <c r="C284" s="37" t="inlineStr">
+      <c r="C284" s="36" t="inlineStr">
         <is>
           <t>saundermildred54@gmail.com</t>
         </is>
@@ -8118,7 +8296,7 @@
       </c>
     </row>
     <row r="285" ht="14.9" customHeight="1" s="23">
-      <c r="C285" s="37" t="inlineStr">
+      <c r="C285" s="36" t="inlineStr">
         <is>
           <t>gatebenjamin3@gmail.com</t>
         </is>
@@ -8130,7 +8308,7 @@
       </c>
     </row>
     <row r="286" ht="14.9" customHeight="1" s="23">
-      <c r="C286" s="37" t="inlineStr">
+      <c r="C286" s="36" t="inlineStr">
         <is>
           <t>stanleyv265@gmail.com</t>
         </is>
@@ -8142,7 +8320,7 @@
       </c>
     </row>
     <row r="287" ht="14.9" customHeight="1" s="23">
-      <c r="C287" s="37" t="inlineStr">
+      <c r="C287" s="36" t="inlineStr">
         <is>
           <t>hrbrtjerome@gmail.com</t>
         </is>
@@ -8154,7 +8332,7 @@
       </c>
     </row>
     <row r="288" ht="14.9" customHeight="1" s="23">
-      <c r="C288" s="37" t="inlineStr">
+      <c r="C288" s="36" t="inlineStr">
         <is>
           <t>macduffgladys@gmail.com</t>
         </is>
@@ -8166,7 +8344,7 @@
       </c>
     </row>
     <row r="289" ht="14.9" customHeight="1" s="23">
-      <c r="C289" s="37" t="inlineStr">
+      <c r="C289" s="36" t="inlineStr">
         <is>
           <t>endersonn92@gmail.com</t>
         </is>
@@ -8178,7 +8356,7 @@
       </c>
     </row>
     <row r="290" ht="14.9" customHeight="1" s="23">
-      <c r="C290" s="37" t="inlineStr">
+      <c r="C290" s="36" t="inlineStr">
         <is>
           <t>rd4057873@gmail.com</t>
         </is>
@@ -8190,7 +8368,7 @@
       </c>
     </row>
     <row r="291" ht="14.9" customHeight="1" s="23">
-      <c r="C291" s="37" t="inlineStr">
+      <c r="C291" s="36" t="inlineStr">
         <is>
           <t>traceytimothy12@gmail.com</t>
         </is>
@@ -8202,7 +8380,7 @@
       </c>
     </row>
     <row r="292" ht="14.9" customHeight="1" s="23">
-      <c r="C292" s="37" t="inlineStr">
+      <c r="C292" s="36" t="inlineStr">
         <is>
           <t>ellapaterson464@gmail.com</t>
         </is>
@@ -8214,7 +8392,7 @@
       </c>
     </row>
     <row r="293" ht="14.9" customHeight="1" s="23">
-      <c r="C293" s="37" t="inlineStr">
+      <c r="C293" s="36" t="inlineStr">
         <is>
           <t>addingtonl02@gmail.com</t>
         </is>
@@ -8226,7 +8404,7 @@
       </c>
     </row>
     <row r="294" ht="14.9" customHeight="1" s="23">
-      <c r="C294" s="37" t="inlineStr">
+      <c r="C294" s="36" t="inlineStr">
         <is>
           <t>dp534955@gmail.com</t>
         </is>
@@ -8238,7 +8416,7 @@
       </c>
     </row>
     <row r="295" ht="14.9" customHeight="1" s="23">
-      <c r="C295" s="37" t="inlineStr">
+      <c r="C295" s="36" t="inlineStr">
         <is>
           <t>gustmanolivia@gmail.com</t>
         </is>
@@ -8250,7 +8428,7 @@
       </c>
     </row>
     <row r="296" ht="14.9" customHeight="1" s="23">
-      <c r="C296" s="37" t="inlineStr">
+      <c r="C296" s="36" t="inlineStr">
         <is>
           <t>paulinea646@gmail.com</t>
         </is>
@@ -8262,7 +8440,7 @@
       </c>
     </row>
     <row r="297" ht="14.9" customHeight="1" s="23">
-      <c r="C297" s="37" t="inlineStr">
+      <c r="C297" s="36" t="inlineStr">
         <is>
           <t>xenderson843@gmail.com</t>
         </is>
@@ -8274,7 +8452,7 @@
       </c>
     </row>
     <row r="298" ht="14.9" customHeight="1" s="23">
-      <c r="C298" s="37" t="inlineStr">
+      <c r="C298" s="36" t="inlineStr">
         <is>
           <t>ameliaquincy45@gmail.com</t>
         </is>
@@ -8286,7 +8464,7 @@
       </c>
     </row>
     <row r="299" ht="14.9" customHeight="1" s="23">
-      <c r="C299" s="37" t="inlineStr">
+      <c r="C299" s="36" t="inlineStr">
         <is>
           <t>formangrace6@gmail.com</t>
         </is>
@@ -8298,7 +8476,7 @@
       </c>
     </row>
     <row r="300" ht="14.9" customHeight="1" s="23">
-      <c r="C300" s="37" t="inlineStr">
+      <c r="C300" s="36" t="inlineStr">
         <is>
           <t>gibbsthomas358@gmail.com</t>
         </is>
@@ -8310,7 +8488,7 @@
       </c>
     </row>
     <row r="301" ht="14.9" customHeight="1" s="23">
-      <c r="C301" s="37" t="inlineStr">
+      <c r="C301" s="36" t="inlineStr">
         <is>
           <t>jt670785@gmail.com</t>
         </is>
@@ -8322,7 +8500,7 @@
       </c>
     </row>
     <row r="302" ht="14.9" customHeight="1" s="23">
-      <c r="C302" s="37" t="inlineStr">
+      <c r="C302" s="36" t="inlineStr">
         <is>
           <t>agimson04@gmail.com</t>
         </is>
@@ -8334,7 +8512,7 @@
       </c>
     </row>
     <row r="303" ht="14.9" customHeight="1" s="23">
-      <c r="C303" s="37" t="inlineStr">
+      <c r="C303" s="36" t="inlineStr">
         <is>
           <t>aliseyoumans163@gmail.com</t>
         </is>
@@ -8346,7 +8524,7 @@
       </c>
     </row>
     <row r="304" ht="14.9" customHeight="1" s="23">
-      <c r="C304" s="37" t="inlineStr">
+      <c r="C304" s="36" t="inlineStr">
         <is>
           <t>vp288196@gmail.com</t>
         </is>
@@ -8358,7 +8536,7 @@
       </c>
     </row>
     <row r="305" ht="14.9" customHeight="1" s="23">
-      <c r="C305" s="37" t="inlineStr">
+      <c r="C305" s="36" t="inlineStr">
         <is>
           <t>aarthurs734@gmail.com</t>
         </is>
@@ -8370,7 +8548,7 @@
       </c>
     </row>
     <row r="306" ht="14.9" customHeight="1" s="23">
-      <c r="C306" s="37" t="inlineStr">
+      <c r="C306" s="36" t="inlineStr">
         <is>
           <t>hoggarthowen89@gmail.com</t>
         </is>
@@ -8382,7 +8560,7 @@
       </c>
     </row>
     <row r="307" ht="14.9" customHeight="1" s="23">
-      <c r="C307" s="37" t="inlineStr">
+      <c r="C307" s="36" t="inlineStr">
         <is>
           <t>nw7634726@gmail.com</t>
         </is>
@@ -8394,7 +8572,7 @@
       </c>
     </row>
     <row r="308" ht="14.9" customHeight="1" s="23">
-      <c r="C308" s="37" t="inlineStr">
+      <c r="C308" s="36" t="inlineStr">
         <is>
           <t>susandyson276@gmail.com</t>
         </is>
